--- a/Results/Emissions/RR/Cumulative_Emission_target.xlsx
+++ b/Results/Emissions/RR/Cumulative_Emission_target.xlsx
@@ -1,41 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9E1137D3CD02FA07714C48C8EDCC6A6EA87016FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59655C13-F120-4AAB-ABD7-45584FD3CCB4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -52,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +99,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,16 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2:CQ5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -694,36 +665,36 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842586929</v>
+        <v>46.87313184258693</v>
       </c>
       <c r="C2">
-        <v>113.20511862453711</v>
+        <v>113.2051186245371</v>
       </c>
       <c r="D2">
-        <v>177.31405708668569</v>
+        <v>177.3140570866857</v>
       </c>
       <c r="E2">
-        <v>238.18693485524301</v>
+        <v>238.186934855243</v>
       </c>
       <c r="F2">
-        <v>336.17171453639469</v>
+        <v>336.1717145363947</v>
       </c>
       <c r="G2">
-        <v>406.86688024329283</v>
+        <v>406.8668802432928</v>
       </c>
       <c r="H2">
-        <v>532.64107270750458</v>
+        <v>532.6410727075046</v>
       </c>
       <c r="I2">
         <v>652.1833664240512</v>
       </c>
       <c r="J2">
-        <v>764.31343288016569</v>
+        <v>764.3134328801657</v>
       </c>
       <c r="K2">
         <v>865.5169272786776</v>
@@ -735,40 +706,40 @@
         <v>1218.137244457587</v>
       </c>
       <c r="N2">
-        <v>1497.5442760758619</v>
+        <v>1497.544276075862</v>
       </c>
       <c r="O2">
-        <v>1799.1389236456821</v>
+        <v>1799.138923645682</v>
       </c>
       <c r="P2">
-        <v>2123.2325797077042</v>
+        <v>2123.232579707704</v>
       </c>
       <c r="Q2">
-        <v>2832.7291338885602</v>
+        <v>2832.72913388856</v>
       </c>
       <c r="R2">
         <v>3592.433455512682</v>
       </c>
       <c r="S2">
-        <v>4402.8952970208084</v>
+        <v>4402.895297020808</v>
       </c>
       <c r="T2">
         <v>5265.079384620868</v>
       </c>
       <c r="U2">
-        <v>6179.7534061176166</v>
+        <v>6179.753406117617</v>
       </c>
       <c r="V2">
-        <v>7098.8990732053398</v>
+        <v>7098.89907320534</v>
       </c>
       <c r="W2">
-        <v>8068.5627921617042</v>
+        <v>8068.562792161704</v>
       </c>
       <c r="X2">
-        <v>9089.1653574739103</v>
+        <v>9089.16535747391</v>
       </c>
       <c r="Y2">
-        <v>10161.781120500829</v>
+        <v>10161.78112050083</v>
       </c>
       <c r="Z2">
         <v>11287.89338173465</v>
@@ -777,22 +748,22 @@
         <v>11814.06412857374</v>
       </c>
       <c r="AB2">
-        <v>12354.926302653559</v>
+        <v>12354.92630265356</v>
       </c>
       <c r="AC2">
-        <v>12914.663992557709</v>
+        <v>12914.66399255771</v>
       </c>
       <c r="AD2">
-        <v>13492.668472927529</v>
+        <v>13492.66847292753</v>
       </c>
       <c r="AE2">
         <v>14092.04802128353</v>
       </c>
       <c r="AF2">
-        <v>14476.294475774321</v>
+        <v>14476.29447577432</v>
       </c>
       <c r="AG2">
-        <v>14864.168579032659</v>
+        <v>14864.16857903266</v>
       </c>
       <c r="AH2">
         <v>15271.00713917034</v>
@@ -801,163 +772,163 @@
         <v>15711.77287303706</v>
       </c>
       <c r="AJ2">
-        <v>16185.566557562541</v>
+        <v>16185.56655756254</v>
       </c>
       <c r="AK2">
-        <v>16813.604444235429</v>
+        <v>16813.60444423543</v>
       </c>
       <c r="AL2">
-        <v>17521.598928343341</v>
+        <v>17521.59892834334</v>
       </c>
       <c r="AM2">
-        <v>18340.460939627199</v>
+        <v>18340.4609396272</v>
       </c>
       <c r="AN2">
-        <v>19302.415426510212</v>
+        <v>19302.41542651021</v>
       </c>
       <c r="AO2">
-        <v>20366.897641351701</v>
+        <v>20366.8976413517</v>
       </c>
       <c r="AP2">
-        <v>21676.714902304819</v>
+        <v>21676.71490230482</v>
       </c>
       <c r="AQ2">
-        <v>23043.128197216651</v>
+        <v>23043.12819721665</v>
       </c>
       <c r="AR2">
         <v>24457.06014917243</v>
       </c>
       <c r="AS2">
-        <v>25909.828812777421</v>
+        <v>25909.82881277742</v>
       </c>
       <c r="AT2">
-        <v>27402.033240559169</v>
+        <v>27402.03324055917</v>
       </c>
       <c r="AU2">
-        <v>28964.923463895371</v>
+        <v>28964.92346389537</v>
       </c>
       <c r="AV2">
-        <v>30511.963127975429</v>
+        <v>30511.96312797543</v>
       </c>
       <c r="AW2">
         <v>31958.06057169371</v>
       </c>
       <c r="AX2">
-        <v>33240.267522188733</v>
+        <v>33240.26752218873</v>
       </c>
       <c r="AY2">
-        <v>34441.136179030713</v>
+        <v>34441.13617903071</v>
       </c>
       <c r="AZ2">
-        <v>35591.864208355553</v>
+        <v>35591.86420835555</v>
       </c>
       <c r="BA2">
-        <v>36734.781796697433</v>
+        <v>36734.78179669743</v>
       </c>
       <c r="BB2">
-        <v>37840.961819831173</v>
+        <v>37840.96181983117</v>
       </c>
       <c r="BC2">
-        <v>38890.978848954263</v>
+        <v>38890.97884895426</v>
       </c>
       <c r="BD2">
-        <v>39922.556591205903</v>
+        <v>39922.5565912059</v>
       </c>
       <c r="BE2">
-        <v>40944.261686488557</v>
+        <v>40944.26168648856</v>
       </c>
       <c r="BF2">
-        <v>42014.675666781113</v>
+        <v>42014.67566678111</v>
       </c>
       <c r="BG2">
-        <v>43159.928766387377</v>
+        <v>43159.92876638738</v>
       </c>
       <c r="BH2">
-        <v>44407.945373996379</v>
+        <v>44407.94537399638</v>
       </c>
       <c r="BI2">
-        <v>45768.304623265503</v>
+        <v>45768.3046232655</v>
       </c>
       <c r="BJ2">
-        <v>47228.432822708543</v>
+        <v>47228.43282270854</v>
       </c>
       <c r="BK2">
-        <v>48821.937766535077</v>
+        <v>48821.93776653508</v>
       </c>
       <c r="BL2">
-        <v>50552.840128028292</v>
+        <v>50552.84012802829</v>
       </c>
       <c r="BM2">
-        <v>52412.855313585111</v>
+        <v>52412.85531358511</v>
       </c>
       <c r="BN2">
-        <v>54360.692627179109</v>
+        <v>54360.69262717911</v>
       </c>
       <c r="BO2">
-        <v>56351.154702687687</v>
+        <v>56351.15470268769</v>
       </c>
       <c r="BP2">
-        <v>58386.390595520359</v>
+        <v>58386.39059552036</v>
       </c>
       <c r="BQ2">
-        <v>60458.014079367051</v>
+        <v>60458.01407936705</v>
       </c>
       <c r="BR2">
-        <v>62542.612303880829</v>
+        <v>62542.61230388083</v>
       </c>
       <c r="BS2">
-        <v>64591.104447643142</v>
+        <v>64591.10444764314</v>
       </c>
       <c r="BT2">
-        <v>66542.168556347606</v>
+        <v>66542.16855634761</v>
       </c>
       <c r="BU2">
         <v>68396.84677590373</v>
       </c>
       <c r="BV2">
-        <v>70183.576391416966</v>
+        <v>70183.57639141697</v>
       </c>
       <c r="BW2">
-        <v>71934.342411430684</v>
+        <v>71934.34241143068</v>
       </c>
       <c r="BX2">
-        <v>73661.913020077627</v>
+        <v>73661.91302007763</v>
       </c>
       <c r="BY2">
-        <v>75352.218952525654</v>
+        <v>75352.21895252565</v>
       </c>
       <c r="BZ2">
-        <v>77018.698918426147</v>
+        <v>77018.69891842615</v>
       </c>
       <c r="CA2">
-        <v>78681.065256690708</v>
+        <v>78681.06525669071</v>
       </c>
       <c r="CB2">
-        <v>80368.031445593966</v>
+        <v>80368.03144559397</v>
       </c>
       <c r="CC2">
-        <v>82111.904045498217</v>
+        <v>82111.90404549822</v>
       </c>
       <c r="CD2">
-        <v>83925.366972592688</v>
+        <v>83925.36697259269</v>
       </c>
       <c r="CE2">
-        <v>85840.378381623697</v>
+        <v>85840.3783816237</v>
       </c>
       <c r="CF2">
-        <v>87866.155540321648</v>
+        <v>87866.15554032165</v>
       </c>
       <c r="CG2">
-        <v>90008.412700745161</v>
+        <v>90008.41270074516</v>
       </c>
       <c r="CH2">
-        <v>92274.324244891934</v>
+        <v>92274.32424489193</v>
       </c>
       <c r="CI2">
-        <v>94639.191280059284</v>
+        <v>94639.19128005928</v>
       </c>
       <c r="CJ2">
-        <v>97107.596986666584</v>
+        <v>97107.59698666658</v>
       </c>
       <c r="CK2">
         <v>99651.43846396367</v>
@@ -969,7 +940,7 @@
         <v>104873.1943437</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -977,46 +948,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.872157285623089</v>
+        <v>39.87215728562309</v>
       </c>
       <c r="D3">
-        <v>62.451548955012058</v>
+        <v>62.45154895501206</v>
       </c>
       <c r="E3">
-        <v>83.877529216304893</v>
+        <v>83.87752921630489</v>
       </c>
       <c r="F3">
         <v>118.5008986878356</v>
       </c>
       <c r="G3">
-        <v>143.39517309025931</v>
+        <v>143.3951730902593</v>
       </c>
       <c r="H3">
         <v>187.8971001435377</v>
       </c>
       <c r="I3">
-        <v>230.15653863414059</v>
+        <v>230.1565386341406</v>
       </c>
       <c r="J3">
-        <v>269.76672909050029</v>
+        <v>269.7667290905003</v>
       </c>
       <c r="K3">
-        <v>305.47120586454179</v>
+        <v>305.4712058645418</v>
       </c>
       <c r="L3">
-        <v>379.87538661469029</v>
+        <v>379.8753866146903</v>
       </c>
       <c r="M3">
-        <v>430.38663733392309</v>
+        <v>430.3866373339231</v>
       </c>
       <c r="N3">
-        <v>529.55911631678646</v>
+        <v>529.5591163167865</v>
       </c>
       <c r="O3">
         <v>636.6296070621446</v>
       </c>
       <c r="P3">
-        <v>751.70913714777134</v>
+        <v>751.7091371477713</v>
       </c>
       <c r="Q3">
         <v>1004.091451407411</v>
@@ -1031,25 +1002,25 @@
         <v>1869.459757960027</v>
       </c>
       <c r="U3">
-        <v>2194.9174549165609</v>
+        <v>2194.917454916561</v>
       </c>
       <c r="V3">
-        <v>2521.9567579845789</v>
+        <v>2521.956757984579</v>
       </c>
       <c r="W3">
         <v>2866.988580992117</v>
       </c>
       <c r="X3">
-        <v>3230.1629110993872</v>
+        <v>3230.162911099387</v>
       </c>
       <c r="Y3">
-        <v>3611.8625856199401</v>
+        <v>3611.86258561994</v>
       </c>
       <c r="Z3">
-        <v>4012.6161851543129</v>
+        <v>4012.616185154313</v>
       </c>
       <c r="AA3">
-        <v>4199.5905183345676</v>
+        <v>4199.590518334568</v>
       </c>
       <c r="AB3">
         <v>4391.78881925736</v>
@@ -1058,55 +1029,55 @@
         <v>4590.702099365978</v>
       </c>
       <c r="AD3">
-        <v>4796.1134710590986</v>
+        <v>4796.113471059099</v>
       </c>
       <c r="AE3">
-        <v>5009.1305241066066</v>
+        <v>5009.130524106607</v>
       </c>
       <c r="AF3">
-        <v>5145.4776760423711</v>
+        <v>5145.477676042371</v>
       </c>
       <c r="AG3">
-        <v>5283.1048932454978</v>
+        <v>5283.104893245498</v>
       </c>
       <c r="AH3">
-        <v>5427.4775082980104</v>
+        <v>5427.47750829801</v>
       </c>
       <c r="AI3">
-        <v>5583.9275513720277</v>
+        <v>5583.927551372028</v>
       </c>
       <c r="AJ3">
         <v>5752.133970965072</v>
       </c>
       <c r="AK3">
-        <v>5975.2895921498593</v>
+        <v>5975.289592149859</v>
       </c>
       <c r="AL3">
-        <v>6226.9244137784344</v>
+        <v>6226.924413778434</v>
       </c>
       <c r="AM3">
-        <v>6518.0537248239216</v>
+        <v>6518.053724823922</v>
       </c>
       <c r="AN3">
-        <v>6860.1612004538129</v>
+        <v>6860.161200453813</v>
       </c>
       <c r="AO3">
-        <v>7238.7917750128854</v>
+        <v>7238.791775012885</v>
       </c>
       <c r="AP3">
-        <v>7704.8324284438449</v>
+        <v>7704.832428443845</v>
       </c>
       <c r="AQ3">
-        <v>8191.0286894917208</v>
+        <v>8191.028689491721</v>
       </c>
       <c r="AR3">
-        <v>8694.1462001883065</v>
+        <v>8694.146200188306</v>
       </c>
       <c r="AS3">
-        <v>9211.0916048361651</v>
+        <v>9211.091604836165</v>
       </c>
       <c r="AT3">
-        <v>9742.0789677978628</v>
+        <v>9742.078967797863</v>
       </c>
       <c r="AU3">
         <v>10298.24282211687</v>
@@ -1115,7 +1086,7 @@
         <v>10848.74658068706</v>
       </c>
       <c r="AW3">
-        <v>11363.266937793611</v>
+        <v>11363.26693779361</v>
       </c>
       <c r="AX3">
         <v>11819.3714969925</v>
@@ -1124,216 +1095,216 @@
         <v>12246.47899978243</v>
       </c>
       <c r="AZ3">
-        <v>12655.706658099691</v>
+        <v>12655.70665809969</v>
       </c>
       <c r="BA3">
-        <v>13062.138620723879</v>
+        <v>13062.13862072388</v>
       </c>
       <c r="BB3">
-        <v>13455.465746504129</v>
+        <v>13455.46574650413</v>
       </c>
       <c r="BC3">
         <v>13828.764760811</v>
       </c>
       <c r="BD3">
-        <v>14195.478945036921</v>
+        <v>14195.47894503692</v>
       </c>
       <c r="BE3">
-        <v>14558.660256778319</v>
+        <v>14558.66025677832</v>
       </c>
       <c r="BF3">
-        <v>14939.184374117391</v>
+        <v>14939.18437411739</v>
       </c>
       <c r="BG3">
-        <v>15346.362402779119</v>
+        <v>15346.36240277912</v>
       </c>
       <c r="BH3">
-        <v>15790.144964487859</v>
+        <v>15790.14496448786</v>
       </c>
       <c r="BI3">
         <v>16273.9452586305</v>
       </c>
       <c r="BJ3">
-        <v>16793.281256378919</v>
+        <v>16793.28125637892</v>
       </c>
       <c r="BK3">
         <v>17360.12978132207</v>
       </c>
       <c r="BL3">
-        <v>17975.924103485799</v>
+        <v>17975.9241034858</v>
       </c>
       <c r="BM3">
-        <v>18637.712375442508</v>
+        <v>18637.71237544251</v>
       </c>
       <c r="BN3">
         <v>19330.78021582056</v>
       </c>
       <c r="BO3">
-        <v>20039.019601471151</v>
+        <v>20039.01960147115</v>
       </c>
       <c r="BP3">
         <v>20763.19678532772</v>
       </c>
       <c r="BQ3">
-        <v>21500.323537581859</v>
+        <v>21500.32353758186</v>
       </c>
       <c r="BR3">
         <v>22242.05666227984</v>
       </c>
       <c r="BS3">
-        <v>22970.905705723759</v>
+        <v>22970.90570572376</v>
       </c>
       <c r="BT3">
-        <v>23665.016747908081</v>
+        <v>23665.01674790808</v>
       </c>
       <c r="BU3">
-        <v>24324.761262597691</v>
+        <v>24324.76126259769</v>
       </c>
       <c r="BV3">
-        <v>24960.273212647338</v>
+        <v>24960.27321264734</v>
       </c>
       <c r="BW3">
-        <v>25582.950825579919</v>
+        <v>25582.95082557992</v>
       </c>
       <c r="BX3">
-        <v>26197.344391744929</v>
+        <v>26197.34439174493</v>
       </c>
       <c r="BY3">
-        <v>26798.439068949439</v>
+        <v>26798.43906894944</v>
       </c>
       <c r="BZ3">
-        <v>27391.023758703021</v>
+        <v>27391.02375870302</v>
       </c>
       <c r="CA3">
-        <v>27982.123293564491</v>
+        <v>27982.12329356449</v>
       </c>
       <c r="CB3">
-        <v>28581.970205948881</v>
+        <v>28581.97020594888</v>
       </c>
       <c r="CC3">
         <v>29202.07742353377</v>
       </c>
       <c r="CD3">
-        <v>29846.963552905669</v>
+        <v>29846.96355290567</v>
       </c>
       <c r="CE3">
         <v>30528.01655567843</v>
       </c>
       <c r="CF3">
-        <v>31248.520871582881</v>
+        <v>31248.52087158288</v>
       </c>
       <c r="CG3">
-        <v>32010.512765761061</v>
+        <v>32010.51276576106</v>
       </c>
       <c r="CH3">
         <v>32816.54907802157</v>
       </c>
       <c r="CI3">
-        <v>33657.827494753212</v>
+        <v>33657.82749475321</v>
       </c>
       <c r="CJ3">
-        <v>34535.981021825894</v>
+        <v>34535.98102182589</v>
       </c>
       <c r="CK3">
-        <v>35440.994810062752</v>
+        <v>35440.99481006275</v>
       </c>
       <c r="CL3">
-        <v>36363.772536976277</v>
+        <v>36363.77253697628</v>
       </c>
       <c r="CM3">
-        <v>37298.734106044198</v>
+        <v>37298.7341060442</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.7552106872258</v>
+        <v>3257.755210687226</v>
       </c>
       <c r="C4">
-        <v>6256.2776632247678</v>
+        <v>6256.277663224768</v>
       </c>
       <c r="D4">
-        <v>8717.1064640783079</v>
+        <v>8717.106464078308</v>
       </c>
       <c r="E4">
         <v>11521.92933793227</v>
       </c>
       <c r="F4">
-        <v>15063.678835780531</v>
+        <v>15063.67883578053</v>
       </c>
       <c r="G4">
-        <v>18367.459429733561</v>
+        <v>18367.45942973356</v>
       </c>
       <c r="H4">
-        <v>21919.930098999412</v>
+        <v>21919.93009899941</v>
       </c>
       <c r="I4">
-        <v>25039.795624063408</v>
+        <v>25039.79562406341</v>
       </c>
       <c r="J4">
-        <v>28430.429551202411</v>
+        <v>28430.42955120241</v>
       </c>
       <c r="K4">
-        <v>32440.325633169821</v>
+        <v>32440.32563316982</v>
       </c>
       <c r="L4">
-        <v>36252.801890546769</v>
+        <v>36252.80189054677</v>
       </c>
       <c r="M4">
-        <v>40670.616222822347</v>
+        <v>40670.61622282235</v>
       </c>
       <c r="N4">
-        <v>63834.576109410031</v>
+        <v>63834.57610941003</v>
       </c>
       <c r="O4">
-        <v>87188.732068052341</v>
+        <v>87188.73206805234</v>
       </c>
       <c r="P4">
         <v>110684.7787970424</v>
       </c>
       <c r="Q4">
-        <v>184461.29965189361</v>
+        <v>184461.2996518936</v>
       </c>
       <c r="R4">
         <v>258430.1259219198</v>
       </c>
       <c r="S4">
-        <v>332633.88885010203</v>
+        <v>332633.888850102</v>
       </c>
       <c r="T4">
-        <v>407107.71106476081</v>
+        <v>407107.7110647608</v>
       </c>
       <c r="U4">
-        <v>481879.59087945888</v>
+        <v>481879.5908794589</v>
       </c>
       <c r="V4">
-        <v>560070.51535175228</v>
+        <v>560070.5153517523</v>
       </c>
       <c r="W4">
-        <v>638642.38013321429</v>
+        <v>638642.3801332143</v>
       </c>
       <c r="X4">
-        <v>717595.17670047248</v>
+        <v>717595.1767004725</v>
       </c>
       <c r="Y4">
-        <v>796981.07676338323</v>
+        <v>796981.0767633832</v>
       </c>
       <c r="Z4">
-        <v>876873.85961994412</v>
+        <v>876873.8596199441</v>
       </c>
       <c r="AA4">
-        <v>901193.90448496479</v>
+        <v>901193.9044849648</v>
       </c>
       <c r="AB4">
-        <v>926227.77710199147</v>
+        <v>926227.7771019915</v>
       </c>
       <c r="AC4">
-        <v>952128.03821738402</v>
+        <v>952128.038217384</v>
       </c>
       <c r="AD4">
-        <v>978929.00626348134</v>
+        <v>978929.0062634813</v>
       </c>
       <c r="AE4">
         <v>1006878.478717947</v>
@@ -1351,55 +1322,55 @@
         <v>1065321.931579405</v>
       </c>
       <c r="AJ4">
-        <v>1087451.3298769169</v>
+        <v>1087451.329876917</v>
       </c>
       <c r="AK4">
-        <v>1123256.2227074881</v>
+        <v>1123256.222707488</v>
       </c>
       <c r="AL4">
         <v>1164651.72687225</v>
       </c>
       <c r="AM4">
-        <v>1212534.2179455259</v>
+        <v>1212534.217945526</v>
       </c>
       <c r="AN4">
-        <v>1267685.0455721009</v>
+        <v>1267685.045572101</v>
       </c>
       <c r="AO4">
         <v>1328597.475830714</v>
       </c>
       <c r="AP4">
-        <v>1405498.2178996899</v>
+        <v>1405498.21789969</v>
       </c>
       <c r="AQ4">
-        <v>1485750.0666161659</v>
+        <v>1485750.066616166</v>
       </c>
       <c r="AR4">
-        <v>1568466.2921912409</v>
+        <v>1568466.292191241</v>
       </c>
       <c r="AS4">
         <v>1652631.131334373</v>
       </c>
       <c r="AT4">
-        <v>1737341.0641250929</v>
+        <v>1737341.064125093</v>
       </c>
       <c r="AU4">
-        <v>1824937.5559924371</v>
+        <v>1824937.555992437</v>
       </c>
       <c r="AV4">
-        <v>1910227.1375953329</v>
+        <v>1910227.137595333</v>
       </c>
       <c r="AW4">
         <v>1990965.60439179</v>
       </c>
       <c r="AX4">
-        <v>2065592.7256488469</v>
+        <v>2065592.725648847</v>
       </c>
       <c r="AY4">
         <v>2135473.432181322</v>
       </c>
       <c r="AZ4">
-        <v>2199881.0887706918</v>
+        <v>2199881.088770692</v>
       </c>
       <c r="BA4">
         <v>2261067.317607176</v>
@@ -1411,144 +1382,144 @@
         <v>2374535.994140171</v>
       </c>
       <c r="BD4">
-        <v>2428484.6453556488</v>
+        <v>2428484.645355649</v>
       </c>
       <c r="BE4">
-        <v>2481060.9564195871</v>
+        <v>2481060.956419587</v>
       </c>
       <c r="BF4">
-        <v>2534679.9881120352</v>
+        <v>2534679.988112035</v>
       </c>
       <c r="BG4">
         <v>2590938.893567217</v>
       </c>
       <c r="BH4">
-        <v>2651261.6702169278</v>
+        <v>2651261.670216928</v>
       </c>
       <c r="BI4">
-        <v>2716449.6366604599</v>
+        <v>2716449.63666046</v>
       </c>
       <c r="BJ4">
         <v>2786837.133621763</v>
       </c>
       <c r="BK4">
-        <v>2862911.4565017219</v>
+        <v>2862911.456501722</v>
       </c>
       <c r="BL4">
-        <v>2944406.1119454722</v>
+        <v>2944406.111945472</v>
       </c>
       <c r="BM4">
-        <v>3030716.9589039031</v>
+        <v>3030716.958903903</v>
       </c>
       <c r="BN4">
-        <v>3120843.7295631291</v>
+        <v>3120843.729563129</v>
       </c>
       <c r="BO4">
         <v>3213917.119095705</v>
       </c>
       <c r="BP4">
-        <v>3309353.2472082968</v>
+        <v>3309353.247208297</v>
       </c>
       <c r="BQ4">
         <v>3406494.412455895</v>
       </c>
       <c r="BR4">
-        <v>3504382.2290308899</v>
+        <v>3504382.22903089</v>
       </c>
       <c r="BS4">
         <v>3601649.376587057</v>
       </c>
       <c r="BT4">
-        <v>3696711.5477381782</v>
+        <v>3696711.547738178</v>
       </c>
       <c r="BU4">
-        <v>3789357.2244158001</v>
+        <v>3789357.2244158</v>
       </c>
       <c r="BV4">
-        <v>3880036.3462957712</v>
+        <v>3880036.346295771</v>
       </c>
       <c r="BW4">
         <v>3969337.259459299</v>
       </c>
       <c r="BX4">
-        <v>4057272.7901468961</v>
+        <v>4057272.790146896</v>
       </c>
       <c r="BY4">
         <v>4143268.092408136</v>
       </c>
       <c r="BZ4">
-        <v>4227992.2813771944</v>
+        <v>4227992.281377194</v>
       </c>
       <c r="CA4">
-        <v>4311855.0194576662</v>
+        <v>4311855.019457666</v>
       </c>
       <c r="CB4">
-        <v>4395466.7858983632</v>
+        <v>4395466.785898363</v>
       </c>
       <c r="CC4">
-        <v>4479579.5265152054</v>
+        <v>4479579.526515205</v>
       </c>
       <c r="CD4">
-        <v>4564365.7942299535</v>
+        <v>4564365.794229954</v>
       </c>
       <c r="CE4">
-        <v>4651779.8403680883</v>
+        <v>4651779.840368088</v>
       </c>
       <c r="CF4">
         <v>4742370.235575974</v>
       </c>
       <c r="CG4">
-        <v>4836445.0149066141</v>
+        <v>4836445.014906614</v>
       </c>
       <c r="CH4">
-        <v>4934119.1996038239</v>
+        <v>4934119.199603824</v>
       </c>
       <c r="CI4">
-        <v>5033677.4180684667</v>
+        <v>5033677.418068467</v>
       </c>
       <c r="CJ4">
-        <v>5136232.8352501616</v>
+        <v>5136232.835250162</v>
       </c>
       <c r="CK4">
-        <v>5241250.8263457753</v>
+        <v>5241250.826345775</v>
       </c>
       <c r="CL4">
-        <v>5348252.8399255499</v>
+        <v>5348252.83992555</v>
       </c>
       <c r="CM4">
-        <v>5456848.7552912887</v>
+        <v>5456848.755291289</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0179249503308</v>
+        <v>3598.017924950331</v>
       </c>
       <c r="C5">
-        <v>6230.6506508751672</v>
+        <v>6230.650650875167</v>
       </c>
       <c r="D5">
-        <v>8685.8841185439196</v>
+        <v>8685.88411854392</v>
       </c>
       <c r="E5">
-        <v>11041.433070798121</v>
+        <v>11041.43307079812</v>
       </c>
       <c r="F5">
         <v>13762.71321686006</v>
       </c>
       <c r="G5">
-        <v>17275.043034520069</v>
+        <v>17275.04303452007</v>
       </c>
       <c r="H5">
-        <v>21123.617957593109</v>
+        <v>21123.61795759311</v>
       </c>
       <c r="I5">
-        <v>24275.210770246609</v>
+        <v>24275.21077024661</v>
       </c>
       <c r="J5">
-        <v>27258.711042270748</v>
+        <v>27258.71104227075</v>
       </c>
       <c r="K5">
         <v>30575.76520691668</v>
@@ -1557,34 +1528,34 @@
         <v>33937.49451455308</v>
       </c>
       <c r="M5">
-        <v>38923.628670576087</v>
+        <v>38923.62867057609</v>
       </c>
       <c r="N5">
-        <v>75397.715735009726</v>
+        <v>75397.71573500973</v>
       </c>
       <c r="O5">
         <v>111928.8081911184</v>
       </c>
       <c r="P5">
-        <v>148532.46588035091</v>
+        <v>148532.4658803509</v>
       </c>
       <c r="Q5">
-        <v>270105.06412291538</v>
+        <v>270105.0641229154</v>
       </c>
       <c r="R5">
-        <v>391789.47398365109</v>
+        <v>391789.4739836511</v>
       </c>
       <c r="S5">
-        <v>513609.93556902109</v>
+        <v>513609.9355690211</v>
       </c>
       <c r="T5">
-        <v>635594.94043912727</v>
+        <v>635594.9404391273</v>
       </c>
       <c r="U5">
         <v>757779.1262697624</v>
       </c>
       <c r="V5">
-        <v>886067.52665819775</v>
+        <v>886067.5266581977</v>
       </c>
       <c r="W5">
         <v>1014656.414026767</v>
@@ -1602,25 +1573,25 @@
         <v>1440215.702163219</v>
       </c>
       <c r="AB5">
-        <v>1478359.7881915879</v>
+        <v>1478359.788191588</v>
       </c>
       <c r="AC5">
-        <v>1517913.5186885321</v>
+        <v>1517913.518688532</v>
       </c>
       <c r="AD5">
-        <v>1559305.4852818849</v>
+        <v>1559305.485281885</v>
       </c>
       <c r="AE5">
         <v>1603068.132143585</v>
       </c>
       <c r="AF5">
-        <v>1618434.1467902791</v>
+        <v>1618434.146790279</v>
       </c>
       <c r="AG5">
-        <v>1637137.6281476689</v>
+        <v>1637137.628147669</v>
       </c>
       <c r="AH5">
-        <v>1659922.9524227681</v>
+        <v>1659922.952422768</v>
       </c>
       <c r="AI5">
         <v>1688138.481713481</v>
@@ -1635,52 +1606,52 @@
         <v>1839545.550913394</v>
       </c>
       <c r="AM5">
-        <v>1910246.3914241709</v>
+        <v>1910246.391424171</v>
       </c>
       <c r="AN5">
-        <v>1989436.7928147919</v>
+        <v>1989436.792814792</v>
       </c>
       <c r="AO5">
-        <v>2076871.4800836621</v>
+        <v>2076871.480083662</v>
       </c>
       <c r="AP5">
-        <v>2189962.1006234898</v>
+        <v>2189962.10062349</v>
       </c>
       <c r="AQ5">
-        <v>2309495.4693378811</v>
+        <v>2309495.469337881</v>
       </c>
       <c r="AR5">
-        <v>2433953.3055613148</v>
+        <v>2433953.305561315</v>
       </c>
       <c r="AS5">
-        <v>2561511.7748592002</v>
+        <v>2561511.7748592</v>
       </c>
       <c r="AT5">
-        <v>2690173.0412802012</v>
+        <v>2690173.041280201</v>
       </c>
       <c r="AU5">
-        <v>2823112.2845949009</v>
+        <v>2823112.284594901</v>
       </c>
       <c r="AV5">
-        <v>2953259.6182878632</v>
+        <v>2953259.618287863</v>
       </c>
       <c r="AW5">
-        <v>3079018.1498975558</v>
+        <v>3079018.149897556</v>
       </c>
       <c r="AX5">
-        <v>3199184.3821809259</v>
+        <v>3199184.382180926</v>
       </c>
       <c r="AY5">
-        <v>3313024.5834749071</v>
+        <v>3313024.583474907</v>
       </c>
       <c r="AZ5">
-        <v>3417218.0379069322</v>
+        <v>3417218.037906932</v>
       </c>
       <c r="BA5">
-        <v>3515149.9574591462</v>
+        <v>3515149.957459146</v>
       </c>
       <c r="BB5">
-        <v>3607592.2174868979</v>
+        <v>3607592.217486898</v>
       </c>
       <c r="BC5">
         <v>3695733.466860068</v>
@@ -1689,109 +1660,109 @@
         <v>3781078.862581796</v>
       </c>
       <c r="BE5">
-        <v>3863590.0840510069</v>
+        <v>3863590.084051007</v>
       </c>
       <c r="BF5">
-        <v>3946749.2969024139</v>
+        <v>3946749.296902414</v>
       </c>
       <c r="BG5">
-        <v>4032228.7773133512</v>
+        <v>4032228.777313351</v>
       </c>
       <c r="BH5">
-        <v>4121518.5894277268</v>
+        <v>4121518.589427727</v>
       </c>
       <c r="BI5">
-        <v>4215850.7284567282</v>
+        <v>4215850.728456728</v>
       </c>
       <c r="BJ5">
-        <v>4315855.9024608294</v>
+        <v>4315855.902460829</v>
       </c>
       <c r="BK5">
-        <v>4422425.1991557255</v>
+        <v>4422425.199155726</v>
       </c>
       <c r="BL5">
-        <v>4535813.5119740302</v>
+        <v>4535813.51197403</v>
       </c>
       <c r="BM5">
-        <v>4655940.9209733913</v>
+        <v>4655940.920973391</v>
       </c>
       <c r="BN5">
-        <v>4782414.1671588235</v>
+        <v>4782414.167158823</v>
       </c>
       <c r="BO5">
-        <v>4914582.2546809707</v>
+        <v>4914582.254680971</v>
       </c>
       <c r="BP5">
         <v>5051536.565211785</v>
       </c>
       <c r="BQ5">
-        <v>5192226.7647933289</v>
+        <v>5192226.764793329</v>
       </c>
       <c r="BR5">
         <v>5335512.847453896</v>
       </c>
       <c r="BS5">
-        <v>5480237.0837247679</v>
+        <v>5480237.083724768</v>
       </c>
       <c r="BT5">
-        <v>5624785.7218313674</v>
+        <v>5624785.721831367</v>
       </c>
       <c r="BU5">
-        <v>5768683.8453081492</v>
+        <v>5768683.845308149</v>
       </c>
       <c r="BV5">
-        <v>5911124.5922144642</v>
+        <v>5911124.592214464</v>
       </c>
       <c r="BW5">
-        <v>6051522.6675808746</v>
+        <v>6051522.667580875</v>
       </c>
       <c r="BX5">
         <v>6189541.511239294</v>
       </c>
       <c r="BY5">
-        <v>6324250.4761687191</v>
+        <v>6324250.476168719</v>
       </c>
       <c r="BZ5">
-        <v>6456671.7578565925</v>
+        <v>6456671.757856593</v>
       </c>
       <c r="CA5">
-        <v>6587200.0202499526</v>
+        <v>6587200.020249953</v>
       </c>
       <c r="CB5">
-        <v>6716416.1708007427</v>
+        <v>6716416.170800743</v>
       </c>
       <c r="CC5">
         <v>6845038.657548775</v>
       </c>
       <c r="CD5">
-        <v>6972430.4882717608</v>
+        <v>6972430.488271761</v>
       </c>
       <c r="CE5">
-        <v>7100853.5467327125</v>
+        <v>7100853.546732713</v>
       </c>
       <c r="CF5">
-        <v>7231100.0682196748</v>
+        <v>7231100.068219675</v>
       </c>
       <c r="CG5">
-        <v>7363880.3696941789</v>
+        <v>7363880.369694179</v>
       </c>
       <c r="CH5">
-        <v>7499782.2246549297</v>
+        <v>7499782.22465493</v>
       </c>
       <c r="CI5">
-        <v>7636992.4913622402</v>
+        <v>7636992.49136224</v>
       </c>
       <c r="CJ5">
-        <v>7778025.7777330009</v>
+        <v>7778025.777733001</v>
       </c>
       <c r="CK5">
-        <v>7922972.0405421266</v>
+        <v>7922972.040542127</v>
       </c>
       <c r="CL5">
-        <v>8071750.8523551906</v>
+        <v>8071750.852355191</v>
       </c>
       <c r="CM5">
-        <v>8224126.9157169098</v>
+        <v>8224126.91571691</v>
       </c>
     </row>
   </sheetData>
@@ -1800,16 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2:CM5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2081,33 +2050,33 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842573287</v>
+        <v>46.87313184257329</v>
       </c>
       <c r="C2">
         <v>113.2051186243893</v>
       </c>
       <c r="D2">
-        <v>177.31405708545751</v>
+        <v>177.3140570854575</v>
       </c>
       <c r="E2">
-        <v>238.18693484668461</v>
+        <v>238.1869348466846</v>
       </c>
       <c r="F2">
-        <v>336.17171448487898</v>
+        <v>336.171714484879</v>
       </c>
       <c r="G2">
-        <v>406.86687996997381</v>
+        <v>406.8668799699738</v>
       </c>
       <c r="H2">
-        <v>532.64107140857845</v>
+        <v>532.6410714085785</v>
       </c>
       <c r="I2">
-        <v>652.18336082115979</v>
+        <v>652.1833608211598</v>
       </c>
       <c r="J2">
         <v>764.3134107079967</v>
@@ -2119,16 +2088,16 @@
         <v>1075.334723865868</v>
       </c>
       <c r="M2">
-        <v>1218.1363743537661</v>
+        <v>1218.136374353766</v>
       </c>
       <c r="N2">
-        <v>1497.5417753387951</v>
+        <v>1497.541775338795</v>
       </c>
       <c r="O2">
-        <v>1799.1262618866331</v>
+        <v>1799.126261886633</v>
       </c>
       <c r="P2">
-        <v>2123.1838772312012</v>
+        <v>2123.183877231201</v>
       </c>
       <c r="Q2">
         <v>2832.615860710453</v>
@@ -2137,22 +2106,22 @@
         <v>3592.242991760399</v>
       </c>
       <c r="S2">
-        <v>4402.6047086465487</v>
+        <v>4402.604708646549</v>
       </c>
       <c r="T2">
-        <v>5264.6356745164449</v>
+        <v>5264.635674516445</v>
       </c>
       <c r="U2">
-        <v>6179.0764551563516</v>
+        <v>6179.076455156352</v>
       </c>
       <c r="V2">
-        <v>7097.8550419067542</v>
+        <v>7097.855041906754</v>
       </c>
       <c r="W2">
-        <v>8066.9611436336427</v>
+        <v>8066.961143633643</v>
       </c>
       <c r="X2">
-        <v>9086.7931629679188</v>
+        <v>9086.793162967919</v>
       </c>
       <c r="Y2">
         <v>10158.37831866365</v>
@@ -2161,7 +2130,7 @@
         <v>11283.13640430848</v>
       </c>
       <c r="AA2">
-        <v>11807.692124530669</v>
+        <v>11807.69212453067</v>
       </c>
       <c r="AB2">
         <v>12346.62846834125</v>
@@ -2173,10 +2142,10 @@
         <v>13479.10094960815</v>
       </c>
       <c r="AE2">
-        <v>14075.047424645651</v>
+        <v>14075.04742464565</v>
       </c>
       <c r="AF2">
-        <v>14455.498668028629</v>
+        <v>14455.49866802863</v>
       </c>
       <c r="AG2">
         <v>14839.28844158561</v>
@@ -2188,175 +2157,175 @@
         <v>15675.17677278687</v>
       </c>
       <c r="AJ2">
-        <v>16140.720460297251</v>
+        <v>16140.72046029725</v>
       </c>
       <c r="AK2">
-        <v>16757.988189351421</v>
+        <v>16757.98818935142</v>
       </c>
       <c r="AL2">
         <v>17451.53984442928</v>
       </c>
       <c r="AM2">
-        <v>18250.671073046658</v>
+        <v>18250.67107304666</v>
       </c>
       <c r="AN2">
-        <v>19185.803393114991</v>
+        <v>19185.80339311499</v>
       </c>
       <c r="AO2">
-        <v>20218.075710968398</v>
+        <v>20218.0757109684</v>
       </c>
       <c r="AP2">
-        <v>21492.301761783201</v>
+        <v>21492.3017617832</v>
       </c>
       <c r="AQ2">
-        <v>22819.942764656342</v>
+        <v>22819.94276465634</v>
       </c>
       <c r="AR2">
-        <v>24192.153734498279</v>
+        <v>24192.15373449828</v>
       </c>
       <c r="AS2">
-        <v>25600.469642223768</v>
+        <v>25600.46964222377</v>
       </c>
       <c r="AT2">
-        <v>27045.190920403849</v>
+        <v>27045.19092040385</v>
       </c>
       <c r="AU2">
-        <v>28557.931287116091</v>
+        <v>28557.93128711609</v>
       </c>
       <c r="AV2">
-        <v>30054.668552492851</v>
+        <v>30054.66855249285</v>
       </c>
       <c r="AW2">
-        <v>31455.527408018861</v>
+        <v>31455.52740801886</v>
       </c>
       <c r="AX2">
-        <v>32701.868366816871</v>
+        <v>32701.86836681687</v>
       </c>
       <c r="AY2">
-        <v>33871.342212129901</v>
+        <v>33871.3422121299</v>
       </c>
       <c r="AZ2">
-        <v>34989.776127445693</v>
+        <v>34989.77612744569</v>
       </c>
       <c r="BA2">
-        <v>36100.022946560603</v>
+        <v>36100.0229465606</v>
       </c>
       <c r="BB2">
-        <v>37175.315210656532</v>
+        <v>37175.31521065653</v>
       </c>
       <c r="BC2">
         <v>38197.91486914175</v>
       </c>
       <c r="BD2">
-        <v>39202.965608431339</v>
+        <v>39202.96560843134</v>
       </c>
       <c r="BE2">
-        <v>40195.545022157719</v>
+        <v>40195.54502215772</v>
       </c>
       <c r="BF2">
-        <v>41232.353933672377</v>
+        <v>41232.35393367238</v>
       </c>
       <c r="BG2">
-        <v>42337.136101232987</v>
+        <v>42337.13610123299</v>
       </c>
       <c r="BH2">
-        <v>43535.033705804803</v>
+        <v>43535.0337058048</v>
       </c>
       <c r="BI2">
-        <v>44834.252832283608</v>
+        <v>44834.25283228361</v>
       </c>
       <c r="BJ2">
         <v>46220.84576703421</v>
       </c>
       <c r="BK2">
-        <v>47726.420667895509</v>
+        <v>47726.42066789551</v>
       </c>
       <c r="BL2">
-        <v>49353.762102252433</v>
+        <v>49353.76210225243</v>
       </c>
       <c r="BM2">
-        <v>51094.536145941602</v>
+        <v>51094.5361459416</v>
       </c>
       <c r="BN2">
-        <v>52910.984298380907</v>
+        <v>52910.98429838091</v>
       </c>
       <c r="BO2">
-        <v>54761.058805044297</v>
+        <v>54761.0588050443</v>
       </c>
       <c r="BP2">
-        <v>56647.368085569498</v>
+        <v>56647.3680855695</v>
       </c>
       <c r="BQ2">
-        <v>58562.054028026112</v>
+        <v>58562.05402802611</v>
       </c>
       <c r="BR2">
-        <v>60484.130965725082</v>
+        <v>60484.13096572508</v>
       </c>
       <c r="BS2">
-        <v>62370.419088843933</v>
+        <v>62370.41908884393</v>
       </c>
       <c r="BT2">
         <v>64165.96971541486</v>
       </c>
       <c r="BU2">
-        <v>65873.868250091022</v>
+        <v>65873.86825009102</v>
       </c>
       <c r="BV2">
-        <v>67519.263482642884</v>
+        <v>67519.26348264288</v>
       </c>
       <c r="BW2">
-        <v>69130.045398736271</v>
+        <v>69130.04539873627</v>
       </c>
       <c r="BX2">
-        <v>70717.327641974247</v>
+        <v>70717.32764197425</v>
       </c>
       <c r="BY2">
-        <v>72267.524815280063</v>
+        <v>72267.52481528006</v>
       </c>
       <c r="BZ2">
-        <v>73793.980854436842</v>
+        <v>73793.98085443684</v>
       </c>
       <c r="CA2">
-        <v>75313.499563714257</v>
+        <v>75313.49956371426</v>
       </c>
       <c r="CB2">
-        <v>76850.193506737152</v>
+        <v>76850.19350673715</v>
       </c>
       <c r="CC2">
-        <v>78430.807863959897</v>
+        <v>78430.8078639599</v>
       </c>
       <c r="CD2">
-        <v>80062.881032708159</v>
+        <v>80062.88103270816</v>
       </c>
       <c r="CE2">
-        <v>81774.619030356247</v>
+        <v>81774.61903035625</v>
       </c>
       <c r="CF2">
-        <v>83572.716903215784</v>
+        <v>83572.71690321578</v>
       </c>
       <c r="CG2">
-        <v>85460.864109705348</v>
+        <v>85460.86410970535</v>
       </c>
       <c r="CH2">
-        <v>87443.816226246447</v>
+        <v>87443.81622624645</v>
       </c>
       <c r="CI2">
-        <v>89496.081129980797</v>
+        <v>89496.0811299808</v>
       </c>
       <c r="CJ2">
-        <v>91624.653623158796</v>
+        <v>91624.6536231588</v>
       </c>
       <c r="CK2">
-        <v>93806.166362437536</v>
+        <v>93806.16636243754</v>
       </c>
       <c r="CL2">
         <v>96019.66935420435</v>
       </c>
       <c r="CM2">
-        <v>98252.300431539479</v>
+        <v>98252.30043153948</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2364,46 +2333,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.872157285623103</v>
+        <v>39.8721572856231</v>
       </c>
       <c r="D3">
-        <v>62.451548955012072</v>
+        <v>62.45154895501207</v>
       </c>
       <c r="E3">
-        <v>83.877529216304922</v>
+        <v>83.87752921630492</v>
       </c>
       <c r="F3">
         <v>118.5008986878357</v>
       </c>
       <c r="G3">
-        <v>143.39517309025939</v>
+        <v>143.3951730902594</v>
       </c>
       <c r="H3">
-        <v>187.89710014353781</v>
+        <v>187.8971001435378</v>
       </c>
       <c r="I3">
         <v>230.1565386341407</v>
       </c>
       <c r="J3">
-        <v>269.76672909050052</v>
+        <v>269.7667290905005</v>
       </c>
       <c r="K3">
-        <v>305.47120586454201</v>
+        <v>305.471205864542</v>
       </c>
       <c r="L3">
-        <v>379.87538661469063</v>
+        <v>379.8753866146906</v>
       </c>
       <c r="M3">
-        <v>430.38663733392337</v>
+        <v>430.3866373339234</v>
       </c>
       <c r="N3">
-        <v>529.55911631678691</v>
+        <v>529.5591163167869</v>
       </c>
       <c r="O3">
-        <v>636.61934959986365</v>
+        <v>636.6193495998637</v>
       </c>
       <c r="P3">
-        <v>751.66218394397447</v>
+        <v>751.6621839439745</v>
       </c>
       <c r="Q3">
         <v>1003.978542439371</v>
@@ -2421,10 +2390,10 @@
         <v>2194.245673665841</v>
       </c>
       <c r="V3">
-        <v>2520.9390232338228</v>
+        <v>2520.939023233823</v>
       </c>
       <c r="W3">
-        <v>2865.4583913884871</v>
+        <v>2865.458391388487</v>
       </c>
       <c r="X3">
         <v>3227.939607755925</v>
@@ -2433,76 +2402,76 @@
         <v>3608.729082904923</v>
       </c>
       <c r="Z3">
-        <v>4008.3054135525699</v>
+        <v>4008.30541355257</v>
       </c>
       <c r="AA3">
-        <v>4193.8947199780987</v>
+        <v>4193.894719978099</v>
       </c>
       <c r="AB3">
-        <v>4384.4610276752119</v>
+        <v>4384.461027675212</v>
       </c>
       <c r="AC3">
-        <v>4581.3536153261221</v>
+        <v>4581.353615326122</v>
       </c>
       <c r="AD3">
-        <v>4784.3898240676926</v>
+        <v>4784.389824067693</v>
       </c>
       <c r="AE3">
-        <v>4994.5807723568432</v>
+        <v>4994.580772356843</v>
       </c>
       <c r="AF3">
-        <v>5127.8300115913844</v>
+        <v>5127.830011591384</v>
       </c>
       <c r="AG3">
         <v>5262.150955888007</v>
       </c>
       <c r="AH3">
-        <v>5402.4715805339692</v>
+        <v>5402.471580533969</v>
       </c>
       <c r="AI3">
-        <v>5553.6164956083367</v>
+        <v>5553.616495608337</v>
       </c>
       <c r="AJ3">
-        <v>5715.3208282643054</v>
+        <v>5715.320828264305</v>
       </c>
       <c r="AK3">
-        <v>5930.0750514763286</v>
+        <v>5930.075051476329</v>
       </c>
       <c r="AL3">
-        <v>6170.5704364049307</v>
+        <v>6170.570436404931</v>
       </c>
       <c r="AM3">
-        <v>6446.6714153056864</v>
+        <v>6446.671415305686</v>
       </c>
       <c r="AN3">
-        <v>6768.6312602086427</v>
+        <v>6768.631260208643</v>
       </c>
       <c r="AO3">
         <v>7123.436571428244</v>
       </c>
       <c r="AP3">
-        <v>7563.5368424716016</v>
+        <v>7563.536842471602</v>
       </c>
       <c r="AQ3">
-        <v>8021.8116036656847</v>
+        <v>8021.811603665685</v>
       </c>
       <c r="AR3">
-        <v>8495.1629374354707</v>
+        <v>8495.162937435471</v>
       </c>
       <c r="AS3">
-        <v>8980.6064508171676</v>
+        <v>8980.606450817168</v>
       </c>
       <c r="AT3">
-        <v>9478.0895393936444</v>
+        <v>9478.089539393644</v>
       </c>
       <c r="AU3">
-        <v>9998.9407607062985</v>
+        <v>9998.940760706299</v>
       </c>
       <c r="AV3">
         <v>10514.02510724768</v>
       </c>
       <c r="AW3">
-        <v>10996.633208998101</v>
+        <v>10996.6332089981</v>
       </c>
       <c r="AX3">
         <v>11427.34908783892</v>
@@ -2511,7 +2480,7 @@
         <v>11832.12356844862</v>
       </c>
       <c r="AZ3">
-        <v>12218.236841151591</v>
+        <v>12218.23684115159</v>
       </c>
       <c r="BA3">
         <v>12601.1159877624</v>
@@ -2520,7 +2489,7 @@
         <v>12971.99534042857</v>
       </c>
       <c r="BC3">
-        <v>13325.193016126361</v>
+        <v>13325.19301612636</v>
       </c>
       <c r="BD3">
         <v>13672.27607224991</v>
@@ -2532,13 +2501,13 @@
         <v>14368.84697464105</v>
       </c>
       <c r="BG3">
-        <v>14745.156707293219</v>
+        <v>14745.15670729322</v>
       </c>
       <c r="BH3">
-        <v>15150.310717216869</v>
+        <v>15150.31071721687</v>
       </c>
       <c r="BI3">
-        <v>15586.490685574559</v>
+        <v>15586.49068557456</v>
       </c>
       <c r="BJ3">
         <v>16047.94819568636</v>
@@ -2547,91 +2516,91 @@
         <v>16544.86311660186</v>
       </c>
       <c r="BL3">
-        <v>17077.438260580358</v>
+        <v>17077.43826058036</v>
       </c>
       <c r="BM3">
-        <v>17642.428226181011</v>
+        <v>17642.42822618101</v>
       </c>
       <c r="BN3">
-        <v>18227.765961597492</v>
+        <v>18227.76596159749</v>
       </c>
       <c r="BO3">
-        <v>18819.766049865859</v>
+        <v>18819.76604986586</v>
       </c>
       <c r="BP3">
         <v>19419.45003398661</v>
       </c>
       <c r="BQ3">
-        <v>20024.159508181721</v>
+        <v>20024.15950818172</v>
       </c>
       <c r="BR3">
-        <v>20627.515926150569</v>
+        <v>20627.51592615057</v>
       </c>
       <c r="BS3">
-        <v>21217.037721890079</v>
+        <v>21217.03772189008</v>
       </c>
       <c r="BT3">
-        <v>21776.423665632268</v>
+        <v>21776.42366563227</v>
       </c>
       <c r="BU3">
-        <v>22307.954226545451</v>
+        <v>22307.95422654545</v>
       </c>
       <c r="BV3">
         <v>22819.0180721857</v>
       </c>
       <c r="BW3">
-        <v>23317.481093781571</v>
+        <v>23317.48109378157</v>
       </c>
       <c r="BX3">
-        <v>23806.458945632439</v>
+        <v>23806.45894563244</v>
       </c>
       <c r="BY3">
-        <v>24281.395245375868</v>
+        <v>24281.39524537587</v>
       </c>
       <c r="BZ3">
-        <v>24747.022197711929</v>
+        <v>24747.02219771193</v>
       </c>
       <c r="CA3">
-        <v>25207.737976123939</v>
+        <v>25207.73797612394</v>
       </c>
       <c r="CB3">
-        <v>25669.542574554569</v>
+        <v>25669.54257455457</v>
       </c>
       <c r="CC3">
-        <v>26138.751864556551</v>
+        <v>26138.75186455655</v>
       </c>
       <c r="CD3">
         <v>26614.9866910456</v>
       </c>
       <c r="CE3">
-        <v>27105.965638376521</v>
+        <v>27105.96563837652</v>
       </c>
       <c r="CF3">
         <v>27612.41257972275</v>
       </c>
       <c r="CG3">
-        <v>28134.247935726678</v>
+        <v>28134.24793572668</v>
       </c>
       <c r="CH3">
         <v>28671.52265233652</v>
       </c>
       <c r="CI3">
-        <v>29214.460641089609</v>
+        <v>29214.46064108961</v>
       </c>
       <c r="CJ3">
-        <v>29766.798086850318</v>
+        <v>29766.79808685032</v>
       </c>
       <c r="CK3">
         <v>30322.90629412144</v>
       </c>
       <c r="CL3">
-        <v>30877.990446983749</v>
+        <v>30877.99044698375</v>
       </c>
       <c r="CM3">
-        <v>31429.108232593539</v>
+        <v>31429.10823259354</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2639,97 +2608,97 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>6255.9500256154279</v>
+        <v>6255.950025615428</v>
       </c>
       <c r="D4">
-        <v>8716.4055514084848</v>
+        <v>8716.405551408485</v>
       </c>
       <c r="E4">
         <v>11520.58501258248</v>
       </c>
       <c r="F4">
-        <v>15061.246330860189</v>
+        <v>15061.24633086019</v>
       </c>
       <c r="G4">
-        <v>18363.218805602079</v>
+        <v>18363.21880560208</v>
       </c>
       <c r="H4">
-        <v>21912.731410242901</v>
+        <v>21912.7314102429</v>
       </c>
       <c r="I4">
-        <v>25027.798820890039</v>
+        <v>25027.79882089004</v>
       </c>
       <c r="J4">
         <v>28410.5965986966</v>
       </c>
       <c r="K4">
-        <v>32407.278898456731</v>
+        <v>32407.27889845673</v>
       </c>
       <c r="L4">
-        <v>36196.126756261147</v>
+        <v>36196.12675626115</v>
       </c>
       <c r="M4">
-        <v>40569.101472613133</v>
+        <v>40569.10147261313</v>
       </c>
       <c r="N4">
-        <v>63648.419181301972</v>
+        <v>63648.41918130197</v>
       </c>
       <c r="O4">
-        <v>86860.389513544578</v>
+        <v>86860.38951354458</v>
       </c>
       <c r="P4">
         <v>110170.661228856</v>
       </c>
       <c r="Q4">
-        <v>183729.61716182929</v>
+        <v>183729.6171618293</v>
       </c>
       <c r="R4">
-        <v>257435.88951352829</v>
+        <v>257435.8895135283</v>
       </c>
       <c r="S4">
-        <v>331312.47317890689</v>
+        <v>331312.4731789069</v>
       </c>
       <c r="T4">
-        <v>405376.40864477551</v>
+        <v>405376.4086447755</v>
       </c>
       <c r="U4">
-        <v>479639.64435664739</v>
+        <v>479639.6443566474</v>
       </c>
       <c r="V4">
-        <v>557196.88128957502</v>
+        <v>557196.881289575</v>
       </c>
       <c r="W4">
-        <v>634983.94614507293</v>
+        <v>634983.9461450729</v>
       </c>
       <c r="X4">
         <v>712991.7126194546</v>
       </c>
       <c r="Y4">
-        <v>791237.95639358705</v>
+        <v>791237.9563935871</v>
       </c>
       <c r="Z4">
-        <v>869748.65516972856</v>
+        <v>869748.6551697286</v>
       </c>
       <c r="AA4">
-        <v>892395.80554382817</v>
+        <v>892395.8055438282</v>
       </c>
       <c r="AB4">
-        <v>915346.15572062135</v>
+        <v>915346.1557206213</v>
       </c>
       <c r="AC4">
-        <v>938648.92764705559</v>
+        <v>938648.9276470556</v>
       </c>
       <c r="AD4">
-        <v>962287.22271489818</v>
+        <v>962287.2227148982</v>
       </c>
       <c r="AE4">
-        <v>986343.27070540842</v>
+        <v>986343.2707054084</v>
       </c>
       <c r="AF4">
-        <v>992944.46714579535</v>
+        <v>992944.4671457954</v>
       </c>
       <c r="AG4">
-        <v>999925.09135495138</v>
+        <v>999925.0913549514</v>
       </c>
       <c r="AH4">
         <v>1007532.58808307</v>
@@ -2747,7 +2716,7 @@
         <v>1067919.133282782</v>
       </c>
       <c r="AM4">
-        <v>1092252.2446309051</v>
+        <v>1092252.244630905</v>
       </c>
       <c r="AN4">
         <v>1119117.953675488</v>
@@ -2762,22 +2731,22 @@
         <v>1232041.434208096</v>
       </c>
       <c r="AR4">
-        <v>1275027.8442596979</v>
+        <v>1275027.844259698</v>
       </c>
       <c r="AS4">
-        <v>1318126.7142784181</v>
+        <v>1318126.714278418</v>
       </c>
       <c r="AT4">
-        <v>1361049.3500258729</v>
+        <v>1361049.350025873</v>
       </c>
       <c r="AU4">
-        <v>1406911.2748533259</v>
+        <v>1406911.274853326</v>
       </c>
       <c r="AV4">
-        <v>1451655.6712717081</v>
+        <v>1451655.671271708</v>
       </c>
       <c r="AW4">
-        <v>1494515.0305266799</v>
+        <v>1494515.03052668</v>
       </c>
       <c r="AX4">
         <v>1534999.252713115</v>
@@ -2786,10 +2755,10 @@
         <v>1573721.669360223</v>
       </c>
       <c r="AZ4">
-        <v>1609082.6843973631</v>
+        <v>1609082.684397363</v>
       </c>
       <c r="BA4">
-        <v>1643334.9957460859</v>
+        <v>1643334.995746086</v>
       </c>
       <c r="BB4">
         <v>1676542.80775266</v>
@@ -2798,10 +2767,10 @@
         <v>1708973.534552543</v>
       </c>
       <c r="BD4">
-        <v>1740891.6024609909</v>
+        <v>1740891.602460991</v>
       </c>
       <c r="BE4">
-        <v>1771391.2210458119</v>
+        <v>1771391.221045812</v>
       </c>
       <c r="BF4">
         <v>1801967.191076729</v>
@@ -2816,43 +2785,43 @@
         <v>1898929.682989839</v>
       </c>
       <c r="BJ4">
-        <v>1933550.7501114779</v>
+        <v>1933550.750111478</v>
       </c>
       <c r="BK4">
-        <v>1969511.0722007209</v>
+        <v>1969511.072200721</v>
       </c>
       <c r="BL4">
-        <v>2006653.4427063509</v>
+        <v>2006653.442706351</v>
       </c>
       <c r="BM4">
-        <v>2044734.0499268849</v>
+        <v>2044734.049926885</v>
       </c>
       <c r="BN4">
         <v>2083417.301892628</v>
       </c>
       <c r="BO4">
-        <v>2122447.1866989592</v>
+        <v>2122447.186698959</v>
       </c>
       <c r="BP4">
-        <v>2161660.5082788728</v>
+        <v>2161660.508278873</v>
       </c>
       <c r="BQ4">
-        <v>2200895.4822501792</v>
+        <v>2200895.482250179</v>
       </c>
       <c r="BR4">
-        <v>2239911.9840748911</v>
+        <v>2239911.984074891</v>
       </c>
       <c r="BS4">
         <v>2278360.307492265</v>
       </c>
       <c r="BT4">
-        <v>2315623.5002471791</v>
+        <v>2315623.500247179</v>
       </c>
       <c r="BU4">
-        <v>2351931.0828715758</v>
+        <v>2351931.082871576</v>
       </c>
       <c r="BV4">
-        <v>2387583.1313637849</v>
+        <v>2387583.131363785</v>
       </c>
       <c r="BW4">
         <v>2422906.806098355</v>
@@ -2861,28 +2830,28 @@
         <v>2457842.084327552</v>
       </c>
       <c r="BY4">
-        <v>2491826.5586229051</v>
+        <v>2491826.558622905</v>
       </c>
       <c r="BZ4">
-        <v>2525414.3029245632</v>
+        <v>2525414.302924563</v>
       </c>
       <c r="CA4">
-        <v>2558670.5340590701</v>
+        <v>2558670.53405907</v>
       </c>
       <c r="CB4">
-        <v>2591681.3845215822</v>
+        <v>2591681.384521582</v>
       </c>
       <c r="CC4">
-        <v>2624505.1650100378</v>
+        <v>2624505.165010038</v>
       </c>
       <c r="CD4">
-        <v>2656565.9523047712</v>
+        <v>2656565.952304771</v>
       </c>
       <c r="CE4">
-        <v>2689185.9872528599</v>
+        <v>2689185.98725286</v>
       </c>
       <c r="CF4">
-        <v>2722479.1078343508</v>
+        <v>2722479.107834351</v>
       </c>
       <c r="CG4">
         <v>2756491.463417843</v>
@@ -2894,19 +2863,19 @@
         <v>2825034.098357182</v>
       </c>
       <c r="CJ4">
-        <v>2859354.5380794229</v>
+        <v>2859354.538079423</v>
       </c>
       <c r="CK4">
         <v>2894034.912419775</v>
       </c>
       <c r="CL4">
-        <v>2928961.8616344482</v>
+        <v>2928961.861634448</v>
       </c>
       <c r="CM4">
-        <v>2964056.1034986288</v>
+        <v>2964056.103498629</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2914,40 +2883,40 @@
         <v>3598.013476784432</v>
       </c>
       <c r="C5">
-        <v>6230.6381407053204</v>
+        <v>6230.63814070532</v>
       </c>
       <c r="D5">
-        <v>8685.8574720073193</v>
+        <v>8685.857472007319</v>
       </c>
       <c r="E5">
-        <v>11041.382215380059</v>
+        <v>11041.38221538006</v>
       </c>
       <c r="F5">
-        <v>13762.621698715089</v>
+        <v>13762.62169871509</v>
       </c>
       <c r="G5">
-        <v>17274.884516009359</v>
+        <v>17274.88451600936</v>
       </c>
       <c r="H5">
-        <v>21123.351311374841</v>
+        <v>21123.35131137484</v>
       </c>
       <c r="I5">
-        <v>24274.773472696179</v>
+        <v>24274.77347269618</v>
       </c>
       <c r="J5">
         <v>27258.01054841905</v>
       </c>
       <c r="K5">
-        <v>30574.668000172602</v>
+        <v>30574.6680001726</v>
       </c>
       <c r="L5">
-        <v>33935.812613441878</v>
+        <v>33935.81261344188</v>
       </c>
       <c r="M5">
-        <v>38921.103525627768</v>
+        <v>38921.10352562777</v>
       </c>
       <c r="N5">
-        <v>75393.999638467532</v>
+        <v>75393.99963846753</v>
       </c>
       <c r="O5">
         <v>111919.7014387869</v>
@@ -2956,19 +2925,19 @@
         <v>148511.0008318839</v>
       </c>
       <c r="Q5">
-        <v>270060.57781008142</v>
+        <v>270060.5778100814</v>
       </c>
       <c r="R5">
-        <v>391706.59542106371</v>
+        <v>391706.5954210637</v>
       </c>
       <c r="S5">
-        <v>513467.51494140708</v>
+        <v>513467.5149414071</v>
       </c>
       <c r="T5">
-        <v>635364.90803303174</v>
+        <v>635364.9080330317</v>
       </c>
       <c r="U5">
-        <v>757425.21291656734</v>
+        <v>757425.2129165673</v>
       </c>
       <c r="V5">
         <v>885542.6968996292</v>
@@ -2977,31 +2946,31 @@
         <v>1013898.462784316</v>
       </c>
       <c r="X5">
-        <v>1142548.9251840981</v>
+        <v>1142548.925184098</v>
       </c>
       <c r="Y5">
-        <v>1271570.3211937239</v>
+        <v>1271570.321193724</v>
       </c>
       <c r="Z5">
-        <v>1401065.7781340829</v>
+        <v>1401065.778134083</v>
       </c>
       <c r="AA5">
         <v>1437352.275986708</v>
       </c>
       <c r="AB5">
-        <v>1474434.3769820179</v>
+        <v>1474434.376982018</v>
       </c>
       <c r="AC5">
         <v>1512549.484932221</v>
       </c>
       <c r="AD5">
-        <v>1551997.6958424009</v>
+        <v>1551997.695842401</v>
       </c>
       <c r="AE5">
-        <v>1593147.1139840209</v>
+        <v>1593147.113984021</v>
       </c>
       <c r="AF5">
-        <v>1605025.7527881539</v>
+        <v>1605025.752788154</v>
       </c>
       <c r="AG5">
         <v>1619120.195149699</v>
@@ -3016,7 +2985,7 @@
         <v>1681071.556423503</v>
       </c>
       <c r="AK5">
-        <v>1723238.8251829201</v>
+        <v>1723238.82518292</v>
       </c>
       <c r="AL5">
         <v>1770488.341226575</v>
@@ -3025,25 +2994,25 @@
         <v>1822977.438645626</v>
       </c>
       <c r="AN5">
-        <v>1880625.4958745469</v>
+        <v>1880625.495874547</v>
       </c>
       <c r="AO5">
         <v>1943074.379523759</v>
       </c>
       <c r="AP5">
-        <v>2027785.2588189391</v>
+        <v>2027785.258818939</v>
       </c>
       <c r="AQ5">
-        <v>2115787.0491175591</v>
+        <v>2115787.049117559</v>
       </c>
       <c r="AR5">
-        <v>2205983.4425538532</v>
+        <v>2205983.442553853</v>
       </c>
       <c r="AS5">
         <v>2297134.382648035</v>
       </c>
       <c r="AT5">
-        <v>2387949.4881002922</v>
+        <v>2387949.488100292</v>
       </c>
       <c r="AU5">
         <v>2482380.914038972</v>
@@ -3052,22 +3021,22 @@
         <v>2574141.870835131</v>
       </c>
       <c r="AW5">
-        <v>2662359.8026580331</v>
+        <v>2662359.802658033</v>
       </c>
       <c r="AX5">
-        <v>2746437.2014744412</v>
+        <v>2746437.201474441</v>
       </c>
       <c r="AY5">
         <v>2826078.256304035</v>
       </c>
       <c r="AZ5">
-        <v>2898194.7289329362</v>
+        <v>2898194.728932936</v>
       </c>
       <c r="BA5">
-        <v>2966175.4741443358</v>
+        <v>2966175.474144336</v>
       </c>
       <c r="BB5">
-        <v>3030559.8539828719</v>
+        <v>3030559.853982872</v>
       </c>
       <c r="BC5">
         <v>3092079.18763809</v>
@@ -3076,10 +3045,10 @@
         <v>3151587.966858</v>
       </c>
       <c r="BE5">
-        <v>3208253.6404401362</v>
+        <v>3208253.640440136</v>
       </c>
       <c r="BF5">
-        <v>3264682.4753169082</v>
+        <v>3264682.475316908</v>
       </c>
       <c r="BG5">
         <v>3321654.161971712</v>
@@ -3088,94 +3057,94 @@
         <v>3379808.901369378</v>
       </c>
       <c r="BI5">
-        <v>3439620.2041891818</v>
+        <v>3439620.204189182</v>
       </c>
       <c r="BJ5">
-        <v>3501088.7882643598</v>
+        <v>3501088.78826436</v>
       </c>
       <c r="BK5">
-        <v>3564631.7451358512</v>
+        <v>3564631.745135851</v>
       </c>
       <c r="BL5">
-        <v>3630205.6598804742</v>
+        <v>3630205.659880474</v>
       </c>
       <c r="BM5">
-        <v>3697619.7843724098</v>
+        <v>3697619.78437241</v>
       </c>
       <c r="BN5">
-        <v>3766559.7430701558</v>
+        <v>3766559.743070156</v>
       </c>
       <c r="BO5">
-        <v>3836634.2795564821</v>
+        <v>3836634.279556482</v>
       </c>
       <c r="BP5">
-        <v>3907355.3799108728</v>
+        <v>3907355.379910873</v>
       </c>
       <c r="BQ5">
-        <v>3978224.4939981601</v>
+        <v>3978224.49399816</v>
       </c>
       <c r="BR5">
         <v>4048747.247662154</v>
       </c>
       <c r="BS5">
-        <v>4118462.3965097792</v>
+        <v>4118462.396509779</v>
       </c>
       <c r="BT5">
-        <v>4186456.8935984932</v>
+        <v>4186456.893598493</v>
       </c>
       <c r="BU5">
         <v>4252913.086242171</v>
       </c>
       <c r="BV5">
-        <v>4317592.6890331488</v>
+        <v>4317592.689033149</v>
       </c>
       <c r="BW5">
-        <v>4380351.2896454697</v>
+        <v>4380351.28964547</v>
       </c>
       <c r="BX5">
-        <v>4441136.0720304698</v>
+        <v>4441136.07203047</v>
       </c>
       <c r="BY5">
-        <v>4499125.2234142721</v>
+        <v>4499125.223414272</v>
       </c>
       <c r="BZ5">
-        <v>4555269.5519059654</v>
+        <v>4555269.551905965</v>
       </c>
       <c r="CA5">
         <v>4609719.087659291</v>
       </c>
       <c r="CB5">
-        <v>4662655.3573365444</v>
+        <v>4662655.357336544</v>
       </c>
       <c r="CC5">
-        <v>4714271.3770249989</v>
+        <v>4714271.377024999</v>
       </c>
       <c r="CD5">
-        <v>4763315.4606325999</v>
+        <v>4763315.4606326</v>
       </c>
       <c r="CE5">
-        <v>4811387.4759600107</v>
+        <v>4811387.475960011</v>
       </c>
       <c r="CF5">
-        <v>4858613.9407278411</v>
+        <v>4858613.940727841</v>
       </c>
       <c r="CG5">
-        <v>4905077.6226366088</v>
+        <v>4905077.622636609</v>
       </c>
       <c r="CH5">
-        <v>4950814.1360269664</v>
+        <v>4950814.136026966</v>
       </c>
       <c r="CI5">
-        <v>4993563.9983177958</v>
+        <v>4993563.998317796</v>
       </c>
       <c r="CJ5">
-        <v>5035523.4998156736</v>
+        <v>5035523.499815674</v>
       </c>
       <c r="CK5">
-        <v>5076605.4436245495</v>
+        <v>5076605.44362455</v>
       </c>
       <c r="CL5">
-        <v>5116697.1664317939</v>
+        <v>5116697.166431794</v>
       </c>
       <c r="CM5">
         <v>5155670.619465922</v>
@@ -3187,16 +3156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2:CM5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3468,7 +3435,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3476,184 +3443,184 @@
         <v>1.361094752211504E-11</v>
       </c>
       <c r="C2">
-        <v>1.4776713083185401E-10</v>
+        <v>1.47767130831854E-10</v>
       </c>
       <c r="D2">
-        <v>1.2280825534224659E-9</v>
+        <v>1.228082553422466E-09</v>
       </c>
       <c r="E2">
-        <v>8.5583518513923006E-9</v>
+        <v>8.558351851392301E-09</v>
       </c>
       <c r="F2">
-        <v>5.1515702893317137E-8</v>
+        <v>5.151570289331714E-08</v>
       </c>
       <c r="G2">
-        <v>2.7331891240712579E-7</v>
+        <v>2.733189124071258E-07</v>
       </c>
       <c r="H2">
-        <v>1.2989260297272229E-6</v>
+        <v>1.298926029727223E-06</v>
       </c>
       <c r="I2">
-        <v>5.6028911869968724E-6</v>
+        <v>5.602891186996872E-06</v>
       </c>
       <c r="J2">
-        <v>2.2172168921572389E-5</v>
+        <v>2.217216892157239E-05</v>
       </c>
       <c r="K2">
-        <v>8.1156278419714699E-5</v>
+        <v>8.11562784197147E-05</v>
       </c>
       <c r="L2">
-        <v>2.7600886325149102E-4</v>
+        <v>0.000276008863251491</v>
       </c>
       <c r="M2">
-        <v>8.7010382068035538E-4</v>
+        <v>0.0008701038206803554</v>
       </c>
       <c r="N2">
-        <v>2.500737068081293E-3</v>
+        <v>0.002500737068081293</v>
       </c>
       <c r="O2">
-        <v>1.266175904889716E-2</v>
+        <v>0.01266175904889716</v>
       </c>
       <c r="P2">
-        <v>4.8702476503547733E-2</v>
+        <v>0.04870247650354773</v>
       </c>
       <c r="Q2">
         <v>0.1132731781075357</v>
       </c>
       <c r="R2">
-        <v>0.19046375228409829</v>
+        <v>0.1904637522840983</v>
       </c>
       <c r="S2">
-        <v>0.29058837426045159</v>
+        <v>0.2905883742604516</v>
       </c>
       <c r="T2">
-        <v>0.44371010442308312</v>
+        <v>0.4437101044230831</v>
       </c>
       <c r="U2">
-        <v>0.67695096126300058</v>
+        <v>0.6769509612630006</v>
       </c>
       <c r="V2">
-        <v>1.0440312985834621</v>
+        <v>1.044031298583462</v>
       </c>
       <c r="W2">
-        <v>1.6016485280598749</v>
+        <v>1.601648528059875</v>
       </c>
       <c r="X2">
-        <v>2.3721945059893881</v>
+        <v>2.372194505989388</v>
       </c>
       <c r="Y2">
-        <v>3.4028018371805699</v>
+        <v>3.40280183718057</v>
       </c>
       <c r="Z2">
-        <v>4.7569774261621038</v>
+        <v>4.756977426162104</v>
       </c>
       <c r="AA2">
-        <v>6.3720040430630327</v>
+        <v>6.372004043063033</v>
       </c>
       <c r="AB2">
-        <v>8.2978343123052749</v>
+        <v>8.297834312305275</v>
       </c>
       <c r="AC2">
-        <v>10.707699718824969</v>
+        <v>10.70769971882497</v>
       </c>
       <c r="AD2">
         <v>13.567523319373</v>
       </c>
       <c r="AE2">
-        <v>17.000596637869869</v>
+        <v>17.00059663786987</v>
       </c>
       <c r="AF2">
-        <v>20.795807745681731</v>
+        <v>20.79580774568173</v>
       </c>
       <c r="AG2">
-        <v>24.880137447050629</v>
+        <v>24.88013744705063</v>
       </c>
       <c r="AH2">
         <v>29.92818608774343</v>
       </c>
       <c r="AI2">
-        <v>36.596100250182722</v>
+        <v>36.59610025018272</v>
       </c>
       <c r="AJ2">
-        <v>44.846097265279667</v>
+        <v>44.84609726527967</v>
       </c>
       <c r="AK2">
-        <v>55.616254884000092</v>
+        <v>55.61625488400009</v>
       </c>
       <c r="AL2">
-        <v>70.059083914059173</v>
+        <v>70.05908391405917</v>
       </c>
       <c r="AM2">
-        <v>89.789866580533669</v>
+        <v>89.78986658053367</v>
       </c>
       <c r="AN2">
         <v>116.6120333952198</v>
       </c>
       <c r="AO2">
-        <v>148.82193038329731</v>
+        <v>148.8219303832973</v>
       </c>
       <c r="AP2">
-        <v>184.41314052161761</v>
+        <v>184.4131405216176</v>
       </c>
       <c r="AQ2">
         <v>223.1854325603135</v>
       </c>
       <c r="AR2">
-        <v>264.90641467415219</v>
+        <v>264.9064146741522</v>
       </c>
       <c r="AS2">
-        <v>309.35917055364968</v>
+        <v>309.3591705536497</v>
       </c>
       <c r="AT2">
-        <v>356.84232015531899</v>
+        <v>356.842320155319</v>
       </c>
       <c r="AU2">
-        <v>406.99217677928789</v>
+        <v>406.9921767792879</v>
       </c>
       <c r="AV2">
-        <v>457.29457548258819</v>
+        <v>457.2945754825882</v>
       </c>
       <c r="AW2">
-        <v>502.53316367485189</v>
+        <v>502.5331636748519</v>
       </c>
       <c r="AX2">
-        <v>538.39915537186607</v>
+        <v>538.3991553718661</v>
       </c>
       <c r="AY2">
-        <v>569.79396690082137</v>
+        <v>569.7939669008214</v>
       </c>
       <c r="AZ2">
-        <v>602.08808090986395</v>
+        <v>602.0880809098639</v>
       </c>
       <c r="BA2">
-        <v>634.75885013683433</v>
+        <v>634.7588501368343</v>
       </c>
       <c r="BB2">
-        <v>665.64660917463652</v>
+        <v>665.6466091746365</v>
       </c>
       <c r="BC2">
-        <v>693.06397981251052</v>
+        <v>693.0639798125105</v>
       </c>
       <c r="BD2">
-        <v>719.59098277456781</v>
+        <v>719.5909827745678</v>
       </c>
       <c r="BE2">
-        <v>748.71666433084397</v>
+        <v>748.716664330844</v>
       </c>
       <c r="BF2">
-        <v>782.32173310873782</v>
+        <v>782.3217331087378</v>
       </c>
       <c r="BG2">
-        <v>822.79266515439485</v>
+        <v>822.7926651543949</v>
       </c>
       <c r="BH2">
-        <v>872.91166819157843</v>
+        <v>872.9116681915784</v>
       </c>
       <c r="BI2">
-        <v>934.05179098189797</v>
+        <v>934.051790981898</v>
       </c>
       <c r="BJ2">
-        <v>1007.5870556743311</v>
+        <v>1007.587055674331</v>
       </c>
       <c r="BK2">
         <v>1095.517098639574</v>
@@ -3665,22 +3632,22 @@
         <v>1318.319167643519</v>
       </c>
       <c r="BN2">
-        <v>1449.7083287982091</v>
+        <v>1449.708328798209</v>
       </c>
       <c r="BO2">
-        <v>1590.0958976434181</v>
+        <v>1590.095897643418</v>
       </c>
       <c r="BP2">
-        <v>1739.0225099508791</v>
+        <v>1739.022509950879</v>
       </c>
       <c r="BQ2">
-        <v>1895.9600513409589</v>
+        <v>1895.960051340959</v>
       </c>
       <c r="BR2">
-        <v>2058.4813381557669</v>
+        <v>2058.481338155767</v>
       </c>
       <c r="BS2">
-        <v>2220.6853587992282</v>
+        <v>2220.685358799228</v>
       </c>
       <c r="BT2">
         <v>2376.198840932761</v>
@@ -3689,61 +3656,61 @@
         <v>2522.978525812719</v>
       </c>
       <c r="BV2">
-        <v>2664.3129087740972</v>
+        <v>2664.312908774097</v>
       </c>
       <c r="BW2">
-        <v>2804.2970126944301</v>
+        <v>2804.29701269443</v>
       </c>
       <c r="BX2">
         <v>2944.585378103402</v>
       </c>
       <c r="BY2">
-        <v>3084.6941372456122</v>
+        <v>3084.694137245612</v>
       </c>
       <c r="BZ2">
-        <v>3224.7180639893149</v>
+        <v>3224.718063989315</v>
       </c>
       <c r="CA2">
         <v>3367.565692976455</v>
       </c>
       <c r="CB2">
-        <v>3517.8379388568269</v>
+        <v>3517.837938856827</v>
       </c>
       <c r="CC2">
-        <v>3681.0961815383321</v>
+        <v>3681.096181538332</v>
       </c>
       <c r="CD2">
         <v>3862.485939884536</v>
       </c>
       <c r="CE2">
-        <v>4065.7593512674562</v>
+        <v>4065.759351267456</v>
       </c>
       <c r="CF2">
-        <v>4293.4386371058636</v>
+        <v>4293.438637105864</v>
       </c>
       <c r="CG2">
-        <v>4547.5485910398129</v>
+        <v>4547.548591039813</v>
       </c>
       <c r="CH2">
-        <v>4830.5080186454852</v>
+        <v>4830.508018645485</v>
       </c>
       <c r="CI2">
-        <v>5143.1101500784862</v>
+        <v>5143.110150078486</v>
       </c>
       <c r="CJ2">
-        <v>5482.9433635077776</v>
+        <v>5482.943363507778</v>
       </c>
       <c r="CK2">
-        <v>5845.2721015261213</v>
+        <v>5845.272101526121</v>
       </c>
       <c r="CL2">
-        <v>6225.5210782375934</v>
+        <v>6225.521078237593</v>
       </c>
       <c r="CM2">
-        <v>6620.8939121604853</v>
+        <v>6620.893912160485</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3787,49 +3754,49 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.025746228157005E-2</v>
+        <v>0.01025746228157005</v>
       </c>
       <c r="P3">
-        <v>4.6953203797427588E-2</v>
+        <v>0.04695320379742759</v>
       </c>
       <c r="Q3">
         <v>0.1129089680411785</v>
       </c>
       <c r="R3">
-        <v>0.19159153193877099</v>
+        <v>0.191591531938771</v>
       </c>
       <c r="S3">
-        <v>0.29284315462954991</v>
+        <v>0.2928431546295499</v>
       </c>
       <c r="T3">
-        <v>0.44534168465740892</v>
+        <v>0.4453416846574089</v>
       </c>
       <c r="U3">
         <v>0.6717812507200378</v>
       </c>
       <c r="V3">
-        <v>1.0177347507570169</v>
+        <v>1.017734750757017</v>
       </c>
       <c r="W3">
-        <v>1.5301896036304421</v>
+        <v>1.530189603630442</v>
       </c>
       <c r="X3">
         <v>2.223303343462856</v>
       </c>
       <c r="Y3">
-        <v>3.1335027150177019</v>
+        <v>3.133502715017702</v>
       </c>
       <c r="Z3">
-        <v>4.3107716017438076</v>
+        <v>4.310771601743808</v>
       </c>
       <c r="AA3">
-        <v>5.6957983564695089</v>
+        <v>5.695798356469509</v>
       </c>
       <c r="AB3">
-        <v>7.3277915821486106</v>
+        <v>7.327791582148611</v>
       </c>
       <c r="AC3">
-        <v>9.3484840398566966</v>
+        <v>9.348484039856697</v>
       </c>
       <c r="AD3">
         <v>11.7236469914066</v>
@@ -3838,31 +3805,31 @@
         <v>14.54975174976434</v>
       </c>
       <c r="AF3">
-        <v>17.647664450986269</v>
+        <v>17.64766445098627</v>
       </c>
       <c r="AG3">
         <v>20.95393735749116</v>
       </c>
       <c r="AH3">
-        <v>25.005927764040241</v>
+        <v>25.00592776404024</v>
       </c>
       <c r="AI3">
-        <v>30.311055763691051</v>
+        <v>30.31105576369105</v>
       </c>
       <c r="AJ3">
-        <v>36.813142700766939</v>
+        <v>36.81314270076694</v>
       </c>
       <c r="AK3">
-        <v>45.214540673529513</v>
+        <v>45.21454067352951</v>
       </c>
       <c r="AL3">
-        <v>56.353977373502303</v>
+        <v>56.3539773735023</v>
       </c>
       <c r="AM3">
-        <v>71.382309518235942</v>
+        <v>71.38230951823594</v>
       </c>
       <c r="AN3">
-        <v>91.529940245170081</v>
+        <v>91.52994024517008</v>
       </c>
       <c r="AO3">
         <v>115.3552035846418</v>
@@ -3871,79 +3838,79 @@
         <v>141.295585972244</v>
       </c>
       <c r="AQ3">
-        <v>169.21708582603819</v>
+        <v>169.2170858260382</v>
       </c>
       <c r="AR3">
-        <v>198.98326275283779</v>
+        <v>198.9832627528378</v>
       </c>
       <c r="AS3">
         <v>230.4851540190007</v>
       </c>
       <c r="AT3">
-        <v>263.98942840422058</v>
+        <v>263.9894284042206</v>
       </c>
       <c r="AU3">
-        <v>299.30206141056948</v>
+        <v>299.3020614105695</v>
       </c>
       <c r="AV3">
-        <v>334.72147343938377</v>
+        <v>334.7214734393838</v>
       </c>
       <c r="AW3">
-        <v>366.63372879551162</v>
+        <v>366.6337287955116</v>
       </c>
       <c r="AX3">
-        <v>392.02240915358323</v>
+        <v>392.0224091535832</v>
       </c>
       <c r="AY3">
-        <v>414.35543133381162</v>
+        <v>414.3554313338116</v>
       </c>
       <c r="AZ3">
-        <v>437.46981694809801</v>
+        <v>437.469816948098</v>
       </c>
       <c r="BA3">
-        <v>461.02263296148419</v>
+        <v>461.0226329614842</v>
       </c>
       <c r="BB3">
-        <v>483.47040607556528</v>
+        <v>483.4704060755653</v>
       </c>
       <c r="BC3">
-        <v>503.57174468465229</v>
+        <v>503.5717446846523</v>
       </c>
       <c r="BD3">
-        <v>523.20287278702119</v>
+        <v>523.2028727870212</v>
       </c>
       <c r="BE3">
-        <v>544.96893922170136</v>
+        <v>544.9689392217014</v>
       </c>
       <c r="BF3">
-        <v>570.33739947634081</v>
+        <v>570.3373994763408</v>
       </c>
       <c r="BG3">
-        <v>601.20569548590402</v>
+        <v>601.205695485904</v>
       </c>
       <c r="BH3">
-        <v>639.83424727100021</v>
+        <v>639.8342472710002</v>
       </c>
       <c r="BI3">
-        <v>687.45457305595198</v>
+        <v>687.454573055952</v>
       </c>
       <c r="BJ3">
-        <v>745.33306069256071</v>
+        <v>745.3330606925607</v>
       </c>
       <c r="BK3">
-        <v>815.26666472021623</v>
+        <v>815.2666647202162</v>
       </c>
       <c r="BL3">
-        <v>898.48584290544352</v>
+        <v>898.4858429054435</v>
       </c>
       <c r="BM3">
-        <v>995.28414926150458</v>
+        <v>995.2841492615046</v>
       </c>
       <c r="BN3">
         <v>1103.014254223074</v>
       </c>
       <c r="BO3">
-        <v>1219.2535516053069</v>
+        <v>1219.253551605307</v>
       </c>
       <c r="BP3">
         <v>1343.746751341112</v>
@@ -3955,37 +3922,37 @@
         <v>1614.54073612928</v>
       </c>
       <c r="BS3">
-        <v>1753.8679838336791</v>
+        <v>1753.867983833679</v>
       </c>
       <c r="BT3">
-        <v>1888.5930822758221</v>
+        <v>1888.593082275822</v>
       </c>
       <c r="BU3">
         <v>2016.807036052254</v>
       </c>
       <c r="BV3">
-        <v>2141.2551404616602</v>
+        <v>2141.25514046166</v>
       </c>
       <c r="BW3">
-        <v>2265.4697317983582</v>
+        <v>2265.469731798358</v>
       </c>
       <c r="BX3">
-        <v>2390.8854461125138</v>
+        <v>2390.885446112514</v>
       </c>
       <c r="BY3">
         <v>2517.043823573586</v>
       </c>
       <c r="BZ3">
-        <v>2644.0015609911052</v>
+        <v>2644.001560991105</v>
       </c>
       <c r="CA3">
         <v>2774.385317440569</v>
       </c>
       <c r="CB3">
-        <v>2912.4276313943319</v>
+        <v>2912.427631394332</v>
       </c>
       <c r="CC3">
-        <v>3063.3255589772371</v>
+        <v>3063.325558977237</v>
       </c>
       <c r="CD3">
         <v>3231.976861860092</v>
@@ -3997,28 +3964,28 @@
         <v>3636.108291860151</v>
       </c>
       <c r="CG3">
-        <v>3876.2648300343972</v>
+        <v>3876.264830034397</v>
       </c>
       <c r="CH3">
-        <v>4145.0264256850578</v>
+        <v>4145.026425685058</v>
       </c>
       <c r="CI3">
-        <v>4443.3668536636114</v>
+        <v>4443.366853663611</v>
       </c>
       <c r="CJ3">
-        <v>4769.1829349755862</v>
+        <v>4769.182934975586</v>
       </c>
       <c r="CK3">
-        <v>5118.0885159413201</v>
+        <v>5118.08851594132</v>
       </c>
       <c r="CL3">
-        <v>5485.7820899925318</v>
+        <v>5485.782089992532</v>
       </c>
       <c r="CM3">
-        <v>5869.6258734506691</v>
+        <v>5869.625873450669</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4026,10 +3993,10 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.32763760933867159</v>
+        <v>0.3276376093386716</v>
       </c>
       <c r="D4">
-        <v>0.70091266982189038</v>
+        <v>0.7009126698218904</v>
       </c>
       <c r="E4">
         <v>1.344325349791806</v>
@@ -4038,73 +4005,73 @@
         <v>2.432504920339047</v>
       </c>
       <c r="G4">
-        <v>4.2406241314908142</v>
+        <v>4.240624131490814</v>
       </c>
       <c r="H4">
-        <v>7.1986887565100179</v>
+        <v>7.198688756510018</v>
       </c>
       <c r="I4">
-        <v>11.996803173375101</v>
+        <v>11.9968031733751</v>
       </c>
       <c r="J4">
         <v>19.83295250581709</v>
       </c>
       <c r="K4">
-        <v>33.046734713097699</v>
+        <v>33.0467347130977</v>
       </c>
       <c r="L4">
-        <v>56.675134285625937</v>
+        <v>56.67513428562594</v>
       </c>
       <c r="M4">
         <v>101.514750209239</v>
       </c>
       <c r="N4">
-        <v>186.15692810806081</v>
+        <v>186.1569281080608</v>
       </c>
       <c r="O4">
-        <v>328.34255450777817</v>
+        <v>328.3425545077782</v>
       </c>
       <c r="P4">
-        <v>514.11756818645142</v>
+        <v>514.1175681864514</v>
       </c>
       <c r="Q4">
-        <v>731.68249006428903</v>
+        <v>731.682490064289</v>
       </c>
       <c r="R4">
-        <v>994.23640839149641</v>
+        <v>994.2364083914964</v>
       </c>
       <c r="S4">
-        <v>1321.4156711950641</v>
+        <v>1321.415671195064</v>
       </c>
       <c r="T4">
         <v>1731.30241998528</v>
       </c>
       <c r="U4">
-        <v>2239.9465228115241</v>
+        <v>2239.946522811524</v>
       </c>
       <c r="V4">
-        <v>2873.6340621771842</v>
+        <v>2873.634062177184</v>
       </c>
       <c r="W4">
-        <v>3658.4339881412038</v>
+        <v>3658.433988141204</v>
       </c>
       <c r="X4">
-        <v>4603.4640810177052</v>
+        <v>4603.464081017705</v>
       </c>
       <c r="Y4">
-        <v>5743.1203697959581</v>
+        <v>5743.120369795958</v>
       </c>
       <c r="Z4">
-        <v>7125.2044502154658</v>
+        <v>7125.204450215466</v>
       </c>
       <c r="AA4">
-        <v>8798.0989411366063</v>
+        <v>8798.098941136606</v>
       </c>
       <c r="AB4">
-        <v>10881.621381370111</v>
+        <v>10881.62138137011</v>
       </c>
       <c r="AC4">
-        <v>13479.110570328459</v>
+        <v>13479.11057032846</v>
       </c>
       <c r="AD4">
         <v>16641.7835485832</v>
@@ -4113,16 +4080,16 @@
         <v>20535.20801253826</v>
       </c>
       <c r="AF4">
-        <v>25409.627164938029</v>
+        <v>25409.62716493803</v>
       </c>
       <c r="AG4">
         <v>31580.42738614781</v>
       </c>
       <c r="AH4">
-        <v>39402.690787580708</v>
+        <v>39402.69078758071</v>
       </c>
       <c r="AI4">
-        <v>49255.526145540032</v>
+        <v>49255.52614554003</v>
       </c>
       <c r="AJ4">
         <v>61707.73209951329</v>
@@ -4131,103 +4098,103 @@
         <v>77403.92670368425</v>
       </c>
       <c r="AL4">
-        <v>96732.593589468583</v>
+        <v>96732.59358946858</v>
       </c>
       <c r="AM4">
-        <v>120281.97331462101</v>
+        <v>120281.973314621</v>
       </c>
       <c r="AN4">
-        <v>148567.09189661339</v>
+        <v>148567.0918966134</v>
       </c>
       <c r="AO4">
-        <v>180782.35994032159</v>
+        <v>180782.3599403216</v>
       </c>
       <c r="AP4">
-        <v>215972.33669194661</v>
+        <v>215972.3366919466</v>
       </c>
       <c r="AQ4">
-        <v>253708.63240806991</v>
+        <v>253708.6324080699</v>
       </c>
       <c r="AR4">
-        <v>293438.44793154288</v>
+        <v>293438.4479315429</v>
       </c>
       <c r="AS4">
-        <v>334504.41705595521</v>
+        <v>334504.4170559552</v>
       </c>
       <c r="AT4">
         <v>376291.71409922</v>
       </c>
       <c r="AU4">
-        <v>418026.28113911039</v>
+        <v>418026.2811391104</v>
       </c>
       <c r="AV4">
-        <v>458571.46632362448</v>
+        <v>458571.4663236245</v>
       </c>
       <c r="AW4">
-        <v>496450.57386511011</v>
+        <v>496450.5738651101</v>
       </c>
       <c r="AX4">
-        <v>530593.47293573106</v>
+        <v>530593.4729357311</v>
       </c>
       <c r="AY4">
-        <v>561751.76282109926</v>
+        <v>561751.7628210993</v>
       </c>
       <c r="AZ4">
-        <v>590798.40437332855</v>
+        <v>590798.4043733286</v>
       </c>
       <c r="BA4">
-        <v>617732.32186109002</v>
+        <v>617732.32186109</v>
       </c>
       <c r="BB4">
-        <v>642561.78392509813</v>
+        <v>642561.7839250981</v>
       </c>
       <c r="BC4">
-        <v>665562.45958762756</v>
+        <v>665562.4595876276</v>
       </c>
       <c r="BD4">
-        <v>687593.04289465875</v>
+        <v>687593.0428946587</v>
       </c>
       <c r="BE4">
-        <v>709669.73537377582</v>
+        <v>709669.7353737758</v>
       </c>
       <c r="BF4">
-        <v>732712.79703530588</v>
+        <v>732712.7970353059</v>
       </c>
       <c r="BG4">
-        <v>757761.74501235865</v>
+        <v>757761.7450123586</v>
       </c>
       <c r="BH4">
-        <v>785823.87738494936</v>
+        <v>785823.8773849494</v>
       </c>
       <c r="BI4">
-        <v>817519.95367062115</v>
+        <v>817519.9536706212</v>
       </c>
       <c r="BJ4">
-        <v>853286.38351028552</v>
+        <v>853286.3835102855</v>
       </c>
       <c r="BK4">
-        <v>893400.38430100167</v>
+        <v>893400.3843010017</v>
       </c>
       <c r="BL4">
-        <v>937752.66923912067</v>
+        <v>937752.6692391207</v>
       </c>
       <c r="BM4">
-        <v>985982.90897701844</v>
+        <v>985982.9089770184</v>
       </c>
       <c r="BN4">
         <v>1037426.427670502</v>
       </c>
       <c r="BO4">
-        <v>1091469.9323967469</v>
+        <v>1091469.932396747</v>
       </c>
       <c r="BP4">
-        <v>1147692.7389294249</v>
+        <v>1147692.738929425</v>
       </c>
       <c r="BQ4">
         <v>1205598.930205717</v>
       </c>
       <c r="BR4">
-        <v>1264470.2449559991</v>
+        <v>1264470.244955999</v>
       </c>
       <c r="BS4">
         <v>1323289.069094792</v>
@@ -4236,25 +4203,25 @@
         <v>1381088.047491</v>
       </c>
       <c r="BU4">
-        <v>1437426.1415442249</v>
+        <v>1437426.141544225</v>
       </c>
       <c r="BV4">
-        <v>1492453.2149319861</v>
+        <v>1492453.214931986</v>
       </c>
       <c r="BW4">
-        <v>1546430.4533609441</v>
+        <v>1546430.453360944</v>
       </c>
       <c r="BX4">
         <v>1599430.705819343</v>
       </c>
       <c r="BY4">
-        <v>1651441.5337852321</v>
+        <v>1651441.533785232</v>
       </c>
       <c r="BZ4">
         <v>1702577.978452632</v>
       </c>
       <c r="CA4">
-        <v>1753184.4853985971</v>
+        <v>1753184.485398597</v>
       </c>
       <c r="CB4">
         <v>1803785.401376782</v>
@@ -4266,10 +4233,10 @@
         <v>1907799.841925184</v>
       </c>
       <c r="CE4">
-        <v>1962593.8531152289</v>
+        <v>1962593.853115229</v>
       </c>
       <c r="CF4">
-        <v>2019891.1277416239</v>
+        <v>2019891.127741624</v>
       </c>
       <c r="CG4">
         <v>2079953.551488772</v>
@@ -4278,51 +4245,51 @@
         <v>2142902.1707253</v>
       </c>
       <c r="CI4">
-        <v>2208643.3197112861</v>
+        <v>2208643.319711286</v>
       </c>
       <c r="CJ4">
-        <v>2276878.2971707392</v>
+        <v>2276878.297170739</v>
       </c>
       <c r="CK4">
-        <v>2347215.9139260012</v>
+        <v>2347215.913926001</v>
       </c>
       <c r="CL4">
-        <v>2419290.9782911022</v>
+        <v>2419290.978291102</v>
       </c>
       <c r="CM4">
         <v>2492792.651792659</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4481658948904773E-3</v>
+        <v>0.004448165894890477</v>
       </c>
       <c r="C5">
-        <v>1.251016984047165E-2</v>
+        <v>0.01251016984047165</v>
       </c>
       <c r="D5">
-        <v>2.6646536593790651E-2</v>
+        <v>0.02664653659379065</v>
       </c>
       <c r="E5">
-        <v>5.0855418056013561E-2</v>
+        <v>0.05085541805601356</v>
       </c>
       <c r="F5">
-        <v>9.1518144963042281E-2</v>
+        <v>0.09151814496304228</v>
       </c>
       <c r="G5">
         <v>0.158518510702163</v>
       </c>
       <c r="H5">
-        <v>0.26664621825775509</v>
+        <v>0.2666462182577551</v>
       </c>
       <c r="I5">
-        <v>0.43729755041328477</v>
+        <v>0.4372975504132848</v>
       </c>
       <c r="J5">
-        <v>0.70049385169327105</v>
+        <v>0.7004938516932711</v>
       </c>
       <c r="K5">
         <v>1.097206744066711</v>
@@ -4331,22 +4298,22 @@
         <v>1.681901111190317</v>
       </c>
       <c r="M5">
-        <v>2.5251449483088879</v>
+        <v>2.525144948308888</v>
       </c>
       <c r="N5">
         <v>3.716096542169776</v>
       </c>
       <c r="O5">
-        <v>9.1067523315241026</v>
+        <v>9.106752331524103</v>
       </c>
       <c r="P5">
-        <v>21.465048466947369</v>
+        <v>21.46504846694737</v>
       </c>
       <c r="Q5">
-        <v>44.486312833945512</v>
+        <v>44.48631283394551</v>
       </c>
       <c r="R5">
-        <v>82.878562587350075</v>
+        <v>82.87856258735007</v>
       </c>
       <c r="S5">
         <v>142.4206276137744</v>
@@ -4355,13 +4322,13 @@
         <v>230.0324060953435</v>
       </c>
       <c r="U5">
-        <v>353.91335319498751</v>
+        <v>353.9133531949875</v>
       </c>
       <c r="V5">
-        <v>524.82975856842586</v>
+        <v>524.8297585684259</v>
       </c>
       <c r="W5">
-        <v>757.95124245061538</v>
+        <v>757.9512424506154</v>
       </c>
       <c r="X5">
         <v>1073.991270581932</v>
@@ -4370,124 +4337,124 @@
         <v>1501.511670583104</v>
       </c>
       <c r="Z5">
-        <v>2079.9468411385078</v>
+        <v>2079.946841138508</v>
       </c>
       <c r="AA5">
-        <v>2863.4261765103402</v>
+        <v>2863.42617651034</v>
       </c>
       <c r="AB5">
-        <v>3925.4112095700038</v>
+        <v>3925.411209570004</v>
       </c>
       <c r="AC5">
-        <v>5364.0337563098828</v>
+        <v>5364.033756309883</v>
       </c>
       <c r="AD5">
-        <v>7307.7894394828336</v>
+        <v>7307.789439482834</v>
       </c>
       <c r="AE5">
-        <v>9921.0181595637769</v>
+        <v>9921.018159563777</v>
       </c>
       <c r="AF5">
         <v>13408.39400212478</v>
       </c>
       <c r="AG5">
-        <v>18017.432997968412</v>
+        <v>18017.43299796841</v>
       </c>
       <c r="AH5">
-        <v>24037.849592221639</v>
+        <v>24037.84959222164</v>
       </c>
       <c r="AI5">
-        <v>31796.491271780469</v>
+        <v>31796.49127178047</v>
       </c>
       <c r="AJ5">
-        <v>41646.655876407727</v>
+        <v>41646.65587640773</v>
       </c>
       <c r="AK5">
-        <v>53950.916380482493</v>
+        <v>53950.91638048249</v>
       </c>
       <c r="AL5">
-        <v>69057.209686818635</v>
+        <v>69057.20968681863</v>
       </c>
       <c r="AM5">
-        <v>87268.952778543869</v>
+        <v>87268.95277854387</v>
       </c>
       <c r="AN5">
         <v>108811.2969402437</v>
       </c>
       <c r="AO5">
-        <v>133797.10055990209</v>
+        <v>133797.1005599021</v>
       </c>
       <c r="AP5">
         <v>162176.8418045498</v>
       </c>
       <c r="AQ5">
-        <v>193708.42022032061</v>
+        <v>193708.4202203206</v>
       </c>
       <c r="AR5">
-        <v>227969.86300746069</v>
+        <v>227969.8630074607</v>
       </c>
       <c r="AS5">
-        <v>264377.39221116318</v>
+        <v>264377.3922111632</v>
       </c>
       <c r="AT5">
-        <v>302223.55317990709</v>
+        <v>302223.5531799071</v>
       </c>
       <c r="AU5">
-        <v>340731.37055592751</v>
+        <v>340731.3705559275</v>
       </c>
       <c r="AV5">
-        <v>379117.74745273072</v>
+        <v>379117.7474527307</v>
       </c>
       <c r="AW5">
-        <v>416658.34723952162</v>
+        <v>416658.3472395216</v>
       </c>
       <c r="AX5">
-        <v>452747.18070648331</v>
+        <v>452747.1807064833</v>
       </c>
       <c r="AY5">
-        <v>486946.32717086998</v>
+        <v>486946.32717087</v>
       </c>
       <c r="AZ5">
-        <v>519023.30897399399</v>
+        <v>519023.308973994</v>
       </c>
       <c r="BA5">
-        <v>548974.48331480857</v>
+        <v>548974.4833148086</v>
       </c>
       <c r="BB5">
-        <v>577032.36350402411</v>
+        <v>577032.3635040241</v>
       </c>
       <c r="BC5">
-        <v>603654.27922197722</v>
+        <v>603654.2792219772</v>
       </c>
       <c r="BD5">
-        <v>629490.89572379494</v>
+        <v>629490.8957237949</v>
       </c>
       <c r="BE5">
-        <v>655336.44361087005</v>
+        <v>655336.44361087</v>
       </c>
       <c r="BF5">
-        <v>682066.82158550539</v>
+        <v>682066.8215855054</v>
       </c>
       <c r="BG5">
-        <v>710574.61534163728</v>
+        <v>710574.6153416373</v>
       </c>
       <c r="BH5">
-        <v>741709.68805834791</v>
+        <v>741709.6880583479</v>
       </c>
       <c r="BI5">
-        <v>776230.52426754462</v>
+        <v>776230.5242675446</v>
       </c>
       <c r="BJ5">
-        <v>814767.11419646756</v>
+        <v>814767.1141964676</v>
       </c>
       <c r="BK5">
         <v>857793.4540198727</v>
       </c>
       <c r="BL5">
-        <v>905607.85209355387</v>
+        <v>905607.8520935539</v>
       </c>
       <c r="BM5">
-        <v>958321.13660097879</v>
+        <v>958321.1366009788</v>
       </c>
       <c r="BN5">
         <v>1015854.424088666</v>
@@ -4496,7 +4463,7 @@
         <v>1077947.975124487</v>
       </c>
       <c r="BP5">
-        <v>1144181.1853009099</v>
+        <v>1144181.18530091</v>
       </c>
       <c r="BQ5">
         <v>1214002.270795167</v>
@@ -4505,13 +4472,13 @@
         <v>1286765.599791741</v>
       </c>
       <c r="BS5">
-        <v>1361774.6872149869</v>
+        <v>1361774.687214987</v>
       </c>
       <c r="BT5">
         <v>1438328.828232873</v>
       </c>
       <c r="BU5">
-        <v>1515770.7590659771</v>
+        <v>1515770.759065977</v>
       </c>
       <c r="BV5">
         <v>1593531.903181314</v>
@@ -4523,19 +4490,19 @@
         <v>1748405.439208823</v>
       </c>
       <c r="BY5">
-        <v>1825125.2527544459</v>
+        <v>1825125.252754446</v>
       </c>
       <c r="BZ5">
-        <v>1901402.2059506259</v>
+        <v>1901402.205950626</v>
       </c>
       <c r="CA5">
-        <v>1977480.9325906599</v>
+        <v>1977480.93259066</v>
       </c>
       <c r="CB5">
-        <v>2053760.8134641971</v>
+        <v>2053760.813464197</v>
       </c>
       <c r="CC5">
-        <v>2130767.2805237742</v>
+        <v>2130767.280523774</v>
       </c>
       <c r="CD5">
         <v>2209115.027639159</v>
@@ -4544,10 +4511,10 @@
         <v>2289466.0707727</v>
       </c>
       <c r="CF5">
-        <v>2372486.1274918308</v>
+        <v>2372486.127491831</v>
       </c>
       <c r="CG5">
-        <v>2458802.7470575678</v>
+        <v>2458802.747057568</v>
       </c>
       <c r="CH5">
         <v>2548968.088627961</v>
@@ -4559,13 +4526,2783 @@
         <v>2742502.277917325</v>
       </c>
       <c r="CK5">
-        <v>2846366.5969175752</v>
+        <v>2846366.596917575</v>
       </c>
       <c r="CL5">
-        <v>2955053.6859233938</v>
+        <v>2955053.685923394</v>
       </c>
       <c r="CM5">
         <v>3068456.296250985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313184253996</v>
+      </c>
+      <c r="C2">
+        <v>113.2051186240275</v>
+      </c>
+      <c r="D2">
+        <v>177.3140570824509</v>
+      </c>
+      <c r="E2">
+        <v>238.1869348257314</v>
+      </c>
+      <c r="F2">
+        <v>336.1717143587543</v>
+      </c>
+      <c r="G2">
+        <v>406.8668793008137</v>
+      </c>
+      <c r="H2">
+        <v>532.6410682284492</v>
+      </c>
+      <c r="I2">
+        <v>652.1833471037365</v>
+      </c>
+      <c r="J2">
+        <v>764.3133564244107</v>
+      </c>
+      <c r="K2">
+        <v>865.5166474294415</v>
+      </c>
+      <c r="L2">
+        <v>1075.33404812003</v>
+      </c>
+      <c r="M2">
+        <v>1218.134244099585</v>
+      </c>
+      <c r="N2">
+        <v>1497.535652844593</v>
+      </c>
+      <c r="O2">
+        <v>1799.095262407582</v>
+      </c>
+      <c r="P2">
+        <v>2123.064640133554</v>
+      </c>
+      <c r="Q2">
+        <v>2832.338536722672</v>
+      </c>
+      <c r="R2">
+        <v>3591.776683953082</v>
+      </c>
+      <c r="S2">
+        <v>4401.893268144049</v>
+      </c>
+      <c r="T2">
+        <v>5263.549349778031</v>
+      </c>
+      <c r="U2">
+        <v>6177.419092458088</v>
+      </c>
+      <c r="V2">
+        <v>7095.298965279189</v>
+      </c>
+      <c r="W2">
+        <v>8063.039866202877</v>
+      </c>
+      <c r="X2">
+        <v>9080.985376418776</v>
+      </c>
+      <c r="Y2">
+        <v>10150.04732106228</v>
+      </c>
+      <c r="Z2">
+        <v>11271.49001129961</v>
+      </c>
+      <c r="AA2">
+        <v>11792.09170083904</v>
+      </c>
+      <c r="AB2">
+        <v>12326.31308088699</v>
+      </c>
+      <c r="AC2">
+        <v>12877.74089007901</v>
+      </c>
+      <c r="AD2">
+        <v>13445.88390975727</v>
+      </c>
+      <c r="AE2">
+        <v>14033.42527425639</v>
+      </c>
+      <c r="AF2">
+        <v>14404.58479389266</v>
+      </c>
+      <c r="AG2">
+        <v>14778.37500162904</v>
+      </c>
+      <c r="AH2">
+        <v>15167.80649748847</v>
+      </c>
+      <c r="AI2">
+        <v>15585.5794238985</v>
+      </c>
+      <c r="AJ2">
+        <v>16030.92484285467</v>
+      </c>
+      <c r="AK2">
+        <v>16621.82425498026</v>
+      </c>
+      <c r="AL2">
+        <v>17280.01588036383</v>
+      </c>
+      <c r="AM2">
+        <v>18030.84071003915</v>
+      </c>
+      <c r="AN2">
+        <v>18900.3049665267</v>
+      </c>
+      <c r="AO2">
+        <v>19853.71857106447</v>
+      </c>
+      <c r="AP2">
+        <v>21040.8075211958</v>
+      </c>
+      <c r="AQ2">
+        <v>22273.52325735351</v>
+      </c>
+      <c r="AR2">
+        <v>23543.58975374432</v>
+      </c>
+      <c r="AS2">
+        <v>24843.07305224759</v>
+      </c>
+      <c r="AT2">
+        <v>26171.5424814029</v>
+      </c>
+      <c r="AU2">
+        <v>27561.50216465646</v>
+      </c>
+      <c r="AV2">
+        <v>28935.08528148376</v>
+      </c>
+      <c r="AW2">
+        <v>30225.18759350458</v>
+      </c>
+      <c r="AX2">
+        <v>31383.71871056161</v>
+      </c>
+      <c r="AY2">
+        <v>32476.3293966141</v>
+      </c>
+      <c r="AZ2">
+        <v>33515.69841211465</v>
+      </c>
+      <c r="BA2">
+        <v>34545.95817553593</v>
+      </c>
+      <c r="BB2">
+        <v>35545.62868474622</v>
+      </c>
+      <c r="BC2">
+        <v>36501.10305649733</v>
+      </c>
+      <c r="BD2">
+        <v>37441.20837474189</v>
+      </c>
+      <c r="BE2">
+        <v>38362.48008534773</v>
+      </c>
+      <c r="BF2">
+        <v>39317.01451813031</v>
+      </c>
+      <c r="BG2">
+        <v>40322.7126796481</v>
+      </c>
+      <c r="BH2">
+        <v>41397.90513885301</v>
+      </c>
+      <c r="BI2">
+        <v>42547.43637850034</v>
+      </c>
+      <c r="BJ2">
+        <v>43753.99469969361</v>
+      </c>
+      <c r="BK2">
+        <v>45044.29259881241</v>
+      </c>
+      <c r="BL2">
+        <v>46418.08831500807</v>
+      </c>
+      <c r="BM2">
+        <v>47866.92714929712</v>
+      </c>
+      <c r="BN2">
+        <v>49361.69838994391</v>
+      </c>
+      <c r="BO2">
+        <v>50868.06540046903</v>
+      </c>
+      <c r="BP2">
+        <v>52389.76125086218</v>
+      </c>
+      <c r="BQ2">
+        <v>53920.220798881</v>
+      </c>
+      <c r="BR2">
+        <v>55444.40079299889</v>
+      </c>
+      <c r="BS2">
+        <v>56933.56872764583</v>
+      </c>
+      <c r="BT2">
+        <v>58348.37944968293</v>
+      </c>
+      <c r="BU2">
+        <v>59696.9208248254</v>
+      </c>
+      <c r="BV2">
+        <v>60996.29049909251</v>
+      </c>
+      <c r="BW2">
+        <v>62264.35271248439</v>
+      </c>
+      <c r="BX2">
+        <v>63508.17033696247</v>
+      </c>
+      <c r="BY2">
+        <v>64715.34261719597</v>
+      </c>
+      <c r="BZ2">
+        <v>65898.98145639403</v>
+      </c>
+      <c r="CA2">
+        <v>67068.76976366845</v>
+      </c>
+      <c r="CB2">
+        <v>68237.55579436352</v>
+      </c>
+      <c r="CC2">
+        <v>69418.46893674534</v>
+      </c>
+      <c r="CD2">
+        <v>70606.44993850807</v>
+      </c>
+      <c r="CE2">
+        <v>71820.51854966694</v>
+      </c>
+      <c r="CF2">
+        <v>73061.19472271521</v>
+      </c>
+      <c r="CG2">
+        <v>74327.21066267684</v>
+      </c>
+      <c r="CH2">
+        <v>75617.40004266612</v>
+      </c>
+      <c r="CI2">
+        <v>76904.32869358175</v>
+      </c>
+      <c r="CJ2">
+        <v>78200.89573319149</v>
+      </c>
+      <c r="CK2">
+        <v>79495.32776904601</v>
+      </c>
+      <c r="CL2">
+        <v>80777.87636955371</v>
+      </c>
+      <c r="CM2">
+        <v>82042.52568107762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.48416770966605</v>
+      </c>
+      <c r="C3">
+        <v>39.8721572856231</v>
+      </c>
+      <c r="D3">
+        <v>62.45154895501207</v>
+      </c>
+      <c r="E3">
+        <v>83.87752921630492</v>
+      </c>
+      <c r="F3">
+        <v>118.5008986878357</v>
+      </c>
+      <c r="G3">
+        <v>143.3951730902594</v>
+      </c>
+      <c r="H3">
+        <v>187.8971001435378</v>
+      </c>
+      <c r="I3">
+        <v>230.1565386341407</v>
+      </c>
+      <c r="J3">
+        <v>269.7667290905005</v>
+      </c>
+      <c r="K3">
+        <v>305.471205864542</v>
+      </c>
+      <c r="L3">
+        <v>379.8753866146906</v>
+      </c>
+      <c r="M3">
+        <v>430.3866373339234</v>
+      </c>
+      <c r="N3">
+        <v>529.5591163167869</v>
+      </c>
+      <c r="O3">
+        <v>636.6166229326749</v>
+      </c>
+      <c r="P3">
+        <v>751.6497027125853</v>
+      </c>
+      <c r="Q3">
+        <v>1003.948528663056</v>
+      </c>
+      <c r="R3">
+        <v>1274.112904522272</v>
+      </c>
+      <c r="S3">
+        <v>1562.326248306573</v>
+      </c>
+      <c r="T3">
+        <v>1868.896034308563</v>
+      </c>
+      <c r="U3">
+        <v>2194.067098902992</v>
+      </c>
+      <c r="V3">
+        <v>2520.668486148179</v>
+      </c>
+      <c r="W3">
+        <v>2865.051632126763</v>
+      </c>
+      <c r="X3">
+        <v>3227.348603069689</v>
+      </c>
+      <c r="Y3">
+        <v>3607.896126487008</v>
+      </c>
+      <c r="Z3">
+        <v>4007.159512240715</v>
+      </c>
+      <c r="AA3">
+        <v>4192.380646997266</v>
+      </c>
+      <c r="AB3">
+        <v>4382.513133710338</v>
+      </c>
+      <c r="AC3">
+        <v>4578.868575264896</v>
+      </c>
+      <c r="AD3">
+        <v>4781.273411576309</v>
+      </c>
+      <c r="AE3">
+        <v>4990.713116828428</v>
+      </c>
+      <c r="AF3">
+        <v>5123.138860281631</v>
+      </c>
+      <c r="AG3">
+        <v>5256.580921906904</v>
+      </c>
+      <c r="AH3">
+        <v>5395.824435178974</v>
+      </c>
+      <c r="AI3">
+        <v>5545.559126354699</v>
+      </c>
+      <c r="AJ3">
+        <v>5705.535056153977</v>
+      </c>
+      <c r="AK3">
+        <v>5918.055996360584</v>
+      </c>
+      <c r="AL3">
+        <v>6155.590265204382</v>
+      </c>
+      <c r="AM3">
+        <v>6427.696371003373</v>
+      </c>
+      <c r="AN3">
+        <v>6744.30051659917</v>
+      </c>
+      <c r="AO3">
+        <v>7092.772529969038</v>
+      </c>
+      <c r="AP3">
+        <v>7525.977256327084</v>
+      </c>
+      <c r="AQ3">
+        <v>7976.829846673955</v>
+      </c>
+      <c r="AR3">
+        <v>8442.268652399909</v>
+      </c>
+      <c r="AS3">
+        <v>8919.338245318449</v>
+      </c>
+      <c r="AT3">
+        <v>9407.915134374805</v>
+      </c>
+      <c r="AU3">
+        <v>9919.379453242735</v>
+      </c>
+      <c r="AV3">
+        <v>10425.04851304228</v>
+      </c>
+      <c r="AW3">
+        <v>10899.17361020436</v>
+      </c>
+      <c r="AX3">
+        <v>11323.14059932974</v>
+      </c>
+      <c r="AY3">
+        <v>11721.97845379027</v>
+      </c>
+      <c r="AZ3">
+        <v>12101.94739614008</v>
+      </c>
+      <c r="BA3">
+        <v>12478.56566760808</v>
+      </c>
+      <c r="BB3">
+        <v>12843.47789071228</v>
+      </c>
+      <c r="BC3">
+        <v>13191.33217260259</v>
+      </c>
+      <c r="BD3">
+        <v>13533.196827585</v>
+      </c>
+      <c r="BE3">
+        <v>13868.82615649769</v>
+      </c>
+      <c r="BF3">
+        <v>14217.23829883089</v>
+      </c>
+      <c r="BG3">
+        <v>14585.34253507545</v>
+      </c>
+      <c r="BH3">
+        <v>14980.22819579039</v>
+      </c>
+      <c r="BI3">
+        <v>15403.74959653437</v>
+      </c>
+      <c r="BJ3">
+        <v>15849.82168588201</v>
+      </c>
+      <c r="BK3">
+        <v>16328.14666142307</v>
+      </c>
+      <c r="BL3">
+        <v>16838.60025170676</v>
+      </c>
+      <c r="BM3">
+        <v>17377.85902194694</v>
+      </c>
+      <c r="BN3">
+        <v>17934.55964085464</v>
+      </c>
+      <c r="BO3">
+        <v>18495.66067538849</v>
+      </c>
+      <c r="BP3">
+        <v>19062.25153046555</v>
+      </c>
+      <c r="BQ3">
+        <v>19631.76147505003</v>
+      </c>
+      <c r="BR3">
+        <v>20198.33421148329</v>
+      </c>
+      <c r="BS3">
+        <v>20750.81965023809</v>
+      </c>
+      <c r="BT3">
+        <v>21274.39259312857</v>
+      </c>
+      <c r="BU3">
+        <v>21771.84096379738</v>
+      </c>
+      <c r="BV3">
+        <v>22249.82366775917</v>
+      </c>
+      <c r="BW3">
+        <v>22715.26762077188</v>
+      </c>
+      <c r="BX3">
+        <v>23170.9071181848</v>
+      </c>
+      <c r="BY3">
+        <v>23612.3076467044</v>
+      </c>
+      <c r="BZ3">
+        <v>24044.18633972695</v>
+      </c>
+      <c r="CA3">
+        <v>24470.24314490556</v>
+      </c>
+      <c r="CB3">
+        <v>24895.35295101936</v>
+      </c>
+      <c r="CC3">
+        <v>25324.45013368918</v>
+      </c>
+      <c r="CD3">
+        <v>25755.85360118405</v>
+      </c>
+      <c r="CE3">
+        <v>26196.30653377727</v>
+      </c>
+      <c r="CF3">
+        <v>26645.85214770929</v>
+      </c>
+      <c r="CG3">
+        <v>27103.84842394538</v>
+      </c>
+      <c r="CH3">
+        <v>27569.68018474936</v>
+      </c>
+      <c r="CI3">
+        <v>28033.31249011574</v>
+      </c>
+      <c r="CJ3">
+        <v>28499.04059780618</v>
+      </c>
+      <c r="CK3">
+        <v>28962.40175190919</v>
+      </c>
+      <c r="CL3">
+        <v>29419.74457496042</v>
+      </c>
+      <c r="CM3">
+        <v>29868.82793711932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.618659289207</v>
+      </c>
+      <c r="C4">
+        <v>6255.89220721378</v>
+      </c>
+      <c r="D4">
+        <v>8716.281860937341</v>
+      </c>
+      <c r="E4">
+        <v>11520.34777869722</v>
+      </c>
+      <c r="F4">
+        <v>15060.81706528602</v>
+      </c>
+      <c r="G4">
+        <v>18362.47046016711</v>
+      </c>
+      <c r="H4">
+        <v>21911.46105340352</v>
+      </c>
+      <c r="I4">
+        <v>25025.68173797709</v>
+      </c>
+      <c r="J4">
+        <v>28407.09666590146</v>
+      </c>
+      <c r="K4">
+        <v>32401.44712174265</v>
+      </c>
+      <c r="L4">
+        <v>36186.12526197545</v>
+      </c>
+      <c r="M4">
+        <v>40551.18710492914</v>
+      </c>
+      <c r="N4">
+        <v>63615.56795869466</v>
+      </c>
+      <c r="O4">
+        <v>86802.4467098079</v>
+      </c>
+      <c r="P4">
+        <v>110079.934599176</v>
+      </c>
+      <c r="Q4">
+        <v>183600.4967224062</v>
+      </c>
+      <c r="R4">
+        <v>257260.4360296945</v>
+      </c>
+      <c r="S4">
+        <v>331079.2821781078</v>
+      </c>
+      <c r="T4">
+        <v>405070.8846883075</v>
+      </c>
+      <c r="U4">
+        <v>479244.3596761512</v>
+      </c>
+      <c r="V4">
+        <v>556689.7693962497</v>
+      </c>
+      <c r="W4">
+        <v>634338.3401471657</v>
+      </c>
+      <c r="X4">
+        <v>712179.3366051574</v>
+      </c>
+      <c r="Y4">
+        <v>790224.4645636231</v>
+      </c>
+      <c r="Z4">
+        <v>868491.2661491022</v>
+      </c>
+      <c r="AA4">
+        <v>890843.1998483334</v>
+      </c>
+      <c r="AB4">
+        <v>913425.869594497</v>
+      </c>
+      <c r="AC4">
+        <v>936270.2610758209</v>
+      </c>
+      <c r="AD4">
+        <v>959350.437382795</v>
+      </c>
+      <c r="AE4">
+        <v>982719.4104679014</v>
+      </c>
+      <c r="AF4">
+        <v>988460.415293159</v>
+      </c>
+      <c r="AG4">
+        <v>994352.0747573957</v>
+      </c>
+      <c r="AH4">
+        <v>1000579.172061732</v>
+      </c>
+      <c r="AI4">
+        <v>1007374.253761123</v>
+      </c>
+      <c r="AJ4">
+        <v>1014853.997995137</v>
+      </c>
+      <c r="AK4">
+        <v>1032192.779526683</v>
+      </c>
+      <c r="AL4">
+        <v>1050848.675590522</v>
+      </c>
+      <c r="AM4">
+        <v>1071026.014045972</v>
+      </c>
+      <c r="AN4">
+        <v>1092900.231576086</v>
+      </c>
+      <c r="AO4">
+        <v>1115912.346489159</v>
+      </c>
+      <c r="AP4">
+        <v>1151413.115909164</v>
+      </c>
+      <c r="AQ4">
+        <v>1187269.322606672</v>
+      </c>
+      <c r="AR4">
+        <v>1223244.588742367</v>
+      </c>
+      <c r="AS4">
+        <v>1259096.523033249</v>
+      </c>
+      <c r="AT4">
+        <v>1294644.929890716</v>
+      </c>
+      <c r="AU4">
+        <v>1333141.931122894</v>
+      </c>
+      <c r="AV4">
+        <v>1370731.294861656</v>
+      </c>
+      <c r="AW4">
+        <v>1406906.105726954</v>
+      </c>
+      <c r="AX4">
+        <v>1441365.110430339</v>
+      </c>
+      <c r="AY4">
+        <v>1474589.005332969</v>
+      </c>
+      <c r="AZ4">
+        <v>1504824.142449128</v>
+      </c>
+      <c r="BA4">
+        <v>1534323.409535305</v>
+      </c>
+      <c r="BB4">
+        <v>1563149.551765877</v>
+      </c>
+      <c r="BC4">
+        <v>1591521.335801785</v>
+      </c>
+      <c r="BD4">
+        <v>1619551.653714874</v>
+      </c>
+      <c r="BE4">
+        <v>1646155.385391615</v>
+      </c>
+      <c r="BF4">
+        <v>1672664.932776381</v>
+      </c>
+      <c r="BG4">
+        <v>1699454.487670324</v>
+      </c>
+      <c r="BH4">
+        <v>1726762.990940517</v>
+      </c>
+      <c r="BI4">
+        <v>1754661.455871494</v>
+      </c>
+      <c r="BJ4">
+        <v>1782970.80008025</v>
+      </c>
+      <c r="BK4">
+        <v>1811852.180853485</v>
+      </c>
+      <c r="BL4">
+        <v>1841167.677546506</v>
+      </c>
+      <c r="BM4">
+        <v>1870737.065989764</v>
+      </c>
+      <c r="BN4">
+        <v>1900342.049950774</v>
+      </c>
+      <c r="BO4">
+        <v>1929834.845687768</v>
+      </c>
+      <c r="BP4">
+        <v>1959126.495526621</v>
+      </c>
+      <c r="BQ4">
+        <v>1988142.729860934</v>
+      </c>
+      <c r="BR4">
+        <v>2016770.176141479</v>
+      </c>
+      <c r="BS4">
+        <v>2044838.707063772</v>
+      </c>
+      <c r="BT4">
+        <v>2071902.080101707</v>
+      </c>
+      <c r="BU4">
+        <v>2098267.646128477</v>
+      </c>
+      <c r="BV4">
+        <v>2124209.034611081</v>
+      </c>
+      <c r="BW4">
+        <v>2150007.314328776</v>
+      </c>
+      <c r="BX4">
+        <v>2175589.60683002</v>
+      </c>
+      <c r="BY4">
+        <v>2200395.699719627</v>
+      </c>
+      <c r="BZ4">
+        <v>2224959.365550567</v>
+      </c>
+      <c r="CA4">
+        <v>2249285.036635786</v>
+      </c>
+      <c r="CB4">
+        <v>2273366.313690383</v>
+      </c>
+      <c r="CC4">
+        <v>2297139.101215007</v>
+      </c>
+      <c r="CD4">
+        <v>2319895.391965031</v>
+      </c>
+      <c r="CE4">
+        <v>2342845.895526642</v>
+      </c>
+      <c r="CF4">
+        <v>2366027.732350533</v>
+      </c>
+      <c r="CG4">
+        <v>2389440.836684528</v>
+      </c>
+      <c r="CH4">
+        <v>2413057.822279939</v>
+      </c>
+      <c r="CI4">
+        <v>2435273.512525776</v>
+      </c>
+      <c r="CJ4">
+        <v>2457552.485637526</v>
+      </c>
+      <c r="CK4">
+        <v>2479820.339374007</v>
+      </c>
+      <c r="CL4">
+        <v>2502028.159583075</v>
+      </c>
+      <c r="CM4">
+        <v>2524151.517888157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3598.012364742959</v>
+      </c>
+      <c r="C5">
+        <v>6230.635013162861</v>
+      </c>
+      <c r="D5">
+        <v>8685.850810373171</v>
+      </c>
+      <c r="E5">
+        <v>11041.36950152555</v>
+      </c>
+      <c r="F5">
+        <v>13762.59881917884</v>
+      </c>
+      <c r="G5">
+        <v>17274.84488638168</v>
+      </c>
+      <c r="H5">
+        <v>21123.28464982027</v>
+      </c>
+      <c r="I5">
+        <v>24274.66414830858</v>
+      </c>
+      <c r="J5">
+        <v>27257.83542495612</v>
+      </c>
+      <c r="K5">
+        <v>30574.39369848658</v>
+      </c>
+      <c r="L5">
+        <v>33935.39213816408</v>
+      </c>
+      <c r="M5">
+        <v>38920.47223939069</v>
+      </c>
+      <c r="N5">
+        <v>75393.07061433198</v>
+      </c>
+      <c r="O5">
+        <v>111917.424750704</v>
+      </c>
+      <c r="P5">
+        <v>148505.6345697672</v>
+      </c>
+      <c r="Q5">
+        <v>270049.456231873</v>
+      </c>
+      <c r="R5">
+        <v>391685.8757804168</v>
+      </c>
+      <c r="S5">
+        <v>513431.9097845037</v>
+      </c>
+      <c r="T5">
+        <v>635307.399931508</v>
+      </c>
+      <c r="U5">
+        <v>757336.7345782686</v>
+      </c>
+      <c r="V5">
+        <v>885411.489459987</v>
+      </c>
+      <c r="W5">
+        <v>1013708.974973703</v>
+      </c>
+      <c r="X5">
+        <v>1142280.427366453</v>
+      </c>
+      <c r="Y5">
+        <v>1271194.943276078</v>
+      </c>
+      <c r="Z5">
+        <v>1400545.791423798</v>
+      </c>
+      <c r="AA5">
+        <v>1436636.419442581</v>
+      </c>
+      <c r="AB5">
+        <v>1473453.024179625</v>
+      </c>
+      <c r="AC5">
+        <v>1511208.476493144</v>
+      </c>
+      <c r="AD5">
+        <v>1550170.748482531</v>
+      </c>
+      <c r="AE5">
+        <v>1590666.85944413</v>
+      </c>
+      <c r="AF5">
+        <v>1601673.654287623</v>
+      </c>
+      <c r="AG5">
+        <v>1614615.836900207</v>
+      </c>
+      <c r="AH5">
+        <v>1629875.640432491</v>
+      </c>
+      <c r="AI5">
+        <v>1648392.867623754</v>
+      </c>
+      <c r="AJ5">
+        <v>1670659.892454402</v>
+      </c>
+      <c r="AK5">
+        <v>1709751.0960878</v>
+      </c>
+      <c r="AL5">
+        <v>1753224.03880487</v>
+      </c>
+      <c r="AM5">
+        <v>1801160.200450991</v>
+      </c>
+      <c r="AN5">
+        <v>1853422.671639486</v>
+      </c>
+      <c r="AO5">
+        <v>1909625.104383784</v>
+      </c>
+      <c r="AP5">
+        <v>1987241.048367802</v>
+      </c>
+      <c r="AQ5">
+        <v>2067359.944062479</v>
+      </c>
+      <c r="AR5">
+        <v>2148990.976801988</v>
+      </c>
+      <c r="AS5">
+        <v>2231040.034595245</v>
+      </c>
+      <c r="AT5">
+        <v>2312393.599805316</v>
+      </c>
+      <c r="AU5">
+        <v>2397198.071399991</v>
+      </c>
+      <c r="AV5">
+        <v>2479362.433971948</v>
+      </c>
+      <c r="AW5">
+        <v>2558195.215848153</v>
+      </c>
+      <c r="AX5">
+        <v>2633250.406297821</v>
+      </c>
+      <c r="AY5">
+        <v>2704341.674511318</v>
+      </c>
+      <c r="AZ5">
+        <v>2768438.901689438</v>
+      </c>
+      <c r="BA5">
+        <v>2828931.853315635</v>
+      </c>
+      <c r="BB5">
+        <v>2886301.763106867</v>
+      </c>
+      <c r="BC5">
+        <v>2941165.617832595</v>
+      </c>
+      <c r="BD5">
+        <v>2994215.242927051</v>
+      </c>
+      <c r="BE5">
+        <v>3044419.529537418</v>
+      </c>
+      <c r="BF5">
+        <v>3094165.769920531</v>
+      </c>
+      <c r="BG5">
+        <v>3144010.508136303</v>
+      </c>
+      <c r="BH5">
+        <v>3194381.479354791</v>
+      </c>
+      <c r="BI5">
+        <v>3245562.573122296</v>
+      </c>
+      <c r="BJ5">
+        <v>3297397.009715243</v>
+      </c>
+      <c r="BK5">
+        <v>3350183.381630884</v>
+      </c>
+      <c r="BL5">
+        <v>3403803.696857086</v>
+      </c>
+      <c r="BM5">
+        <v>3458039.500222167</v>
+      </c>
+      <c r="BN5">
+        <v>3512596.13704799</v>
+      </c>
+      <c r="BO5">
+        <v>3567147.285775361</v>
+      </c>
+      <c r="BP5">
+        <v>3621310.083585646</v>
+      </c>
+      <c r="BQ5">
+        <v>3674723.926299369</v>
+      </c>
+      <c r="BR5">
+        <v>3727055.847714219</v>
+      </c>
+      <c r="BS5">
+        <v>3778018.724706032</v>
+      </c>
+      <c r="BT5">
+        <v>3826874.686540275</v>
+      </c>
+      <c r="BU5">
+        <v>3873970.396475677</v>
+      </c>
+      <c r="BV5">
+        <v>3919209.713237822</v>
+      </c>
+      <c r="BW5">
+        <v>3962558.44516162</v>
+      </c>
+      <c r="BX5">
+        <v>4004034.712228265</v>
+      </c>
+      <c r="BY5">
+        <v>4042843.910225661</v>
+      </c>
+      <c r="BZ5">
+        <v>4079919.000418309</v>
+      </c>
+      <c r="CA5">
+        <v>4115348.854511627</v>
+      </c>
+      <c r="CB5">
+        <v>4149215.153970495</v>
+      </c>
+      <c r="CC5">
+        <v>4181579.556894056</v>
+      </c>
+      <c r="CD5">
+        <v>4211036.703722811</v>
+      </c>
+      <c r="CE5">
+        <v>4239020.958266838</v>
+      </c>
+      <c r="CF5">
+        <v>4265492.408854885</v>
+      </c>
+      <c r="CG5">
+        <v>4290376.935872218</v>
+      </c>
+      <c r="CH5">
+        <v>4313572.113869977</v>
+      </c>
+      <c r="CI5">
+        <v>4332706.875056687</v>
+      </c>
+      <c r="CJ5">
+        <v>4349897.930336345</v>
+      </c>
+      <c r="CK5">
+        <v>4365013.794395157</v>
+      </c>
+      <c r="CL5">
+        <v>4377933.744950946</v>
+      </c>
+      <c r="CM5">
+        <v>4388556.545403177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828165E-11</v>
+      </c>
+      <c r="C2">
+        <v>3.617746996228148E-10</v>
+      </c>
+      <c r="D2">
+        <v>3.006684872172243E-09</v>
+      </c>
+      <c r="E2">
+        <v>2.095320625685701E-08</v>
+      </c>
+      <c r="F2">
+        <v>1.261246519112247E-07</v>
+      </c>
+      <c r="G2">
+        <v>6.69160095893308E-07</v>
+      </c>
+      <c r="H2">
+        <v>3.180129245194235E-06</v>
+      </c>
+      <c r="I2">
+        <v>1.371742325092338E-05</v>
+      </c>
+      <c r="J2">
+        <v>5.428358598040136E-05</v>
+      </c>
+      <c r="K2">
+        <v>0.000198692957510336</v>
+      </c>
+      <c r="L2">
+        <v>0.0006757458376157194</v>
+      </c>
+      <c r="M2">
+        <v>0.002130254181665698</v>
+      </c>
+      <c r="N2">
+        <v>0.006122494201164547</v>
+      </c>
+      <c r="O2">
+        <v>0.03099947905074821</v>
+      </c>
+      <c r="P2">
+        <v>0.1192370976466168</v>
+      </c>
+      <c r="Q2">
+        <v>0.2773239877805185</v>
+      </c>
+      <c r="R2">
+        <v>0.4663078073162408</v>
+      </c>
+      <c r="S2">
+        <v>0.7114405024997265</v>
+      </c>
+      <c r="T2">
+        <v>1.086324738415135</v>
+      </c>
+      <c r="U2">
+        <v>1.657362698264588</v>
+      </c>
+      <c r="V2">
+        <v>2.556076627566408</v>
+      </c>
+      <c r="W2">
+        <v>3.92127743076728</v>
+      </c>
+      <c r="X2">
+        <v>5.807786549146432</v>
+      </c>
+      <c r="Y2">
+        <v>8.33099760137312</v>
+      </c>
+      <c r="Z2">
+        <v>11.64639300887963</v>
+      </c>
+      <c r="AA2">
+        <v>15.60042369163708</v>
+      </c>
+      <c r="AB2">
+        <v>20.31538745426463</v>
+      </c>
+      <c r="AC2">
+        <v>26.21540275988183</v>
+      </c>
+      <c r="AD2">
+        <v>33.21703985087873</v>
+      </c>
+      <c r="AE2">
+        <v>41.6221503892676</v>
+      </c>
+      <c r="AF2">
+        <v>50.91387413597941</v>
+      </c>
+      <c r="AG2">
+        <v>60.91343995657223</v>
+      </c>
+      <c r="AH2">
+        <v>73.27245559413046</v>
+      </c>
+      <c r="AI2">
+        <v>89.59734888837839</v>
+      </c>
+      <c r="AJ2">
+        <v>109.7956174425813</v>
+      </c>
+      <c r="AK2">
+        <v>136.1639343711726</v>
+      </c>
+      <c r="AL2">
+        <v>171.5239640654552</v>
+      </c>
+      <c r="AM2">
+        <v>219.8303630075135</v>
+      </c>
+      <c r="AN2">
+        <v>285.4984265882968</v>
+      </c>
+      <c r="AO2">
+        <v>364.3571399039349</v>
+      </c>
+      <c r="AP2">
+        <v>451.4942405874086</v>
+      </c>
+      <c r="AQ2">
+        <v>546.4195073028366</v>
+      </c>
+      <c r="AR2">
+        <v>648.563980753959</v>
+      </c>
+      <c r="AS2">
+        <v>757.3965899761768</v>
+      </c>
+      <c r="AT2">
+        <v>873.6484390009534</v>
+      </c>
+      <c r="AU2">
+        <v>996.4291224596359</v>
+      </c>
+      <c r="AV2">
+        <v>1119.583271009095</v>
+      </c>
+      <c r="AW2">
+        <v>1230.339814514292</v>
+      </c>
+      <c r="AX2">
+        <v>1318.149656255258</v>
+      </c>
+      <c r="AY2">
+        <v>1395.012815515804</v>
+      </c>
+      <c r="AZ2">
+        <v>1474.077715331046</v>
+      </c>
+      <c r="BA2">
+        <v>1554.064771024663</v>
+      </c>
+      <c r="BB2">
+        <v>1629.686525910317</v>
+      </c>
+      <c r="BC2">
+        <v>1696.811812644422</v>
+      </c>
+      <c r="BD2">
+        <v>1761.757233689459</v>
+      </c>
+      <c r="BE2">
+        <v>1833.064936809997</v>
+      </c>
+      <c r="BF2">
+        <v>1915.339415542082</v>
+      </c>
+      <c r="BG2">
+        <v>2014.423421584897</v>
+      </c>
+      <c r="BH2">
+        <v>2137.128566951795</v>
+      </c>
+      <c r="BI2">
+        <v>2286.816453783267</v>
+      </c>
+      <c r="BJ2">
+        <v>2466.851067340603</v>
+      </c>
+      <c r="BK2">
+        <v>2682.128069083093</v>
+      </c>
+      <c r="BL2">
+        <v>2935.673787244356</v>
+      </c>
+      <c r="BM2">
+        <v>3227.608996644477</v>
+      </c>
+      <c r="BN2">
+        <v>3549.285908436993</v>
+      </c>
+      <c r="BO2">
+        <v>3892.993404575263</v>
+      </c>
+      <c r="BP2">
+        <v>4257.606834707323</v>
+      </c>
+      <c r="BQ2">
+        <v>4641.833229145106</v>
+      </c>
+      <c r="BR2">
+        <v>5039.730172726187</v>
+      </c>
+      <c r="BS2">
+        <v>5436.850361198109</v>
+      </c>
+      <c r="BT2">
+        <v>5817.590265731931</v>
+      </c>
+      <c r="BU2">
+        <v>6176.947425265622</v>
+      </c>
+      <c r="BV2">
+        <v>6522.972983550374</v>
+      </c>
+      <c r="BW2">
+        <v>6865.692686251878</v>
+      </c>
+      <c r="BX2">
+        <v>7209.157305011775</v>
+      </c>
+      <c r="BY2">
+        <v>7552.182198084083</v>
+      </c>
+      <c r="BZ2">
+        <v>7894.999398042806</v>
+      </c>
+      <c r="CA2">
+        <v>8244.729800045803</v>
+      </c>
+      <c r="CB2">
+        <v>8612.637712373611</v>
+      </c>
+      <c r="CC2">
+        <v>9012.338927214536</v>
+      </c>
+      <c r="CD2">
+        <v>9456.431094200072</v>
+      </c>
+      <c r="CE2">
+        <v>9954.100480689289</v>
+      </c>
+      <c r="CF2">
+        <v>10511.52218050056</v>
+      </c>
+      <c r="CG2">
+        <v>11133.65344702851</v>
+      </c>
+      <c r="CH2">
+        <v>11826.41618358032</v>
+      </c>
+      <c r="CI2">
+        <v>12591.75243639905</v>
+      </c>
+      <c r="CJ2">
+        <v>13423.75788996732</v>
+      </c>
+      <c r="CK2">
+        <v>14310.83859339154</v>
+      </c>
+      <c r="CL2">
+        <v>15241.79298465066</v>
+      </c>
+      <c r="CM2">
+        <v>16209.77475046188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.002726667188771785</v>
+      </c>
+      <c r="P3">
+        <v>0.01248123138918961</v>
+      </c>
+      <c r="Q3">
+        <v>0.03001377631474365</v>
+      </c>
+      <c r="R3">
+        <v>0.05092939456600241</v>
+      </c>
+      <c r="S3">
+        <v>0.07784438287620943</v>
+      </c>
+      <c r="T3">
+        <v>0.1183819668076656</v>
+      </c>
+      <c r="U3">
+        <v>0.1785747628496303</v>
+      </c>
+      <c r="V3">
+        <v>0.2705370856442703</v>
+      </c>
+      <c r="W3">
+        <v>0.4067592617245478</v>
+      </c>
+      <c r="X3">
+        <v>0.5910046862369616</v>
+      </c>
+      <c r="Y3">
+        <v>0.8329564179160978</v>
+      </c>
+      <c r="Z3">
+        <v>1.145901311855948</v>
+      </c>
+      <c r="AA3">
+        <v>1.514072980833666</v>
+      </c>
+      <c r="AB3">
+        <v>1.947893964874947</v>
+      </c>
+      <c r="AC3">
+        <v>2.485040061227728</v>
+      </c>
+      <c r="AD3">
+        <v>3.116412491386562</v>
+      </c>
+      <c r="AE3">
+        <v>3.867655528418367</v>
+      </c>
+      <c r="AF3">
+        <v>4.69115130975584</v>
+      </c>
+      <c r="AG3">
+        <v>5.570033981105242</v>
+      </c>
+      <c r="AH3">
+        <v>6.647145354998036</v>
+      </c>
+      <c r="AI3">
+        <v>8.05736925363939</v>
+      </c>
+      <c r="AJ3">
+        <v>9.785772110330448</v>
+      </c>
+      <c r="AK3">
+        <v>12.01905511574835</v>
+      </c>
+      <c r="AL3">
+        <v>14.98017120055124</v>
+      </c>
+      <c r="AM3">
+        <v>18.97504430231588</v>
+      </c>
+      <c r="AN3">
+        <v>24.33074360947558</v>
+      </c>
+      <c r="AO3">
+        <v>30.66404145920856</v>
+      </c>
+      <c r="AP3">
+        <v>37.55958614452054</v>
+      </c>
+      <c r="AQ3">
+        <v>44.98175699173167</v>
+      </c>
+      <c r="AR3">
+        <v>52.89428503556446</v>
+      </c>
+      <c r="AS3">
+        <v>61.26820549872169</v>
+      </c>
+      <c r="AT3">
+        <v>70.17440501884343</v>
+      </c>
+      <c r="AU3">
+        <v>79.56130746356909</v>
+      </c>
+      <c r="AV3">
+        <v>88.97659420540579</v>
+      </c>
+      <c r="AW3">
+        <v>97.45959879374357</v>
+      </c>
+      <c r="AX3">
+        <v>104.2084885091803</v>
+      </c>
+      <c r="AY3">
+        <v>110.145114658355</v>
+      </c>
+      <c r="AZ3">
+        <v>116.2894450115197</v>
+      </c>
+      <c r="BA3">
+        <v>122.5503201543186</v>
+      </c>
+      <c r="BB3">
+        <v>128.5174497162895</v>
+      </c>
+      <c r="BC3">
+        <v>133.8608435237683</v>
+      </c>
+      <c r="BD3">
+        <v>139.0792446649043</v>
+      </c>
+      <c r="BE3">
+        <v>144.8651610589332</v>
+      </c>
+      <c r="BF3">
+        <v>151.6086758101665</v>
+      </c>
+      <c r="BG3">
+        <v>159.8141722177719</v>
+      </c>
+      <c r="BH3">
+        <v>170.0825214264684</v>
+      </c>
+      <c r="BI3">
+        <v>182.7410890401897</v>
+      </c>
+      <c r="BJ3">
+        <v>198.1265098043515</v>
+      </c>
+      <c r="BK3">
+        <v>216.7164551787916</v>
+      </c>
+      <c r="BL3">
+        <v>238.8380088735988</v>
+      </c>
+      <c r="BM3">
+        <v>264.5692042340708</v>
+      </c>
+      <c r="BN3">
+        <v>293.2063207428424</v>
+      </c>
+      <c r="BO3">
+        <v>324.1053744773599</v>
+      </c>
+      <c r="BP3">
+        <v>357.198503521055</v>
+      </c>
+      <c r="BQ3">
+        <v>392.3980331316853</v>
+      </c>
+      <c r="BR3">
+        <v>429.1817146672769</v>
+      </c>
+      <c r="BS3">
+        <v>466.2180716519906</v>
+      </c>
+      <c r="BT3">
+        <v>502.0310725036993</v>
+      </c>
+      <c r="BU3">
+        <v>536.1132627480673</v>
+      </c>
+      <c r="BV3">
+        <v>569.1944044265171</v>
+      </c>
+      <c r="BW3">
+        <v>602.21347300969</v>
+      </c>
+      <c r="BX3">
+        <v>635.5518274476302</v>
+      </c>
+      <c r="BY3">
+        <v>669.0875986714595</v>
+      </c>
+      <c r="BZ3">
+        <v>702.8358579849773</v>
+      </c>
+      <c r="CA3">
+        <v>737.4948312183792</v>
+      </c>
+      <c r="CB3">
+        <v>774.1896235352021</v>
+      </c>
+      <c r="CC3">
+        <v>814.3017308673667</v>
+      </c>
+      <c r="CD3">
+        <v>859.1330898615433</v>
+      </c>
+      <c r="CE3">
+        <v>909.6591045992458</v>
+      </c>
+      <c r="CF3">
+        <v>966.5604320134579</v>
+      </c>
+      <c r="CG3">
+        <v>1030.399511781295</v>
+      </c>
+      <c r="CH3">
+        <v>1101.842467587167</v>
+      </c>
+      <c r="CI3">
+        <v>1181.148150973871</v>
+      </c>
+      <c r="CJ3">
+        <v>1267.757489044143</v>
+      </c>
+      <c r="CK3">
+        <v>1360.504542212249</v>
+      </c>
+      <c r="CL3">
+        <v>1458.245872023331</v>
+      </c>
+      <c r="CM3">
+        <v>1560.280295474228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02048270970275495</v>
+      </c>
+      <c r="C4">
+        <v>0.05781840164800088</v>
+      </c>
+      <c r="D4">
+        <v>0.1236904711450395</v>
+      </c>
+      <c r="E4">
+        <v>0.2372338852573775</v>
+      </c>
+      <c r="F4">
+        <v>0.4292655741774788</v>
+      </c>
+      <c r="G4">
+        <v>0.7483454349689673</v>
+      </c>
+      <c r="H4">
+        <v>1.270356839384121</v>
+      </c>
+      <c r="I4">
+        <v>2.117082912948548</v>
+      </c>
+      <c r="J4">
+        <v>3.499932795144193</v>
+      </c>
+      <c r="K4">
+        <v>5.831776714076065</v>
+      </c>
+      <c r="L4">
+        <v>10.0014942856987</v>
+      </c>
+      <c r="M4">
+        <v>17.91436768398335</v>
+      </c>
+      <c r="N4">
+        <v>32.85122260730485</v>
+      </c>
+      <c r="O4">
+        <v>57.94280373666675</v>
+      </c>
+      <c r="P4">
+        <v>90.72662967996203</v>
+      </c>
+      <c r="Q4">
+        <v>129.1204394231098</v>
+      </c>
+      <c r="R4">
+        <v>175.4534838337935</v>
+      </c>
+      <c r="S4">
+        <v>233.1910007991289</v>
+      </c>
+      <c r="T4">
+        <v>305.5239564679906</v>
+      </c>
+      <c r="U4">
+        <v>395.2846804961514</v>
+      </c>
+      <c r="V4">
+        <v>507.1118933253856</v>
+      </c>
+      <c r="W4">
+        <v>645.6059979072714</v>
+      </c>
+      <c r="X4">
+        <v>812.3760142972422</v>
+      </c>
+      <c r="Y4">
+        <v>1013.491829963993</v>
+      </c>
+      <c r="Z4">
+        <v>1257.389020626259</v>
+      </c>
+      <c r="AA4">
+        <v>1552.605695494695</v>
+      </c>
+      <c r="AB4">
+        <v>1920.286126124137</v>
+      </c>
+      <c r="AC4">
+        <v>2378.666571234434</v>
+      </c>
+      <c r="AD4">
+        <v>2936.785332102919</v>
+      </c>
+      <c r="AE4">
+        <v>3623.860237506751</v>
+      </c>
+      <c r="AF4">
+        <v>4484.051852636123</v>
+      </c>
+      <c r="AG4">
+        <v>5573.016597555496</v>
+      </c>
+      <c r="AH4">
+        <v>6953.416021337773</v>
+      </c>
+      <c r="AI4">
+        <v>8692.151672742359</v>
+      </c>
+      <c r="AJ4">
+        <v>10889.59978226705</v>
+      </c>
+      <c r="AK4">
+        <v>13659.51647712075</v>
+      </c>
+      <c r="AL4">
+        <v>17070.45769225916</v>
+      </c>
+      <c r="AM4">
+        <v>21226.23058493312</v>
+      </c>
+      <c r="AN4">
+        <v>26217.72209940236</v>
+      </c>
+      <c r="AO4">
+        <v>31902.76940123322</v>
+      </c>
+      <c r="AP4">
+        <v>38112.76529857882</v>
+      </c>
+      <c r="AQ4">
+        <v>44772.1116014241</v>
+      </c>
+      <c r="AR4">
+        <v>51783.25551733111</v>
+      </c>
+      <c r="AS4">
+        <v>59030.19124516856</v>
+      </c>
+      <c r="AT4">
+        <v>66404.42013515648</v>
+      </c>
+      <c r="AU4">
+        <v>73769.34373043127</v>
+      </c>
+      <c r="AV4">
+        <v>80924.37641005139</v>
+      </c>
+      <c r="AW4">
+        <v>87608.92479972533</v>
+      </c>
+      <c r="AX4">
+        <v>93634.1422827761</v>
+      </c>
+      <c r="AY4">
+        <v>99132.66402725285</v>
+      </c>
+      <c r="AZ4">
+        <v>104258.5419482345</v>
+      </c>
+      <c r="BA4">
+        <v>109011.5862107806</v>
+      </c>
+      <c r="BB4">
+        <v>113393.2559867821</v>
+      </c>
+      <c r="BC4">
+        <v>117452.1987507578</v>
+      </c>
+      <c r="BD4">
+        <v>121339.9487461163</v>
+      </c>
+      <c r="BE4">
+        <v>125235.8356541958</v>
+      </c>
+      <c r="BF4">
+        <v>129302.2583003481</v>
+      </c>
+      <c r="BG4">
+        <v>133722.6608845339</v>
+      </c>
+      <c r="BH4">
+        <v>138674.8018914617</v>
+      </c>
+      <c r="BI4">
+        <v>144268.2271183449</v>
+      </c>
+      <c r="BJ4">
+        <v>150579.9500312269</v>
+      </c>
+      <c r="BK4">
+        <v>157658.8913472357</v>
+      </c>
+      <c r="BL4">
+        <v>165485.7651598449</v>
+      </c>
+      <c r="BM4">
+        <v>173996.983937121</v>
+      </c>
+      <c r="BN4">
+        <v>183075.2519418533</v>
+      </c>
+      <c r="BO4">
+        <v>192612.3410111907</v>
+      </c>
+      <c r="BP4">
+        <v>202534.0127522515</v>
+      </c>
+      <c r="BQ4">
+        <v>212752.7523892442</v>
+      </c>
+      <c r="BR4">
+        <v>223141.8079334117</v>
+      </c>
+      <c r="BS4">
+        <v>233521.6004284928</v>
+      </c>
+      <c r="BT4">
+        <v>243721.4201454706</v>
+      </c>
+      <c r="BU4">
+        <v>253663.4367430986</v>
+      </c>
+      <c r="BV4">
+        <v>263374.0967527035</v>
+      </c>
+      <c r="BW4">
+        <v>272899.4917695785</v>
+      </c>
+      <c r="BX4">
+        <v>282252.4774975313</v>
+      </c>
+      <c r="BY4">
+        <v>291430.8589032764</v>
+      </c>
+      <c r="BZ4">
+        <v>300454.9373739939</v>
+      </c>
+      <c r="CA4">
+        <v>309385.497423282</v>
+      </c>
+      <c r="CB4">
+        <v>318315.070831197</v>
+      </c>
+      <c r="CC4">
+        <v>327366.0637950298</v>
+      </c>
+      <c r="CD4">
+        <v>336670.5603397385</v>
+      </c>
+      <c r="CE4">
+        <v>346340.091726217</v>
+      </c>
+      <c r="CF4">
+        <v>356451.3754838161</v>
+      </c>
+      <c r="CG4">
+        <v>367050.6267333128</v>
+      </c>
+      <c r="CH4">
+        <v>378159.2065985826</v>
+      </c>
+      <c r="CI4">
+        <v>389760.5858314035</v>
+      </c>
+      <c r="CJ4">
+        <v>401802.0524418952</v>
+      </c>
+      <c r="CK4">
+        <v>414214.573045765</v>
+      </c>
+      <c r="CL4">
+        <v>426933.702051371</v>
+      </c>
+      <c r="CM4">
+        <v>439904.5856104695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.003127542460117912</v>
+      </c>
+      <c r="D5">
+        <v>0.006661634148447663</v>
+      </c>
+      <c r="E5">
+        <v>0.01271385451400339</v>
+      </c>
+      <c r="F5">
+        <v>0.02287953624076057</v>
+      </c>
+      <c r="G5">
+        <v>0.03962962767554074</v>
+      </c>
+      <c r="H5">
+        <v>0.06666155456443876</v>
+      </c>
+      <c r="I5">
+        <v>0.1093243876033211</v>
+      </c>
+      <c r="J5">
+        <v>0.1751234629233177</v>
+      </c>
+      <c r="K5">
+        <v>0.2743016860166777</v>
+      </c>
+      <c r="L5">
+        <v>0.4204752777975791</v>
+      </c>
+      <c r="M5">
+        <v>0.6312862370772219</v>
+      </c>
+      <c r="N5">
+        <v>0.9290241355424438</v>
+      </c>
+      <c r="O5">
+        <v>2.276688082881025</v>
+      </c>
+      <c r="P5">
+        <v>5.366262116736842</v>
+      </c>
+      <c r="Q5">
+        <v>11.12157820848638</v>
+      </c>
+      <c r="R5">
+        <v>20.71964064683751</v>
+      </c>
+      <c r="S5">
+        <v>35.60515690344359</v>
+      </c>
+      <c r="T5">
+        <v>57.50810152383586</v>
+      </c>
+      <c r="U5">
+        <v>88.47833829874685</v>
+      </c>
+      <c r="V5">
+        <v>131.2074396421064</v>
+      </c>
+      <c r="W5">
+        <v>189.4878106126538</v>
+      </c>
+      <c r="X5">
+        <v>268.497817645483</v>
+      </c>
+      <c r="Y5">
+        <v>375.3779176457761</v>
+      </c>
+      <c r="Z5">
+        <v>519.986710284627</v>
+      </c>
+      <c r="AA5">
+        <v>715.8565441275848</v>
+      </c>
+      <c r="AB5">
+        <v>981.3528023925007</v>
+      </c>
+      <c r="AC5">
+        <v>1341.00843907747</v>
+      </c>
+      <c r="AD5">
+        <v>1826.947359870708</v>
+      </c>
+      <c r="AE5">
+        <v>2480.254539890943</v>
+      </c>
+      <c r="AF5">
+        <v>3352.098500531193</v>
+      </c>
+      <c r="AG5">
+        <v>4504.358249492102</v>
+      </c>
+      <c r="AH5">
+        <v>6009.462398055409</v>
+      </c>
+      <c r="AI5">
+        <v>7949.122817945115</v>
+      </c>
+      <c r="AJ5">
+        <v>10411.66396910193</v>
+      </c>
+      <c r="AK5">
+        <v>13487.72909512062</v>
+      </c>
+      <c r="AL5">
+        <v>17264.30242170465</v>
+      </c>
+      <c r="AM5">
+        <v>21817.23819463596</v>
+      </c>
+      <c r="AN5">
+        <v>27202.82423506092</v>
+      </c>
+      <c r="AO5">
+        <v>33449.27513997552</v>
+      </c>
+      <c r="AP5">
+        <v>40544.21045113744</v>
+      </c>
+      <c r="AQ5">
+        <v>48427.10505508015</v>
+      </c>
+      <c r="AR5">
+        <v>56992.46575186515</v>
+      </c>
+      <c r="AS5">
+        <v>66094.34805279078</v>
+      </c>
+      <c r="AT5">
+        <v>75555.88829497676</v>
+      </c>
+      <c r="AU5">
+        <v>85182.84263898186</v>
+      </c>
+      <c r="AV5">
+        <v>94779.43686318267</v>
+      </c>
+      <c r="AW5">
+        <v>104164.5868098804</v>
+      </c>
+      <c r="AX5">
+        <v>113186.7951766208</v>
+      </c>
+      <c r="AY5">
+        <v>121736.5817927175</v>
+      </c>
+      <c r="AZ5">
+        <v>129755.8272434985</v>
+      </c>
+      <c r="BA5">
+        <v>137243.6208287021</v>
+      </c>
+      <c r="BB5">
+        <v>144258.090876006</v>
+      </c>
+      <c r="BC5">
+        <v>150913.5698054943</v>
+      </c>
+      <c r="BD5">
+        <v>157372.7239309487</v>
+      </c>
+      <c r="BE5">
+        <v>163834.1109027175</v>
+      </c>
+      <c r="BF5">
+        <v>170516.7053963763</v>
+      </c>
+      <c r="BG5">
+        <v>177643.6538354093</v>
+      </c>
+      <c r="BH5">
+        <v>185427.4220145869</v>
+      </c>
+      <c r="BI5">
+        <v>194057.6310668861</v>
+      </c>
+      <c r="BJ5">
+        <v>203691.7785491169</v>
+      </c>
+      <c r="BK5">
+        <v>214448.3635049681</v>
+      </c>
+      <c r="BL5">
+        <v>226401.9630233884</v>
+      </c>
+      <c r="BM5">
+        <v>239580.2841502447</v>
+      </c>
+      <c r="BN5">
+        <v>253963.6060221664</v>
+      </c>
+      <c r="BO5">
+        <v>269486.9937811219</v>
+      </c>
+      <c r="BP5">
+        <v>286045.2963252276</v>
+      </c>
+      <c r="BQ5">
+        <v>303500.5676987919</v>
+      </c>
+      <c r="BR5">
+        <v>321691.3999479352</v>
+      </c>
+      <c r="BS5">
+        <v>340443.6718037468</v>
+      </c>
+      <c r="BT5">
+        <v>359582.2070582182</v>
+      </c>
+      <c r="BU5">
+        <v>378942.6897664943</v>
+      </c>
+      <c r="BV5">
+        <v>398382.9757953284</v>
+      </c>
+      <c r="BW5">
+        <v>417792.8444838509</v>
+      </c>
+      <c r="BX5">
+        <v>437101.3598022057</v>
+      </c>
+      <c r="BY5">
+        <v>456281.3131886115</v>
+      </c>
+      <c r="BZ5">
+        <v>475350.5514876565</v>
+      </c>
+      <c r="CA5">
+        <v>494370.2331476649</v>
+      </c>
+      <c r="CB5">
+        <v>513440.2033660492</v>
+      </c>
+      <c r="CC5">
+        <v>532691.8201309434</v>
+      </c>
+      <c r="CD5">
+        <v>552278.7569097896</v>
+      </c>
+      <c r="CE5">
+        <v>572366.5176931748</v>
+      </c>
+      <c r="CF5">
+        <v>593121.5318729577</v>
+      </c>
+      <c r="CG5">
+        <v>614700.6867643918</v>
+      </c>
+      <c r="CH5">
+        <v>637242.0221569902</v>
+      </c>
+      <c r="CI5">
+        <v>660857.1232611105</v>
+      </c>
+      <c r="CJ5">
+        <v>685625.569479331</v>
+      </c>
+      <c r="CK5">
+        <v>711591.6492293937</v>
+      </c>
+      <c r="CL5">
+        <v>738763.4214808485</v>
+      </c>
+      <c r="CM5">
+        <v>767114.0740627461</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Emissions/RR/Cumulative_Emission_target.xlsx
+++ b/Results/Emissions/RR/Cumulative_Emission_target.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_4237762FDC250B5FB0A015A3332A550C59FF5A3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A64E11-8ACB-40A6-B4C7-B113596CCD8C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,25 @@
     <sheet name="Primary" sheetId="4" r:id="rId4"/>
     <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Neodymium</t>
   </si>
@@ -31,12 +50,15 @@
   <si>
     <t>Raw silicon</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +68,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,27 +114,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,14 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CM1" sqref="CM1:CM5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -665,36 +715,36 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184258693</v>
+        <v>46.873131842586929</v>
       </c>
       <c r="C2">
-        <v>113.2051186245371</v>
+        <v>113.20511862453711</v>
       </c>
       <c r="D2">
-        <v>177.3140570866857</v>
+        <v>177.31405708668569</v>
       </c>
       <c r="E2">
-        <v>238.186934855243</v>
+        <v>238.18693485524301</v>
       </c>
       <c r="F2">
-        <v>336.1717145363947</v>
+        <v>336.17171453639469</v>
       </c>
       <c r="G2">
-        <v>406.8668802432928</v>
+        <v>406.86688024329283</v>
       </c>
       <c r="H2">
-        <v>532.6410727075046</v>
+        <v>532.64107270750458</v>
       </c>
       <c r="I2">
         <v>652.1833664240512</v>
       </c>
       <c r="J2">
-        <v>764.3134328801657</v>
+        <v>764.31343288016569</v>
       </c>
       <c r="K2">
         <v>865.5169272786776</v>
@@ -706,40 +756,40 @@
         <v>1218.137244457587</v>
       </c>
       <c r="N2">
-        <v>1497.544276075862</v>
+        <v>1497.5442760758619</v>
       </c>
       <c r="O2">
-        <v>1799.138923645682</v>
+        <v>1799.1389236456821</v>
       </c>
       <c r="P2">
-        <v>2123.232579707704</v>
+        <v>2123.2325797077042</v>
       </c>
       <c r="Q2">
-        <v>2832.72913388856</v>
+        <v>2832.7291338885602</v>
       </c>
       <c r="R2">
         <v>3592.433455512682</v>
       </c>
       <c r="S2">
-        <v>4402.895297020808</v>
+        <v>4402.8952970208084</v>
       </c>
       <c r="T2">
         <v>5265.079384620868</v>
       </c>
       <c r="U2">
-        <v>6179.753406117617</v>
+        <v>6179.7534061176166</v>
       </c>
       <c r="V2">
-        <v>7098.89907320534</v>
+        <v>7098.8990732053398</v>
       </c>
       <c r="W2">
-        <v>8068.562792161704</v>
+        <v>8068.5627921617042</v>
       </c>
       <c r="X2">
-        <v>9089.16535747391</v>
+        <v>9089.1653574739103</v>
       </c>
       <c r="Y2">
-        <v>10161.78112050083</v>
+        <v>10161.781120500829</v>
       </c>
       <c r="Z2">
         <v>11287.89338173465</v>
@@ -748,22 +798,22 @@
         <v>11814.06412857374</v>
       </c>
       <c r="AB2">
-        <v>12354.92630265356</v>
+        <v>12354.926302653559</v>
       </c>
       <c r="AC2">
-        <v>12914.66399255771</v>
+        <v>12914.663992557709</v>
       </c>
       <c r="AD2">
-        <v>13492.66847292753</v>
+        <v>13492.668472927529</v>
       </c>
       <c r="AE2">
         <v>14092.04802128353</v>
       </c>
       <c r="AF2">
-        <v>14476.29447577432</v>
+        <v>14476.294475774321</v>
       </c>
       <c r="AG2">
-        <v>14864.16857903266</v>
+        <v>14864.168579032659</v>
       </c>
       <c r="AH2">
         <v>15271.00713917034</v>
@@ -772,163 +822,163 @@
         <v>15711.77287303706</v>
       </c>
       <c r="AJ2">
-        <v>16185.56655756254</v>
+        <v>16185.566557562541</v>
       </c>
       <c r="AK2">
-        <v>16813.60444423543</v>
+        <v>16813.604444235429</v>
       </c>
       <c r="AL2">
-        <v>17521.59892834334</v>
+        <v>17521.598928343341</v>
       </c>
       <c r="AM2">
-        <v>18340.4609396272</v>
+        <v>18340.460939627199</v>
       </c>
       <c r="AN2">
-        <v>19302.41542651021</v>
+        <v>19302.415426510212</v>
       </c>
       <c r="AO2">
-        <v>20366.8976413517</v>
+        <v>20366.897641351701</v>
       </c>
       <c r="AP2">
-        <v>21676.71490230482</v>
+        <v>21676.714902304819</v>
       </c>
       <c r="AQ2">
-        <v>23043.12819721665</v>
+        <v>23043.128197216651</v>
       </c>
       <c r="AR2">
         <v>24457.06014917243</v>
       </c>
       <c r="AS2">
-        <v>25909.82881277742</v>
+        <v>25909.828812777421</v>
       </c>
       <c r="AT2">
-        <v>27402.03324055917</v>
+        <v>27402.033240559169</v>
       </c>
       <c r="AU2">
-        <v>28964.92346389537</v>
+        <v>28964.923463895371</v>
       </c>
       <c r="AV2">
-        <v>30511.96312797543</v>
+        <v>30511.963127975429</v>
       </c>
       <c r="AW2">
         <v>31958.06057169371</v>
       </c>
       <c r="AX2">
-        <v>33240.26752218873</v>
+        <v>33240.267522188733</v>
       </c>
       <c r="AY2">
-        <v>34441.13617903071</v>
+        <v>34441.136179030713</v>
       </c>
       <c r="AZ2">
-        <v>35591.86420835555</v>
+        <v>35591.864208355553</v>
       </c>
       <c r="BA2">
-        <v>36734.78179669743</v>
+        <v>36734.781796697433</v>
       </c>
       <c r="BB2">
-        <v>37840.96181983117</v>
+        <v>37840.961819831173</v>
       </c>
       <c r="BC2">
-        <v>38890.97884895426</v>
+        <v>38890.978848954263</v>
       </c>
       <c r="BD2">
-        <v>39922.5565912059</v>
+        <v>39922.556591205903</v>
       </c>
       <c r="BE2">
-        <v>40944.26168648856</v>
+        <v>40944.261686488557</v>
       </c>
       <c r="BF2">
-        <v>42014.67566678111</v>
+        <v>42014.675666781113</v>
       </c>
       <c r="BG2">
-        <v>43159.92876638738</v>
+        <v>43159.928766387377</v>
       </c>
       <c r="BH2">
-        <v>44407.94537399638</v>
+        <v>44407.945373996379</v>
       </c>
       <c r="BI2">
-        <v>45768.3046232655</v>
+        <v>45768.304623265503</v>
       </c>
       <c r="BJ2">
-        <v>47228.43282270854</v>
+        <v>47228.432822708543</v>
       </c>
       <c r="BK2">
-        <v>48821.93776653508</v>
+        <v>48821.937766535077</v>
       </c>
       <c r="BL2">
-        <v>50552.84012802829</v>
+        <v>50552.840128028292</v>
       </c>
       <c r="BM2">
-        <v>52412.85531358511</v>
+        <v>52412.855313585111</v>
       </c>
       <c r="BN2">
-        <v>54360.69262717911</v>
+        <v>54360.692627179109</v>
       </c>
       <c r="BO2">
-        <v>56351.15470268769</v>
+        <v>56351.154702687687</v>
       </c>
       <c r="BP2">
-        <v>58386.39059552036</v>
+        <v>58386.390595520359</v>
       </c>
       <c r="BQ2">
-        <v>60458.01407936705</v>
+        <v>60458.014079367051</v>
       </c>
       <c r="BR2">
-        <v>62542.61230388083</v>
+        <v>62542.612303880829</v>
       </c>
       <c r="BS2">
-        <v>64591.10444764314</v>
+        <v>64591.104447643142</v>
       </c>
       <c r="BT2">
-        <v>66542.16855634761</v>
+        <v>66542.168556347606</v>
       </c>
       <c r="BU2">
         <v>68396.84677590373</v>
       </c>
       <c r="BV2">
-        <v>70183.57639141697</v>
+        <v>70183.576391416966</v>
       </c>
       <c r="BW2">
-        <v>71934.34241143068</v>
+        <v>71934.342411430684</v>
       </c>
       <c r="BX2">
-        <v>73661.91302007763</v>
+        <v>73661.913020077627</v>
       </c>
       <c r="BY2">
-        <v>75352.21895252565</v>
+        <v>75352.218952525654</v>
       </c>
       <c r="BZ2">
-        <v>77018.69891842615</v>
+        <v>77018.698918426147</v>
       </c>
       <c r="CA2">
-        <v>78681.06525669071</v>
+        <v>78681.065256690708</v>
       </c>
       <c r="CB2">
-        <v>80368.03144559397</v>
+        <v>80368.031445593966</v>
       </c>
       <c r="CC2">
-        <v>82111.90404549822</v>
+        <v>82111.904045498217</v>
       </c>
       <c r="CD2">
-        <v>83925.36697259269</v>
+        <v>83925.366972592688</v>
       </c>
       <c r="CE2">
-        <v>85840.3783816237</v>
+        <v>85840.378381623697</v>
       </c>
       <c r="CF2">
-        <v>87866.15554032165</v>
+        <v>87866.155540321648</v>
       </c>
       <c r="CG2">
-        <v>90008.41270074516</v>
+        <v>90008.412700745161</v>
       </c>
       <c r="CH2">
-        <v>92274.32424489193</v>
+        <v>92274.324244891934</v>
       </c>
       <c r="CI2">
-        <v>94639.19128005928</v>
+        <v>94639.191280059284</v>
       </c>
       <c r="CJ2">
-        <v>97107.59698666658</v>
+        <v>97107.596986666584</v>
       </c>
       <c r="CK2">
         <v>99651.43846396367</v>
@@ -940,7 +990,7 @@
         <v>104873.1943437</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,46 +998,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.87215728562309</v>
+        <v>39.872157285623089</v>
       </c>
       <c r="D3">
-        <v>62.45154895501206</v>
+        <v>62.451548955012058</v>
       </c>
       <c r="E3">
-        <v>83.87752921630489</v>
+        <v>83.877529216304893</v>
       </c>
       <c r="F3">
         <v>118.5008986878356</v>
       </c>
       <c r="G3">
-        <v>143.3951730902593</v>
+        <v>143.39517309025931</v>
       </c>
       <c r="H3">
         <v>187.8971001435377</v>
       </c>
       <c r="I3">
-        <v>230.1565386341406</v>
+        <v>230.15653863414059</v>
       </c>
       <c r="J3">
-        <v>269.7667290905003</v>
+        <v>269.76672909050029</v>
       </c>
       <c r="K3">
-        <v>305.4712058645418</v>
+        <v>305.47120586454179</v>
       </c>
       <c r="L3">
-        <v>379.8753866146903</v>
+        <v>379.87538661469029</v>
       </c>
       <c r="M3">
-        <v>430.3866373339231</v>
+        <v>430.38663733392309</v>
       </c>
       <c r="N3">
-        <v>529.5591163167865</v>
+        <v>529.55911631678646</v>
       </c>
       <c r="O3">
         <v>636.6296070621446</v>
       </c>
       <c r="P3">
-        <v>751.7091371477713</v>
+        <v>751.70913714777134</v>
       </c>
       <c r="Q3">
         <v>1004.091451407411</v>
@@ -1002,25 +1052,25 @@
         <v>1869.459757960027</v>
       </c>
       <c r="U3">
-        <v>2194.917454916561</v>
+        <v>2194.9174549165609</v>
       </c>
       <c r="V3">
-        <v>2521.956757984579</v>
+        <v>2521.9567579845789</v>
       </c>
       <c r="W3">
         <v>2866.988580992117</v>
       </c>
       <c r="X3">
-        <v>3230.162911099387</v>
+        <v>3230.1629110993872</v>
       </c>
       <c r="Y3">
-        <v>3611.86258561994</v>
+        <v>3611.8625856199401</v>
       </c>
       <c r="Z3">
-        <v>4012.616185154313</v>
+        <v>4012.6161851543129</v>
       </c>
       <c r="AA3">
-        <v>4199.590518334568</v>
+        <v>4199.5905183345676</v>
       </c>
       <c r="AB3">
         <v>4391.78881925736</v>
@@ -1029,55 +1079,55 @@
         <v>4590.702099365978</v>
       </c>
       <c r="AD3">
-        <v>4796.113471059099</v>
+        <v>4796.1134710590986</v>
       </c>
       <c r="AE3">
-        <v>5009.130524106607</v>
+        <v>5009.1305241066066</v>
       </c>
       <c r="AF3">
-        <v>5145.477676042371</v>
+        <v>5145.4776760423711</v>
       </c>
       <c r="AG3">
-        <v>5283.104893245498</v>
+        <v>5283.1048932454978</v>
       </c>
       <c r="AH3">
-        <v>5427.47750829801</v>
+        <v>5427.4775082980104</v>
       </c>
       <c r="AI3">
-        <v>5583.927551372028</v>
+        <v>5583.9275513720277</v>
       </c>
       <c r="AJ3">
         <v>5752.133970965072</v>
       </c>
       <c r="AK3">
-        <v>5975.289592149859</v>
+        <v>5975.2895921498593</v>
       </c>
       <c r="AL3">
-        <v>6226.924413778434</v>
+        <v>6226.9244137784344</v>
       </c>
       <c r="AM3">
-        <v>6518.053724823922</v>
+        <v>6518.0537248239216</v>
       </c>
       <c r="AN3">
-        <v>6860.161200453813</v>
+        <v>6860.1612004538129</v>
       </c>
       <c r="AO3">
-        <v>7238.791775012885</v>
+        <v>7238.7917750128854</v>
       </c>
       <c r="AP3">
-        <v>7704.832428443845</v>
+        <v>7704.8324284438449</v>
       </c>
       <c r="AQ3">
-        <v>8191.028689491721</v>
+        <v>8191.0286894917208</v>
       </c>
       <c r="AR3">
-        <v>8694.146200188306</v>
+        <v>8694.1462001883065</v>
       </c>
       <c r="AS3">
-        <v>9211.091604836165</v>
+        <v>9211.0916048361651</v>
       </c>
       <c r="AT3">
-        <v>9742.078967797863</v>
+        <v>9742.0789677978628</v>
       </c>
       <c r="AU3">
         <v>10298.24282211687</v>
@@ -1086,7 +1136,7 @@
         <v>10848.74658068706</v>
       </c>
       <c r="AW3">
-        <v>11363.26693779361</v>
+        <v>11363.266937793611</v>
       </c>
       <c r="AX3">
         <v>11819.3714969925</v>
@@ -1095,216 +1145,216 @@
         <v>12246.47899978243</v>
       </c>
       <c r="AZ3">
-        <v>12655.70665809969</v>
+        <v>12655.706658099691</v>
       </c>
       <c r="BA3">
-        <v>13062.13862072388</v>
+        <v>13062.138620723879</v>
       </c>
       <c r="BB3">
-        <v>13455.46574650413</v>
+        <v>13455.465746504129</v>
       </c>
       <c r="BC3">
         <v>13828.764760811</v>
       </c>
       <c r="BD3">
-        <v>14195.47894503692</v>
+        <v>14195.478945036921</v>
       </c>
       <c r="BE3">
-        <v>14558.66025677832</v>
+        <v>14558.660256778319</v>
       </c>
       <c r="BF3">
-        <v>14939.18437411739</v>
+        <v>14939.184374117391</v>
       </c>
       <c r="BG3">
-        <v>15346.36240277912</v>
+        <v>15346.362402779119</v>
       </c>
       <c r="BH3">
-        <v>15790.14496448786</v>
+        <v>15790.144964487859</v>
       </c>
       <c r="BI3">
         <v>16273.9452586305</v>
       </c>
       <c r="BJ3">
-        <v>16793.28125637892</v>
+        <v>16793.281256378919</v>
       </c>
       <c r="BK3">
         <v>17360.12978132207</v>
       </c>
       <c r="BL3">
-        <v>17975.9241034858</v>
+        <v>17975.924103485799</v>
       </c>
       <c r="BM3">
-        <v>18637.71237544251</v>
+        <v>18637.712375442508</v>
       </c>
       <c r="BN3">
         <v>19330.78021582056</v>
       </c>
       <c r="BO3">
-        <v>20039.01960147115</v>
+        <v>20039.019601471151</v>
       </c>
       <c r="BP3">
         <v>20763.19678532772</v>
       </c>
       <c r="BQ3">
-        <v>21500.32353758186</v>
+        <v>21500.323537581859</v>
       </c>
       <c r="BR3">
         <v>22242.05666227984</v>
       </c>
       <c r="BS3">
-        <v>22970.90570572376</v>
+        <v>22970.905705723759</v>
       </c>
       <c r="BT3">
-        <v>23665.01674790808</v>
+        <v>23665.016747908081</v>
       </c>
       <c r="BU3">
-        <v>24324.76126259769</v>
+        <v>24324.761262597691</v>
       </c>
       <c r="BV3">
-        <v>24960.27321264734</v>
+        <v>24960.273212647338</v>
       </c>
       <c r="BW3">
-        <v>25582.95082557992</v>
+        <v>25582.950825579919</v>
       </c>
       <c r="BX3">
-        <v>26197.34439174493</v>
+        <v>26197.344391744929</v>
       </c>
       <c r="BY3">
-        <v>26798.43906894944</v>
+        <v>26798.439068949439</v>
       </c>
       <c r="BZ3">
-        <v>27391.02375870302</v>
+        <v>27391.023758703021</v>
       </c>
       <c r="CA3">
-        <v>27982.12329356449</v>
+        <v>27982.123293564491</v>
       </c>
       <c r="CB3">
-        <v>28581.97020594888</v>
+        <v>28581.970205948881</v>
       </c>
       <c r="CC3">
         <v>29202.07742353377</v>
       </c>
       <c r="CD3">
-        <v>29846.96355290567</v>
+        <v>29846.963552905669</v>
       </c>
       <c r="CE3">
         <v>30528.01655567843</v>
       </c>
       <c r="CF3">
-        <v>31248.52087158288</v>
+        <v>31248.520871582881</v>
       </c>
       <c r="CG3">
-        <v>32010.51276576106</v>
+        <v>32010.512765761061</v>
       </c>
       <c r="CH3">
         <v>32816.54907802157</v>
       </c>
       <c r="CI3">
-        <v>33657.82749475321</v>
+        <v>33657.827494753212</v>
       </c>
       <c r="CJ3">
-        <v>34535.98102182589</v>
+        <v>34535.981021825894</v>
       </c>
       <c r="CK3">
-        <v>35440.99481006275</v>
+        <v>35440.994810062752</v>
       </c>
       <c r="CL3">
-        <v>36363.77253697628</v>
+        <v>36363.772536976277</v>
       </c>
       <c r="CM3">
-        <v>37298.7341060442</v>
+        <v>37298.734106044198</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.755210687226</v>
+        <v>3257.7552106872258</v>
       </c>
       <c r="C4">
-        <v>6256.277663224768</v>
+        <v>6256.2776632247678</v>
       </c>
       <c r="D4">
-        <v>8717.106464078308</v>
+        <v>8717.1064640783079</v>
       </c>
       <c r="E4">
         <v>11521.92933793227</v>
       </c>
       <c r="F4">
-        <v>15063.67883578053</v>
+        <v>15063.678835780531</v>
       </c>
       <c r="G4">
-        <v>18367.45942973356</v>
+        <v>18367.459429733561</v>
       </c>
       <c r="H4">
-        <v>21919.93009899941</v>
+        <v>21919.930098999412</v>
       </c>
       <c r="I4">
-        <v>25039.79562406341</v>
+        <v>25039.795624063408</v>
       </c>
       <c r="J4">
-        <v>28430.42955120241</v>
+        <v>28430.429551202411</v>
       </c>
       <c r="K4">
-        <v>32440.32563316982</v>
+        <v>32440.325633169821</v>
       </c>
       <c r="L4">
-        <v>36252.80189054677</v>
+        <v>36252.801890546769</v>
       </c>
       <c r="M4">
-        <v>40670.61622282235</v>
+        <v>40670.616222822347</v>
       </c>
       <c r="N4">
-        <v>63834.57610941003</v>
+        <v>63834.576109410031</v>
       </c>
       <c r="O4">
-        <v>87188.73206805234</v>
+        <v>87188.732068052341</v>
       </c>
       <c r="P4">
         <v>110684.7787970424</v>
       </c>
       <c r="Q4">
-        <v>184461.2996518936</v>
+        <v>184461.29965189361</v>
       </c>
       <c r="R4">
         <v>258430.1259219198</v>
       </c>
       <c r="S4">
-        <v>332633.888850102</v>
+        <v>332633.88885010203</v>
       </c>
       <c r="T4">
-        <v>407107.7110647608</v>
+        <v>407107.71106476081</v>
       </c>
       <c r="U4">
-        <v>481879.5908794589</v>
+        <v>481879.59087945888</v>
       </c>
       <c r="V4">
-        <v>560070.5153517523</v>
+        <v>560070.51535175228</v>
       </c>
       <c r="W4">
-        <v>638642.3801332143</v>
+        <v>638642.38013321429</v>
       </c>
       <c r="X4">
-        <v>717595.1767004725</v>
+        <v>717595.17670047248</v>
       </c>
       <c r="Y4">
-        <v>796981.0767633832</v>
+        <v>796981.07676338323</v>
       </c>
       <c r="Z4">
-        <v>876873.8596199441</v>
+        <v>876873.85961994412</v>
       </c>
       <c r="AA4">
-        <v>901193.9044849648</v>
+        <v>901193.90448496479</v>
       </c>
       <c r="AB4">
-        <v>926227.7771019915</v>
+        <v>926227.77710199147</v>
       </c>
       <c r="AC4">
-        <v>952128.038217384</v>
+        <v>952128.03821738402</v>
       </c>
       <c r="AD4">
-        <v>978929.0062634813</v>
+        <v>978929.00626348134</v>
       </c>
       <c r="AE4">
         <v>1006878.478717947</v>
@@ -1322,55 +1372,55 @@
         <v>1065321.931579405</v>
       </c>
       <c r="AJ4">
-        <v>1087451.329876917</v>
+        <v>1087451.3298769169</v>
       </c>
       <c r="AK4">
-        <v>1123256.222707488</v>
+        <v>1123256.2227074881</v>
       </c>
       <c r="AL4">
         <v>1164651.72687225</v>
       </c>
       <c r="AM4">
-        <v>1212534.217945526</v>
+        <v>1212534.2179455259</v>
       </c>
       <c r="AN4">
-        <v>1267685.045572101</v>
+        <v>1267685.0455721009</v>
       </c>
       <c r="AO4">
         <v>1328597.475830714</v>
       </c>
       <c r="AP4">
-        <v>1405498.21789969</v>
+        <v>1405498.2178996899</v>
       </c>
       <c r="AQ4">
-        <v>1485750.066616166</v>
+        <v>1485750.0666161659</v>
       </c>
       <c r="AR4">
-        <v>1568466.292191241</v>
+        <v>1568466.2921912409</v>
       </c>
       <c r="AS4">
         <v>1652631.131334373</v>
       </c>
       <c r="AT4">
-        <v>1737341.064125093</v>
+        <v>1737341.0641250929</v>
       </c>
       <c r="AU4">
-        <v>1824937.555992437</v>
+        <v>1824937.5559924371</v>
       </c>
       <c r="AV4">
-        <v>1910227.137595333</v>
+        <v>1910227.1375953329</v>
       </c>
       <c r="AW4">
         <v>1990965.60439179</v>
       </c>
       <c r="AX4">
-        <v>2065592.725648847</v>
+        <v>2065592.7256488469</v>
       </c>
       <c r="AY4">
         <v>2135473.432181322</v>
       </c>
       <c r="AZ4">
-        <v>2199881.088770692</v>
+        <v>2199881.0887706918</v>
       </c>
       <c r="BA4">
         <v>2261067.317607176</v>
@@ -1382,144 +1432,144 @@
         <v>2374535.994140171</v>
       </c>
       <c r="BD4">
-        <v>2428484.645355649</v>
+        <v>2428484.6453556488</v>
       </c>
       <c r="BE4">
-        <v>2481060.956419587</v>
+        <v>2481060.9564195871</v>
       </c>
       <c r="BF4">
-        <v>2534679.988112035</v>
+        <v>2534679.9881120352</v>
       </c>
       <c r="BG4">
         <v>2590938.893567217</v>
       </c>
       <c r="BH4">
-        <v>2651261.670216928</v>
+        <v>2651261.6702169278</v>
       </c>
       <c r="BI4">
-        <v>2716449.63666046</v>
+        <v>2716449.6366604599</v>
       </c>
       <c r="BJ4">
         <v>2786837.133621763</v>
       </c>
       <c r="BK4">
-        <v>2862911.456501722</v>
+        <v>2862911.4565017219</v>
       </c>
       <c r="BL4">
-        <v>2944406.111945472</v>
+        <v>2944406.1119454722</v>
       </c>
       <c r="BM4">
-        <v>3030716.958903903</v>
+        <v>3030716.9589039031</v>
       </c>
       <c r="BN4">
-        <v>3120843.729563129</v>
+        <v>3120843.7295631291</v>
       </c>
       <c r="BO4">
         <v>3213917.119095705</v>
       </c>
       <c r="BP4">
-        <v>3309353.247208297</v>
+        <v>3309353.2472082968</v>
       </c>
       <c r="BQ4">
         <v>3406494.412455895</v>
       </c>
       <c r="BR4">
-        <v>3504382.22903089</v>
+        <v>3504382.2290308899</v>
       </c>
       <c r="BS4">
         <v>3601649.376587057</v>
       </c>
       <c r="BT4">
-        <v>3696711.547738178</v>
+        <v>3696711.5477381782</v>
       </c>
       <c r="BU4">
-        <v>3789357.2244158</v>
+        <v>3789357.2244158001</v>
       </c>
       <c r="BV4">
-        <v>3880036.346295771</v>
+        <v>3880036.3462957712</v>
       </c>
       <c r="BW4">
         <v>3969337.259459299</v>
       </c>
       <c r="BX4">
-        <v>4057272.790146896</v>
+        <v>4057272.7901468961</v>
       </c>
       <c r="BY4">
         <v>4143268.092408136</v>
       </c>
       <c r="BZ4">
-        <v>4227992.281377194</v>
+        <v>4227992.2813771944</v>
       </c>
       <c r="CA4">
-        <v>4311855.019457666</v>
+        <v>4311855.0194576662</v>
       </c>
       <c r="CB4">
-        <v>4395466.785898363</v>
+        <v>4395466.7858983632</v>
       </c>
       <c r="CC4">
-        <v>4479579.526515205</v>
+        <v>4479579.5265152054</v>
       </c>
       <c r="CD4">
-        <v>4564365.794229954</v>
+        <v>4564365.7942299535</v>
       </c>
       <c r="CE4">
-        <v>4651779.840368088</v>
+        <v>4651779.8403680883</v>
       </c>
       <c r="CF4">
         <v>4742370.235575974</v>
       </c>
       <c r="CG4">
-        <v>4836445.014906614</v>
+        <v>4836445.0149066141</v>
       </c>
       <c r="CH4">
-        <v>4934119.199603824</v>
+        <v>4934119.1996038239</v>
       </c>
       <c r="CI4">
-        <v>5033677.418068467</v>
+        <v>5033677.4180684667</v>
       </c>
       <c r="CJ4">
-        <v>5136232.835250162</v>
+        <v>5136232.8352501616</v>
       </c>
       <c r="CK4">
-        <v>5241250.826345775</v>
+        <v>5241250.8263457753</v>
       </c>
       <c r="CL4">
-        <v>5348252.83992555</v>
+        <v>5348252.8399255499</v>
       </c>
       <c r="CM4">
-        <v>5456848.755291289</v>
+        <v>5456848.7552912887</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.017924950331</v>
+        <v>3598.0179249503308</v>
       </c>
       <c r="C5">
-        <v>6230.650650875167</v>
+        <v>6230.6506508751672</v>
       </c>
       <c r="D5">
-        <v>8685.88411854392</v>
+        <v>8685.8841185439196</v>
       </c>
       <c r="E5">
-        <v>11041.43307079812</v>
+        <v>11041.433070798121</v>
       </c>
       <c r="F5">
         <v>13762.71321686006</v>
       </c>
       <c r="G5">
-        <v>17275.04303452007</v>
+        <v>17275.043034520069</v>
       </c>
       <c r="H5">
-        <v>21123.61795759311</v>
+        <v>21123.617957593109</v>
       </c>
       <c r="I5">
-        <v>24275.21077024661</v>
+        <v>24275.210770246609</v>
       </c>
       <c r="J5">
-        <v>27258.71104227075</v>
+        <v>27258.711042270748</v>
       </c>
       <c r="K5">
         <v>30575.76520691668</v>
@@ -1528,34 +1578,34 @@
         <v>33937.49451455308</v>
       </c>
       <c r="M5">
-        <v>38923.62867057609</v>
+        <v>38923.628670576087</v>
       </c>
       <c r="N5">
-        <v>75397.71573500973</v>
+        <v>75397.715735009726</v>
       </c>
       <c r="O5">
         <v>111928.8081911184</v>
       </c>
       <c r="P5">
-        <v>148532.4658803509</v>
+        <v>148532.46588035091</v>
       </c>
       <c r="Q5">
-        <v>270105.0641229154</v>
+        <v>270105.06412291538</v>
       </c>
       <c r="R5">
-        <v>391789.4739836511</v>
+        <v>391789.47398365109</v>
       </c>
       <c r="S5">
-        <v>513609.9355690211</v>
+        <v>513609.93556902109</v>
       </c>
       <c r="T5">
-        <v>635594.9404391273</v>
+        <v>635594.94043912727</v>
       </c>
       <c r="U5">
         <v>757779.1262697624</v>
       </c>
       <c r="V5">
-        <v>886067.5266581977</v>
+        <v>886067.52665819775</v>
       </c>
       <c r="W5">
         <v>1014656.414026767</v>
@@ -1573,25 +1623,25 @@
         <v>1440215.702163219</v>
       </c>
       <c r="AB5">
-        <v>1478359.788191588</v>
+        <v>1478359.7881915879</v>
       </c>
       <c r="AC5">
-        <v>1517913.518688532</v>
+        <v>1517913.5186885321</v>
       </c>
       <c r="AD5">
-        <v>1559305.485281885</v>
+        <v>1559305.4852818849</v>
       </c>
       <c r="AE5">
         <v>1603068.132143585</v>
       </c>
       <c r="AF5">
-        <v>1618434.146790279</v>
+        <v>1618434.1467902791</v>
       </c>
       <c r="AG5">
-        <v>1637137.628147669</v>
+        <v>1637137.6281476689</v>
       </c>
       <c r="AH5">
-        <v>1659922.952422768</v>
+        <v>1659922.9524227681</v>
       </c>
       <c r="AI5">
         <v>1688138.481713481</v>
@@ -1606,52 +1656,52 @@
         <v>1839545.550913394</v>
       </c>
       <c r="AM5">
-        <v>1910246.391424171</v>
+        <v>1910246.3914241709</v>
       </c>
       <c r="AN5">
-        <v>1989436.792814792</v>
+        <v>1989436.7928147919</v>
       </c>
       <c r="AO5">
-        <v>2076871.480083662</v>
+        <v>2076871.4800836621</v>
       </c>
       <c r="AP5">
-        <v>2189962.10062349</v>
+        <v>2189962.1006234898</v>
       </c>
       <c r="AQ5">
-        <v>2309495.469337881</v>
+        <v>2309495.4693378811</v>
       </c>
       <c r="AR5">
-        <v>2433953.305561315</v>
+        <v>2433953.3055613148</v>
       </c>
       <c r="AS5">
-        <v>2561511.7748592</v>
+        <v>2561511.7748592002</v>
       </c>
       <c r="AT5">
-        <v>2690173.041280201</v>
+        <v>2690173.0412802012</v>
       </c>
       <c r="AU5">
-        <v>2823112.284594901</v>
+        <v>2823112.2845949009</v>
       </c>
       <c r="AV5">
-        <v>2953259.618287863</v>
+        <v>2953259.6182878632</v>
       </c>
       <c r="AW5">
-        <v>3079018.149897556</v>
+        <v>3079018.1498975558</v>
       </c>
       <c r="AX5">
-        <v>3199184.382180926</v>
+        <v>3199184.3821809259</v>
       </c>
       <c r="AY5">
-        <v>3313024.583474907</v>
+        <v>3313024.5834749071</v>
       </c>
       <c r="AZ5">
-        <v>3417218.037906932</v>
+        <v>3417218.0379069322</v>
       </c>
       <c r="BA5">
-        <v>3515149.957459146</v>
+        <v>3515149.9574591462</v>
       </c>
       <c r="BB5">
-        <v>3607592.217486898</v>
+        <v>3607592.2174868979</v>
       </c>
       <c r="BC5">
         <v>3695733.466860068</v>
@@ -1660,109 +1710,109 @@
         <v>3781078.862581796</v>
       </c>
       <c r="BE5">
-        <v>3863590.084051007</v>
+        <v>3863590.0840510069</v>
       </c>
       <c r="BF5">
-        <v>3946749.296902414</v>
+        <v>3946749.2969024139</v>
       </c>
       <c r="BG5">
-        <v>4032228.777313351</v>
+        <v>4032228.7773133512</v>
       </c>
       <c r="BH5">
-        <v>4121518.589427727</v>
+        <v>4121518.5894277268</v>
       </c>
       <c r="BI5">
-        <v>4215850.728456728</v>
+        <v>4215850.7284567282</v>
       </c>
       <c r="BJ5">
-        <v>4315855.902460829</v>
+        <v>4315855.9024608294</v>
       </c>
       <c r="BK5">
-        <v>4422425.199155726</v>
+        <v>4422425.1991557255</v>
       </c>
       <c r="BL5">
-        <v>4535813.51197403</v>
+        <v>4535813.5119740302</v>
       </c>
       <c r="BM5">
-        <v>4655940.920973391</v>
+        <v>4655940.9209733913</v>
       </c>
       <c r="BN5">
-        <v>4782414.167158823</v>
+        <v>4782414.1671588235</v>
       </c>
       <c r="BO5">
-        <v>4914582.254680971</v>
+        <v>4914582.2546809707</v>
       </c>
       <c r="BP5">
         <v>5051536.565211785</v>
       </c>
       <c r="BQ5">
-        <v>5192226.764793329</v>
+        <v>5192226.7647933289</v>
       </c>
       <c r="BR5">
         <v>5335512.847453896</v>
       </c>
       <c r="BS5">
-        <v>5480237.083724768</v>
+        <v>5480237.0837247679</v>
       </c>
       <c r="BT5">
-        <v>5624785.721831367</v>
+        <v>5624785.7218313674</v>
       </c>
       <c r="BU5">
-        <v>5768683.845308149</v>
+        <v>5768683.8453081492</v>
       </c>
       <c r="BV5">
-        <v>5911124.592214464</v>
+        <v>5911124.5922144642</v>
       </c>
       <c r="BW5">
-        <v>6051522.667580875</v>
+        <v>6051522.6675808746</v>
       </c>
       <c r="BX5">
         <v>6189541.511239294</v>
       </c>
       <c r="BY5">
-        <v>6324250.476168719</v>
+        <v>6324250.4761687191</v>
       </c>
       <c r="BZ5">
-        <v>6456671.757856593</v>
+        <v>6456671.7578565925</v>
       </c>
       <c r="CA5">
-        <v>6587200.020249953</v>
+        <v>6587200.0202499526</v>
       </c>
       <c r="CB5">
-        <v>6716416.170800743</v>
+        <v>6716416.1708007427</v>
       </c>
       <c r="CC5">
         <v>6845038.657548775</v>
       </c>
       <c r="CD5">
-        <v>6972430.488271761</v>
+        <v>6972430.4882717608</v>
       </c>
       <c r="CE5">
-        <v>7100853.546732713</v>
+        <v>7100853.5467327125</v>
       </c>
       <c r="CF5">
-        <v>7231100.068219675</v>
+        <v>7231100.0682196748</v>
       </c>
       <c r="CG5">
-        <v>7363880.369694179</v>
+        <v>7363880.3696941789</v>
       </c>
       <c r="CH5">
-        <v>7499782.22465493</v>
+        <v>7499782.2246549297</v>
       </c>
       <c r="CI5">
-        <v>7636992.49136224</v>
+        <v>7636992.4913622402</v>
       </c>
       <c r="CJ5">
-        <v>7778025.777733001</v>
+        <v>7778025.7777330009</v>
       </c>
       <c r="CK5">
-        <v>7922972.040542127</v>
+        <v>7922972.0405421266</v>
       </c>
       <c r="CL5">
-        <v>8071750.852355191</v>
+        <v>8071750.8523551906</v>
       </c>
       <c r="CM5">
-        <v>8224126.91571691</v>
+        <v>8224126.9157169098</v>
       </c>
     </row>
   </sheetData>
@@ -1771,14 +1821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="CO18" sqref="CO18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2049,34 +2101,35 @@
       <c r="CM1" s="1">
         <v>2100</v>
       </c>
+      <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184257329</v>
+        <v>46.873131842573287</v>
       </c>
       <c r="C2">
         <v>113.2051186243893</v>
       </c>
       <c r="D2">
-        <v>177.3140570854575</v>
+        <v>177.31405708545751</v>
       </c>
       <c r="E2">
-        <v>238.1869348466846</v>
+        <v>238.18693484668461</v>
       </c>
       <c r="F2">
-        <v>336.171714484879</v>
+        <v>336.17171448487898</v>
       </c>
       <c r="G2">
-        <v>406.8668799699738</v>
+        <v>406.86687996997381</v>
       </c>
       <c r="H2">
-        <v>532.6410714085785</v>
+        <v>532.64107140857845</v>
       </c>
       <c r="I2">
-        <v>652.1833608211598</v>
+        <v>652.18336082115979</v>
       </c>
       <c r="J2">
         <v>764.3134107079967</v>
@@ -2088,16 +2141,16 @@
         <v>1075.334723865868</v>
       </c>
       <c r="M2">
-        <v>1218.136374353766</v>
+        <v>1218.1363743537661</v>
       </c>
       <c r="N2">
-        <v>1497.541775338795</v>
+        <v>1497.5417753387951</v>
       </c>
       <c r="O2">
-        <v>1799.126261886633</v>
+        <v>1799.1262618866331</v>
       </c>
       <c r="P2">
-        <v>2123.183877231201</v>
+        <v>2123.1838772312012</v>
       </c>
       <c r="Q2">
         <v>2832.615860710453</v>
@@ -2106,22 +2159,22 @@
         <v>3592.242991760399</v>
       </c>
       <c r="S2">
-        <v>4402.604708646549</v>
+        <v>4402.6047086465487</v>
       </c>
       <c r="T2">
-        <v>5264.635674516445</v>
+        <v>5264.6356745164449</v>
       </c>
       <c r="U2">
-        <v>6179.076455156352</v>
+        <v>6179.0764551563516</v>
       </c>
       <c r="V2">
-        <v>7097.855041906754</v>
+        <v>7097.8550419067542</v>
       </c>
       <c r="W2">
-        <v>8066.961143633643</v>
+        <v>8066.9611436336427</v>
       </c>
       <c r="X2">
-        <v>9086.793162967919</v>
+        <v>9086.7931629679188</v>
       </c>
       <c r="Y2">
         <v>10158.37831866365</v>
@@ -2130,7 +2183,7 @@
         <v>11283.13640430848</v>
       </c>
       <c r="AA2">
-        <v>11807.69212453067</v>
+        <v>11807.692124530669</v>
       </c>
       <c r="AB2">
         <v>12346.62846834125</v>
@@ -2142,10 +2195,10 @@
         <v>13479.10094960815</v>
       </c>
       <c r="AE2">
-        <v>14075.04742464565</v>
+        <v>14075.047424645651</v>
       </c>
       <c r="AF2">
-        <v>14455.49866802863</v>
+        <v>14455.498668028629</v>
       </c>
       <c r="AG2">
         <v>14839.28844158561</v>
@@ -2157,175 +2210,176 @@
         <v>15675.17677278687</v>
       </c>
       <c r="AJ2">
-        <v>16140.72046029725</v>
+        <v>16140.720460297251</v>
       </c>
       <c r="AK2">
-        <v>16757.98818935142</v>
+        <v>16757.988189351421</v>
       </c>
       <c r="AL2">
         <v>17451.53984442928</v>
       </c>
       <c r="AM2">
-        <v>18250.67107304666</v>
+        <v>18250.671073046658</v>
       </c>
       <c r="AN2">
-        <v>19185.80339311499</v>
+        <v>19185.803393114991</v>
       </c>
       <c r="AO2">
-        <v>20218.0757109684</v>
+        <v>20218.075710968398</v>
       </c>
       <c r="AP2">
-        <v>21492.3017617832</v>
+        <v>21492.301761783201</v>
       </c>
       <c r="AQ2">
-        <v>22819.94276465634</v>
+        <v>22819.942764656342</v>
       </c>
       <c r="AR2">
-        <v>24192.15373449828</v>
+        <v>24192.153734498279</v>
       </c>
       <c r="AS2">
-        <v>25600.46964222377</v>
+        <v>25600.469642223768</v>
       </c>
       <c r="AT2">
-        <v>27045.19092040385</v>
+        <v>27045.190920403849</v>
       </c>
       <c r="AU2">
-        <v>28557.93128711609</v>
+        <v>28557.931287116091</v>
       </c>
       <c r="AV2">
-        <v>30054.66855249285</v>
+        <v>30054.668552492851</v>
       </c>
       <c r="AW2">
-        <v>31455.52740801886</v>
+        <v>31455.527408018861</v>
       </c>
       <c r="AX2">
-        <v>32701.86836681687</v>
+        <v>32701.868366816871</v>
       </c>
       <c r="AY2">
-        <v>33871.3422121299</v>
+        <v>33871.342212129901</v>
       </c>
       <c r="AZ2">
-        <v>34989.77612744569</v>
+        <v>34989.776127445693</v>
       </c>
       <c r="BA2">
-        <v>36100.0229465606</v>
+        <v>36100.022946560603</v>
       </c>
       <c r="BB2">
-        <v>37175.31521065653</v>
+        <v>37175.315210656532</v>
       </c>
       <c r="BC2">
         <v>38197.91486914175</v>
       </c>
       <c r="BD2">
-        <v>39202.96560843134</v>
+        <v>39202.965608431339</v>
       </c>
       <c r="BE2">
-        <v>40195.54502215772</v>
+        <v>40195.545022157719</v>
       </c>
       <c r="BF2">
-        <v>41232.35393367238</v>
+        <v>41232.353933672377</v>
       </c>
       <c r="BG2">
-        <v>42337.13610123299</v>
+        <v>42337.136101232987</v>
       </c>
       <c r="BH2">
-        <v>43535.0337058048</v>
+        <v>43535.033705804803</v>
       </c>
       <c r="BI2">
-        <v>44834.25283228361</v>
+        <v>44834.252832283608</v>
       </c>
       <c r="BJ2">
         <v>46220.84576703421</v>
       </c>
       <c r="BK2">
-        <v>47726.42066789551</v>
+        <v>47726.420667895509</v>
       </c>
       <c r="BL2">
-        <v>49353.76210225243</v>
+        <v>49353.762102252433</v>
       </c>
       <c r="BM2">
-        <v>51094.5361459416</v>
+        <v>51094.536145941602</v>
       </c>
       <c r="BN2">
-        <v>52910.98429838091</v>
+        <v>52910.984298380907</v>
       </c>
       <c r="BO2">
-        <v>54761.0588050443</v>
+        <v>54761.058805044297</v>
       </c>
       <c r="BP2">
-        <v>56647.3680855695</v>
+        <v>56647.368085569498</v>
       </c>
       <c r="BQ2">
-        <v>58562.05402802611</v>
+        <v>58562.054028026112</v>
       </c>
       <c r="BR2">
-        <v>60484.13096572508</v>
+        <v>60484.130965725082</v>
       </c>
       <c r="BS2">
-        <v>62370.41908884393</v>
+        <v>62370.419088843933</v>
       </c>
       <c r="BT2">
         <v>64165.96971541486</v>
       </c>
       <c r="BU2">
-        <v>65873.86825009102</v>
+        <v>65873.868250091022</v>
       </c>
       <c r="BV2">
-        <v>67519.26348264288</v>
+        <v>67519.263482642884</v>
       </c>
       <c r="BW2">
-        <v>69130.04539873627</v>
+        <v>69130.045398736271</v>
       </c>
       <c r="BX2">
-        <v>70717.32764197425</v>
+        <v>70717.327641974247</v>
       </c>
       <c r="BY2">
-        <v>72267.52481528006</v>
+        <v>72267.524815280063</v>
       </c>
       <c r="BZ2">
-        <v>73793.98085443684</v>
+        <v>73793.980854436842</v>
       </c>
       <c r="CA2">
-        <v>75313.49956371426</v>
+        <v>75313.499563714257</v>
       </c>
       <c r="CB2">
-        <v>76850.19350673715</v>
+        <v>76850.193506737152</v>
       </c>
       <c r="CC2">
-        <v>78430.8078639599</v>
+        <v>78430.807863959897</v>
       </c>
       <c r="CD2">
-        <v>80062.88103270816</v>
+        <v>80062.881032708159</v>
       </c>
       <c r="CE2">
-        <v>81774.61903035625</v>
+        <v>81774.619030356247</v>
       </c>
       <c r="CF2">
-        <v>83572.71690321578</v>
+        <v>83572.716903215784</v>
       </c>
       <c r="CG2">
-        <v>85460.86410970535</v>
+        <v>85460.864109705348</v>
       </c>
       <c r="CH2">
-        <v>87443.81622624645</v>
+        <v>87443.816226246447</v>
       </c>
       <c r="CI2">
-        <v>89496.0811299808</v>
+        <v>89496.081129980797</v>
       </c>
       <c r="CJ2">
-        <v>91624.6536231588</v>
+        <v>91624.653623158796</v>
       </c>
       <c r="CK2">
-        <v>93806.16636243754</v>
+        <v>93806.166362437536</v>
       </c>
       <c r="CL2">
         <v>96019.66935420435</v>
       </c>
       <c r="CM2">
-        <v>98252.30043153948</v>
-      </c>
+        <v>98252.300431539479</v>
+      </c>
+      <c r="CQ2" s="2"/>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2333,46 +2387,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.8721572856231</v>
+        <v>39.872157285623103</v>
       </c>
       <c r="D3">
-        <v>62.45154895501207</v>
+        <v>62.451548955012072</v>
       </c>
       <c r="E3">
-        <v>83.87752921630492</v>
+        <v>83.877529216304922</v>
       </c>
       <c r="F3">
         <v>118.5008986878357</v>
       </c>
       <c r="G3">
-        <v>143.3951730902594</v>
+        <v>143.39517309025939</v>
       </c>
       <c r="H3">
-        <v>187.8971001435378</v>
+        <v>187.89710014353781</v>
       </c>
       <c r="I3">
         <v>230.1565386341407</v>
       </c>
       <c r="J3">
-        <v>269.7667290905005</v>
+        <v>269.76672909050052</v>
       </c>
       <c r="K3">
-        <v>305.471205864542</v>
+        <v>305.47120586454201</v>
       </c>
       <c r="L3">
-        <v>379.8753866146906</v>
+        <v>379.87538661469063</v>
       </c>
       <c r="M3">
-        <v>430.3866373339234</v>
+        <v>430.38663733392337</v>
       </c>
       <c r="N3">
-        <v>529.5591163167869</v>
+        <v>529.55911631678691</v>
       </c>
       <c r="O3">
-        <v>636.6193495998637</v>
+        <v>636.61934959986365</v>
       </c>
       <c r="P3">
-        <v>751.6621839439745</v>
+        <v>751.66218394397447</v>
       </c>
       <c r="Q3">
         <v>1003.978542439371</v>
@@ -2390,10 +2444,10 @@
         <v>2194.245673665841</v>
       </c>
       <c r="V3">
-        <v>2520.939023233823</v>
+        <v>2520.9390232338228</v>
       </c>
       <c r="W3">
-        <v>2865.458391388487</v>
+        <v>2865.4583913884871</v>
       </c>
       <c r="X3">
         <v>3227.939607755925</v>
@@ -2402,76 +2456,76 @@
         <v>3608.729082904923</v>
       </c>
       <c r="Z3">
-        <v>4008.30541355257</v>
+        <v>4008.3054135525699</v>
       </c>
       <c r="AA3">
-        <v>4193.894719978099</v>
+        <v>4193.8947199780987</v>
       </c>
       <c r="AB3">
-        <v>4384.461027675212</v>
+        <v>4384.4610276752119</v>
       </c>
       <c r="AC3">
-        <v>4581.353615326122</v>
+        <v>4581.3536153261221</v>
       </c>
       <c r="AD3">
-        <v>4784.389824067693</v>
+        <v>4784.3898240676926</v>
       </c>
       <c r="AE3">
-        <v>4994.580772356843</v>
+        <v>4994.5807723568432</v>
       </c>
       <c r="AF3">
-        <v>5127.830011591384</v>
+        <v>5127.8300115913844</v>
       </c>
       <c r="AG3">
         <v>5262.150955888007</v>
       </c>
       <c r="AH3">
-        <v>5402.471580533969</v>
+        <v>5402.4715805339692</v>
       </c>
       <c r="AI3">
-        <v>5553.616495608337</v>
+        <v>5553.6164956083367</v>
       </c>
       <c r="AJ3">
-        <v>5715.320828264305</v>
+        <v>5715.3208282643054</v>
       </c>
       <c r="AK3">
-        <v>5930.075051476329</v>
+        <v>5930.0750514763286</v>
       </c>
       <c r="AL3">
-        <v>6170.570436404931</v>
+        <v>6170.5704364049307</v>
       </c>
       <c r="AM3">
-        <v>6446.671415305686</v>
+        <v>6446.6714153056864</v>
       </c>
       <c r="AN3">
-        <v>6768.631260208643</v>
+        <v>6768.6312602086427</v>
       </c>
       <c r="AO3">
         <v>7123.436571428244</v>
       </c>
       <c r="AP3">
-        <v>7563.536842471602</v>
+        <v>7563.5368424716016</v>
       </c>
       <c r="AQ3">
-        <v>8021.811603665685</v>
+        <v>8021.8116036656847</v>
       </c>
       <c r="AR3">
-        <v>8495.162937435471</v>
+        <v>8495.1629374354707</v>
       </c>
       <c r="AS3">
-        <v>8980.606450817168</v>
+        <v>8980.6064508171676</v>
       </c>
       <c r="AT3">
-        <v>9478.089539393644</v>
+        <v>9478.0895393936444</v>
       </c>
       <c r="AU3">
-        <v>9998.940760706299</v>
+        <v>9998.9407607062985</v>
       </c>
       <c r="AV3">
         <v>10514.02510724768</v>
       </c>
       <c r="AW3">
-        <v>10996.6332089981</v>
+        <v>10996.633208998101</v>
       </c>
       <c r="AX3">
         <v>11427.34908783892</v>
@@ -2480,7 +2534,7 @@
         <v>11832.12356844862</v>
       </c>
       <c r="AZ3">
-        <v>12218.23684115159</v>
+        <v>12218.236841151591</v>
       </c>
       <c r="BA3">
         <v>12601.1159877624</v>
@@ -2489,7 +2543,7 @@
         <v>12971.99534042857</v>
       </c>
       <c r="BC3">
-        <v>13325.19301612636</v>
+        <v>13325.193016126361</v>
       </c>
       <c r="BD3">
         <v>13672.27607224991</v>
@@ -2501,13 +2555,13 @@
         <v>14368.84697464105</v>
       </c>
       <c r="BG3">
-        <v>14745.15670729322</v>
+        <v>14745.156707293219</v>
       </c>
       <c r="BH3">
-        <v>15150.31071721687</v>
+        <v>15150.310717216869</v>
       </c>
       <c r="BI3">
-        <v>15586.49068557456</v>
+        <v>15586.490685574559</v>
       </c>
       <c r="BJ3">
         <v>16047.94819568636</v>
@@ -2516,91 +2570,92 @@
         <v>16544.86311660186</v>
       </c>
       <c r="BL3">
-        <v>17077.43826058036</v>
+        <v>17077.438260580358</v>
       </c>
       <c r="BM3">
-        <v>17642.42822618101</v>
+        <v>17642.428226181011</v>
       </c>
       <c r="BN3">
-        <v>18227.76596159749</v>
+        <v>18227.765961597492</v>
       </c>
       <c r="BO3">
-        <v>18819.76604986586</v>
+        <v>18819.766049865859</v>
       </c>
       <c r="BP3">
         <v>19419.45003398661</v>
       </c>
       <c r="BQ3">
-        <v>20024.15950818172</v>
+        <v>20024.159508181721</v>
       </c>
       <c r="BR3">
-        <v>20627.51592615057</v>
+        <v>20627.515926150569</v>
       </c>
       <c r="BS3">
-        <v>21217.03772189008</v>
+        <v>21217.037721890079</v>
       </c>
       <c r="BT3">
-        <v>21776.42366563227</v>
+        <v>21776.423665632268</v>
       </c>
       <c r="BU3">
-        <v>22307.95422654545</v>
+        <v>22307.954226545451</v>
       </c>
       <c r="BV3">
         <v>22819.0180721857</v>
       </c>
       <c r="BW3">
-        <v>23317.48109378157</v>
+        <v>23317.481093781571</v>
       </c>
       <c r="BX3">
-        <v>23806.45894563244</v>
+        <v>23806.458945632439</v>
       </c>
       <c r="BY3">
-        <v>24281.39524537587</v>
+        <v>24281.395245375868</v>
       </c>
       <c r="BZ3">
-        <v>24747.02219771193</v>
+        <v>24747.022197711929</v>
       </c>
       <c r="CA3">
-        <v>25207.73797612394</v>
+        <v>25207.737976123939</v>
       </c>
       <c r="CB3">
-        <v>25669.54257455457</v>
+        <v>25669.542574554569</v>
       </c>
       <c r="CC3">
-        <v>26138.75186455655</v>
+        <v>26138.751864556551</v>
       </c>
       <c r="CD3">
         <v>26614.9866910456</v>
       </c>
       <c r="CE3">
-        <v>27105.96563837652</v>
+        <v>27105.965638376521</v>
       </c>
       <c r="CF3">
         <v>27612.41257972275</v>
       </c>
       <c r="CG3">
-        <v>28134.24793572668</v>
+        <v>28134.247935726678</v>
       </c>
       <c r="CH3">
         <v>28671.52265233652</v>
       </c>
       <c r="CI3">
-        <v>29214.46064108961</v>
+        <v>29214.460641089609</v>
       </c>
       <c r="CJ3">
-        <v>29766.79808685032</v>
+        <v>29766.798086850318</v>
       </c>
       <c r="CK3">
         <v>30322.90629412144</v>
       </c>
       <c r="CL3">
-        <v>30877.99044698375</v>
+        <v>30877.990446983749</v>
       </c>
       <c r="CM3">
-        <v>31429.10823259354</v>
-      </c>
+        <v>31429.108232593539</v>
+      </c>
+      <c r="CQ3" s="2"/>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2608,97 +2663,97 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>6255.950025615428</v>
+        <v>6255.9500256154279</v>
       </c>
       <c r="D4">
-        <v>8716.405551408485</v>
+        <v>8716.4055514084848</v>
       </c>
       <c r="E4">
         <v>11520.58501258248</v>
       </c>
       <c r="F4">
-        <v>15061.24633086019</v>
+        <v>15061.246330860189</v>
       </c>
       <c r="G4">
-        <v>18363.21880560208</v>
+        <v>18363.218805602079</v>
       </c>
       <c r="H4">
-        <v>21912.7314102429</v>
+        <v>21912.731410242901</v>
       </c>
       <c r="I4">
-        <v>25027.79882089004</v>
+        <v>25027.798820890039</v>
       </c>
       <c r="J4">
         <v>28410.5965986966</v>
       </c>
       <c r="K4">
-        <v>32407.27889845673</v>
+        <v>32407.278898456731</v>
       </c>
       <c r="L4">
-        <v>36196.12675626115</v>
+        <v>36196.126756261147</v>
       </c>
       <c r="M4">
-        <v>40569.10147261313</v>
+        <v>40569.101472613133</v>
       </c>
       <c r="N4">
-        <v>63648.41918130197</v>
+        <v>63648.419181301972</v>
       </c>
       <c r="O4">
-        <v>86860.38951354458</v>
+        <v>86860.389513544578</v>
       </c>
       <c r="P4">
         <v>110170.661228856</v>
       </c>
       <c r="Q4">
-        <v>183729.6171618293</v>
+        <v>183729.61716182929</v>
       </c>
       <c r="R4">
-        <v>257435.8895135283</v>
+        <v>257435.88951352829</v>
       </c>
       <c r="S4">
-        <v>331312.4731789069</v>
+        <v>331312.47317890689</v>
       </c>
       <c r="T4">
-        <v>405376.4086447755</v>
+        <v>405376.40864477551</v>
       </c>
       <c r="U4">
-        <v>479639.6443566474</v>
+        <v>479639.64435664739</v>
       </c>
       <c r="V4">
-        <v>557196.881289575</v>
+        <v>557196.88128957502</v>
       </c>
       <c r="W4">
-        <v>634983.9461450729</v>
+        <v>634983.94614507293</v>
       </c>
       <c r="X4">
         <v>712991.7126194546</v>
       </c>
       <c r="Y4">
-        <v>791237.9563935871</v>
+        <v>791237.95639358705</v>
       </c>
       <c r="Z4">
-        <v>869748.6551697286</v>
+        <v>869748.65516972856</v>
       </c>
       <c r="AA4">
-        <v>892395.8055438282</v>
+        <v>892395.80554382817</v>
       </c>
       <c r="AB4">
-        <v>915346.1557206213</v>
+        <v>915346.15572062135</v>
       </c>
       <c r="AC4">
-        <v>938648.9276470556</v>
+        <v>938648.92764705559</v>
       </c>
       <c r="AD4">
-        <v>962287.2227148982</v>
+        <v>962287.22271489818</v>
       </c>
       <c r="AE4">
-        <v>986343.2707054084</v>
+        <v>986343.27070540842</v>
       </c>
       <c r="AF4">
-        <v>992944.4671457954</v>
+        <v>992944.46714579535</v>
       </c>
       <c r="AG4">
-        <v>999925.0913549514</v>
+        <v>999925.09135495138</v>
       </c>
       <c r="AH4">
         <v>1007532.58808307</v>
@@ -2716,7 +2771,7 @@
         <v>1067919.133282782</v>
       </c>
       <c r="AM4">
-        <v>1092252.244630905</v>
+        <v>1092252.2446309051</v>
       </c>
       <c r="AN4">
         <v>1119117.953675488</v>
@@ -2731,22 +2786,22 @@
         <v>1232041.434208096</v>
       </c>
       <c r="AR4">
-        <v>1275027.844259698</v>
+        <v>1275027.8442596979</v>
       </c>
       <c r="AS4">
-        <v>1318126.714278418</v>
+        <v>1318126.7142784181</v>
       </c>
       <c r="AT4">
-        <v>1361049.350025873</v>
+        <v>1361049.3500258729</v>
       </c>
       <c r="AU4">
-        <v>1406911.274853326</v>
+        <v>1406911.2748533259</v>
       </c>
       <c r="AV4">
-        <v>1451655.671271708</v>
+        <v>1451655.6712717081</v>
       </c>
       <c r="AW4">
-        <v>1494515.03052668</v>
+        <v>1494515.0305266799</v>
       </c>
       <c r="AX4">
         <v>1534999.252713115</v>
@@ -2755,10 +2810,10 @@
         <v>1573721.669360223</v>
       </c>
       <c r="AZ4">
-        <v>1609082.684397363</v>
+        <v>1609082.6843973631</v>
       </c>
       <c r="BA4">
-        <v>1643334.995746086</v>
+        <v>1643334.9957460859</v>
       </c>
       <c r="BB4">
         <v>1676542.80775266</v>
@@ -2767,10 +2822,10 @@
         <v>1708973.534552543</v>
       </c>
       <c r="BD4">
-        <v>1740891.602460991</v>
+        <v>1740891.6024609909</v>
       </c>
       <c r="BE4">
-        <v>1771391.221045812</v>
+        <v>1771391.2210458119</v>
       </c>
       <c r="BF4">
         <v>1801967.191076729</v>
@@ -2785,43 +2840,43 @@
         <v>1898929.682989839</v>
       </c>
       <c r="BJ4">
-        <v>1933550.750111478</v>
+        <v>1933550.7501114779</v>
       </c>
       <c r="BK4">
-        <v>1969511.072200721</v>
+        <v>1969511.0722007209</v>
       </c>
       <c r="BL4">
-        <v>2006653.442706351</v>
+        <v>2006653.4427063509</v>
       </c>
       <c r="BM4">
-        <v>2044734.049926885</v>
+        <v>2044734.0499268849</v>
       </c>
       <c r="BN4">
         <v>2083417.301892628</v>
       </c>
       <c r="BO4">
-        <v>2122447.186698959</v>
+        <v>2122447.1866989592</v>
       </c>
       <c r="BP4">
-        <v>2161660.508278873</v>
+        <v>2161660.5082788728</v>
       </c>
       <c r="BQ4">
-        <v>2200895.482250179</v>
+        <v>2200895.4822501792</v>
       </c>
       <c r="BR4">
-        <v>2239911.984074891</v>
+        <v>2239911.9840748911</v>
       </c>
       <c r="BS4">
         <v>2278360.307492265</v>
       </c>
       <c r="BT4">
-        <v>2315623.500247179</v>
+        <v>2315623.5002471791</v>
       </c>
       <c r="BU4">
-        <v>2351931.082871576</v>
+        <v>2351931.0828715758</v>
       </c>
       <c r="BV4">
-        <v>2387583.131363785</v>
+        <v>2387583.1313637849</v>
       </c>
       <c r="BW4">
         <v>2422906.806098355</v>
@@ -2830,28 +2885,28 @@
         <v>2457842.084327552</v>
       </c>
       <c r="BY4">
-        <v>2491826.558622905</v>
+        <v>2491826.5586229051</v>
       </c>
       <c r="BZ4">
-        <v>2525414.302924563</v>
+        <v>2525414.3029245632</v>
       </c>
       <c r="CA4">
-        <v>2558670.53405907</v>
+        <v>2558670.5340590701</v>
       </c>
       <c r="CB4">
-        <v>2591681.384521582</v>
+        <v>2591681.3845215822</v>
       </c>
       <c r="CC4">
-        <v>2624505.165010038</v>
+        <v>2624505.1650100378</v>
       </c>
       <c r="CD4">
-        <v>2656565.952304771</v>
+        <v>2656565.9523047712</v>
       </c>
       <c r="CE4">
-        <v>2689185.98725286</v>
+        <v>2689185.9872528599</v>
       </c>
       <c r="CF4">
-        <v>2722479.107834351</v>
+        <v>2722479.1078343508</v>
       </c>
       <c r="CG4">
         <v>2756491.463417843</v>
@@ -2863,19 +2918,20 @@
         <v>2825034.098357182</v>
       </c>
       <c r="CJ4">
-        <v>2859354.538079423</v>
+        <v>2859354.5380794229</v>
       </c>
       <c r="CK4">
         <v>2894034.912419775</v>
       </c>
       <c r="CL4">
-        <v>2928961.861634448</v>
+        <v>2928961.8616344482</v>
       </c>
       <c r="CM4">
-        <v>2964056.103498629</v>
-      </c>
+        <v>2964056.1034986288</v>
+      </c>
+      <c r="CQ4" s="2"/>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2883,40 +2939,40 @@
         <v>3598.013476784432</v>
       </c>
       <c r="C5">
-        <v>6230.63814070532</v>
+        <v>6230.6381407053204</v>
       </c>
       <c r="D5">
-        <v>8685.857472007319</v>
+        <v>8685.8574720073193</v>
       </c>
       <c r="E5">
-        <v>11041.38221538006</v>
+        <v>11041.382215380059</v>
       </c>
       <c r="F5">
-        <v>13762.62169871509</v>
+        <v>13762.621698715089</v>
       </c>
       <c r="G5">
-        <v>17274.88451600936</v>
+        <v>17274.884516009359</v>
       </c>
       <c r="H5">
-        <v>21123.35131137484</v>
+        <v>21123.351311374841</v>
       </c>
       <c r="I5">
-        <v>24274.77347269618</v>
+        <v>24274.773472696179</v>
       </c>
       <c r="J5">
         <v>27258.01054841905</v>
       </c>
       <c r="K5">
-        <v>30574.6680001726</v>
+        <v>30574.668000172602</v>
       </c>
       <c r="L5">
-        <v>33935.81261344188</v>
+        <v>33935.812613441878</v>
       </c>
       <c r="M5">
-        <v>38921.10352562777</v>
+        <v>38921.103525627768</v>
       </c>
       <c r="N5">
-        <v>75393.99963846753</v>
+        <v>75393.999638467532</v>
       </c>
       <c r="O5">
         <v>111919.7014387869</v>
@@ -2925,19 +2981,19 @@
         <v>148511.0008318839</v>
       </c>
       <c r="Q5">
-        <v>270060.5778100814</v>
+        <v>270060.57781008142</v>
       </c>
       <c r="R5">
-        <v>391706.5954210637</v>
+        <v>391706.59542106371</v>
       </c>
       <c r="S5">
-        <v>513467.5149414071</v>
+        <v>513467.51494140708</v>
       </c>
       <c r="T5">
-        <v>635364.9080330317</v>
+        <v>635364.90803303174</v>
       </c>
       <c r="U5">
-        <v>757425.2129165673</v>
+        <v>757425.21291656734</v>
       </c>
       <c r="V5">
         <v>885542.6968996292</v>
@@ -2946,31 +3002,31 @@
         <v>1013898.462784316</v>
       </c>
       <c r="X5">
-        <v>1142548.925184098</v>
+        <v>1142548.9251840981</v>
       </c>
       <c r="Y5">
-        <v>1271570.321193724</v>
+        <v>1271570.3211937239</v>
       </c>
       <c r="Z5">
-        <v>1401065.778134083</v>
+        <v>1401065.7781340829</v>
       </c>
       <c r="AA5">
         <v>1437352.275986708</v>
       </c>
       <c r="AB5">
-        <v>1474434.376982018</v>
+        <v>1474434.3769820179</v>
       </c>
       <c r="AC5">
         <v>1512549.484932221</v>
       </c>
       <c r="AD5">
-        <v>1551997.695842401</v>
+        <v>1551997.6958424009</v>
       </c>
       <c r="AE5">
-        <v>1593147.113984021</v>
+        <v>1593147.1139840209</v>
       </c>
       <c r="AF5">
-        <v>1605025.752788154</v>
+        <v>1605025.7527881539</v>
       </c>
       <c r="AG5">
         <v>1619120.195149699</v>
@@ -2985,7 +3041,7 @@
         <v>1681071.556423503</v>
       </c>
       <c r="AK5">
-        <v>1723238.82518292</v>
+        <v>1723238.8251829201</v>
       </c>
       <c r="AL5">
         <v>1770488.341226575</v>
@@ -2994,25 +3050,25 @@
         <v>1822977.438645626</v>
       </c>
       <c r="AN5">
-        <v>1880625.495874547</v>
+        <v>1880625.4958745469</v>
       </c>
       <c r="AO5">
         <v>1943074.379523759</v>
       </c>
       <c r="AP5">
-        <v>2027785.258818939</v>
+        <v>2027785.2588189391</v>
       </c>
       <c r="AQ5">
-        <v>2115787.049117559</v>
+        <v>2115787.0491175591</v>
       </c>
       <c r="AR5">
-        <v>2205983.442553853</v>
+        <v>2205983.4425538532</v>
       </c>
       <c r="AS5">
         <v>2297134.382648035</v>
       </c>
       <c r="AT5">
-        <v>2387949.488100292</v>
+        <v>2387949.4881002922</v>
       </c>
       <c r="AU5">
         <v>2482380.914038972</v>
@@ -3021,22 +3077,22 @@
         <v>2574141.870835131</v>
       </c>
       <c r="AW5">
-        <v>2662359.802658033</v>
+        <v>2662359.8026580331</v>
       </c>
       <c r="AX5">
-        <v>2746437.201474441</v>
+        <v>2746437.2014744412</v>
       </c>
       <c r="AY5">
         <v>2826078.256304035</v>
       </c>
       <c r="AZ5">
-        <v>2898194.728932936</v>
+        <v>2898194.7289329362</v>
       </c>
       <c r="BA5">
-        <v>2966175.474144336</v>
+        <v>2966175.4741443358</v>
       </c>
       <c r="BB5">
-        <v>3030559.853982872</v>
+        <v>3030559.8539828719</v>
       </c>
       <c r="BC5">
         <v>3092079.18763809</v>
@@ -3045,10 +3101,10 @@
         <v>3151587.966858</v>
       </c>
       <c r="BE5">
-        <v>3208253.640440136</v>
+        <v>3208253.6404401362</v>
       </c>
       <c r="BF5">
-        <v>3264682.475316908</v>
+        <v>3264682.4753169082</v>
       </c>
       <c r="BG5">
         <v>3321654.161971712</v>
@@ -3057,98 +3113,99 @@
         <v>3379808.901369378</v>
       </c>
       <c r="BI5">
-        <v>3439620.204189182</v>
+        <v>3439620.2041891818</v>
       </c>
       <c r="BJ5">
-        <v>3501088.78826436</v>
+        <v>3501088.7882643598</v>
       </c>
       <c r="BK5">
-        <v>3564631.745135851</v>
+        <v>3564631.7451358512</v>
       </c>
       <c r="BL5">
-        <v>3630205.659880474</v>
+        <v>3630205.6598804742</v>
       </c>
       <c r="BM5">
-        <v>3697619.78437241</v>
+        <v>3697619.7843724098</v>
       </c>
       <c r="BN5">
-        <v>3766559.743070156</v>
+        <v>3766559.7430701558</v>
       </c>
       <c r="BO5">
-        <v>3836634.279556482</v>
+        <v>3836634.2795564821</v>
       </c>
       <c r="BP5">
-        <v>3907355.379910873</v>
+        <v>3907355.3799108728</v>
       </c>
       <c r="BQ5">
-        <v>3978224.49399816</v>
+        <v>3978224.4939981601</v>
       </c>
       <c r="BR5">
         <v>4048747.247662154</v>
       </c>
       <c r="BS5">
-        <v>4118462.396509779</v>
+        <v>4118462.3965097792</v>
       </c>
       <c r="BT5">
-        <v>4186456.893598493</v>
+        <v>4186456.8935984932</v>
       </c>
       <c r="BU5">
         <v>4252913.086242171</v>
       </c>
       <c r="BV5">
-        <v>4317592.689033149</v>
+        <v>4317592.6890331488</v>
       </c>
       <c r="BW5">
-        <v>4380351.28964547</v>
+        <v>4380351.2896454697</v>
       </c>
       <c r="BX5">
-        <v>4441136.07203047</v>
+        <v>4441136.0720304698</v>
       </c>
       <c r="BY5">
-        <v>4499125.223414272</v>
+        <v>4499125.2234142721</v>
       </c>
       <c r="BZ5">
-        <v>4555269.551905965</v>
+        <v>4555269.5519059654</v>
       </c>
       <c r="CA5">
         <v>4609719.087659291</v>
       </c>
       <c r="CB5">
-        <v>4662655.357336544</v>
+        <v>4662655.3573365444</v>
       </c>
       <c r="CC5">
-        <v>4714271.377024999</v>
+        <v>4714271.3770249989</v>
       </c>
       <c r="CD5">
-        <v>4763315.4606326</v>
+        <v>4763315.4606325999</v>
       </c>
       <c r="CE5">
-        <v>4811387.475960011</v>
+        <v>4811387.4759600107</v>
       </c>
       <c r="CF5">
-        <v>4858613.940727841</v>
+        <v>4858613.9407278411</v>
       </c>
       <c r="CG5">
-        <v>4905077.622636609</v>
+        <v>4905077.6226366088</v>
       </c>
       <c r="CH5">
-        <v>4950814.136026966</v>
+        <v>4950814.1360269664</v>
       </c>
       <c r="CI5">
-        <v>4993563.998317796</v>
+        <v>4993563.9983177958</v>
       </c>
       <c r="CJ5">
-        <v>5035523.499815674</v>
+        <v>5035523.4998156736</v>
       </c>
       <c r="CK5">
-        <v>5076605.44362455</v>
+        <v>5076605.4436245495</v>
       </c>
       <c r="CL5">
-        <v>5116697.166431794</v>
+        <v>5116697.1664317939</v>
       </c>
       <c r="CM5">
         <v>5155670.619465922</v>
       </c>
+      <c r="CQ5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,14 +3213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3435,7 +3492,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3443,184 +3500,184 @@
         <v>1.361094752211504E-11</v>
       </c>
       <c r="C2">
-        <v>1.47767130831854E-10</v>
+        <v>1.4776713083185401E-10</v>
       </c>
       <c r="D2">
-        <v>1.228082553422466E-09</v>
+        <v>1.2280825534224659E-9</v>
       </c>
       <c r="E2">
-        <v>8.558351851392301E-09</v>
+        <v>8.5583518513923006E-9</v>
       </c>
       <c r="F2">
-        <v>5.151570289331714E-08</v>
+        <v>5.1515702893317137E-8</v>
       </c>
       <c r="G2">
-        <v>2.733189124071258E-07</v>
+        <v>2.7331891240712579E-7</v>
       </c>
       <c r="H2">
-        <v>1.298926029727223E-06</v>
+        <v>1.2989260297272229E-6</v>
       </c>
       <c r="I2">
-        <v>5.602891186996872E-06</v>
+        <v>5.6028911869968724E-6</v>
       </c>
       <c r="J2">
-        <v>2.217216892157239E-05</v>
+        <v>2.2172168921572389E-5</v>
       </c>
       <c r="K2">
-        <v>8.11562784197147E-05</v>
+        <v>8.1156278419714699E-5</v>
       </c>
       <c r="L2">
-        <v>0.000276008863251491</v>
+        <v>2.7600886325149102E-4</v>
       </c>
       <c r="M2">
-        <v>0.0008701038206803554</v>
+        <v>8.7010382068035538E-4</v>
       </c>
       <c r="N2">
-        <v>0.002500737068081293</v>
+        <v>2.500737068081293E-3</v>
       </c>
       <c r="O2">
-        <v>0.01266175904889716</v>
+        <v>1.266175904889716E-2</v>
       </c>
       <c r="P2">
-        <v>0.04870247650354773</v>
+        <v>4.8702476503547733E-2</v>
       </c>
       <c r="Q2">
         <v>0.1132731781075357</v>
       </c>
       <c r="R2">
-        <v>0.1904637522840983</v>
+        <v>0.19046375228409829</v>
       </c>
       <c r="S2">
-        <v>0.2905883742604516</v>
+        <v>0.29058837426045159</v>
       </c>
       <c r="T2">
-        <v>0.4437101044230831</v>
+        <v>0.44371010442308312</v>
       </c>
       <c r="U2">
-        <v>0.6769509612630006</v>
+        <v>0.67695096126300058</v>
       </c>
       <c r="V2">
-        <v>1.044031298583462</v>
+        <v>1.0440312985834621</v>
       </c>
       <c r="W2">
-        <v>1.601648528059875</v>
+        <v>1.6016485280598749</v>
       </c>
       <c r="X2">
-        <v>2.372194505989388</v>
+        <v>2.3721945059893881</v>
       </c>
       <c r="Y2">
-        <v>3.40280183718057</v>
+        <v>3.4028018371805699</v>
       </c>
       <c r="Z2">
-        <v>4.756977426162104</v>
+        <v>4.7569774261621038</v>
       </c>
       <c r="AA2">
-        <v>6.372004043063033</v>
+        <v>6.3720040430630327</v>
       </c>
       <c r="AB2">
-        <v>8.297834312305275</v>
+        <v>8.2978343123052749</v>
       </c>
       <c r="AC2">
-        <v>10.70769971882497</v>
+        <v>10.707699718824969</v>
       </c>
       <c r="AD2">
         <v>13.567523319373</v>
       </c>
       <c r="AE2">
-        <v>17.00059663786987</v>
+        <v>17.000596637869869</v>
       </c>
       <c r="AF2">
-        <v>20.79580774568173</v>
+        <v>20.795807745681731</v>
       </c>
       <c r="AG2">
-        <v>24.88013744705063</v>
+        <v>24.880137447050629</v>
       </c>
       <c r="AH2">
         <v>29.92818608774343</v>
       </c>
       <c r="AI2">
-        <v>36.59610025018272</v>
+        <v>36.596100250182722</v>
       </c>
       <c r="AJ2">
-        <v>44.84609726527967</v>
+        <v>44.846097265279667</v>
       </c>
       <c r="AK2">
-        <v>55.61625488400009</v>
+        <v>55.616254884000092</v>
       </c>
       <c r="AL2">
-        <v>70.05908391405917</v>
+        <v>70.059083914059173</v>
       </c>
       <c r="AM2">
-        <v>89.78986658053367</v>
+        <v>89.789866580533669</v>
       </c>
       <c r="AN2">
         <v>116.6120333952198</v>
       </c>
       <c r="AO2">
-        <v>148.8219303832973</v>
+        <v>148.82193038329731</v>
       </c>
       <c r="AP2">
-        <v>184.4131405216176</v>
+        <v>184.41314052161761</v>
       </c>
       <c r="AQ2">
         <v>223.1854325603135</v>
       </c>
       <c r="AR2">
-        <v>264.9064146741522</v>
+        <v>264.90641467415219</v>
       </c>
       <c r="AS2">
-        <v>309.3591705536497</v>
+        <v>309.35917055364968</v>
       </c>
       <c r="AT2">
-        <v>356.842320155319</v>
+        <v>356.84232015531899</v>
       </c>
       <c r="AU2">
-        <v>406.9921767792879</v>
+        <v>406.99217677928789</v>
       </c>
       <c r="AV2">
-        <v>457.2945754825882</v>
+        <v>457.29457548258819</v>
       </c>
       <c r="AW2">
-        <v>502.5331636748519</v>
+        <v>502.53316367485189</v>
       </c>
       <c r="AX2">
-        <v>538.3991553718661</v>
+        <v>538.39915537186607</v>
       </c>
       <c r="AY2">
-        <v>569.7939669008214</v>
+        <v>569.79396690082137</v>
       </c>
       <c r="AZ2">
-        <v>602.0880809098639</v>
+        <v>602.08808090986395</v>
       </c>
       <c r="BA2">
-        <v>634.7588501368343</v>
+        <v>634.75885013683433</v>
       </c>
       <c r="BB2">
-        <v>665.6466091746365</v>
+        <v>665.64660917463652</v>
       </c>
       <c r="BC2">
-        <v>693.0639798125105</v>
+        <v>693.06397981251052</v>
       </c>
       <c r="BD2">
-        <v>719.5909827745678</v>
+        <v>719.59098277456781</v>
       </c>
       <c r="BE2">
-        <v>748.716664330844</v>
+        <v>748.71666433084397</v>
       </c>
       <c r="BF2">
-        <v>782.3217331087378</v>
+        <v>782.32173310873782</v>
       </c>
       <c r="BG2">
-        <v>822.7926651543949</v>
+        <v>822.79266515439485</v>
       </c>
       <c r="BH2">
-        <v>872.9116681915784</v>
+        <v>872.91166819157843</v>
       </c>
       <c r="BI2">
-        <v>934.051790981898</v>
+        <v>934.05179098189797</v>
       </c>
       <c r="BJ2">
-        <v>1007.587055674331</v>
+        <v>1007.5870556743311</v>
       </c>
       <c r="BK2">
         <v>1095.517098639574</v>
@@ -3632,22 +3689,22 @@
         <v>1318.319167643519</v>
       </c>
       <c r="BN2">
-        <v>1449.708328798209</v>
+        <v>1449.7083287982091</v>
       </c>
       <c r="BO2">
-        <v>1590.095897643418</v>
+        <v>1590.0958976434181</v>
       </c>
       <c r="BP2">
-        <v>1739.022509950879</v>
+        <v>1739.0225099508791</v>
       </c>
       <c r="BQ2">
-        <v>1895.960051340959</v>
+        <v>1895.9600513409589</v>
       </c>
       <c r="BR2">
-        <v>2058.481338155767</v>
+        <v>2058.4813381557669</v>
       </c>
       <c r="BS2">
-        <v>2220.685358799228</v>
+        <v>2220.6853587992282</v>
       </c>
       <c r="BT2">
         <v>2376.198840932761</v>
@@ -3656,61 +3713,61 @@
         <v>2522.978525812719</v>
       </c>
       <c r="BV2">
-        <v>2664.312908774097</v>
+        <v>2664.3129087740972</v>
       </c>
       <c r="BW2">
-        <v>2804.29701269443</v>
+        <v>2804.2970126944301</v>
       </c>
       <c r="BX2">
         <v>2944.585378103402</v>
       </c>
       <c r="BY2">
-        <v>3084.694137245612</v>
+        <v>3084.6941372456122</v>
       </c>
       <c r="BZ2">
-        <v>3224.718063989315</v>
+        <v>3224.7180639893149</v>
       </c>
       <c r="CA2">
         <v>3367.565692976455</v>
       </c>
       <c r="CB2">
-        <v>3517.837938856827</v>
+        <v>3517.8379388568269</v>
       </c>
       <c r="CC2">
-        <v>3681.096181538332</v>
+        <v>3681.0961815383321</v>
       </c>
       <c r="CD2">
         <v>3862.485939884536</v>
       </c>
       <c r="CE2">
-        <v>4065.759351267456</v>
+        <v>4065.7593512674562</v>
       </c>
       <c r="CF2">
-        <v>4293.438637105864</v>
+        <v>4293.4386371058636</v>
       </c>
       <c r="CG2">
-        <v>4547.548591039813</v>
+        <v>4547.5485910398129</v>
       </c>
       <c r="CH2">
-        <v>4830.508018645485</v>
+        <v>4830.5080186454852</v>
       </c>
       <c r="CI2">
-        <v>5143.110150078486</v>
+        <v>5143.1101500784862</v>
       </c>
       <c r="CJ2">
-        <v>5482.943363507778</v>
+        <v>5482.9433635077776</v>
       </c>
       <c r="CK2">
-        <v>5845.272101526121</v>
+        <v>5845.2721015261213</v>
       </c>
       <c r="CL2">
-        <v>6225.521078237593</v>
+        <v>6225.5210782375934</v>
       </c>
       <c r="CM2">
-        <v>6620.893912160485</v>
+        <v>6620.8939121604853</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3754,49 +3811,49 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01025746228157005</v>
+        <v>1.025746228157005E-2</v>
       </c>
       <c r="P3">
-        <v>0.04695320379742759</v>
+        <v>4.6953203797427588E-2</v>
       </c>
       <c r="Q3">
         <v>0.1129089680411785</v>
       </c>
       <c r="R3">
-        <v>0.191591531938771</v>
+        <v>0.19159153193877099</v>
       </c>
       <c r="S3">
-        <v>0.2928431546295499</v>
+        <v>0.29284315462954991</v>
       </c>
       <c r="T3">
-        <v>0.4453416846574089</v>
+        <v>0.44534168465740892</v>
       </c>
       <c r="U3">
         <v>0.6717812507200378</v>
       </c>
       <c r="V3">
-        <v>1.017734750757017</v>
+        <v>1.0177347507570169</v>
       </c>
       <c r="W3">
-        <v>1.530189603630442</v>
+        <v>1.5301896036304421</v>
       </c>
       <c r="X3">
         <v>2.223303343462856</v>
       </c>
       <c r="Y3">
-        <v>3.133502715017702</v>
+        <v>3.1335027150177019</v>
       </c>
       <c r="Z3">
-        <v>4.310771601743808</v>
+        <v>4.3107716017438076</v>
       </c>
       <c r="AA3">
-        <v>5.695798356469509</v>
+        <v>5.6957983564695089</v>
       </c>
       <c r="AB3">
-        <v>7.327791582148611</v>
+        <v>7.3277915821486106</v>
       </c>
       <c r="AC3">
-        <v>9.348484039856697</v>
+        <v>9.3484840398566966</v>
       </c>
       <c r="AD3">
         <v>11.7236469914066</v>
@@ -3805,31 +3862,31 @@
         <v>14.54975174976434</v>
       </c>
       <c r="AF3">
-        <v>17.64766445098627</v>
+        <v>17.647664450986269</v>
       </c>
       <c r="AG3">
         <v>20.95393735749116</v>
       </c>
       <c r="AH3">
-        <v>25.00592776404024</v>
+        <v>25.005927764040241</v>
       </c>
       <c r="AI3">
-        <v>30.31105576369105</v>
+        <v>30.311055763691051</v>
       </c>
       <c r="AJ3">
-        <v>36.81314270076694</v>
+        <v>36.813142700766939</v>
       </c>
       <c r="AK3">
-        <v>45.21454067352951</v>
+        <v>45.214540673529513</v>
       </c>
       <c r="AL3">
-        <v>56.3539773735023</v>
+        <v>56.353977373502303</v>
       </c>
       <c r="AM3">
-        <v>71.38230951823594</v>
+        <v>71.382309518235942</v>
       </c>
       <c r="AN3">
-        <v>91.52994024517008</v>
+        <v>91.529940245170081</v>
       </c>
       <c r="AO3">
         <v>115.3552035846418</v>
@@ -3838,79 +3895,79 @@
         <v>141.295585972244</v>
       </c>
       <c r="AQ3">
-        <v>169.2170858260382</v>
+        <v>169.21708582603819</v>
       </c>
       <c r="AR3">
-        <v>198.9832627528378</v>
+        <v>198.98326275283779</v>
       </c>
       <c r="AS3">
         <v>230.4851540190007</v>
       </c>
       <c r="AT3">
-        <v>263.9894284042206</v>
+        <v>263.98942840422058</v>
       </c>
       <c r="AU3">
-        <v>299.3020614105695</v>
+        <v>299.30206141056948</v>
       </c>
       <c r="AV3">
-        <v>334.7214734393838</v>
+        <v>334.72147343938377</v>
       </c>
       <c r="AW3">
-        <v>366.6337287955116</v>
+        <v>366.63372879551162</v>
       </c>
       <c r="AX3">
-        <v>392.0224091535832</v>
+        <v>392.02240915358323</v>
       </c>
       <c r="AY3">
-        <v>414.3554313338116</v>
+        <v>414.35543133381162</v>
       </c>
       <c r="AZ3">
-        <v>437.469816948098</v>
+        <v>437.46981694809801</v>
       </c>
       <c r="BA3">
-        <v>461.0226329614842</v>
+        <v>461.02263296148419</v>
       </c>
       <c r="BB3">
-        <v>483.4704060755653</v>
+        <v>483.47040607556528</v>
       </c>
       <c r="BC3">
-        <v>503.5717446846523</v>
+        <v>503.57174468465229</v>
       </c>
       <c r="BD3">
-        <v>523.2028727870212</v>
+        <v>523.20287278702119</v>
       </c>
       <c r="BE3">
-        <v>544.9689392217014</v>
+        <v>544.96893922170136</v>
       </c>
       <c r="BF3">
-        <v>570.3373994763408</v>
+        <v>570.33739947634081</v>
       </c>
       <c r="BG3">
-        <v>601.205695485904</v>
+        <v>601.20569548590402</v>
       </c>
       <c r="BH3">
-        <v>639.8342472710002</v>
+        <v>639.83424727100021</v>
       </c>
       <c r="BI3">
-        <v>687.454573055952</v>
+        <v>687.45457305595198</v>
       </c>
       <c r="BJ3">
-        <v>745.3330606925607</v>
+        <v>745.33306069256071</v>
       </c>
       <c r="BK3">
-        <v>815.2666647202162</v>
+        <v>815.26666472021623</v>
       </c>
       <c r="BL3">
-        <v>898.4858429054435</v>
+        <v>898.48584290544352</v>
       </c>
       <c r="BM3">
-        <v>995.2841492615046</v>
+        <v>995.28414926150458</v>
       </c>
       <c r="BN3">
         <v>1103.014254223074</v>
       </c>
       <c r="BO3">
-        <v>1219.253551605307</v>
+        <v>1219.2535516053069</v>
       </c>
       <c r="BP3">
         <v>1343.746751341112</v>
@@ -3922,37 +3979,37 @@
         <v>1614.54073612928</v>
       </c>
       <c r="BS3">
-        <v>1753.867983833679</v>
+        <v>1753.8679838336791</v>
       </c>
       <c r="BT3">
-        <v>1888.593082275822</v>
+        <v>1888.5930822758221</v>
       </c>
       <c r="BU3">
         <v>2016.807036052254</v>
       </c>
       <c r="BV3">
-        <v>2141.25514046166</v>
+        <v>2141.2551404616602</v>
       </c>
       <c r="BW3">
-        <v>2265.469731798358</v>
+        <v>2265.4697317983582</v>
       </c>
       <c r="BX3">
-        <v>2390.885446112514</v>
+        <v>2390.8854461125138</v>
       </c>
       <c r="BY3">
         <v>2517.043823573586</v>
       </c>
       <c r="BZ3">
-        <v>2644.001560991105</v>
+        <v>2644.0015609911052</v>
       </c>
       <c r="CA3">
         <v>2774.385317440569</v>
       </c>
       <c r="CB3">
-        <v>2912.427631394332</v>
+        <v>2912.4276313943319</v>
       </c>
       <c r="CC3">
-        <v>3063.325558977237</v>
+        <v>3063.3255589772371</v>
       </c>
       <c r="CD3">
         <v>3231.976861860092</v>
@@ -3964,28 +4021,28 @@
         <v>3636.108291860151</v>
       </c>
       <c r="CG3">
-        <v>3876.264830034397</v>
+        <v>3876.2648300343972</v>
       </c>
       <c r="CH3">
-        <v>4145.026425685058</v>
+        <v>4145.0264256850578</v>
       </c>
       <c r="CI3">
-        <v>4443.366853663611</v>
+        <v>4443.3668536636114</v>
       </c>
       <c r="CJ3">
-        <v>4769.182934975586</v>
+        <v>4769.1829349755862</v>
       </c>
       <c r="CK3">
-        <v>5118.08851594132</v>
+        <v>5118.0885159413201</v>
       </c>
       <c r="CL3">
-        <v>5485.782089992532</v>
+        <v>5485.7820899925318</v>
       </c>
       <c r="CM3">
-        <v>5869.625873450669</v>
+        <v>5869.6258734506691</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3993,10 +4050,10 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.3276376093386716</v>
+        <v>0.32763760933867159</v>
       </c>
       <c r="D4">
-        <v>0.7009126698218904</v>
+        <v>0.70091266982189038</v>
       </c>
       <c r="E4">
         <v>1.344325349791806</v>
@@ -4005,73 +4062,73 @@
         <v>2.432504920339047</v>
       </c>
       <c r="G4">
-        <v>4.240624131490814</v>
+        <v>4.2406241314908142</v>
       </c>
       <c r="H4">
-        <v>7.198688756510018</v>
+        <v>7.1986887565100179</v>
       </c>
       <c r="I4">
-        <v>11.9968031733751</v>
+        <v>11.996803173375101</v>
       </c>
       <c r="J4">
         <v>19.83295250581709</v>
       </c>
       <c r="K4">
-        <v>33.0467347130977</v>
+        <v>33.046734713097699</v>
       </c>
       <c r="L4">
-        <v>56.67513428562594</v>
+        <v>56.675134285625937</v>
       </c>
       <c r="M4">
         <v>101.514750209239</v>
       </c>
       <c r="N4">
-        <v>186.1569281080608</v>
+        <v>186.15692810806081</v>
       </c>
       <c r="O4">
-        <v>328.3425545077782</v>
+        <v>328.34255450777817</v>
       </c>
       <c r="P4">
-        <v>514.1175681864514</v>
+        <v>514.11756818645142</v>
       </c>
       <c r="Q4">
-        <v>731.682490064289</v>
+        <v>731.68249006428903</v>
       </c>
       <c r="R4">
-        <v>994.2364083914964</v>
+        <v>994.23640839149641</v>
       </c>
       <c r="S4">
-        <v>1321.415671195064</v>
+        <v>1321.4156711950641</v>
       </c>
       <c r="T4">
         <v>1731.30241998528</v>
       </c>
       <c r="U4">
-        <v>2239.946522811524</v>
+        <v>2239.9465228115241</v>
       </c>
       <c r="V4">
-        <v>2873.634062177184</v>
+        <v>2873.6340621771842</v>
       </c>
       <c r="W4">
-        <v>3658.433988141204</v>
+        <v>3658.4339881412038</v>
       </c>
       <c r="X4">
-        <v>4603.464081017705</v>
+        <v>4603.4640810177052</v>
       </c>
       <c r="Y4">
-        <v>5743.120369795958</v>
+        <v>5743.1203697959581</v>
       </c>
       <c r="Z4">
-        <v>7125.204450215466</v>
+        <v>7125.2044502154658</v>
       </c>
       <c r="AA4">
-        <v>8798.098941136606</v>
+        <v>8798.0989411366063</v>
       </c>
       <c r="AB4">
-        <v>10881.62138137011</v>
+        <v>10881.621381370111</v>
       </c>
       <c r="AC4">
-        <v>13479.11057032846</v>
+        <v>13479.110570328459</v>
       </c>
       <c r="AD4">
         <v>16641.7835485832</v>
@@ -4080,16 +4137,16 @@
         <v>20535.20801253826</v>
       </c>
       <c r="AF4">
-        <v>25409.62716493803</v>
+        <v>25409.627164938029</v>
       </c>
       <c r="AG4">
         <v>31580.42738614781</v>
       </c>
       <c r="AH4">
-        <v>39402.69078758071</v>
+        <v>39402.690787580708</v>
       </c>
       <c r="AI4">
-        <v>49255.52614554003</v>
+        <v>49255.526145540032</v>
       </c>
       <c r="AJ4">
         <v>61707.73209951329</v>
@@ -4098,103 +4155,103 @@
         <v>77403.92670368425</v>
       </c>
       <c r="AL4">
-        <v>96732.59358946858</v>
+        <v>96732.593589468583</v>
       </c>
       <c r="AM4">
-        <v>120281.973314621</v>
+        <v>120281.97331462101</v>
       </c>
       <c r="AN4">
-        <v>148567.0918966134</v>
+        <v>148567.09189661339</v>
       </c>
       <c r="AO4">
-        <v>180782.3599403216</v>
+        <v>180782.35994032159</v>
       </c>
       <c r="AP4">
-        <v>215972.3366919466</v>
+        <v>215972.33669194661</v>
       </c>
       <c r="AQ4">
-        <v>253708.6324080699</v>
+        <v>253708.63240806991</v>
       </c>
       <c r="AR4">
-        <v>293438.4479315429</v>
+        <v>293438.44793154288</v>
       </c>
       <c r="AS4">
-        <v>334504.4170559552</v>
+        <v>334504.41705595521</v>
       </c>
       <c r="AT4">
         <v>376291.71409922</v>
       </c>
       <c r="AU4">
-        <v>418026.2811391104</v>
+        <v>418026.28113911039</v>
       </c>
       <c r="AV4">
-        <v>458571.4663236245</v>
+        <v>458571.46632362448</v>
       </c>
       <c r="AW4">
-        <v>496450.5738651101</v>
+        <v>496450.57386511011</v>
       </c>
       <c r="AX4">
-        <v>530593.4729357311</v>
+        <v>530593.47293573106</v>
       </c>
       <c r="AY4">
-        <v>561751.7628210993</v>
+        <v>561751.76282109926</v>
       </c>
       <c r="AZ4">
-        <v>590798.4043733286</v>
+        <v>590798.40437332855</v>
       </c>
       <c r="BA4">
-        <v>617732.32186109</v>
+        <v>617732.32186109002</v>
       </c>
       <c r="BB4">
-        <v>642561.7839250981</v>
+        <v>642561.78392509813</v>
       </c>
       <c r="BC4">
-        <v>665562.4595876276</v>
+        <v>665562.45958762756</v>
       </c>
       <c r="BD4">
-        <v>687593.0428946587</v>
+        <v>687593.04289465875</v>
       </c>
       <c r="BE4">
-        <v>709669.7353737758</v>
+        <v>709669.73537377582</v>
       </c>
       <c r="BF4">
-        <v>732712.7970353059</v>
+        <v>732712.79703530588</v>
       </c>
       <c r="BG4">
-        <v>757761.7450123586</v>
+        <v>757761.74501235865</v>
       </c>
       <c r="BH4">
-        <v>785823.8773849494</v>
+        <v>785823.87738494936</v>
       </c>
       <c r="BI4">
-        <v>817519.9536706212</v>
+        <v>817519.95367062115</v>
       </c>
       <c r="BJ4">
-        <v>853286.3835102855</v>
+        <v>853286.38351028552</v>
       </c>
       <c r="BK4">
-        <v>893400.3843010017</v>
+        <v>893400.38430100167</v>
       </c>
       <c r="BL4">
-        <v>937752.6692391207</v>
+        <v>937752.66923912067</v>
       </c>
       <c r="BM4">
-        <v>985982.9089770184</v>
+        <v>985982.90897701844</v>
       </c>
       <c r="BN4">
         <v>1037426.427670502</v>
       </c>
       <c r="BO4">
-        <v>1091469.932396747</v>
+        <v>1091469.9323967469</v>
       </c>
       <c r="BP4">
-        <v>1147692.738929425</v>
+        <v>1147692.7389294249</v>
       </c>
       <c r="BQ4">
         <v>1205598.930205717</v>
       </c>
       <c r="BR4">
-        <v>1264470.244955999</v>
+        <v>1264470.2449559991</v>
       </c>
       <c r="BS4">
         <v>1323289.069094792</v>
@@ -4203,25 +4260,25 @@
         <v>1381088.047491</v>
       </c>
       <c r="BU4">
-        <v>1437426.141544225</v>
+        <v>1437426.1415442249</v>
       </c>
       <c r="BV4">
-        <v>1492453.214931986</v>
+        <v>1492453.2149319861</v>
       </c>
       <c r="BW4">
-        <v>1546430.453360944</v>
+        <v>1546430.4533609441</v>
       </c>
       <c r="BX4">
         <v>1599430.705819343</v>
       </c>
       <c r="BY4">
-        <v>1651441.533785232</v>
+        <v>1651441.5337852321</v>
       </c>
       <c r="BZ4">
         <v>1702577.978452632</v>
       </c>
       <c r="CA4">
-        <v>1753184.485398597</v>
+        <v>1753184.4853985971</v>
       </c>
       <c r="CB4">
         <v>1803785.401376782</v>
@@ -4233,10 +4290,10 @@
         <v>1907799.841925184</v>
       </c>
       <c r="CE4">
-        <v>1962593.853115229</v>
+        <v>1962593.8531152289</v>
       </c>
       <c r="CF4">
-        <v>2019891.127741624</v>
+        <v>2019891.1277416239</v>
       </c>
       <c r="CG4">
         <v>2079953.551488772</v>
@@ -4245,51 +4302,51 @@
         <v>2142902.1707253</v>
       </c>
       <c r="CI4">
-        <v>2208643.319711286</v>
+        <v>2208643.3197112861</v>
       </c>
       <c r="CJ4">
-        <v>2276878.297170739</v>
+        <v>2276878.2971707392</v>
       </c>
       <c r="CK4">
-        <v>2347215.913926001</v>
+        <v>2347215.9139260012</v>
       </c>
       <c r="CL4">
-        <v>2419290.978291102</v>
+        <v>2419290.9782911022</v>
       </c>
       <c r="CM4">
         <v>2492792.651792659</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004448165894890477</v>
+        <v>4.4481658948904773E-3</v>
       </c>
       <c r="C5">
-        <v>0.01251016984047165</v>
+        <v>1.251016984047165E-2</v>
       </c>
       <c r="D5">
-        <v>0.02664653659379065</v>
+        <v>2.6646536593790651E-2</v>
       </c>
       <c r="E5">
-        <v>0.05085541805601356</v>
+        <v>5.0855418056013561E-2</v>
       </c>
       <c r="F5">
-        <v>0.09151814496304228</v>
+        <v>9.1518144963042281E-2</v>
       </c>
       <c r="G5">
         <v>0.158518510702163</v>
       </c>
       <c r="H5">
-        <v>0.2666462182577551</v>
+        <v>0.26664621825775509</v>
       </c>
       <c r="I5">
-        <v>0.4372975504132848</v>
+        <v>0.43729755041328477</v>
       </c>
       <c r="J5">
-        <v>0.7004938516932711</v>
+        <v>0.70049385169327105</v>
       </c>
       <c r="K5">
         <v>1.097206744066711</v>
@@ -4298,22 +4355,22 @@
         <v>1.681901111190317</v>
       </c>
       <c r="M5">
-        <v>2.525144948308888</v>
+        <v>2.5251449483088879</v>
       </c>
       <c r="N5">
         <v>3.716096542169776</v>
       </c>
       <c r="O5">
-        <v>9.106752331524103</v>
+        <v>9.1067523315241026</v>
       </c>
       <c r="P5">
-        <v>21.46504846694737</v>
+        <v>21.465048466947369</v>
       </c>
       <c r="Q5">
-        <v>44.48631283394551</v>
+        <v>44.486312833945512</v>
       </c>
       <c r="R5">
-        <v>82.87856258735007</v>
+        <v>82.878562587350075</v>
       </c>
       <c r="S5">
         <v>142.4206276137744</v>
@@ -4322,13 +4379,13 @@
         <v>230.0324060953435</v>
       </c>
       <c r="U5">
-        <v>353.9133531949875</v>
+        <v>353.91335319498751</v>
       </c>
       <c r="V5">
-        <v>524.8297585684259</v>
+        <v>524.82975856842586</v>
       </c>
       <c r="W5">
-        <v>757.9512424506154</v>
+        <v>757.95124245061538</v>
       </c>
       <c r="X5">
         <v>1073.991270581932</v>
@@ -4337,124 +4394,124 @@
         <v>1501.511670583104</v>
       </c>
       <c r="Z5">
-        <v>2079.946841138508</v>
+        <v>2079.9468411385078</v>
       </c>
       <c r="AA5">
-        <v>2863.42617651034</v>
+        <v>2863.4261765103402</v>
       </c>
       <c r="AB5">
-        <v>3925.411209570004</v>
+        <v>3925.4112095700038</v>
       </c>
       <c r="AC5">
-        <v>5364.033756309883</v>
+        <v>5364.0337563098828</v>
       </c>
       <c r="AD5">
-        <v>7307.789439482834</v>
+        <v>7307.7894394828336</v>
       </c>
       <c r="AE5">
-        <v>9921.018159563777</v>
+        <v>9921.0181595637769</v>
       </c>
       <c r="AF5">
         <v>13408.39400212478</v>
       </c>
       <c r="AG5">
-        <v>18017.43299796841</v>
+        <v>18017.432997968412</v>
       </c>
       <c r="AH5">
-        <v>24037.84959222164</v>
+        <v>24037.849592221639</v>
       </c>
       <c r="AI5">
-        <v>31796.49127178047</v>
+        <v>31796.491271780469</v>
       </c>
       <c r="AJ5">
-        <v>41646.65587640773</v>
+        <v>41646.655876407727</v>
       </c>
       <c r="AK5">
-        <v>53950.91638048249</v>
+        <v>53950.916380482493</v>
       </c>
       <c r="AL5">
-        <v>69057.20968681863</v>
+        <v>69057.209686818635</v>
       </c>
       <c r="AM5">
-        <v>87268.95277854387</v>
+        <v>87268.952778543869</v>
       </c>
       <c r="AN5">
         <v>108811.2969402437</v>
       </c>
       <c r="AO5">
-        <v>133797.1005599021</v>
+        <v>133797.10055990209</v>
       </c>
       <c r="AP5">
         <v>162176.8418045498</v>
       </c>
       <c r="AQ5">
-        <v>193708.4202203206</v>
+        <v>193708.42022032061</v>
       </c>
       <c r="AR5">
-        <v>227969.8630074607</v>
+        <v>227969.86300746069</v>
       </c>
       <c r="AS5">
-        <v>264377.3922111632</v>
+        <v>264377.39221116318</v>
       </c>
       <c r="AT5">
-        <v>302223.5531799071</v>
+        <v>302223.55317990709</v>
       </c>
       <c r="AU5">
-        <v>340731.3705559275</v>
+        <v>340731.37055592751</v>
       </c>
       <c r="AV5">
-        <v>379117.7474527307</v>
+        <v>379117.74745273072</v>
       </c>
       <c r="AW5">
-        <v>416658.3472395216</v>
+        <v>416658.34723952162</v>
       </c>
       <c r="AX5">
-        <v>452747.1807064833</v>
+        <v>452747.18070648331</v>
       </c>
       <c r="AY5">
-        <v>486946.32717087</v>
+        <v>486946.32717086998</v>
       </c>
       <c r="AZ5">
-        <v>519023.308973994</v>
+        <v>519023.30897399399</v>
       </c>
       <c r="BA5">
-        <v>548974.4833148086</v>
+        <v>548974.48331480857</v>
       </c>
       <c r="BB5">
-        <v>577032.3635040241</v>
+        <v>577032.36350402411</v>
       </c>
       <c r="BC5">
-        <v>603654.2792219772</v>
+        <v>603654.27922197722</v>
       </c>
       <c r="BD5">
-        <v>629490.8957237949</v>
+        <v>629490.89572379494</v>
       </c>
       <c r="BE5">
-        <v>655336.44361087</v>
+        <v>655336.44361087005</v>
       </c>
       <c r="BF5">
-        <v>682066.8215855054</v>
+        <v>682066.82158550539</v>
       </c>
       <c r="BG5">
-        <v>710574.6153416373</v>
+        <v>710574.61534163728</v>
       </c>
       <c r="BH5">
-        <v>741709.6880583479</v>
+        <v>741709.68805834791</v>
       </c>
       <c r="BI5">
-        <v>776230.5242675446</v>
+        <v>776230.52426754462</v>
       </c>
       <c r="BJ5">
-        <v>814767.1141964676</v>
+        <v>814767.11419646756</v>
       </c>
       <c r="BK5">
         <v>857793.4540198727</v>
       </c>
       <c r="BL5">
-        <v>905607.8520935539</v>
+        <v>905607.85209355387</v>
       </c>
       <c r="BM5">
-        <v>958321.1366009788</v>
+        <v>958321.13660097879</v>
       </c>
       <c r="BN5">
         <v>1015854.424088666</v>
@@ -4463,7 +4520,7 @@
         <v>1077947.975124487</v>
       </c>
       <c r="BP5">
-        <v>1144181.18530091</v>
+        <v>1144181.1853009099</v>
       </c>
       <c r="BQ5">
         <v>1214002.270795167</v>
@@ -4472,13 +4529,13 @@
         <v>1286765.599791741</v>
       </c>
       <c r="BS5">
-        <v>1361774.687214987</v>
+        <v>1361774.6872149869</v>
       </c>
       <c r="BT5">
         <v>1438328.828232873</v>
       </c>
       <c r="BU5">
-        <v>1515770.759065977</v>
+        <v>1515770.7590659771</v>
       </c>
       <c r="BV5">
         <v>1593531.903181314</v>
@@ -4490,19 +4547,19 @@
         <v>1748405.439208823</v>
       </c>
       <c r="BY5">
-        <v>1825125.252754446</v>
+        <v>1825125.2527544459</v>
       </c>
       <c r="BZ5">
-        <v>1901402.205950626</v>
+        <v>1901402.2059506259</v>
       </c>
       <c r="CA5">
-        <v>1977480.93259066</v>
+        <v>1977480.9325906599</v>
       </c>
       <c r="CB5">
-        <v>2053760.813464197</v>
+        <v>2053760.8134641971</v>
       </c>
       <c r="CC5">
-        <v>2130767.280523774</v>
+        <v>2130767.2805237742</v>
       </c>
       <c r="CD5">
         <v>2209115.027639159</v>
@@ -4511,10 +4568,10 @@
         <v>2289466.0707727</v>
       </c>
       <c r="CF5">
-        <v>2372486.127491831</v>
+        <v>2372486.1274918308</v>
       </c>
       <c r="CG5">
-        <v>2458802.747057568</v>
+        <v>2458802.7470575678</v>
       </c>
       <c r="CH5">
         <v>2548968.088627961</v>
@@ -4526,10 +4583,10 @@
         <v>2742502.277917325</v>
       </c>
       <c r="CK5">
-        <v>2846366.596917575</v>
+        <v>2846366.5969175752</v>
       </c>
       <c r="CL5">
-        <v>2955053.685923394</v>
+        <v>2955053.6859233938</v>
       </c>
       <c r="CM5">
         <v>3068456.296250985</v>
@@ -4541,14 +4598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -4820,39 +4877,39 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184253996</v>
+        <v>46.873131842539962</v>
       </c>
       <c r="C2">
-        <v>113.2051186240275</v>
+        <v>113.20511862402751</v>
       </c>
       <c r="D2">
-        <v>177.3140570824509</v>
+        <v>177.31405708245089</v>
       </c>
       <c r="E2">
-        <v>238.1869348257314</v>
+        <v>238.18693482573141</v>
       </c>
       <c r="F2">
-        <v>336.1717143587543</v>
+        <v>336.17171435875429</v>
       </c>
       <c r="G2">
-        <v>406.8668793008137</v>
+        <v>406.86687930081371</v>
       </c>
       <c r="H2">
-        <v>532.6410682284492</v>
+        <v>532.64106822844917</v>
       </c>
       <c r="I2">
-        <v>652.1833471037365</v>
+        <v>652.18334710373654</v>
       </c>
       <c r="J2">
         <v>764.3133564244107</v>
       </c>
       <c r="K2">
-        <v>865.5166474294415</v>
+        <v>865.51664742944149</v>
       </c>
       <c r="L2">
         <v>1075.33404812003</v>
@@ -4864,55 +4921,55 @@
         <v>1497.535652844593</v>
       </c>
       <c r="O2">
-        <v>1799.095262407582</v>
+        <v>1799.0952624075819</v>
       </c>
       <c r="P2">
-        <v>2123.064640133554</v>
+        <v>2123.0646401335539</v>
       </c>
       <c r="Q2">
         <v>2832.338536722672</v>
       </c>
       <c r="R2">
-        <v>3591.776683953082</v>
+        <v>3591.7766839530818</v>
       </c>
       <c r="S2">
-        <v>4401.893268144049</v>
+        <v>4401.8932681440492</v>
       </c>
       <c r="T2">
-        <v>5263.549349778031</v>
+        <v>5263.5493497780308</v>
       </c>
       <c r="U2">
         <v>6177.419092458088</v>
       </c>
       <c r="V2">
-        <v>7095.298965279189</v>
+        <v>7095.2989652791894</v>
       </c>
       <c r="W2">
-        <v>8063.039866202877</v>
+        <v>8063.0398662028774</v>
       </c>
       <c r="X2">
-        <v>9080.985376418776</v>
+        <v>9080.9853764187756</v>
       </c>
       <c r="Y2">
         <v>10150.04732106228</v>
       </c>
       <c r="Z2">
-        <v>11271.49001129961</v>
+        <v>11271.490011299609</v>
       </c>
       <c r="AA2">
-        <v>11792.09170083904</v>
+        <v>11792.091700839041</v>
       </c>
       <c r="AB2">
         <v>12326.31308088699</v>
       </c>
       <c r="AC2">
-        <v>12877.74089007901</v>
+        <v>12877.740890079011</v>
       </c>
       <c r="AD2">
-        <v>13445.88390975727</v>
+        <v>13445.883909757271</v>
       </c>
       <c r="AE2">
-        <v>14033.42527425639</v>
+        <v>14033.425274256389</v>
       </c>
       <c r="AF2">
         <v>14404.58479389266</v>
@@ -4921,13 +4978,13 @@
         <v>14778.37500162904</v>
       </c>
       <c r="AH2">
-        <v>15167.80649748847</v>
+        <v>15167.806497488469</v>
       </c>
       <c r="AI2">
         <v>15585.5794238985</v>
       </c>
       <c r="AJ2">
-        <v>16030.92484285467</v>
+        <v>16030.924842854671</v>
       </c>
       <c r="AK2">
         <v>16621.82425498026</v>
@@ -4936,16 +4993,16 @@
         <v>17280.01588036383</v>
       </c>
       <c r="AM2">
-        <v>18030.84071003915</v>
+        <v>18030.840710039149</v>
       </c>
       <c r="AN2">
-        <v>18900.3049665267</v>
+        <v>18900.304966526699</v>
       </c>
       <c r="AO2">
         <v>19853.71857106447</v>
       </c>
       <c r="AP2">
-        <v>21040.8075211958</v>
+        <v>21040.807521195798</v>
       </c>
       <c r="AQ2">
         <v>22273.52325735351</v>
@@ -4957,7 +5014,7 @@
         <v>24843.07305224759</v>
       </c>
       <c r="AT2">
-        <v>26171.5424814029</v>
+        <v>26171.542481402899</v>
       </c>
       <c r="AU2">
         <v>27561.50216465646</v>
@@ -4966,136 +5023,136 @@
         <v>28935.08528148376</v>
       </c>
       <c r="AW2">
-        <v>30225.18759350458</v>
+        <v>30225.187593504579</v>
       </c>
       <c r="AX2">
         <v>31383.71871056161</v>
       </c>
       <c r="AY2">
-        <v>32476.3293966141</v>
+        <v>32476.329396614099</v>
       </c>
       <c r="AZ2">
-        <v>33515.69841211465</v>
+        <v>33515.698412114652</v>
       </c>
       <c r="BA2">
-        <v>34545.95817553593</v>
+        <v>34545.958175535932</v>
       </c>
       <c r="BB2">
-        <v>35545.62868474622</v>
+        <v>35545.628684746218</v>
       </c>
       <c r="BC2">
-        <v>36501.10305649733</v>
+        <v>36501.103056497333</v>
       </c>
       <c r="BD2">
-        <v>37441.20837474189</v>
+        <v>37441.208374741887</v>
       </c>
       <c r="BE2">
-        <v>38362.48008534773</v>
+        <v>38362.480085347728</v>
       </c>
       <c r="BF2">
-        <v>39317.01451813031</v>
+        <v>39317.014518130309</v>
       </c>
       <c r="BG2">
-        <v>40322.7126796481</v>
+        <v>40322.712679648102</v>
       </c>
       <c r="BH2">
-        <v>41397.90513885301</v>
+        <v>41397.905138853013</v>
       </c>
       <c r="BI2">
-        <v>42547.43637850034</v>
+        <v>42547.436378500337</v>
       </c>
       <c r="BJ2">
-        <v>43753.99469969361</v>
+        <v>43753.994699693612</v>
       </c>
       <c r="BK2">
-        <v>45044.29259881241</v>
+        <v>45044.292598812412</v>
       </c>
       <c r="BL2">
         <v>46418.08831500807</v>
       </c>
       <c r="BM2">
-        <v>47866.92714929712</v>
+        <v>47866.927149297117</v>
       </c>
       <c r="BN2">
-        <v>49361.69838994391</v>
+        <v>49361.698389943907</v>
       </c>
       <c r="BO2">
         <v>50868.06540046903</v>
       </c>
       <c r="BP2">
-        <v>52389.76125086218</v>
+        <v>52389.761250862182</v>
       </c>
       <c r="BQ2">
-        <v>53920.220798881</v>
+        <v>53920.220798880997</v>
       </c>
       <c r="BR2">
-        <v>55444.40079299889</v>
+        <v>55444.400792998887</v>
       </c>
       <c r="BS2">
-        <v>56933.56872764583</v>
+        <v>56933.568727645827</v>
       </c>
       <c r="BT2">
-        <v>58348.37944968293</v>
+        <v>58348.379449682929</v>
       </c>
       <c r="BU2">
         <v>59696.9208248254</v>
       </c>
       <c r="BV2">
-        <v>60996.29049909251</v>
+        <v>60996.290499092509</v>
       </c>
       <c r="BW2">
-        <v>62264.35271248439</v>
+        <v>62264.352712484389</v>
       </c>
       <c r="BX2">
-        <v>63508.17033696247</v>
+        <v>63508.170336962467</v>
       </c>
       <c r="BY2">
-        <v>64715.34261719597</v>
+        <v>64715.342617195973</v>
       </c>
       <c r="BZ2">
-        <v>65898.98145639403</v>
+        <v>65898.981456394031</v>
       </c>
       <c r="CA2">
-        <v>67068.76976366845</v>
+        <v>67068.769763668446</v>
       </c>
       <c r="CB2">
-        <v>68237.55579436352</v>
+        <v>68237.555794363521</v>
       </c>
       <c r="CC2">
-        <v>69418.46893674534</v>
+        <v>69418.468936745339</v>
       </c>
       <c r="CD2">
-        <v>70606.44993850807</v>
+        <v>70606.449938508071</v>
       </c>
       <c r="CE2">
-        <v>71820.51854966694</v>
+        <v>71820.518549666944</v>
       </c>
       <c r="CF2">
-        <v>73061.19472271521</v>
+        <v>73061.194722715212</v>
       </c>
       <c r="CG2">
-        <v>74327.21066267684</v>
+        <v>74327.210662676836</v>
       </c>
       <c r="CH2">
-        <v>75617.40004266612</v>
+        <v>75617.400042666122</v>
       </c>
       <c r="CI2">
-        <v>76904.32869358175</v>
+        <v>76904.328693581745</v>
       </c>
       <c r="CJ2">
-        <v>78200.89573319149</v>
+        <v>78200.895733191486</v>
       </c>
       <c r="CK2">
-        <v>79495.32776904601</v>
+        <v>79495.327769046009</v>
       </c>
       <c r="CL2">
-        <v>80777.87636955371</v>
+        <v>80777.876369553705</v>
       </c>
       <c r="CM2">
-        <v>82042.52568107762</v>
+        <v>82042.525681077619</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5103,52 +5160,52 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.8721572856231</v>
+        <v>39.872157285623103</v>
       </c>
       <c r="D3">
-        <v>62.45154895501207</v>
+        <v>62.451548955012072</v>
       </c>
       <c r="E3">
-        <v>83.87752921630492</v>
+        <v>83.877529216304922</v>
       </c>
       <c r="F3">
         <v>118.5008986878357</v>
       </c>
       <c r="G3">
-        <v>143.3951730902594</v>
+        <v>143.39517309025939</v>
       </c>
       <c r="H3">
-        <v>187.8971001435378</v>
+        <v>187.89710014353781</v>
       </c>
       <c r="I3">
         <v>230.1565386341407</v>
       </c>
       <c r="J3">
-        <v>269.7667290905005</v>
+        <v>269.76672909050052</v>
       </c>
       <c r="K3">
-        <v>305.471205864542</v>
+        <v>305.47120586454201</v>
       </c>
       <c r="L3">
-        <v>379.8753866146906</v>
+        <v>379.87538661469063</v>
       </c>
       <c r="M3">
-        <v>430.3866373339234</v>
+        <v>430.38663733392337</v>
       </c>
       <c r="N3">
-        <v>529.5591163167869</v>
+        <v>529.55911631678691</v>
       </c>
       <c r="O3">
-        <v>636.6166229326749</v>
+        <v>636.61662293267489</v>
       </c>
       <c r="P3">
-        <v>751.6497027125853</v>
+        <v>751.64970271258528</v>
       </c>
       <c r="Q3">
         <v>1003.948528663056</v>
       </c>
       <c r="R3">
-        <v>1274.112904522272</v>
+        <v>1274.1129045222719</v>
       </c>
       <c r="S3">
         <v>1562.326248306573</v>
@@ -5157,85 +5214,85 @@
         <v>1868.896034308563</v>
       </c>
       <c r="U3">
-        <v>2194.067098902992</v>
+        <v>2194.0670989029918</v>
       </c>
       <c r="V3">
         <v>2520.668486148179</v>
       </c>
       <c r="W3">
-        <v>2865.051632126763</v>
+        <v>2865.0516321267628</v>
       </c>
       <c r="X3">
         <v>3227.348603069689</v>
       </c>
       <c r="Y3">
-        <v>3607.896126487008</v>
+        <v>3607.8961264870081</v>
       </c>
       <c r="Z3">
-        <v>4007.159512240715</v>
+        <v>4007.1595122407148</v>
       </c>
       <c r="AA3">
         <v>4192.380646997266</v>
       </c>
       <c r="AB3">
-        <v>4382.513133710338</v>
+        <v>4382.5131337103376</v>
       </c>
       <c r="AC3">
-        <v>4578.868575264896</v>
+        <v>4578.8685752648962</v>
       </c>
       <c r="AD3">
-        <v>4781.273411576309</v>
+        <v>4781.2734115763087</v>
       </c>
       <c r="AE3">
-        <v>4990.713116828428</v>
+        <v>4990.7131168284277</v>
       </c>
       <c r="AF3">
-        <v>5123.138860281631</v>
+        <v>5123.1388602816314</v>
       </c>
       <c r="AG3">
-        <v>5256.580921906904</v>
+        <v>5256.5809219069042</v>
       </c>
       <c r="AH3">
-        <v>5395.824435178974</v>
+        <v>5395.8244351789745</v>
       </c>
       <c r="AI3">
-        <v>5545.559126354699</v>
+        <v>5545.5591263546994</v>
       </c>
       <c r="AJ3">
-        <v>5705.535056153977</v>
+        <v>5705.5350561539772</v>
       </c>
       <c r="AK3">
-        <v>5918.055996360584</v>
+        <v>5918.0559963605838</v>
       </c>
       <c r="AL3">
-        <v>6155.590265204382</v>
+        <v>6155.5902652043824</v>
       </c>
       <c r="AM3">
-        <v>6427.696371003373</v>
+        <v>6427.6963710033733</v>
       </c>
       <c r="AN3">
-        <v>6744.30051659917</v>
+        <v>6744.3005165991699</v>
       </c>
       <c r="AO3">
-        <v>7092.772529969038</v>
+        <v>7092.7725299690383</v>
       </c>
       <c r="AP3">
-        <v>7525.977256327084</v>
+        <v>7525.9772563270844</v>
       </c>
       <c r="AQ3">
-        <v>7976.829846673955</v>
+        <v>7976.8298466739552</v>
       </c>
       <c r="AR3">
-        <v>8442.268652399909</v>
+        <v>8442.2686523999091</v>
       </c>
       <c r="AS3">
-        <v>8919.338245318449</v>
+        <v>8919.3382453184495</v>
       </c>
       <c r="AT3">
-        <v>9407.915134374805</v>
+        <v>9407.9151343748053</v>
       </c>
       <c r="AU3">
-        <v>9919.379453242735</v>
+        <v>9919.3794532427346</v>
       </c>
       <c r="AV3">
         <v>10425.04851304228</v>
@@ -5244,10 +5301,10 @@
         <v>10899.17361020436</v>
       </c>
       <c r="AX3">
-        <v>11323.14059932974</v>
+        <v>11323.140599329739</v>
       </c>
       <c r="AY3">
-        <v>11721.97845379027</v>
+        <v>11721.978453790271</v>
       </c>
       <c r="AZ3">
         <v>12101.94739614008</v>
@@ -5262,58 +5319,58 @@
         <v>13191.33217260259</v>
       </c>
       <c r="BD3">
-        <v>13533.196827585</v>
+        <v>13533.196827584999</v>
       </c>
       <c r="BE3">
-        <v>13868.82615649769</v>
+        <v>13868.826156497689</v>
       </c>
       <c r="BF3">
-        <v>14217.23829883089</v>
+        <v>14217.238298830889</v>
       </c>
       <c r="BG3">
         <v>14585.34253507545</v>
       </c>
       <c r="BH3">
-        <v>14980.22819579039</v>
+        <v>14980.228195790391</v>
       </c>
       <c r="BI3">
         <v>15403.74959653437</v>
       </c>
       <c r="BJ3">
-        <v>15849.82168588201</v>
+        <v>15849.821685882011</v>
       </c>
       <c r="BK3">
         <v>16328.14666142307</v>
       </c>
       <c r="BL3">
-        <v>16838.60025170676</v>
+        <v>16838.600251706761</v>
       </c>
       <c r="BM3">
-        <v>17377.85902194694</v>
+        <v>17377.859021946941</v>
       </c>
       <c r="BN3">
-        <v>17934.55964085464</v>
+        <v>17934.559640854641</v>
       </c>
       <c r="BO3">
-        <v>18495.66067538849</v>
+        <v>18495.660675388492</v>
       </c>
       <c r="BP3">
         <v>19062.25153046555</v>
       </c>
       <c r="BQ3">
-        <v>19631.76147505003</v>
+        <v>19631.761475050029</v>
       </c>
       <c r="BR3">
-        <v>20198.33421148329</v>
+        <v>20198.334211483289</v>
       </c>
       <c r="BS3">
-        <v>20750.81965023809</v>
+        <v>20750.819650238089</v>
       </c>
       <c r="BT3">
         <v>21274.39259312857</v>
       </c>
       <c r="BU3">
-        <v>21771.84096379738</v>
+        <v>21771.840963797378</v>
       </c>
       <c r="BV3">
         <v>22249.82366775917</v>
@@ -5322,159 +5379,159 @@
         <v>22715.26762077188</v>
       </c>
       <c r="BX3">
-        <v>23170.9071181848</v>
+        <v>23170.907118184801</v>
       </c>
       <c r="BY3">
-        <v>23612.3076467044</v>
+        <v>23612.307646704401</v>
       </c>
       <c r="BZ3">
-        <v>24044.18633972695</v>
+        <v>24044.186339726952</v>
       </c>
       <c r="CA3">
-        <v>24470.24314490556</v>
+        <v>24470.243144905558</v>
       </c>
       <c r="CB3">
-        <v>24895.35295101936</v>
+        <v>24895.352951019358</v>
       </c>
       <c r="CC3">
-        <v>25324.45013368918</v>
+        <v>25324.450133689181</v>
       </c>
       <c r="CD3">
-        <v>25755.85360118405</v>
+        <v>25755.853601184052</v>
       </c>
       <c r="CE3">
-        <v>26196.30653377727</v>
+        <v>26196.306533777271</v>
       </c>
       <c r="CF3">
-        <v>26645.85214770929</v>
+        <v>26645.852147709291</v>
       </c>
       <c r="CG3">
-        <v>27103.84842394538</v>
+        <v>27103.848423945379</v>
       </c>
       <c r="CH3">
-        <v>27569.68018474936</v>
+        <v>27569.680184749359</v>
       </c>
       <c r="CI3">
-        <v>28033.31249011574</v>
+        <v>28033.312490115739</v>
       </c>
       <c r="CJ3">
-        <v>28499.04059780618</v>
+        <v>28499.040597806179</v>
       </c>
       <c r="CK3">
         <v>28962.40175190919</v>
       </c>
       <c r="CL3">
-        <v>29419.74457496042</v>
+        <v>29419.744574960419</v>
       </c>
       <c r="CM3">
         <v>29868.82793711932</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.618659289207</v>
+        <v>3257.6186592892068</v>
       </c>
       <c r="C4">
-        <v>6255.89220721378</v>
+        <v>6255.8922072137802</v>
       </c>
       <c r="D4">
-        <v>8716.281860937341</v>
+        <v>8716.2818609373408</v>
       </c>
       <c r="E4">
         <v>11520.34777869722</v>
       </c>
       <c r="F4">
-        <v>15060.81706528602</v>
+        <v>15060.817065286021</v>
       </c>
       <c r="G4">
-        <v>18362.47046016711</v>
+        <v>18362.470460167111</v>
       </c>
       <c r="H4">
         <v>21911.46105340352</v>
       </c>
       <c r="I4">
-        <v>25025.68173797709</v>
+        <v>25025.681737977091</v>
       </c>
       <c r="J4">
-        <v>28407.09666590146</v>
+        <v>28407.096665901459</v>
       </c>
       <c r="K4">
-        <v>32401.44712174265</v>
+        <v>32401.447121742651</v>
       </c>
       <c r="L4">
-        <v>36186.12526197545</v>
+        <v>36186.125261975452</v>
       </c>
       <c r="M4">
-        <v>40551.18710492914</v>
+        <v>40551.187104929137</v>
       </c>
       <c r="N4">
-        <v>63615.56795869466</v>
+        <v>63615.567958694657</v>
       </c>
       <c r="O4">
-        <v>86802.4467098079</v>
+        <v>86802.446709807904</v>
       </c>
       <c r="P4">
-        <v>110079.934599176</v>
+        <v>110079.93459917601</v>
       </c>
       <c r="Q4">
-        <v>183600.4967224062</v>
+        <v>183600.49672240621</v>
       </c>
       <c r="R4">
-        <v>257260.4360296945</v>
+        <v>257260.43602969451</v>
       </c>
       <c r="S4">
-        <v>331079.2821781078</v>
+        <v>331079.28217810782</v>
       </c>
       <c r="T4">
-        <v>405070.8846883075</v>
+        <v>405070.88468830747</v>
       </c>
       <c r="U4">
-        <v>479244.3596761512</v>
+        <v>479244.35967615119</v>
       </c>
       <c r="V4">
-        <v>556689.7693962497</v>
+        <v>556689.76939624967</v>
       </c>
       <c r="W4">
         <v>634338.3401471657</v>
       </c>
       <c r="X4">
-        <v>712179.3366051574</v>
+        <v>712179.33660515735</v>
       </c>
       <c r="Y4">
-        <v>790224.4645636231</v>
+        <v>790224.46456362307</v>
       </c>
       <c r="Z4">
-        <v>868491.2661491022</v>
+        <v>868491.26614910224</v>
       </c>
       <c r="AA4">
-        <v>890843.1998483334</v>
+        <v>890843.19984833337</v>
       </c>
       <c r="AB4">
-        <v>913425.869594497</v>
+        <v>913425.86959449702</v>
       </c>
       <c r="AC4">
-        <v>936270.2610758209</v>
+        <v>936270.26107582089</v>
       </c>
       <c r="AD4">
-        <v>959350.437382795</v>
+        <v>959350.43738279503</v>
       </c>
       <c r="AE4">
-        <v>982719.4104679014</v>
+        <v>982719.41046790138</v>
       </c>
       <c r="AF4">
-        <v>988460.415293159</v>
+        <v>988460.41529315896</v>
       </c>
       <c r="AG4">
-        <v>994352.0747573957</v>
+        <v>994352.07475739566</v>
       </c>
       <c r="AH4">
         <v>1000579.172061732</v>
       </c>
       <c r="AI4">
-        <v>1007374.253761123</v>
+        <v>1007374.2537611231</v>
       </c>
       <c r="AJ4">
         <v>1014853.997995137</v>
@@ -5483,22 +5540,22 @@
         <v>1032192.779526683</v>
       </c>
       <c r="AL4">
-        <v>1050848.675590522</v>
+        <v>1050848.6755905219</v>
       </c>
       <c r="AM4">
-        <v>1071026.014045972</v>
+        <v>1071026.0140459719</v>
       </c>
       <c r="AN4">
         <v>1092900.231576086</v>
       </c>
       <c r="AO4">
-        <v>1115912.346489159</v>
+        <v>1115912.3464891589</v>
       </c>
       <c r="AP4">
-        <v>1151413.115909164</v>
+        <v>1151413.1159091641</v>
       </c>
       <c r="AQ4">
-        <v>1187269.322606672</v>
+        <v>1187269.3226066721</v>
       </c>
       <c r="AR4">
         <v>1223244.588742367</v>
@@ -5510,37 +5567,37 @@
         <v>1294644.929890716</v>
       </c>
       <c r="AU4">
-        <v>1333141.931122894</v>
+        <v>1333141.9311228939</v>
       </c>
       <c r="AV4">
-        <v>1370731.294861656</v>
+        <v>1370731.2948616559</v>
       </c>
       <c r="AW4">
-        <v>1406906.105726954</v>
+        <v>1406906.1057269541</v>
       </c>
       <c r="AX4">
-        <v>1441365.110430339</v>
+        <v>1441365.1104303389</v>
       </c>
       <c r="AY4">
-        <v>1474589.005332969</v>
+        <v>1474589.0053329689</v>
       </c>
       <c r="AZ4">
         <v>1504824.142449128</v>
       </c>
       <c r="BA4">
-        <v>1534323.409535305</v>
+        <v>1534323.4095353051</v>
       </c>
       <c r="BB4">
-        <v>1563149.551765877</v>
+        <v>1563149.5517658771</v>
       </c>
       <c r="BC4">
-        <v>1591521.335801785</v>
+        <v>1591521.3358017851</v>
       </c>
       <c r="BD4">
-        <v>1619551.653714874</v>
+        <v>1619551.6537148741</v>
       </c>
       <c r="BE4">
-        <v>1646155.385391615</v>
+        <v>1646155.3853916151</v>
       </c>
       <c r="BF4">
         <v>1672664.932776381</v>
@@ -5558,28 +5615,28 @@
         <v>1782970.80008025</v>
       </c>
       <c r="BK4">
-        <v>1811852.180853485</v>
+        <v>1811852.1808534849</v>
       </c>
       <c r="BL4">
         <v>1841167.677546506</v>
       </c>
       <c r="BM4">
-        <v>1870737.065989764</v>
+        <v>1870737.0659897639</v>
       </c>
       <c r="BN4">
-        <v>1900342.049950774</v>
+        <v>1900342.0499507741</v>
       </c>
       <c r="BO4">
         <v>1929834.845687768</v>
       </c>
       <c r="BP4">
-        <v>1959126.495526621</v>
+        <v>1959126.4955266209</v>
       </c>
       <c r="BQ4">
         <v>1988142.729860934</v>
       </c>
       <c r="BR4">
-        <v>2016770.176141479</v>
+        <v>2016770.1761414791</v>
       </c>
       <c r="BS4">
         <v>2044838.707063772</v>
@@ -5588,87 +5645,87 @@
         <v>2071902.080101707</v>
       </c>
       <c r="BU4">
-        <v>2098267.646128477</v>
+        <v>2098267.6461284771</v>
       </c>
       <c r="BV4">
-        <v>2124209.034611081</v>
+        <v>2124209.0346110808</v>
       </c>
       <c r="BW4">
-        <v>2150007.314328776</v>
+        <v>2150007.3143287762</v>
       </c>
       <c r="BX4">
         <v>2175589.60683002</v>
       </c>
       <c r="BY4">
-        <v>2200395.699719627</v>
+        <v>2200395.6997196269</v>
       </c>
       <c r="BZ4">
-        <v>2224959.365550567</v>
+        <v>2224959.3655505669</v>
       </c>
       <c r="CA4">
-        <v>2249285.036635786</v>
+        <v>2249285.0366357858</v>
       </c>
       <c r="CB4">
         <v>2273366.313690383</v>
       </c>
       <c r="CC4">
-        <v>2297139.101215007</v>
+        <v>2297139.1012150068</v>
       </c>
       <c r="CD4">
-        <v>2319895.391965031</v>
+        <v>2319895.3919650312</v>
       </c>
       <c r="CE4">
         <v>2342845.895526642</v>
       </c>
       <c r="CF4">
-        <v>2366027.732350533</v>
+        <v>2366027.7323505329</v>
       </c>
       <c r="CG4">
-        <v>2389440.836684528</v>
+        <v>2389440.8366845278</v>
       </c>
       <c r="CH4">
         <v>2413057.822279939</v>
       </c>
       <c r="CI4">
-        <v>2435273.512525776</v>
+        <v>2435273.5125257759</v>
       </c>
       <c r="CJ4">
         <v>2457552.485637526</v>
       </c>
       <c r="CK4">
-        <v>2479820.339374007</v>
+        <v>2479820.3393740072</v>
       </c>
       <c r="CL4">
         <v>2502028.159583075</v>
       </c>
       <c r="CM4">
-        <v>2524151.517888157</v>
+        <v>2524151.5178881572</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.012364742959</v>
+        <v>3598.0123647429591</v>
       </c>
       <c r="C5">
-        <v>6230.635013162861</v>
+        <v>6230.6350131628606</v>
       </c>
       <c r="D5">
         <v>8685.850810373171</v>
       </c>
       <c r="E5">
-        <v>11041.36950152555</v>
+        <v>11041.369501525551</v>
       </c>
       <c r="F5">
         <v>13762.59881917884</v>
       </c>
       <c r="G5">
-        <v>17274.84488638168</v>
+        <v>17274.844886381681</v>
       </c>
       <c r="H5">
-        <v>21123.28464982027</v>
+        <v>21123.284649820271</v>
       </c>
       <c r="I5">
         <v>24274.66414830858</v>
@@ -5680,28 +5737,28 @@
         <v>30574.39369848658</v>
       </c>
       <c r="L5">
-        <v>33935.39213816408</v>
+        <v>33935.392138164083</v>
       </c>
       <c r="M5">
-        <v>38920.47223939069</v>
+        <v>38920.472239390692</v>
       </c>
       <c r="N5">
-        <v>75393.07061433198</v>
+        <v>75393.070614331984</v>
       </c>
       <c r="O5">
         <v>111917.424750704</v>
       </c>
       <c r="P5">
-        <v>148505.6345697672</v>
+        <v>148505.63456976719</v>
       </c>
       <c r="Q5">
-        <v>270049.456231873</v>
+        <v>270049.45623187302</v>
       </c>
       <c r="R5">
-        <v>391685.8757804168</v>
+        <v>391685.87578041683</v>
       </c>
       <c r="S5">
-        <v>513431.9097845037</v>
+        <v>513431.90978450369</v>
       </c>
       <c r="T5">
         <v>635307.399931508</v>
@@ -5710,7 +5767,7 @@
         <v>757336.7345782686</v>
       </c>
       <c r="V5">
-        <v>885411.489459987</v>
+        <v>885411.48945998703</v>
       </c>
       <c r="W5">
         <v>1013708.974973703</v>
@@ -5722,19 +5779,19 @@
         <v>1271194.943276078</v>
       </c>
       <c r="Z5">
-        <v>1400545.791423798</v>
+        <v>1400545.7914237981</v>
       </c>
       <c r="AA5">
         <v>1436636.419442581</v>
       </c>
       <c r="AB5">
-        <v>1473453.024179625</v>
+        <v>1473453.0241796251</v>
       </c>
       <c r="AC5">
-        <v>1511208.476493144</v>
+        <v>1511208.4764931439</v>
       </c>
       <c r="AD5">
-        <v>1550170.748482531</v>
+        <v>1550170.7484825309</v>
       </c>
       <c r="AE5">
         <v>1590666.85944413</v>
@@ -5749,16 +5806,16 @@
         <v>1629875.640432491</v>
       </c>
       <c r="AI5">
-        <v>1648392.867623754</v>
+        <v>1648392.8676237541</v>
       </c>
       <c r="AJ5">
-        <v>1670659.892454402</v>
+        <v>1670659.8924544021</v>
       </c>
       <c r="AK5">
-        <v>1709751.0960878</v>
+        <v>1709751.0960878001</v>
       </c>
       <c r="AL5">
-        <v>1753224.03880487</v>
+        <v>1753224.0388048701</v>
       </c>
       <c r="AM5">
         <v>1801160.200450991</v>
@@ -5767,16 +5824,16 @@
         <v>1853422.671639486</v>
       </c>
       <c r="AO5">
-        <v>1909625.104383784</v>
+        <v>1909625.1043837841</v>
       </c>
       <c r="AP5">
-        <v>1987241.048367802</v>
+        <v>1987241.0483678021</v>
       </c>
       <c r="AQ5">
-        <v>2067359.944062479</v>
+        <v>2067359.9440624791</v>
       </c>
       <c r="AR5">
-        <v>2148990.976801988</v>
+        <v>2148990.9768019882</v>
       </c>
       <c r="AS5">
         <v>2231040.034595245</v>
@@ -5785,7 +5842,7 @@
         <v>2312393.599805316</v>
       </c>
       <c r="AU5">
-        <v>2397198.071399991</v>
+        <v>2397198.0713999909</v>
       </c>
       <c r="AV5">
         <v>2479362.433971948</v>
@@ -5794,58 +5851,58 @@
         <v>2558195.215848153</v>
       </c>
       <c r="AX5">
-        <v>2633250.406297821</v>
+        <v>2633250.4062978211</v>
       </c>
       <c r="AY5">
-        <v>2704341.674511318</v>
+        <v>2704341.6745113181</v>
       </c>
       <c r="AZ5">
-        <v>2768438.901689438</v>
+        <v>2768438.9016894381</v>
       </c>
       <c r="BA5">
-        <v>2828931.853315635</v>
+        <v>2828931.8533156351</v>
       </c>
       <c r="BB5">
-        <v>2886301.763106867</v>
+        <v>2886301.7631068672</v>
       </c>
       <c r="BC5">
         <v>2941165.617832595</v>
       </c>
       <c r="BD5">
-        <v>2994215.242927051</v>
+        <v>2994215.2429270511</v>
       </c>
       <c r="BE5">
-        <v>3044419.529537418</v>
+        <v>3044419.5295374179</v>
       </c>
       <c r="BF5">
-        <v>3094165.769920531</v>
+        <v>3094165.7699205312</v>
       </c>
       <c r="BG5">
-        <v>3144010.508136303</v>
+        <v>3144010.5081363032</v>
       </c>
       <c r="BH5">
-        <v>3194381.479354791</v>
+        <v>3194381.4793547909</v>
       </c>
       <c r="BI5">
         <v>3245562.573122296</v>
       </c>
       <c r="BJ5">
-        <v>3297397.009715243</v>
+        <v>3297397.0097152428</v>
       </c>
       <c r="BK5">
         <v>3350183.381630884</v>
       </c>
       <c r="BL5">
-        <v>3403803.696857086</v>
+        <v>3403803.6968570859</v>
       </c>
       <c r="BM5">
         <v>3458039.500222167</v>
       </c>
       <c r="BN5">
-        <v>3512596.13704799</v>
+        <v>3512596.1370479902</v>
       </c>
       <c r="BO5">
-        <v>3567147.285775361</v>
+        <v>3567147.2857753611</v>
       </c>
       <c r="BP5">
         <v>3621310.083585646</v>
@@ -5854,70 +5911,70 @@
         <v>3674723.926299369</v>
       </c>
       <c r="BR5">
-        <v>3727055.847714219</v>
+        <v>3727055.8477142188</v>
       </c>
       <c r="BS5">
-        <v>3778018.724706032</v>
+        <v>3778018.7247060318</v>
       </c>
       <c r="BT5">
-        <v>3826874.686540275</v>
+        <v>3826874.6865402749</v>
       </c>
       <c r="BU5">
-        <v>3873970.396475677</v>
+        <v>3873970.3964756769</v>
       </c>
       <c r="BV5">
-        <v>3919209.713237822</v>
+        <v>3919209.7132378221</v>
       </c>
       <c r="BW5">
-        <v>3962558.44516162</v>
+        <v>3962558.4451616202</v>
       </c>
       <c r="BX5">
-        <v>4004034.712228265</v>
+        <v>4004034.7122282651</v>
       </c>
       <c r="BY5">
         <v>4042843.910225661</v>
       </c>
       <c r="BZ5">
-        <v>4079919.000418309</v>
+        <v>4079919.0004183091</v>
       </c>
       <c r="CA5">
         <v>4115348.854511627</v>
       </c>
       <c r="CB5">
-        <v>4149215.153970495</v>
+        <v>4149215.1539704949</v>
       </c>
       <c r="CC5">
         <v>4181579.556894056</v>
       </c>
       <c r="CD5">
-        <v>4211036.703722811</v>
+        <v>4211036.7037228113</v>
       </c>
       <c r="CE5">
-        <v>4239020.958266838</v>
+        <v>4239020.9582668385</v>
       </c>
       <c r="CF5">
         <v>4265492.408854885</v>
       </c>
       <c r="CG5">
-        <v>4290376.935872218</v>
+        <v>4290376.9358722176</v>
       </c>
       <c r="CH5">
-        <v>4313572.113869977</v>
+        <v>4313572.1138699772</v>
       </c>
       <c r="CI5">
-        <v>4332706.875056687</v>
+        <v>4332706.8750566868</v>
       </c>
       <c r="CJ5">
         <v>4349897.930336345</v>
       </c>
       <c r="CK5">
-        <v>4365013.794395157</v>
+        <v>4365013.7943951571</v>
       </c>
       <c r="CL5">
-        <v>4377933.744950946</v>
+        <v>4377933.7449509464</v>
       </c>
       <c r="CM5">
-        <v>4388556.545403177</v>
+        <v>4388556.5454031769</v>
       </c>
     </row>
   </sheetData>
@@ -5926,14 +5983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -6205,156 +6262,156 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.332335427828165E-11</v>
+        <v>3.3323354278281651E-11</v>
       </c>
       <c r="C2">
-        <v>3.617746996228148E-10</v>
+        <v>3.6177469962281482E-10</v>
       </c>
       <c r="D2">
-        <v>3.006684872172243E-09</v>
+        <v>3.0066848721722431E-9</v>
       </c>
       <c r="E2">
-        <v>2.095320625685701E-08</v>
+        <v>2.0953206256857009E-8</v>
       </c>
       <c r="F2">
-        <v>1.261246519112247E-07</v>
+        <v>1.2612465191122471E-7</v>
       </c>
       <c r="G2">
-        <v>6.69160095893308E-07</v>
+        <v>6.6916009589330802E-7</v>
       </c>
       <c r="H2">
-        <v>3.180129245194235E-06</v>
+        <v>3.1801292451942352E-6</v>
       </c>
       <c r="I2">
-        <v>1.371742325092338E-05</v>
+        <v>1.371742325092338E-5</v>
       </c>
       <c r="J2">
-        <v>5.428358598040136E-05</v>
+        <v>5.4283585980401363E-5</v>
       </c>
       <c r="K2">
-        <v>0.000198692957510336</v>
+        <v>1.9869295751033601E-4</v>
       </c>
       <c r="L2">
-        <v>0.0006757458376157194</v>
+        <v>6.7574583761571935E-4</v>
       </c>
       <c r="M2">
-        <v>0.002130254181665698</v>
+        <v>2.1302541816656979E-3</v>
       </c>
       <c r="N2">
-        <v>0.006122494201164547</v>
+        <v>6.1224942011645469E-3</v>
       </c>
       <c r="O2">
-        <v>0.03099947905074821</v>
+        <v>3.0999479050748211E-2</v>
       </c>
       <c r="P2">
         <v>0.1192370976466168</v>
       </c>
       <c r="Q2">
-        <v>0.2773239877805185</v>
+        <v>0.27732398778051848</v>
       </c>
       <c r="R2">
-        <v>0.4663078073162408</v>
+        <v>0.46630780731624077</v>
       </c>
       <c r="S2">
-        <v>0.7114405024997265</v>
+        <v>0.71144050249972646</v>
       </c>
       <c r="T2">
-        <v>1.086324738415135</v>
+        <v>1.0863247384151351</v>
       </c>
       <c r="U2">
-        <v>1.657362698264588</v>
+        <v>1.6573626982645879</v>
       </c>
       <c r="V2">
-        <v>2.556076627566408</v>
+        <v>2.5560766275664082</v>
       </c>
       <c r="W2">
         <v>3.92127743076728</v>
       </c>
       <c r="X2">
-        <v>5.807786549146432</v>
+        <v>5.8077865491464324</v>
       </c>
       <c r="Y2">
-        <v>8.33099760137312</v>
+        <v>8.3309976013731202</v>
       </c>
       <c r="Z2">
-        <v>11.64639300887963</v>
+        <v>11.646393008879629</v>
       </c>
       <c r="AA2">
-        <v>15.60042369163708</v>
+        <v>15.600423691637079</v>
       </c>
       <c r="AB2">
-        <v>20.31538745426463</v>
+        <v>20.315387454264631</v>
       </c>
       <c r="AC2">
         <v>26.21540275988183</v>
       </c>
       <c r="AD2">
-        <v>33.21703985087873</v>
+        <v>33.217039850878727</v>
       </c>
       <c r="AE2">
-        <v>41.6221503892676</v>
+        <v>41.622150389267603</v>
       </c>
       <c r="AF2">
-        <v>50.91387413597941</v>
+        <v>50.913874135979412</v>
       </c>
       <c r="AG2">
-        <v>60.91343995657223</v>
+        <v>60.913439956572233</v>
       </c>
       <c r="AH2">
-        <v>73.27245559413046</v>
+        <v>73.272455594130463</v>
       </c>
       <c r="AI2">
-        <v>89.59734888837839</v>
+        <v>89.597348888378392</v>
       </c>
       <c r="AJ2">
         <v>109.7956174425813</v>
       </c>
       <c r="AK2">
-        <v>136.1639343711726</v>
+        <v>136.16393437117259</v>
       </c>
       <c r="AL2">
         <v>171.5239640654552</v>
       </c>
       <c r="AM2">
-        <v>219.8303630075135</v>
+        <v>219.83036300751351</v>
       </c>
       <c r="AN2">
-        <v>285.4984265882968</v>
+        <v>285.49842658829681</v>
       </c>
       <c r="AO2">
-        <v>364.3571399039349</v>
+        <v>364.35713990393492</v>
       </c>
       <c r="AP2">
-        <v>451.4942405874086</v>
+        <v>451.49424058740863</v>
       </c>
       <c r="AQ2">
-        <v>546.4195073028366</v>
+        <v>546.41950730283656</v>
       </c>
       <c r="AR2">
-        <v>648.563980753959</v>
+        <v>648.56398075395896</v>
       </c>
       <c r="AS2">
-        <v>757.3965899761768</v>
+        <v>757.39658997617676</v>
       </c>
       <c r="AT2">
-        <v>873.6484390009534</v>
+        <v>873.64843900095343</v>
       </c>
       <c r="AU2">
-        <v>996.4291224596359</v>
+        <v>996.42912245963589</v>
       </c>
       <c r="AV2">
-        <v>1119.583271009095</v>
+        <v>1119.5832710090949</v>
       </c>
       <c r="AW2">
-        <v>1230.339814514292</v>
+        <v>1230.3398145142919</v>
       </c>
       <c r="AX2">
-        <v>1318.149656255258</v>
+        <v>1318.1496562552579</v>
       </c>
       <c r="AY2">
         <v>1395.012815515804</v>
@@ -6363,97 +6420,97 @@
         <v>1474.077715331046</v>
       </c>
       <c r="BA2">
-        <v>1554.064771024663</v>
+        <v>1554.0647710246631</v>
       </c>
       <c r="BB2">
         <v>1629.686525910317</v>
       </c>
       <c r="BC2">
-        <v>1696.811812644422</v>
+        <v>1696.8118126444219</v>
       </c>
       <c r="BD2">
-        <v>1761.757233689459</v>
+        <v>1761.7572336894591</v>
       </c>
       <c r="BE2">
-        <v>1833.064936809997</v>
+        <v>1833.0649368099971</v>
       </c>
       <c r="BF2">
         <v>1915.339415542082</v>
       </c>
       <c r="BG2">
-        <v>2014.423421584897</v>
+        <v>2014.4234215848969</v>
       </c>
       <c r="BH2">
-        <v>2137.128566951795</v>
+        <v>2137.1285669517952</v>
       </c>
       <c r="BI2">
-        <v>2286.816453783267</v>
+        <v>2286.8164537832672</v>
       </c>
       <c r="BJ2">
-        <v>2466.851067340603</v>
+        <v>2466.8510673406031</v>
       </c>
       <c r="BK2">
-        <v>2682.128069083093</v>
+        <v>2682.1280690830931</v>
       </c>
       <c r="BL2">
-        <v>2935.673787244356</v>
+        <v>2935.6737872443559</v>
       </c>
       <c r="BM2">
         <v>3227.608996644477</v>
       </c>
       <c r="BN2">
-        <v>3549.285908436993</v>
+        <v>3549.2859084369929</v>
       </c>
       <c r="BO2">
         <v>3892.993404575263</v>
       </c>
       <c r="BP2">
-        <v>4257.606834707323</v>
+        <v>4257.6068347073233</v>
       </c>
       <c r="BQ2">
-        <v>4641.833229145106</v>
+        <v>4641.8332291451061</v>
       </c>
       <c r="BR2">
-        <v>5039.730172726187</v>
+        <v>5039.7301727261874</v>
       </c>
       <c r="BS2">
-        <v>5436.850361198109</v>
+        <v>5436.8503611981087</v>
       </c>
       <c r="BT2">
-        <v>5817.590265731931</v>
+        <v>5817.5902657319311</v>
       </c>
       <c r="BU2">
-        <v>6176.947425265622</v>
+        <v>6176.9474252656219</v>
       </c>
       <c r="BV2">
         <v>6522.972983550374</v>
       </c>
       <c r="BW2">
-        <v>6865.692686251878</v>
+        <v>6865.6926862518776</v>
       </c>
       <c r="BX2">
         <v>7209.157305011775</v>
       </c>
       <c r="BY2">
-        <v>7552.182198084083</v>
+        <v>7552.1821980840832</v>
       </c>
       <c r="BZ2">
-        <v>7894.999398042806</v>
+        <v>7894.9993980428062</v>
       </c>
       <c r="CA2">
-        <v>8244.729800045803</v>
+        <v>8244.7298000458031</v>
       </c>
       <c r="CB2">
-        <v>8612.637712373611</v>
+        <v>8612.6377123736111</v>
       </c>
       <c r="CC2">
-        <v>9012.338927214536</v>
+        <v>9012.3389272145359</v>
       </c>
       <c r="CD2">
         <v>9456.431094200072</v>
       </c>
       <c r="CE2">
-        <v>9954.100480689289</v>
+        <v>9954.1004806892888</v>
       </c>
       <c r="CF2">
         <v>10511.52218050056</v>
@@ -6462,25 +6519,25 @@
         <v>11133.65344702851</v>
       </c>
       <c r="CH2">
-        <v>11826.41618358032</v>
+        <v>11826.416183580321</v>
       </c>
       <c r="CI2">
-        <v>12591.75243639905</v>
+        <v>12591.752436399051</v>
       </c>
       <c r="CJ2">
-        <v>13423.75788996732</v>
+        <v>13423.757889967321</v>
       </c>
       <c r="CK2">
         <v>14310.83859339154</v>
       </c>
       <c r="CL2">
-        <v>15241.79298465066</v>
+        <v>15241.792984650659</v>
       </c>
       <c r="CM2">
         <v>16209.77475046188</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6524,109 +6581,109 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002726667188771785</v>
+        <v>2.726667188771785E-3</v>
       </c>
       <c r="P3">
-        <v>0.01248123138918961</v>
+        <v>1.248123138918961E-2</v>
       </c>
       <c r="Q3">
-        <v>0.03001377631474365</v>
+        <v>3.001377631474365E-2</v>
       </c>
       <c r="R3">
-        <v>0.05092939456600241</v>
+        <v>5.0929394566002407E-2</v>
       </c>
       <c r="S3">
-        <v>0.07784438287620943</v>
+        <v>7.7844382876209428E-2</v>
       </c>
       <c r="T3">
-        <v>0.1183819668076656</v>
+        <v>0.11838196680766561</v>
       </c>
       <c r="U3">
-        <v>0.1785747628496303</v>
+        <v>0.17857476284963031</v>
       </c>
       <c r="V3">
-        <v>0.2705370856442703</v>
+        <v>0.27053708564427031</v>
       </c>
       <c r="W3">
-        <v>0.4067592617245478</v>
+        <v>0.40675926172454779</v>
       </c>
       <c r="X3">
-        <v>0.5910046862369616</v>
+        <v>0.59100468623696156</v>
       </c>
       <c r="Y3">
-        <v>0.8329564179160978</v>
+        <v>0.83295641791609776</v>
       </c>
       <c r="Z3">
         <v>1.145901311855948</v>
       </c>
       <c r="AA3">
-        <v>1.514072980833666</v>
+        <v>1.5140729808336659</v>
       </c>
       <c r="AB3">
-        <v>1.947893964874947</v>
+        <v>1.9478939648749469</v>
       </c>
       <c r="AC3">
-        <v>2.485040061227728</v>
+        <v>2.4850400612277279</v>
       </c>
       <c r="AD3">
-        <v>3.116412491386562</v>
+        <v>3.1164124913865621</v>
       </c>
       <c r="AE3">
-        <v>3.867655528418367</v>
+        <v>3.8676555284183669</v>
       </c>
       <c r="AF3">
-        <v>4.69115130975584</v>
+        <v>4.6911513097558402</v>
       </c>
       <c r="AG3">
-        <v>5.570033981105242</v>
+        <v>5.5700339811052419</v>
       </c>
       <c r="AH3">
-        <v>6.647145354998036</v>
+        <v>6.6471453549980364</v>
       </c>
       <c r="AI3">
-        <v>8.05736925363939</v>
+        <v>8.0573692536393899</v>
       </c>
       <c r="AJ3">
-        <v>9.785772110330448</v>
+        <v>9.7857721103304485</v>
       </c>
       <c r="AK3">
-        <v>12.01905511574835</v>
+        <v>12.019055115748349</v>
       </c>
       <c r="AL3">
         <v>14.98017120055124</v>
       </c>
       <c r="AM3">
-        <v>18.97504430231588</v>
+        <v>18.975044302315879</v>
       </c>
       <c r="AN3">
-        <v>24.33074360947558</v>
+        <v>24.330743609475579</v>
       </c>
       <c r="AO3">
-        <v>30.66404145920856</v>
+        <v>30.664041459208558</v>
       </c>
       <c r="AP3">
-        <v>37.55958614452054</v>
+        <v>37.559586144520537</v>
       </c>
       <c r="AQ3">
-        <v>44.98175699173167</v>
+        <v>44.981756991731672</v>
       </c>
       <c r="AR3">
-        <v>52.89428503556446</v>
+        <v>52.894285035564458</v>
       </c>
       <c r="AS3">
-        <v>61.26820549872169</v>
+        <v>61.268205498721692</v>
       </c>
       <c r="AT3">
         <v>70.17440501884343</v>
       </c>
       <c r="AU3">
-        <v>79.56130746356909</v>
+        <v>79.561307463569094</v>
       </c>
       <c r="AV3">
-        <v>88.97659420540579</v>
+        <v>88.976594205405789</v>
       </c>
       <c r="AW3">
-        <v>97.45959879374357</v>
+        <v>97.459598793743567</v>
       </c>
       <c r="AX3">
         <v>104.2084885091803</v>
@@ -6641,100 +6698,100 @@
         <v>122.5503201543186</v>
       </c>
       <c r="BB3">
-        <v>128.5174497162895</v>
+        <v>128.51744971628949</v>
       </c>
       <c r="BC3">
         <v>133.8608435237683</v>
       </c>
       <c r="BD3">
-        <v>139.0792446649043</v>
+        <v>139.07924466490431</v>
       </c>
       <c r="BE3">
-        <v>144.8651610589332</v>
+        <v>144.86516105893321</v>
       </c>
       <c r="BF3">
-        <v>151.6086758101665</v>
+        <v>151.60867581016649</v>
       </c>
       <c r="BG3">
         <v>159.8141722177719</v>
       </c>
       <c r="BH3">
-        <v>170.0825214264684</v>
+        <v>170.08252142646839</v>
       </c>
       <c r="BI3">
-        <v>182.7410890401897</v>
+        <v>182.74108904018971</v>
       </c>
       <c r="BJ3">
-        <v>198.1265098043515</v>
+        <v>198.12650980435151</v>
       </c>
       <c r="BK3">
-        <v>216.7164551787916</v>
+        <v>216.71645517879159</v>
       </c>
       <c r="BL3">
         <v>238.8380088735988</v>
       </c>
       <c r="BM3">
-        <v>264.5692042340708</v>
+        <v>264.56920423407081</v>
       </c>
       <c r="BN3">
-        <v>293.2063207428424</v>
+        <v>293.20632074284242</v>
       </c>
       <c r="BO3">
-        <v>324.1053744773599</v>
+        <v>324.10537447735987</v>
       </c>
       <c r="BP3">
-        <v>357.198503521055</v>
+        <v>357.19850352105499</v>
       </c>
       <c r="BQ3">
-        <v>392.3980331316853</v>
+        <v>392.39803313168528</v>
       </c>
       <c r="BR3">
-        <v>429.1817146672769</v>
+        <v>429.18171466727688</v>
       </c>
       <c r="BS3">
-        <v>466.2180716519906</v>
+        <v>466.21807165199061</v>
       </c>
       <c r="BT3">
-        <v>502.0310725036993</v>
+        <v>502.03107250369931</v>
       </c>
       <c r="BU3">
-        <v>536.1132627480673</v>
+        <v>536.11326274806731</v>
       </c>
       <c r="BV3">
-        <v>569.1944044265171</v>
+        <v>569.19440442651705</v>
       </c>
       <c r="BW3">
-        <v>602.21347300969</v>
+        <v>602.21347300969001</v>
       </c>
       <c r="BX3">
-        <v>635.5518274476302</v>
+        <v>635.55182744763022</v>
       </c>
       <c r="BY3">
-        <v>669.0875986714595</v>
+        <v>669.08759867145955</v>
       </c>
       <c r="BZ3">
-        <v>702.8358579849773</v>
+        <v>702.83585798497734</v>
       </c>
       <c r="CA3">
         <v>737.4948312183792</v>
       </c>
       <c r="CB3">
-        <v>774.1896235352021</v>
+        <v>774.18962353520214</v>
       </c>
       <c r="CC3">
         <v>814.3017308673667</v>
       </c>
       <c r="CD3">
-        <v>859.1330898615433</v>
+        <v>859.13308986154334</v>
       </c>
       <c r="CE3">
-        <v>909.6591045992458</v>
+        <v>909.65910459924578</v>
       </c>
       <c r="CF3">
         <v>966.5604320134579</v>
       </c>
       <c r="CG3">
-        <v>1030.399511781295</v>
+        <v>1030.3995117812949</v>
       </c>
       <c r="CH3">
         <v>1101.842467587167</v>
@@ -6743,90 +6800,90 @@
         <v>1181.148150973871</v>
       </c>
       <c r="CJ3">
-        <v>1267.757489044143</v>
+        <v>1267.7574890441431</v>
       </c>
       <c r="CK3">
-        <v>1360.504542212249</v>
+        <v>1360.5045422122489</v>
       </c>
       <c r="CL3">
         <v>1458.245872023331</v>
       </c>
       <c r="CM3">
-        <v>1560.280295474228</v>
+        <v>1560.2802954742281</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02048270970275495</v>
+        <v>2.048270970275495E-2</v>
       </c>
       <c r="C4">
-        <v>0.05781840164800088</v>
+        <v>5.7818401648000881E-2</v>
       </c>
       <c r="D4">
         <v>0.1236904711450395</v>
       </c>
       <c r="E4">
-        <v>0.2372338852573775</v>
+        <v>0.23723388525737751</v>
       </c>
       <c r="F4">
-        <v>0.4292655741774788</v>
+        <v>0.42926557417747879</v>
       </c>
       <c r="G4">
-        <v>0.7483454349689673</v>
+        <v>0.74834543496896733</v>
       </c>
       <c r="H4">
-        <v>1.270356839384121</v>
+        <v>1.2703568393841209</v>
       </c>
       <c r="I4">
-        <v>2.117082912948548</v>
+        <v>2.1170829129485478</v>
       </c>
       <c r="J4">
         <v>3.499932795144193</v>
       </c>
       <c r="K4">
-        <v>5.831776714076065</v>
+        <v>5.8317767140760646</v>
       </c>
       <c r="L4">
-        <v>10.0014942856987</v>
+        <v>10.001494285698699</v>
       </c>
       <c r="M4">
         <v>17.91436768398335</v>
       </c>
       <c r="N4">
-        <v>32.85122260730485</v>
+        <v>32.851222607304848</v>
       </c>
       <c r="O4">
-        <v>57.94280373666675</v>
+        <v>57.942803736666747</v>
       </c>
       <c r="P4">
-        <v>90.72662967996203</v>
+        <v>90.726629679962031</v>
       </c>
       <c r="Q4">
-        <v>129.1204394231098</v>
+        <v>129.12043942310979</v>
       </c>
       <c r="R4">
-        <v>175.4534838337935</v>
+        <v>175.45348383379351</v>
       </c>
       <c r="S4">
-        <v>233.1910007991289</v>
+        <v>233.19100079912889</v>
       </c>
       <c r="T4">
-        <v>305.5239564679906</v>
+        <v>305.52395646799062</v>
       </c>
       <c r="U4">
         <v>395.2846804961514</v>
       </c>
       <c r="V4">
-        <v>507.1118933253856</v>
+        <v>507.11189332538561</v>
       </c>
       <c r="W4">
-        <v>645.6059979072714</v>
+        <v>645.60599790727144</v>
       </c>
       <c r="X4">
-        <v>812.3760142972422</v>
+        <v>812.37601429724225</v>
       </c>
       <c r="Y4">
         <v>1013.491829963993</v>
@@ -6835,79 +6892,79 @@
         <v>1257.389020626259</v>
       </c>
       <c r="AA4">
-        <v>1552.605695494695</v>
+        <v>1552.6056954946951</v>
       </c>
       <c r="AB4">
-        <v>1920.286126124137</v>
+        <v>1920.2861261241369</v>
       </c>
       <c r="AC4">
-        <v>2378.666571234434</v>
+        <v>2378.6665712344338</v>
       </c>
       <c r="AD4">
-        <v>2936.785332102919</v>
+        <v>2936.7853321029188</v>
       </c>
       <c r="AE4">
-        <v>3623.860237506751</v>
+        <v>3623.8602375067512</v>
       </c>
       <c r="AF4">
-        <v>4484.051852636123</v>
+        <v>4484.0518526361229</v>
       </c>
       <c r="AG4">
-        <v>5573.016597555496</v>
+        <v>5573.0165975554964</v>
       </c>
       <c r="AH4">
-        <v>6953.416021337773</v>
+        <v>6953.4160213377727</v>
       </c>
       <c r="AI4">
-        <v>8692.151672742359</v>
+        <v>8692.1516727423586</v>
       </c>
       <c r="AJ4">
-        <v>10889.59978226705</v>
+        <v>10889.599782267051</v>
       </c>
       <c r="AK4">
-        <v>13659.51647712075</v>
+        <v>13659.516477120749</v>
       </c>
       <c r="AL4">
-        <v>17070.45769225916</v>
+        <v>17070.457692259159</v>
       </c>
       <c r="AM4">
-        <v>21226.23058493312</v>
+        <v>21226.230584933121</v>
       </c>
       <c r="AN4">
-        <v>26217.72209940236</v>
+        <v>26217.722099402359</v>
       </c>
       <c r="AO4">
-        <v>31902.76940123322</v>
+        <v>31902.769401233221</v>
       </c>
       <c r="AP4">
-        <v>38112.76529857882</v>
+        <v>38112.765298578823</v>
       </c>
       <c r="AQ4">
-        <v>44772.1116014241</v>
+        <v>44772.111601424098</v>
       </c>
       <c r="AR4">
-        <v>51783.25551733111</v>
+        <v>51783.255517331112</v>
       </c>
       <c r="AS4">
-        <v>59030.19124516856</v>
+        <v>59030.191245168557</v>
       </c>
       <c r="AT4">
-        <v>66404.42013515648</v>
+        <v>66404.420135156484</v>
       </c>
       <c r="AU4">
-        <v>73769.34373043127</v>
+        <v>73769.343730431268</v>
       </c>
       <c r="AV4">
-        <v>80924.37641005139</v>
+        <v>80924.376410051394</v>
       </c>
       <c r="AW4">
-        <v>87608.92479972533</v>
+        <v>87608.924799725326</v>
       </c>
       <c r="AX4">
-        <v>93634.1422827761</v>
+        <v>93634.142282776098</v>
       </c>
       <c r="AY4">
-        <v>99132.66402725285</v>
+        <v>99132.664027252846</v>
       </c>
       <c r="AZ4">
         <v>104258.5419482345</v>
@@ -6922,37 +6979,37 @@
         <v>117452.1987507578</v>
       </c>
       <c r="BD4">
-        <v>121339.9487461163</v>
+        <v>121339.94874611629</v>
       </c>
       <c r="BE4">
-        <v>125235.8356541958</v>
+        <v>125235.83565419581</v>
       </c>
       <c r="BF4">
         <v>129302.2583003481</v>
       </c>
       <c r="BG4">
-        <v>133722.6608845339</v>
+        <v>133722.66088453389</v>
       </c>
       <c r="BH4">
-        <v>138674.8018914617</v>
+        <v>138674.80189146171</v>
       </c>
       <c r="BI4">
-        <v>144268.2271183449</v>
+        <v>144268.22711834489</v>
       </c>
       <c r="BJ4">
-        <v>150579.9500312269</v>
+        <v>150579.95003122691</v>
       </c>
       <c r="BK4">
-        <v>157658.8913472357</v>
+        <v>157658.89134723571</v>
       </c>
       <c r="BL4">
-        <v>165485.7651598449</v>
+        <v>165485.76515984489</v>
       </c>
       <c r="BM4">
         <v>173996.983937121</v>
       </c>
       <c r="BN4">
-        <v>183075.2519418533</v>
+        <v>183075.25194185329</v>
       </c>
       <c r="BO4">
         <v>192612.3410111907</v>
@@ -6961,180 +7018,180 @@
         <v>202534.0127522515</v>
       </c>
       <c r="BQ4">
-        <v>212752.7523892442</v>
+        <v>212752.75238924421</v>
       </c>
       <c r="BR4">
-        <v>223141.8079334117</v>
+        <v>223141.80793341171</v>
       </c>
       <c r="BS4">
-        <v>233521.6004284928</v>
+        <v>233521.60042849279</v>
       </c>
       <c r="BT4">
-        <v>243721.4201454706</v>
+        <v>243721.42014547059</v>
       </c>
       <c r="BU4">
         <v>253663.4367430986</v>
       </c>
       <c r="BV4">
-        <v>263374.0967527035</v>
+        <v>263374.09675270348</v>
       </c>
       <c r="BW4">
-        <v>272899.4917695785</v>
+        <v>272899.49176957848</v>
       </c>
       <c r="BX4">
-        <v>282252.4774975313</v>
+        <v>282252.47749753128</v>
       </c>
       <c r="BY4">
-        <v>291430.8589032764</v>
+        <v>291430.85890327638</v>
       </c>
       <c r="BZ4">
-        <v>300454.9373739939</v>
+        <v>300454.93737399392</v>
       </c>
       <c r="CA4">
-        <v>309385.497423282</v>
+        <v>309385.49742328201</v>
       </c>
       <c r="CB4">
-        <v>318315.070831197</v>
+        <v>318315.07083119702</v>
       </c>
       <c r="CC4">
-        <v>327366.0637950298</v>
+        <v>327366.06379502983</v>
       </c>
       <c r="CD4">
         <v>336670.5603397385</v>
       </c>
       <c r="CE4">
-        <v>346340.091726217</v>
+        <v>346340.09172621701</v>
       </c>
       <c r="CF4">
-        <v>356451.3754838161</v>
+        <v>356451.37548381608</v>
       </c>
       <c r="CG4">
-        <v>367050.6267333128</v>
+        <v>367050.62673331279</v>
       </c>
       <c r="CH4">
-        <v>378159.2065985826</v>
+        <v>378159.20659858262</v>
       </c>
       <c r="CI4">
         <v>389760.5858314035</v>
       </c>
       <c r="CJ4">
-        <v>401802.0524418952</v>
+        <v>401802.05244189518</v>
       </c>
       <c r="CK4">
-        <v>414214.573045765</v>
+        <v>414214.57304576499</v>
       </c>
       <c r="CL4">
-        <v>426933.702051371</v>
+        <v>426933.70205137099</v>
       </c>
       <c r="CM4">
-        <v>439904.5856104695</v>
+        <v>439904.58561046951</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001112041473722619</v>
+        <v>1.1120414737226191E-3</v>
       </c>
       <c r="C5">
-        <v>0.003127542460117912</v>
+        <v>3.1275424601179122E-3</v>
       </c>
       <c r="D5">
-        <v>0.006661634148447663</v>
+        <v>6.6616341484476626E-3</v>
       </c>
       <c r="E5">
-        <v>0.01271385451400339</v>
+        <v>1.271385451400339E-2</v>
       </c>
       <c r="F5">
-        <v>0.02287953624076057</v>
+        <v>2.287953624076057E-2</v>
       </c>
       <c r="G5">
-        <v>0.03962962767554074</v>
+        <v>3.9629627675540742E-2</v>
       </c>
       <c r="H5">
-        <v>0.06666155456443876</v>
+        <v>6.6661554564438757E-2</v>
       </c>
       <c r="I5">
         <v>0.1093243876033211</v>
       </c>
       <c r="J5">
-        <v>0.1751234629233177</v>
+        <v>0.17512346292331771</v>
       </c>
       <c r="K5">
         <v>0.2743016860166777</v>
       </c>
       <c r="L5">
-        <v>0.4204752777975791</v>
+        <v>0.42047527779757909</v>
       </c>
       <c r="M5">
-        <v>0.6312862370772219</v>
+        <v>0.63128623707722187</v>
       </c>
       <c r="N5">
-        <v>0.9290241355424438</v>
+        <v>0.92902413554244379</v>
       </c>
       <c r="O5">
-        <v>2.276688082881025</v>
+        <v>2.2766880828810252</v>
       </c>
       <c r="P5">
-        <v>5.366262116736842</v>
+        <v>5.3662621167368423</v>
       </c>
       <c r="Q5">
         <v>11.12157820848638</v>
       </c>
       <c r="R5">
-        <v>20.71964064683751</v>
+        <v>20.719640646837512</v>
       </c>
       <c r="S5">
-        <v>35.60515690344359</v>
+        <v>35.605156903443593</v>
       </c>
       <c r="T5">
-        <v>57.50810152383586</v>
+        <v>57.508101523835862</v>
       </c>
       <c r="U5">
-        <v>88.47833829874685</v>
+        <v>88.478338298746849</v>
       </c>
       <c r="V5">
-        <v>131.2074396421064</v>
+        <v>131.20743964210641</v>
       </c>
       <c r="W5">
-        <v>189.4878106126538</v>
+        <v>189.48781061265379</v>
       </c>
       <c r="X5">
         <v>268.497817645483</v>
       </c>
       <c r="Y5">
-        <v>375.3779176457761</v>
+        <v>375.37791764577611</v>
       </c>
       <c r="Z5">
-        <v>519.986710284627</v>
+        <v>519.98671028462695</v>
       </c>
       <c r="AA5">
-        <v>715.8565441275848</v>
+        <v>715.85654412758481</v>
       </c>
       <c r="AB5">
-        <v>981.3528023925007</v>
+        <v>981.35280239250073</v>
       </c>
       <c r="AC5">
         <v>1341.00843907747</v>
       </c>
       <c r="AD5">
-        <v>1826.947359870708</v>
+        <v>1826.9473598707079</v>
       </c>
       <c r="AE5">
-        <v>2480.254539890943</v>
+        <v>2480.2545398909429</v>
       </c>
       <c r="AF5">
-        <v>3352.098500531193</v>
+        <v>3352.0985005311932</v>
       </c>
       <c r="AG5">
         <v>4504.358249492102</v>
       </c>
       <c r="AH5">
-        <v>6009.462398055409</v>
+        <v>6009.4623980554088</v>
       </c>
       <c r="AI5">
-        <v>7949.122817945115</v>
+        <v>7949.1228179451145</v>
       </c>
       <c r="AJ5">
         <v>10411.66396910193</v>
@@ -7143,166 +7200,166 @@
         <v>13487.72909512062</v>
       </c>
       <c r="AL5">
-        <v>17264.30242170465</v>
+        <v>17264.302421704651</v>
       </c>
       <c r="AM5">
         <v>21817.23819463596</v>
       </c>
       <c r="AN5">
-        <v>27202.82423506092</v>
+        <v>27202.824235060922</v>
       </c>
       <c r="AO5">
-        <v>33449.27513997552</v>
+        <v>33449.275139975522</v>
       </c>
       <c r="AP5">
-        <v>40544.21045113744</v>
+        <v>40544.210451137442</v>
       </c>
       <c r="AQ5">
-        <v>48427.10505508015</v>
+        <v>48427.105055080152</v>
       </c>
       <c r="AR5">
-        <v>56992.46575186515</v>
+        <v>56992.465751865151</v>
       </c>
       <c r="AS5">
-        <v>66094.34805279078</v>
+        <v>66094.348052790781</v>
       </c>
       <c r="AT5">
-        <v>75555.88829497676</v>
+        <v>75555.888294976758</v>
       </c>
       <c r="AU5">
-        <v>85182.84263898186</v>
+        <v>85182.842638981863</v>
       </c>
       <c r="AV5">
-        <v>94779.43686318267</v>
+        <v>94779.436863182666</v>
       </c>
       <c r="AW5">
-        <v>104164.5868098804</v>
+        <v>104164.58680988041</v>
       </c>
       <c r="AX5">
         <v>113186.7951766208</v>
       </c>
       <c r="AY5">
-        <v>121736.5817927175</v>
+        <v>121736.58179271749</v>
       </c>
       <c r="AZ5">
         <v>129755.8272434985</v>
       </c>
       <c r="BA5">
-        <v>137243.6208287021</v>
+        <v>137243.62082870211</v>
       </c>
       <c r="BB5">
         <v>144258.090876006</v>
       </c>
       <c r="BC5">
-        <v>150913.5698054943</v>
+        <v>150913.56980549431</v>
       </c>
       <c r="BD5">
         <v>157372.7239309487</v>
       </c>
       <c r="BE5">
-        <v>163834.1109027175</v>
+        <v>163834.11090271751</v>
       </c>
       <c r="BF5">
-        <v>170516.7053963763</v>
+        <v>170516.70539637629</v>
       </c>
       <c r="BG5">
-        <v>177643.6538354093</v>
+        <v>177643.65383540929</v>
       </c>
       <c r="BH5">
-        <v>185427.4220145869</v>
+        <v>185427.42201458689</v>
       </c>
       <c r="BI5">
         <v>194057.6310668861</v>
       </c>
       <c r="BJ5">
-        <v>203691.7785491169</v>
+        <v>203691.77854911689</v>
       </c>
       <c r="BK5">
-        <v>214448.3635049681</v>
+        <v>214448.36350496809</v>
       </c>
       <c r="BL5">
-        <v>226401.9630233884</v>
+        <v>226401.96302338841</v>
       </c>
       <c r="BM5">
         <v>239580.2841502447</v>
       </c>
       <c r="BN5">
-        <v>253963.6060221664</v>
+        <v>253963.60602216641</v>
       </c>
       <c r="BO5">
-        <v>269486.9937811219</v>
+        <v>269486.99378112191</v>
       </c>
       <c r="BP5">
-        <v>286045.2963252276</v>
+        <v>286045.29632522759</v>
       </c>
       <c r="BQ5">
-        <v>303500.5676987919</v>
+        <v>303500.56769879191</v>
       </c>
       <c r="BR5">
-        <v>321691.3999479352</v>
+        <v>321691.39994793519</v>
       </c>
       <c r="BS5">
-        <v>340443.6718037468</v>
+        <v>340443.67180374678</v>
       </c>
       <c r="BT5">
-        <v>359582.2070582182</v>
+        <v>359582.20705821819</v>
       </c>
       <c r="BU5">
-        <v>378942.6897664943</v>
+        <v>378942.68976649432</v>
       </c>
       <c r="BV5">
-        <v>398382.9757953284</v>
+        <v>398382.97579532838</v>
       </c>
       <c r="BW5">
-        <v>417792.8444838509</v>
+        <v>417792.84448385087</v>
       </c>
       <c r="BX5">
         <v>437101.3598022057</v>
       </c>
       <c r="BY5">
-        <v>456281.3131886115</v>
+        <v>456281.31318861147</v>
       </c>
       <c r="BZ5">
-        <v>475350.5514876565</v>
+        <v>475350.55148765648</v>
       </c>
       <c r="CA5">
-        <v>494370.2331476649</v>
+        <v>494370.23314766493</v>
       </c>
       <c r="CB5">
-        <v>513440.2033660492</v>
+        <v>513440.20336604922</v>
       </c>
       <c r="CC5">
-        <v>532691.8201309434</v>
+        <v>532691.82013094344</v>
       </c>
       <c r="CD5">
-        <v>552278.7569097896</v>
+        <v>552278.75690978963</v>
       </c>
       <c r="CE5">
-        <v>572366.5176931748</v>
+        <v>572366.51769317477</v>
       </c>
       <c r="CF5">
-        <v>593121.5318729577</v>
+        <v>593121.53187295771</v>
       </c>
       <c r="CG5">
-        <v>614700.6867643918</v>
+        <v>614700.68676439184</v>
       </c>
       <c r="CH5">
-        <v>637242.0221569902</v>
+        <v>637242.02215699025</v>
       </c>
       <c r="CI5">
-        <v>660857.1232611105</v>
+        <v>660857.12326111051</v>
       </c>
       <c r="CJ5">
-        <v>685625.569479331</v>
+        <v>685625.56947933102</v>
       </c>
       <c r="CK5">
-        <v>711591.6492293937</v>
+        <v>711591.64922939369</v>
       </c>
       <c r="CL5">
-        <v>738763.4214808485</v>
+        <v>738763.42148084845</v>
       </c>
       <c r="CM5">
-        <v>767114.0740627461</v>
+        <v>767114.07406274613</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Emissions/RR/Cumulative_Emission_target.xlsx
+++ b/Results/Emissions/RR/Cumulative_Emission_target.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_4237762FDC250B5FB0A015A3332A550C59FF5A3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A64E11-8ACB-40A6-B4C7-B113596CCD8C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -19,25 +13,12 @@
     <sheet name="Primary" sheetId="4" r:id="rId4"/>
     <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -50,15 +31,12 @@
   <si>
     <t>Raw silicon</t>
   </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +46,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,41 +85,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,19 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CM1" sqref="CM1:CM5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -715,36 +665,36 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842586929</v>
+        <v>46.87313184258693</v>
       </c>
       <c r="C2">
-        <v>113.20511862453711</v>
+        <v>113.2051186245371</v>
       </c>
       <c r="D2">
-        <v>177.31405708668569</v>
+        <v>177.3140570866857</v>
       </c>
       <c r="E2">
-        <v>238.18693485524301</v>
+        <v>238.186934855243</v>
       </c>
       <c r="F2">
-        <v>336.17171453639469</v>
+        <v>336.1717145363947</v>
       </c>
       <c r="G2">
-        <v>406.86688024329283</v>
+        <v>406.8668802432928</v>
       </c>
       <c r="H2">
-        <v>532.64107270750458</v>
+        <v>532.6410727075046</v>
       </c>
       <c r="I2">
         <v>652.1833664240512</v>
       </c>
       <c r="J2">
-        <v>764.31343288016569</v>
+        <v>764.3134328801657</v>
       </c>
       <c r="K2">
         <v>865.5169272786776</v>
@@ -756,40 +706,40 @@
         <v>1218.137244457587</v>
       </c>
       <c r="N2">
-        <v>1497.5442760758619</v>
+        <v>1497.544276075862</v>
       </c>
       <c r="O2">
-        <v>1799.1389236456821</v>
+        <v>1799.138923645682</v>
       </c>
       <c r="P2">
-        <v>2123.2325797077042</v>
+        <v>2123.232579707704</v>
       </c>
       <c r="Q2">
-        <v>2832.7291338885602</v>
+        <v>2832.72913388856</v>
       </c>
       <c r="R2">
         <v>3592.433455512682</v>
       </c>
       <c r="S2">
-        <v>4402.8952970208084</v>
+        <v>4402.895297020808</v>
       </c>
       <c r="T2">
         <v>5265.079384620868</v>
       </c>
       <c r="U2">
-        <v>6179.7534061176166</v>
+        <v>6179.753406117617</v>
       </c>
       <c r="V2">
-        <v>7098.8990732053398</v>
+        <v>7098.89907320534</v>
       </c>
       <c r="W2">
-        <v>8068.5627921617042</v>
+        <v>8068.562792161704</v>
       </c>
       <c r="X2">
-        <v>9089.1653574739103</v>
+        <v>9089.16535747391</v>
       </c>
       <c r="Y2">
-        <v>10161.781120500829</v>
+        <v>10161.78112050083</v>
       </c>
       <c r="Z2">
         <v>11287.89338173465</v>
@@ -798,22 +748,22 @@
         <v>11814.06412857374</v>
       </c>
       <c r="AB2">
-        <v>12354.926302653559</v>
+        <v>12354.92630265356</v>
       </c>
       <c r="AC2">
-        <v>12914.663992557709</v>
+        <v>12914.66399255771</v>
       </c>
       <c r="AD2">
-        <v>13492.668472927529</v>
+        <v>13492.66847292753</v>
       </c>
       <c r="AE2">
         <v>14092.04802128353</v>
       </c>
       <c r="AF2">
-        <v>14476.294475774321</v>
+        <v>14476.29447577432</v>
       </c>
       <c r="AG2">
-        <v>14864.168579032659</v>
+        <v>14864.16857903266</v>
       </c>
       <c r="AH2">
         <v>15271.00713917034</v>
@@ -822,163 +772,163 @@
         <v>15711.77287303706</v>
       </c>
       <c r="AJ2">
-        <v>16185.566557562541</v>
+        <v>16185.56655756254</v>
       </c>
       <c r="AK2">
-        <v>16813.604444235429</v>
+        <v>16813.60444423543</v>
       </c>
       <c r="AL2">
-        <v>17521.598928343341</v>
+        <v>17521.59892834334</v>
       </c>
       <c r="AM2">
-        <v>18340.460939627199</v>
+        <v>18340.4609396272</v>
       </c>
       <c r="AN2">
-        <v>19302.415426510212</v>
+        <v>19302.41542651021</v>
       </c>
       <c r="AO2">
-        <v>20366.897641351701</v>
+        <v>20366.8976413517</v>
       </c>
       <c r="AP2">
-        <v>21676.714902304819</v>
+        <v>21676.71490230482</v>
       </c>
       <c r="AQ2">
-        <v>23043.128197216651</v>
+        <v>23043.12819721665</v>
       </c>
       <c r="AR2">
         <v>24457.06014917243</v>
       </c>
       <c r="AS2">
-        <v>25909.828812777421</v>
+        <v>25909.82881277742</v>
       </c>
       <c r="AT2">
-        <v>27402.033240559169</v>
+        <v>27402.03324055917</v>
       </c>
       <c r="AU2">
-        <v>28964.923463895371</v>
+        <v>28964.92346389537</v>
       </c>
       <c r="AV2">
-        <v>30511.963127975429</v>
+        <v>30511.96312797543</v>
       </c>
       <c r="AW2">
         <v>31958.06057169371</v>
       </c>
       <c r="AX2">
-        <v>33240.267522188733</v>
+        <v>33240.26752218873</v>
       </c>
       <c r="AY2">
-        <v>34441.136179030713</v>
+        <v>34441.13617903071</v>
       </c>
       <c r="AZ2">
-        <v>35591.864208355553</v>
+        <v>35591.86420835555</v>
       </c>
       <c r="BA2">
-        <v>36734.781796697433</v>
+        <v>36734.78179669743</v>
       </c>
       <c r="BB2">
-        <v>37840.961819831173</v>
+        <v>37840.96181983117</v>
       </c>
       <c r="BC2">
-        <v>38890.978848954263</v>
+        <v>38890.97884895426</v>
       </c>
       <c r="BD2">
-        <v>39922.556591205903</v>
+        <v>39922.5565912059</v>
       </c>
       <c r="BE2">
-        <v>40944.261686488557</v>
+        <v>40944.26168648856</v>
       </c>
       <c r="BF2">
-        <v>42014.675666781113</v>
+        <v>42014.67566678111</v>
       </c>
       <c r="BG2">
-        <v>43159.928766387377</v>
+        <v>43159.92876638738</v>
       </c>
       <c r="BH2">
-        <v>44407.945373996379</v>
+        <v>44407.94537399638</v>
       </c>
       <c r="BI2">
-        <v>45768.304623265503</v>
+        <v>45768.3046232655</v>
       </c>
       <c r="BJ2">
-        <v>47228.432822708543</v>
+        <v>47228.43282270854</v>
       </c>
       <c r="BK2">
-        <v>48821.937766535077</v>
+        <v>48821.93776653508</v>
       </c>
       <c r="BL2">
-        <v>50552.840128028292</v>
+        <v>50552.84012802829</v>
       </c>
       <c r="BM2">
-        <v>52412.855313585111</v>
+        <v>52412.85531358511</v>
       </c>
       <c r="BN2">
-        <v>54360.692627179109</v>
+        <v>54360.69262717911</v>
       </c>
       <c r="BO2">
-        <v>56351.154702687687</v>
+        <v>56351.15470268769</v>
       </c>
       <c r="BP2">
-        <v>58386.390595520359</v>
+        <v>58386.39059552036</v>
       </c>
       <c r="BQ2">
-        <v>60458.014079367051</v>
+        <v>60458.01407936705</v>
       </c>
       <c r="BR2">
-        <v>62542.612303880829</v>
+        <v>62542.61230388083</v>
       </c>
       <c r="BS2">
-        <v>64591.104447643142</v>
+        <v>64591.10444764314</v>
       </c>
       <c r="BT2">
-        <v>66542.168556347606</v>
+        <v>66542.16855634761</v>
       </c>
       <c r="BU2">
         <v>68396.84677590373</v>
       </c>
       <c r="BV2">
-        <v>70183.576391416966</v>
+        <v>70183.57639141697</v>
       </c>
       <c r="BW2">
-        <v>71934.342411430684</v>
+        <v>71934.34241143068</v>
       </c>
       <c r="BX2">
-        <v>73661.913020077627</v>
+        <v>73661.91302007763</v>
       </c>
       <c r="BY2">
-        <v>75352.218952525654</v>
+        <v>75352.21895252565</v>
       </c>
       <c r="BZ2">
-        <v>77018.698918426147</v>
+        <v>77018.69891842615</v>
       </c>
       <c r="CA2">
-        <v>78681.065256690708</v>
+        <v>78681.06525669071</v>
       </c>
       <c r="CB2">
-        <v>80368.031445593966</v>
+        <v>80368.03144559397</v>
       </c>
       <c r="CC2">
-        <v>82111.904045498217</v>
+        <v>82111.90404549822</v>
       </c>
       <c r="CD2">
-        <v>83925.366972592688</v>
+        <v>83925.36697259269</v>
       </c>
       <c r="CE2">
-        <v>85840.378381623697</v>
+        <v>85840.3783816237</v>
       </c>
       <c r="CF2">
-        <v>87866.155540321648</v>
+        <v>87866.15554032165</v>
       </c>
       <c r="CG2">
-        <v>90008.412700745161</v>
+        <v>90008.41270074516</v>
       </c>
       <c r="CH2">
-        <v>92274.324244891934</v>
+        <v>92274.32424489193</v>
       </c>
       <c r="CI2">
-        <v>94639.191280059284</v>
+        <v>94639.19128005928</v>
       </c>
       <c r="CJ2">
-        <v>97107.596986666584</v>
+        <v>97107.59698666658</v>
       </c>
       <c r="CK2">
         <v>99651.43846396367</v>
@@ -990,7 +940,7 @@
         <v>104873.1943437</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -998,46 +948,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.872157285623089</v>
+        <v>39.87215728562309</v>
       </c>
       <c r="D3">
-        <v>62.451548955012058</v>
+        <v>62.45154895501206</v>
       </c>
       <c r="E3">
-        <v>83.877529216304893</v>
+        <v>83.87752921630489</v>
       </c>
       <c r="F3">
         <v>118.5008986878356</v>
       </c>
       <c r="G3">
-        <v>143.39517309025931</v>
+        <v>143.3951730902593</v>
       </c>
       <c r="H3">
         <v>187.8971001435377</v>
       </c>
       <c r="I3">
-        <v>230.15653863414059</v>
+        <v>230.1565386341406</v>
       </c>
       <c r="J3">
-        <v>269.76672909050029</v>
+        <v>269.7667290905003</v>
       </c>
       <c r="K3">
-        <v>305.47120586454179</v>
+        <v>305.4712058645418</v>
       </c>
       <c r="L3">
-        <v>379.87538661469029</v>
+        <v>379.8753866146903</v>
       </c>
       <c r="M3">
-        <v>430.38663733392309</v>
+        <v>430.3866373339231</v>
       </c>
       <c r="N3">
-        <v>529.55911631678646</v>
+        <v>529.5591163167865</v>
       </c>
       <c r="O3">
         <v>636.6296070621446</v>
       </c>
       <c r="P3">
-        <v>751.70913714777134</v>
+        <v>751.7091371477713</v>
       </c>
       <c r="Q3">
         <v>1004.091451407411</v>
@@ -1052,25 +1002,25 @@
         <v>1869.459757960027</v>
       </c>
       <c r="U3">
-        <v>2194.9174549165609</v>
+        <v>2194.917454916561</v>
       </c>
       <c r="V3">
-        <v>2521.9567579845789</v>
+        <v>2521.956757984579</v>
       </c>
       <c r="W3">
         <v>2866.988580992117</v>
       </c>
       <c r="X3">
-        <v>3230.1629110993872</v>
+        <v>3230.162911099387</v>
       </c>
       <c r="Y3">
-        <v>3611.8625856199401</v>
+        <v>3611.86258561994</v>
       </c>
       <c r="Z3">
-        <v>4012.6161851543129</v>
+        <v>4012.616185154313</v>
       </c>
       <c r="AA3">
-        <v>4199.5905183345676</v>
+        <v>4199.590518334568</v>
       </c>
       <c r="AB3">
         <v>4391.78881925736</v>
@@ -1079,55 +1029,55 @@
         <v>4590.702099365978</v>
       </c>
       <c r="AD3">
-        <v>4796.1134710590986</v>
+        <v>4796.113471059099</v>
       </c>
       <c r="AE3">
-        <v>5009.1305241066066</v>
+        <v>5009.130524106607</v>
       </c>
       <c r="AF3">
-        <v>5145.4776760423711</v>
+        <v>5145.477676042371</v>
       </c>
       <c r="AG3">
-        <v>5283.1048932454978</v>
+        <v>5283.104893245498</v>
       </c>
       <c r="AH3">
-        <v>5427.4775082980104</v>
+        <v>5427.47750829801</v>
       </c>
       <c r="AI3">
-        <v>5583.9275513720277</v>
+        <v>5583.927551372028</v>
       </c>
       <c r="AJ3">
         <v>5752.133970965072</v>
       </c>
       <c r="AK3">
-        <v>5975.2895921498593</v>
+        <v>5975.289592149859</v>
       </c>
       <c r="AL3">
-        <v>6226.9244137784344</v>
+        <v>6226.924413778434</v>
       </c>
       <c r="AM3">
-        <v>6518.0537248239216</v>
+        <v>6518.053724823922</v>
       </c>
       <c r="AN3">
-        <v>6860.1612004538129</v>
+        <v>6860.161200453813</v>
       </c>
       <c r="AO3">
-        <v>7238.7917750128854</v>
+        <v>7238.791775012885</v>
       </c>
       <c r="AP3">
-        <v>7704.8324284438449</v>
+        <v>7704.832428443845</v>
       </c>
       <c r="AQ3">
-        <v>8191.0286894917208</v>
+        <v>8191.028689491721</v>
       </c>
       <c r="AR3">
-        <v>8694.1462001883065</v>
+        <v>8694.146200188306</v>
       </c>
       <c r="AS3">
-        <v>9211.0916048361651</v>
+        <v>9211.091604836165</v>
       </c>
       <c r="AT3">
-        <v>9742.0789677978628</v>
+        <v>9742.078967797863</v>
       </c>
       <c r="AU3">
         <v>10298.24282211687</v>
@@ -1136,7 +1086,7 @@
         <v>10848.74658068706</v>
       </c>
       <c r="AW3">
-        <v>11363.266937793611</v>
+        <v>11363.26693779361</v>
       </c>
       <c r="AX3">
         <v>11819.3714969925</v>
@@ -1145,216 +1095,216 @@
         <v>12246.47899978243</v>
       </c>
       <c r="AZ3">
-        <v>12655.706658099691</v>
+        <v>12655.70665809969</v>
       </c>
       <c r="BA3">
-        <v>13062.138620723879</v>
+        <v>13062.13862072388</v>
       </c>
       <c r="BB3">
-        <v>13455.465746504129</v>
+        <v>13455.46574650413</v>
       </c>
       <c r="BC3">
         <v>13828.764760811</v>
       </c>
       <c r="BD3">
-        <v>14195.478945036921</v>
+        <v>14195.47894503692</v>
       </c>
       <c r="BE3">
-        <v>14558.660256778319</v>
+        <v>14558.66025677832</v>
       </c>
       <c r="BF3">
-        <v>14939.184374117391</v>
+        <v>14939.18437411739</v>
       </c>
       <c r="BG3">
-        <v>15346.362402779119</v>
+        <v>15346.36240277912</v>
       </c>
       <c r="BH3">
-        <v>15790.144964487859</v>
+        <v>15790.14496448786</v>
       </c>
       <c r="BI3">
         <v>16273.9452586305</v>
       </c>
       <c r="BJ3">
-        <v>16793.281256378919</v>
+        <v>16793.28125637892</v>
       </c>
       <c r="BK3">
         <v>17360.12978132207</v>
       </c>
       <c r="BL3">
-        <v>17975.924103485799</v>
+        <v>17975.9241034858</v>
       </c>
       <c r="BM3">
-        <v>18637.712375442508</v>
+        <v>18637.71237544251</v>
       </c>
       <c r="BN3">
         <v>19330.78021582056</v>
       </c>
       <c r="BO3">
-        <v>20039.019601471151</v>
+        <v>20039.01960147115</v>
       </c>
       <c r="BP3">
         <v>20763.19678532772</v>
       </c>
       <c r="BQ3">
-        <v>21500.323537581859</v>
+        <v>21500.32353758186</v>
       </c>
       <c r="BR3">
         <v>22242.05666227984</v>
       </c>
       <c r="BS3">
-        <v>22970.905705723759</v>
+        <v>22970.90570572376</v>
       </c>
       <c r="BT3">
-        <v>23665.016747908081</v>
+        <v>23665.01674790808</v>
       </c>
       <c r="BU3">
-        <v>24324.761262597691</v>
+        <v>24324.76126259769</v>
       </c>
       <c r="BV3">
-        <v>24960.273212647338</v>
+        <v>24960.27321264734</v>
       </c>
       <c r="BW3">
-        <v>25582.950825579919</v>
+        <v>25582.95082557992</v>
       </c>
       <c r="BX3">
-        <v>26197.344391744929</v>
+        <v>26197.34439174493</v>
       </c>
       <c r="BY3">
-        <v>26798.439068949439</v>
+        <v>26798.43906894944</v>
       </c>
       <c r="BZ3">
-        <v>27391.023758703021</v>
+        <v>27391.02375870302</v>
       </c>
       <c r="CA3">
-        <v>27982.123293564491</v>
+        <v>27982.12329356449</v>
       </c>
       <c r="CB3">
-        <v>28581.970205948881</v>
+        <v>28581.97020594888</v>
       </c>
       <c r="CC3">
         <v>29202.07742353377</v>
       </c>
       <c r="CD3">
-        <v>29846.963552905669</v>
+        <v>29846.96355290567</v>
       </c>
       <c r="CE3">
         <v>30528.01655567843</v>
       </c>
       <c r="CF3">
-        <v>31248.520871582881</v>
+        <v>31248.52087158288</v>
       </c>
       <c r="CG3">
-        <v>32010.512765761061</v>
+        <v>32010.51276576106</v>
       </c>
       <c r="CH3">
         <v>32816.54907802157</v>
       </c>
       <c r="CI3">
-        <v>33657.827494753212</v>
+        <v>33657.82749475321</v>
       </c>
       <c r="CJ3">
-        <v>34535.981021825894</v>
+        <v>34535.98102182589</v>
       </c>
       <c r="CK3">
-        <v>35440.994810062752</v>
+        <v>35440.99481006275</v>
       </c>
       <c r="CL3">
-        <v>36363.772536976277</v>
+        <v>36363.77253697628</v>
       </c>
       <c r="CM3">
-        <v>37298.734106044198</v>
+        <v>37298.7341060442</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.7552106872258</v>
+        <v>3257.755210687226</v>
       </c>
       <c r="C4">
-        <v>6256.2776632247678</v>
+        <v>6256.277663224768</v>
       </c>
       <c r="D4">
-        <v>8717.1064640783079</v>
+        <v>8717.106464078308</v>
       </c>
       <c r="E4">
         <v>11521.92933793227</v>
       </c>
       <c r="F4">
-        <v>15063.678835780531</v>
+        <v>15063.67883578053</v>
       </c>
       <c r="G4">
-        <v>18367.459429733561</v>
+        <v>18367.45942973356</v>
       </c>
       <c r="H4">
-        <v>21919.930098999412</v>
+        <v>21919.93009899941</v>
       </c>
       <c r="I4">
-        <v>25039.795624063408</v>
+        <v>25039.79562406341</v>
       </c>
       <c r="J4">
-        <v>28430.429551202411</v>
+        <v>28430.42955120241</v>
       </c>
       <c r="K4">
-        <v>32440.325633169821</v>
+        <v>32440.32563316982</v>
       </c>
       <c r="L4">
-        <v>36252.801890546769</v>
+        <v>36252.80189054677</v>
       </c>
       <c r="M4">
-        <v>40670.616222822347</v>
+        <v>40670.61622282235</v>
       </c>
       <c r="N4">
-        <v>63834.576109410031</v>
+        <v>63834.57610941003</v>
       </c>
       <c r="O4">
-        <v>87188.732068052341</v>
+        <v>87188.73206805234</v>
       </c>
       <c r="P4">
         <v>110684.7787970424</v>
       </c>
       <c r="Q4">
-        <v>184461.29965189361</v>
+        <v>184461.2996518936</v>
       </c>
       <c r="R4">
         <v>258430.1259219198</v>
       </c>
       <c r="S4">
-        <v>332633.88885010203</v>
+        <v>332633.888850102</v>
       </c>
       <c r="T4">
-        <v>407107.71106476081</v>
+        <v>407107.7110647608</v>
       </c>
       <c r="U4">
-        <v>481879.59087945888</v>
+        <v>481879.5908794589</v>
       </c>
       <c r="V4">
-        <v>560070.51535175228</v>
+        <v>560070.5153517523</v>
       </c>
       <c r="W4">
-        <v>638642.38013321429</v>
+        <v>638642.3801332143</v>
       </c>
       <c r="X4">
-        <v>717595.17670047248</v>
+        <v>717595.1767004725</v>
       </c>
       <c r="Y4">
-        <v>796981.07676338323</v>
+        <v>796981.0767633832</v>
       </c>
       <c r="Z4">
-        <v>876873.85961994412</v>
+        <v>876873.8596199441</v>
       </c>
       <c r="AA4">
-        <v>901193.90448496479</v>
+        <v>901193.9044849648</v>
       </c>
       <c r="AB4">
-        <v>926227.77710199147</v>
+        <v>926227.7771019915</v>
       </c>
       <c r="AC4">
-        <v>952128.03821738402</v>
+        <v>952128.038217384</v>
       </c>
       <c r="AD4">
-        <v>978929.00626348134</v>
+        <v>978929.0062634813</v>
       </c>
       <c r="AE4">
         <v>1006878.478717947</v>
@@ -1372,55 +1322,55 @@
         <v>1065321.931579405</v>
       </c>
       <c r="AJ4">
-        <v>1087451.3298769169</v>
+        <v>1087451.329876917</v>
       </c>
       <c r="AK4">
-        <v>1123256.2227074881</v>
+        <v>1123256.222707488</v>
       </c>
       <c r="AL4">
         <v>1164651.72687225</v>
       </c>
       <c r="AM4">
-        <v>1212534.2179455259</v>
+        <v>1212534.217945526</v>
       </c>
       <c r="AN4">
-        <v>1267685.0455721009</v>
+        <v>1267685.045572101</v>
       </c>
       <c r="AO4">
         <v>1328597.475830714</v>
       </c>
       <c r="AP4">
-        <v>1405498.2178996899</v>
+        <v>1405498.21789969</v>
       </c>
       <c r="AQ4">
-        <v>1485750.0666161659</v>
+        <v>1485750.066616166</v>
       </c>
       <c r="AR4">
-        <v>1568466.2921912409</v>
+        <v>1568466.292191241</v>
       </c>
       <c r="AS4">
         <v>1652631.131334373</v>
       </c>
       <c r="AT4">
-        <v>1737341.0641250929</v>
+        <v>1737341.064125093</v>
       </c>
       <c r="AU4">
-        <v>1824937.5559924371</v>
+        <v>1824937.555992437</v>
       </c>
       <c r="AV4">
-        <v>1910227.1375953329</v>
+        <v>1910227.137595333</v>
       </c>
       <c r="AW4">
         <v>1990965.60439179</v>
       </c>
       <c r="AX4">
-        <v>2065592.7256488469</v>
+        <v>2065592.725648847</v>
       </c>
       <c r="AY4">
         <v>2135473.432181322</v>
       </c>
       <c r="AZ4">
-        <v>2199881.0887706918</v>
+        <v>2199881.088770692</v>
       </c>
       <c r="BA4">
         <v>2261067.317607176</v>
@@ -1432,144 +1382,144 @@
         <v>2374535.994140171</v>
       </c>
       <c r="BD4">
-        <v>2428484.6453556488</v>
+        <v>2428484.645355649</v>
       </c>
       <c r="BE4">
-        <v>2481060.9564195871</v>
+        <v>2481060.956419587</v>
       </c>
       <c r="BF4">
-        <v>2534679.9881120352</v>
+        <v>2534679.988112035</v>
       </c>
       <c r="BG4">
         <v>2590938.893567217</v>
       </c>
       <c r="BH4">
-        <v>2651261.6702169278</v>
+        <v>2651261.670216928</v>
       </c>
       <c r="BI4">
-        <v>2716449.6366604599</v>
+        <v>2716449.63666046</v>
       </c>
       <c r="BJ4">
         <v>2786837.133621763</v>
       </c>
       <c r="BK4">
-        <v>2862911.4565017219</v>
+        <v>2862911.456501722</v>
       </c>
       <c r="BL4">
-        <v>2944406.1119454722</v>
+        <v>2944406.111945472</v>
       </c>
       <c r="BM4">
-        <v>3030716.9589039031</v>
+        <v>3030716.958903903</v>
       </c>
       <c r="BN4">
-        <v>3120843.7295631291</v>
+        <v>3120843.729563129</v>
       </c>
       <c r="BO4">
         <v>3213917.119095705</v>
       </c>
       <c r="BP4">
-        <v>3309353.2472082968</v>
+        <v>3309353.247208297</v>
       </c>
       <c r="BQ4">
         <v>3406494.412455895</v>
       </c>
       <c r="BR4">
-        <v>3504382.2290308899</v>
+        <v>3504382.22903089</v>
       </c>
       <c r="BS4">
         <v>3601649.376587057</v>
       </c>
       <c r="BT4">
-        <v>3696711.5477381782</v>
+        <v>3696711.547738178</v>
       </c>
       <c r="BU4">
-        <v>3789357.2244158001</v>
+        <v>3789357.2244158</v>
       </c>
       <c r="BV4">
-        <v>3880036.3462957712</v>
+        <v>3880036.346295771</v>
       </c>
       <c r="BW4">
         <v>3969337.259459299</v>
       </c>
       <c r="BX4">
-        <v>4057272.7901468961</v>
+        <v>4057272.790146896</v>
       </c>
       <c r="BY4">
         <v>4143268.092408136</v>
       </c>
       <c r="BZ4">
-        <v>4227992.2813771944</v>
+        <v>4227992.281377194</v>
       </c>
       <c r="CA4">
-        <v>4311855.0194576662</v>
+        <v>4311855.019457666</v>
       </c>
       <c r="CB4">
-        <v>4395466.7858983632</v>
+        <v>4395466.785898363</v>
       </c>
       <c r="CC4">
-        <v>4479579.5265152054</v>
+        <v>4479579.526515205</v>
       </c>
       <c r="CD4">
-        <v>4564365.7942299535</v>
+        <v>4564365.794229954</v>
       </c>
       <c r="CE4">
-        <v>4651779.8403680883</v>
+        <v>4651779.840368088</v>
       </c>
       <c r="CF4">
         <v>4742370.235575974</v>
       </c>
       <c r="CG4">
-        <v>4836445.0149066141</v>
+        <v>4836445.014906614</v>
       </c>
       <c r="CH4">
-        <v>4934119.1996038239</v>
+        <v>4934119.199603824</v>
       </c>
       <c r="CI4">
-        <v>5033677.4180684667</v>
+        <v>5033677.418068467</v>
       </c>
       <c r="CJ4">
-        <v>5136232.8352501616</v>
+        <v>5136232.835250162</v>
       </c>
       <c r="CK4">
-        <v>5241250.8263457753</v>
+        <v>5241250.826345775</v>
       </c>
       <c r="CL4">
-        <v>5348252.8399255499</v>
+        <v>5348252.83992555</v>
       </c>
       <c r="CM4">
-        <v>5456848.7552912887</v>
+        <v>5456848.755291289</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0179249503308</v>
+        <v>3598.017924950331</v>
       </c>
       <c r="C5">
-        <v>6230.6506508751672</v>
+        <v>6230.650650875167</v>
       </c>
       <c r="D5">
-        <v>8685.8841185439196</v>
+        <v>8685.88411854392</v>
       </c>
       <c r="E5">
-        <v>11041.433070798121</v>
+        <v>11041.43307079812</v>
       </c>
       <c r="F5">
         <v>13762.71321686006</v>
       </c>
       <c r="G5">
-        <v>17275.043034520069</v>
+        <v>17275.04303452007</v>
       </c>
       <c r="H5">
-        <v>21123.617957593109</v>
+        <v>21123.61795759311</v>
       </c>
       <c r="I5">
-        <v>24275.210770246609</v>
+        <v>24275.21077024661</v>
       </c>
       <c r="J5">
-        <v>27258.711042270748</v>
+        <v>27258.71104227075</v>
       </c>
       <c r="K5">
         <v>30575.76520691668</v>
@@ -1578,34 +1528,34 @@
         <v>33937.49451455308</v>
       </c>
       <c r="M5">
-        <v>38923.628670576087</v>
+        <v>38923.62867057609</v>
       </c>
       <c r="N5">
-        <v>75397.715735009726</v>
+        <v>75397.71573500973</v>
       </c>
       <c r="O5">
         <v>111928.8081911184</v>
       </c>
       <c r="P5">
-        <v>148532.46588035091</v>
+        <v>148532.4658803509</v>
       </c>
       <c r="Q5">
-        <v>270105.06412291538</v>
+        <v>270105.0641229154</v>
       </c>
       <c r="R5">
-        <v>391789.47398365109</v>
+        <v>391789.4739836511</v>
       </c>
       <c r="S5">
-        <v>513609.93556902109</v>
+        <v>513609.9355690211</v>
       </c>
       <c r="T5">
-        <v>635594.94043912727</v>
+        <v>635594.9404391273</v>
       </c>
       <c r="U5">
         <v>757779.1262697624</v>
       </c>
       <c r="V5">
-        <v>886067.52665819775</v>
+        <v>886067.5266581977</v>
       </c>
       <c r="W5">
         <v>1014656.414026767</v>
@@ -1623,25 +1573,25 @@
         <v>1440215.702163219</v>
       </c>
       <c r="AB5">
-        <v>1478359.7881915879</v>
+        <v>1478359.788191588</v>
       </c>
       <c r="AC5">
-        <v>1517913.5186885321</v>
+        <v>1517913.518688532</v>
       </c>
       <c r="AD5">
-        <v>1559305.4852818849</v>
+        <v>1559305.485281885</v>
       </c>
       <c r="AE5">
         <v>1603068.132143585</v>
       </c>
       <c r="AF5">
-        <v>1618434.1467902791</v>
+        <v>1618434.146790279</v>
       </c>
       <c r="AG5">
-        <v>1637137.6281476689</v>
+        <v>1637137.628147669</v>
       </c>
       <c r="AH5">
-        <v>1659922.9524227681</v>
+        <v>1659922.952422768</v>
       </c>
       <c r="AI5">
         <v>1688138.481713481</v>
@@ -1656,52 +1606,52 @@
         <v>1839545.550913394</v>
       </c>
       <c r="AM5">
-        <v>1910246.3914241709</v>
+        <v>1910246.391424171</v>
       </c>
       <c r="AN5">
-        <v>1989436.7928147919</v>
+        <v>1989436.792814792</v>
       </c>
       <c r="AO5">
-        <v>2076871.4800836621</v>
+        <v>2076871.480083662</v>
       </c>
       <c r="AP5">
-        <v>2189962.1006234898</v>
+        <v>2189962.10062349</v>
       </c>
       <c r="AQ5">
-        <v>2309495.4693378811</v>
+        <v>2309495.469337881</v>
       </c>
       <c r="AR5">
-        <v>2433953.3055613148</v>
+        <v>2433953.305561315</v>
       </c>
       <c r="AS5">
-        <v>2561511.7748592002</v>
+        <v>2561511.7748592</v>
       </c>
       <c r="AT5">
-        <v>2690173.0412802012</v>
+        <v>2690173.041280201</v>
       </c>
       <c r="AU5">
-        <v>2823112.2845949009</v>
+        <v>2823112.284594901</v>
       </c>
       <c r="AV5">
-        <v>2953259.6182878632</v>
+        <v>2953259.618287863</v>
       </c>
       <c r="AW5">
-        <v>3079018.1498975558</v>
+        <v>3079018.149897556</v>
       </c>
       <c r="AX5">
-        <v>3199184.3821809259</v>
+        <v>3199184.382180926</v>
       </c>
       <c r="AY5">
-        <v>3313024.5834749071</v>
+        <v>3313024.583474907</v>
       </c>
       <c r="AZ5">
-        <v>3417218.0379069322</v>
+        <v>3417218.037906932</v>
       </c>
       <c r="BA5">
-        <v>3515149.9574591462</v>
+        <v>3515149.957459146</v>
       </c>
       <c r="BB5">
-        <v>3607592.2174868979</v>
+        <v>3607592.217486898</v>
       </c>
       <c r="BC5">
         <v>3695733.466860068</v>
@@ -1710,109 +1660,109 @@
         <v>3781078.862581796</v>
       </c>
       <c r="BE5">
-        <v>3863590.0840510069</v>
+        <v>3863590.084051007</v>
       </c>
       <c r="BF5">
-        <v>3946749.2969024139</v>
+        <v>3946749.296902414</v>
       </c>
       <c r="BG5">
-        <v>4032228.7773133512</v>
+        <v>4032228.777313351</v>
       </c>
       <c r="BH5">
-        <v>4121518.5894277268</v>
+        <v>4121518.589427727</v>
       </c>
       <c r="BI5">
-        <v>4215850.7284567282</v>
+        <v>4215850.728456728</v>
       </c>
       <c r="BJ5">
-        <v>4315855.9024608294</v>
+        <v>4315855.902460829</v>
       </c>
       <c r="BK5">
-        <v>4422425.1991557255</v>
+        <v>4422425.199155726</v>
       </c>
       <c r="BL5">
-        <v>4535813.5119740302</v>
+        <v>4535813.51197403</v>
       </c>
       <c r="BM5">
-        <v>4655940.9209733913</v>
+        <v>4655940.920973391</v>
       </c>
       <c r="BN5">
-        <v>4782414.1671588235</v>
+        <v>4782414.167158823</v>
       </c>
       <c r="BO5">
-        <v>4914582.2546809707</v>
+        <v>4914582.254680971</v>
       </c>
       <c r="BP5">
         <v>5051536.565211785</v>
       </c>
       <c r="BQ5">
-        <v>5192226.7647933289</v>
+        <v>5192226.764793329</v>
       </c>
       <c r="BR5">
         <v>5335512.847453896</v>
       </c>
       <c r="BS5">
-        <v>5480237.0837247679</v>
+        <v>5480237.083724768</v>
       </c>
       <c r="BT5">
-        <v>5624785.7218313674</v>
+        <v>5624785.721831367</v>
       </c>
       <c r="BU5">
-        <v>5768683.8453081492</v>
+        <v>5768683.845308149</v>
       </c>
       <c r="BV5">
-        <v>5911124.5922144642</v>
+        <v>5911124.592214464</v>
       </c>
       <c r="BW5">
-        <v>6051522.6675808746</v>
+        <v>6051522.667580875</v>
       </c>
       <c r="BX5">
         <v>6189541.511239294</v>
       </c>
       <c r="BY5">
-        <v>6324250.4761687191</v>
+        <v>6324250.476168719</v>
       </c>
       <c r="BZ5">
-        <v>6456671.7578565925</v>
+        <v>6456671.757856593</v>
       </c>
       <c r="CA5">
-        <v>6587200.0202499526</v>
+        <v>6587200.020249953</v>
       </c>
       <c r="CB5">
-        <v>6716416.1708007427</v>
+        <v>6716416.170800743</v>
       </c>
       <c r="CC5">
         <v>6845038.657548775</v>
       </c>
       <c r="CD5">
-        <v>6972430.4882717608</v>
+        <v>6972430.488271761</v>
       </c>
       <c r="CE5">
-        <v>7100853.5467327125</v>
+        <v>7100853.546732713</v>
       </c>
       <c r="CF5">
-        <v>7231100.0682196748</v>
+        <v>7231100.068219675</v>
       </c>
       <c r="CG5">
-        <v>7363880.3696941789</v>
+        <v>7363880.369694179</v>
       </c>
       <c r="CH5">
-        <v>7499782.2246549297</v>
+        <v>7499782.22465493</v>
       </c>
       <c r="CI5">
-        <v>7636992.4913622402</v>
+        <v>7636992.49136224</v>
       </c>
       <c r="CJ5">
-        <v>7778025.7777330009</v>
+        <v>7778025.777733001</v>
       </c>
       <c r="CK5">
-        <v>7922972.0405421266</v>
+        <v>7922972.040542127</v>
       </c>
       <c r="CL5">
-        <v>8071750.8523551906</v>
+        <v>8071750.852355191</v>
       </c>
       <c r="CM5">
-        <v>8224126.9157169098</v>
+        <v>8224126.91571691</v>
       </c>
     </row>
   </sheetData>
@@ -1821,16 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CQ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="CO18" sqref="CO18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2101,35 +2049,34 @@
       <c r="CM1" s="1">
         <v>2100</v>
       </c>
-      <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842573287</v>
+        <v>46.87313184257329</v>
       </c>
       <c r="C2">
         <v>113.2051186243893</v>
       </c>
       <c r="D2">
-        <v>177.31405708545751</v>
+        <v>177.3140570854575</v>
       </c>
       <c r="E2">
-        <v>238.18693484668461</v>
+        <v>238.1869348466846</v>
       </c>
       <c r="F2">
-        <v>336.17171448487898</v>
+        <v>336.171714484879</v>
       </c>
       <c r="G2">
-        <v>406.86687996997381</v>
+        <v>406.8668799699738</v>
       </c>
       <c r="H2">
-        <v>532.64107140857845</v>
+        <v>532.6410714085785</v>
       </c>
       <c r="I2">
-        <v>652.18336082115979</v>
+        <v>652.1833608211598</v>
       </c>
       <c r="J2">
         <v>764.3134107079967</v>
@@ -2141,16 +2088,16 @@
         <v>1075.334723865868</v>
       </c>
       <c r="M2">
-        <v>1218.1363743537661</v>
+        <v>1218.136374353766</v>
       </c>
       <c r="N2">
-        <v>1497.5417753387951</v>
+        <v>1497.541775338795</v>
       </c>
       <c r="O2">
-        <v>1799.1262618866331</v>
+        <v>1799.126261886633</v>
       </c>
       <c r="P2">
-        <v>2123.1838772312012</v>
+        <v>2123.183877231201</v>
       </c>
       <c r="Q2">
         <v>2832.615860710453</v>
@@ -2159,22 +2106,22 @@
         <v>3592.242991760399</v>
       </c>
       <c r="S2">
-        <v>4402.6047086465487</v>
+        <v>4402.604708646549</v>
       </c>
       <c r="T2">
-        <v>5264.6356745164449</v>
+        <v>5264.635674516445</v>
       </c>
       <c r="U2">
-        <v>6179.0764551563516</v>
+        <v>6179.076455156352</v>
       </c>
       <c r="V2">
-        <v>7097.8550419067542</v>
+        <v>7097.855041906754</v>
       </c>
       <c r="W2">
-        <v>8066.9611436336427</v>
+        <v>8066.961143633643</v>
       </c>
       <c r="X2">
-        <v>9086.7931629679188</v>
+        <v>9086.793162967919</v>
       </c>
       <c r="Y2">
         <v>10158.37831866365</v>
@@ -2183,7 +2130,7 @@
         <v>11283.13640430848</v>
       </c>
       <c r="AA2">
-        <v>11807.692124530669</v>
+        <v>11807.69212453067</v>
       </c>
       <c r="AB2">
         <v>12346.62846834125</v>
@@ -2195,10 +2142,10 @@
         <v>13479.10094960815</v>
       </c>
       <c r="AE2">
-        <v>14075.047424645651</v>
+        <v>14075.04742464565</v>
       </c>
       <c r="AF2">
-        <v>14455.498668028629</v>
+        <v>14455.49866802863</v>
       </c>
       <c r="AG2">
         <v>14839.28844158561</v>
@@ -2210,176 +2157,175 @@
         <v>15675.17677278687</v>
       </c>
       <c r="AJ2">
-        <v>16140.720460297251</v>
+        <v>16140.72046029725</v>
       </c>
       <c r="AK2">
-        <v>16757.988189351421</v>
+        <v>16757.98818935142</v>
       </c>
       <c r="AL2">
         <v>17451.53984442928</v>
       </c>
       <c r="AM2">
-        <v>18250.671073046658</v>
+        <v>18250.67107304666</v>
       </c>
       <c r="AN2">
-        <v>19185.803393114991</v>
+        <v>19185.80339311499</v>
       </c>
       <c r="AO2">
-        <v>20218.075710968398</v>
+        <v>20218.0757109684</v>
       </c>
       <c r="AP2">
-        <v>21492.301761783201</v>
+        <v>21492.3017617832</v>
       </c>
       <c r="AQ2">
-        <v>22819.942764656342</v>
+        <v>22819.94276465634</v>
       </c>
       <c r="AR2">
-        <v>24192.153734498279</v>
+        <v>24192.15373449828</v>
       </c>
       <c r="AS2">
-        <v>25600.469642223768</v>
+        <v>25600.46964222377</v>
       </c>
       <c r="AT2">
-        <v>27045.190920403849</v>
+        <v>27045.19092040385</v>
       </c>
       <c r="AU2">
-        <v>28557.931287116091</v>
+        <v>28557.93128711609</v>
       </c>
       <c r="AV2">
-        <v>30054.668552492851</v>
+        <v>30054.66855249285</v>
       </c>
       <c r="AW2">
-        <v>31455.527408018861</v>
+        <v>31455.52740801886</v>
       </c>
       <c r="AX2">
-        <v>32701.868366816871</v>
+        <v>32701.86836681687</v>
       </c>
       <c r="AY2">
-        <v>33871.342212129901</v>
+        <v>33871.3422121299</v>
       </c>
       <c r="AZ2">
-        <v>34989.776127445693</v>
+        <v>34989.77612744569</v>
       </c>
       <c r="BA2">
-        <v>36100.022946560603</v>
+        <v>36100.0229465606</v>
       </c>
       <c r="BB2">
-        <v>37175.315210656532</v>
+        <v>37175.31521065653</v>
       </c>
       <c r="BC2">
         <v>38197.91486914175</v>
       </c>
       <c r="BD2">
-        <v>39202.965608431339</v>
+        <v>39202.96560843134</v>
       </c>
       <c r="BE2">
-        <v>40195.545022157719</v>
+        <v>40195.54502215772</v>
       </c>
       <c r="BF2">
-        <v>41232.353933672377</v>
+        <v>41232.35393367238</v>
       </c>
       <c r="BG2">
-        <v>42337.136101232987</v>
+        <v>42337.13610123299</v>
       </c>
       <c r="BH2">
-        <v>43535.033705804803</v>
+        <v>43535.0337058048</v>
       </c>
       <c r="BI2">
-        <v>44834.252832283608</v>
+        <v>44834.25283228361</v>
       </c>
       <c r="BJ2">
         <v>46220.84576703421</v>
       </c>
       <c r="BK2">
-        <v>47726.420667895509</v>
+        <v>47726.42066789551</v>
       </c>
       <c r="BL2">
-        <v>49353.762102252433</v>
+        <v>49353.76210225243</v>
       </c>
       <c r="BM2">
-        <v>51094.536145941602</v>
+        <v>51094.5361459416</v>
       </c>
       <c r="BN2">
-        <v>52910.984298380907</v>
+        <v>52910.98429838091</v>
       </c>
       <c r="BO2">
-        <v>54761.058805044297</v>
+        <v>54761.0588050443</v>
       </c>
       <c r="BP2">
-        <v>56647.368085569498</v>
+        <v>56647.3680855695</v>
       </c>
       <c r="BQ2">
-        <v>58562.054028026112</v>
+        <v>58562.05402802611</v>
       </c>
       <c r="BR2">
-        <v>60484.130965725082</v>
+        <v>60484.13096572508</v>
       </c>
       <c r="BS2">
-        <v>62370.419088843933</v>
+        <v>62370.41908884393</v>
       </c>
       <c r="BT2">
         <v>64165.96971541486</v>
       </c>
       <c r="BU2">
-        <v>65873.868250091022</v>
+        <v>65873.86825009102</v>
       </c>
       <c r="BV2">
-        <v>67519.263482642884</v>
+        <v>67519.26348264288</v>
       </c>
       <c r="BW2">
-        <v>69130.045398736271</v>
+        <v>69130.04539873627</v>
       </c>
       <c r="BX2">
-        <v>70717.327641974247</v>
+        <v>70717.32764197425</v>
       </c>
       <c r="BY2">
-        <v>72267.524815280063</v>
+        <v>72267.52481528006</v>
       </c>
       <c r="BZ2">
-        <v>73793.980854436842</v>
+        <v>73793.98085443684</v>
       </c>
       <c r="CA2">
-        <v>75313.499563714257</v>
+        <v>75313.49956371426</v>
       </c>
       <c r="CB2">
-        <v>76850.193506737152</v>
+        <v>76850.19350673715</v>
       </c>
       <c r="CC2">
-        <v>78430.807863959897</v>
+        <v>78430.8078639599</v>
       </c>
       <c r="CD2">
-        <v>80062.881032708159</v>
+        <v>80062.88103270816</v>
       </c>
       <c r="CE2">
-        <v>81774.619030356247</v>
+        <v>81774.61903035625</v>
       </c>
       <c r="CF2">
-        <v>83572.716903215784</v>
+        <v>83572.71690321578</v>
       </c>
       <c r="CG2">
-        <v>85460.864109705348</v>
+        <v>85460.86410970535</v>
       </c>
       <c r="CH2">
-        <v>87443.816226246447</v>
+        <v>87443.81622624645</v>
       </c>
       <c r="CI2">
-        <v>89496.081129980797</v>
+        <v>89496.0811299808</v>
       </c>
       <c r="CJ2">
-        <v>91624.653623158796</v>
+        <v>91624.6536231588</v>
       </c>
       <c r="CK2">
-        <v>93806.166362437536</v>
+        <v>93806.16636243754</v>
       </c>
       <c r="CL2">
         <v>96019.66935420435</v>
       </c>
       <c r="CM2">
-        <v>98252.300431539479</v>
-      </c>
-      <c r="CQ2" s="2"/>
+        <v>98252.30043153948</v>
+      </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2387,46 +2333,46 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.872157285623103</v>
+        <v>39.8721572856231</v>
       </c>
       <c r="D3">
-        <v>62.451548955012072</v>
+        <v>62.45154895501207</v>
       </c>
       <c r="E3">
-        <v>83.877529216304922</v>
+        <v>83.87752921630492</v>
       </c>
       <c r="F3">
         <v>118.5008986878357</v>
       </c>
       <c r="G3">
-        <v>143.39517309025939</v>
+        <v>143.3951730902594</v>
       </c>
       <c r="H3">
-        <v>187.89710014353781</v>
+        <v>187.8971001435378</v>
       </c>
       <c r="I3">
         <v>230.1565386341407</v>
       </c>
       <c r="J3">
-        <v>269.76672909050052</v>
+        <v>269.7667290905005</v>
       </c>
       <c r="K3">
-        <v>305.47120586454201</v>
+        <v>305.471205864542</v>
       </c>
       <c r="L3">
-        <v>379.87538661469063</v>
+        <v>379.8753866146906</v>
       </c>
       <c r="M3">
-        <v>430.38663733392337</v>
+        <v>430.3866373339234</v>
       </c>
       <c r="N3">
-        <v>529.55911631678691</v>
+        <v>529.5591163167869</v>
       </c>
       <c r="O3">
-        <v>636.61934959986365</v>
+        <v>636.6193495998637</v>
       </c>
       <c r="P3">
-        <v>751.66218394397447</v>
+        <v>751.6621839439745</v>
       </c>
       <c r="Q3">
         <v>1003.978542439371</v>
@@ -2444,10 +2390,10 @@
         <v>2194.245673665841</v>
       </c>
       <c r="V3">
-        <v>2520.9390232338228</v>
+        <v>2520.939023233823</v>
       </c>
       <c r="W3">
-        <v>2865.4583913884871</v>
+        <v>2865.458391388487</v>
       </c>
       <c r="X3">
         <v>3227.939607755925</v>
@@ -2456,76 +2402,76 @@
         <v>3608.729082904923</v>
       </c>
       <c r="Z3">
-        <v>4008.3054135525699</v>
+        <v>4008.30541355257</v>
       </c>
       <c r="AA3">
-        <v>4193.8947199780987</v>
+        <v>4193.894719978099</v>
       </c>
       <c r="AB3">
-        <v>4384.4610276752119</v>
+        <v>4384.461027675212</v>
       </c>
       <c r="AC3">
-        <v>4581.3536153261221</v>
+        <v>4581.353615326122</v>
       </c>
       <c r="AD3">
-        <v>4784.3898240676926</v>
+        <v>4784.389824067693</v>
       </c>
       <c r="AE3">
-        <v>4994.5807723568432</v>
+        <v>4994.580772356843</v>
       </c>
       <c r="AF3">
-        <v>5127.8300115913844</v>
+        <v>5127.830011591384</v>
       </c>
       <c r="AG3">
         <v>5262.150955888007</v>
       </c>
       <c r="AH3">
-        <v>5402.4715805339692</v>
+        <v>5402.471580533969</v>
       </c>
       <c r="AI3">
-        <v>5553.6164956083367</v>
+        <v>5553.616495608337</v>
       </c>
       <c r="AJ3">
-        <v>5715.3208282643054</v>
+        <v>5715.320828264305</v>
       </c>
       <c r="AK3">
-        <v>5930.0750514763286</v>
+        <v>5930.075051476329</v>
       </c>
       <c r="AL3">
-        <v>6170.5704364049307</v>
+        <v>6170.570436404931</v>
       </c>
       <c r="AM3">
-        <v>6446.6714153056864</v>
+        <v>6446.671415305686</v>
       </c>
       <c r="AN3">
-        <v>6768.6312602086427</v>
+        <v>6768.631260208643</v>
       </c>
       <c r="AO3">
         <v>7123.436571428244</v>
       </c>
       <c r="AP3">
-        <v>7563.5368424716016</v>
+        <v>7563.536842471602</v>
       </c>
       <c r="AQ3">
-        <v>8021.8116036656847</v>
+        <v>8021.811603665685</v>
       </c>
       <c r="AR3">
-        <v>8495.1629374354707</v>
+        <v>8495.162937435471</v>
       </c>
       <c r="AS3">
-        <v>8980.6064508171676</v>
+        <v>8980.606450817168</v>
       </c>
       <c r="AT3">
-        <v>9478.0895393936444</v>
+        <v>9478.089539393644</v>
       </c>
       <c r="AU3">
-        <v>9998.9407607062985</v>
+        <v>9998.940760706299</v>
       </c>
       <c r="AV3">
         <v>10514.02510724768</v>
       </c>
       <c r="AW3">
-        <v>10996.633208998101</v>
+        <v>10996.6332089981</v>
       </c>
       <c r="AX3">
         <v>11427.34908783892</v>
@@ -2534,7 +2480,7 @@
         <v>11832.12356844862</v>
       </c>
       <c r="AZ3">
-        <v>12218.236841151591</v>
+        <v>12218.23684115159</v>
       </c>
       <c r="BA3">
         <v>12601.1159877624</v>
@@ -2543,7 +2489,7 @@
         <v>12971.99534042857</v>
       </c>
       <c r="BC3">
-        <v>13325.193016126361</v>
+        <v>13325.19301612636</v>
       </c>
       <c r="BD3">
         <v>13672.27607224991</v>
@@ -2555,13 +2501,13 @@
         <v>14368.84697464105</v>
       </c>
       <c r="BG3">
-        <v>14745.156707293219</v>
+        <v>14745.15670729322</v>
       </c>
       <c r="BH3">
-        <v>15150.310717216869</v>
+        <v>15150.31071721687</v>
       </c>
       <c r="BI3">
-        <v>15586.490685574559</v>
+        <v>15586.49068557456</v>
       </c>
       <c r="BJ3">
         <v>16047.94819568636</v>
@@ -2570,92 +2516,91 @@
         <v>16544.86311660186</v>
       </c>
       <c r="BL3">
-        <v>17077.438260580358</v>
+        <v>17077.43826058036</v>
       </c>
       <c r="BM3">
-        <v>17642.428226181011</v>
+        <v>17642.42822618101</v>
       </c>
       <c r="BN3">
-        <v>18227.765961597492</v>
+        <v>18227.76596159749</v>
       </c>
       <c r="BO3">
-        <v>18819.766049865859</v>
+        <v>18819.76604986586</v>
       </c>
       <c r="BP3">
         <v>19419.45003398661</v>
       </c>
       <c r="BQ3">
-        <v>20024.159508181721</v>
+        <v>20024.15950818172</v>
       </c>
       <c r="BR3">
-        <v>20627.515926150569</v>
+        <v>20627.51592615057</v>
       </c>
       <c r="BS3">
-        <v>21217.037721890079</v>
+        <v>21217.03772189008</v>
       </c>
       <c r="BT3">
-        <v>21776.423665632268</v>
+        <v>21776.42366563227</v>
       </c>
       <c r="BU3">
-        <v>22307.954226545451</v>
+        <v>22307.95422654545</v>
       </c>
       <c r="BV3">
         <v>22819.0180721857</v>
       </c>
       <c r="BW3">
-        <v>23317.481093781571</v>
+        <v>23317.48109378157</v>
       </c>
       <c r="BX3">
-        <v>23806.458945632439</v>
+        <v>23806.45894563244</v>
       </c>
       <c r="BY3">
-        <v>24281.395245375868</v>
+        <v>24281.39524537587</v>
       </c>
       <c r="BZ3">
-        <v>24747.022197711929</v>
+        <v>24747.02219771193</v>
       </c>
       <c r="CA3">
-        <v>25207.737976123939</v>
+        <v>25207.73797612394</v>
       </c>
       <c r="CB3">
-        <v>25669.542574554569</v>
+        <v>25669.54257455457</v>
       </c>
       <c r="CC3">
-        <v>26138.751864556551</v>
+        <v>26138.75186455655</v>
       </c>
       <c r="CD3">
         <v>26614.9866910456</v>
       </c>
       <c r="CE3">
-        <v>27105.965638376521</v>
+        <v>27105.96563837652</v>
       </c>
       <c r="CF3">
         <v>27612.41257972275</v>
       </c>
       <c r="CG3">
-        <v>28134.247935726678</v>
+        <v>28134.24793572668</v>
       </c>
       <c r="CH3">
         <v>28671.52265233652</v>
       </c>
       <c r="CI3">
-        <v>29214.460641089609</v>
+        <v>29214.46064108961</v>
       </c>
       <c r="CJ3">
-        <v>29766.798086850318</v>
+        <v>29766.79808685032</v>
       </c>
       <c r="CK3">
         <v>30322.90629412144</v>
       </c>
       <c r="CL3">
-        <v>30877.990446983749</v>
+        <v>30877.99044698375</v>
       </c>
       <c r="CM3">
-        <v>31429.108232593539</v>
-      </c>
-      <c r="CQ3" s="2"/>
+        <v>31429.10823259354</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2663,97 +2608,97 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>6255.9500256154279</v>
+        <v>6255.950025615428</v>
       </c>
       <c r="D4">
-        <v>8716.4055514084848</v>
+        <v>8716.405551408485</v>
       </c>
       <c r="E4">
         <v>11520.58501258248</v>
       </c>
       <c r="F4">
-        <v>15061.246330860189</v>
+        <v>15061.24633086019</v>
       </c>
       <c r="G4">
-        <v>18363.218805602079</v>
+        <v>18363.21880560208</v>
       </c>
       <c r="H4">
-        <v>21912.731410242901</v>
+        <v>21912.7314102429</v>
       </c>
       <c r="I4">
-        <v>25027.798820890039</v>
+        <v>25027.79882089004</v>
       </c>
       <c r="J4">
         <v>28410.5965986966</v>
       </c>
       <c r="K4">
-        <v>32407.278898456731</v>
+        <v>32407.27889845673</v>
       </c>
       <c r="L4">
-        <v>36196.126756261147</v>
+        <v>36196.12675626115</v>
       </c>
       <c r="M4">
-        <v>40569.101472613133</v>
+        <v>40569.10147261313</v>
       </c>
       <c r="N4">
-        <v>63648.419181301972</v>
+        <v>63648.41918130197</v>
       </c>
       <c r="O4">
-        <v>86860.389513544578</v>
+        <v>86860.38951354458</v>
       </c>
       <c r="P4">
         <v>110170.661228856</v>
       </c>
       <c r="Q4">
-        <v>183729.61716182929</v>
+        <v>183729.6171618293</v>
       </c>
       <c r="R4">
-        <v>257435.88951352829</v>
+        <v>257435.8895135283</v>
       </c>
       <c r="S4">
-        <v>331312.47317890689</v>
+        <v>331312.4731789069</v>
       </c>
       <c r="T4">
-        <v>405376.40864477551</v>
+        <v>405376.4086447755</v>
       </c>
       <c r="U4">
-        <v>479639.64435664739</v>
+        <v>479639.6443566474</v>
       </c>
       <c r="V4">
-        <v>557196.88128957502</v>
+        <v>557196.881289575</v>
       </c>
       <c r="W4">
-        <v>634983.94614507293</v>
+        <v>634983.9461450729</v>
       </c>
       <c r="X4">
         <v>712991.7126194546</v>
       </c>
       <c r="Y4">
-        <v>791237.95639358705</v>
+        <v>791237.9563935871</v>
       </c>
       <c r="Z4">
-        <v>869748.65516972856</v>
+        <v>869748.6551697286</v>
       </c>
       <c r="AA4">
-        <v>892395.80554382817</v>
+        <v>892395.8055438282</v>
       </c>
       <c r="AB4">
-        <v>915346.15572062135</v>
+        <v>915346.1557206213</v>
       </c>
       <c r="AC4">
-        <v>938648.92764705559</v>
+        <v>938648.9276470556</v>
       </c>
       <c r="AD4">
-        <v>962287.22271489818</v>
+        <v>962287.2227148982</v>
       </c>
       <c r="AE4">
-        <v>986343.27070540842</v>
+        <v>986343.2707054084</v>
       </c>
       <c r="AF4">
-        <v>992944.46714579535</v>
+        <v>992944.4671457954</v>
       </c>
       <c r="AG4">
-        <v>999925.09135495138</v>
+        <v>999925.0913549514</v>
       </c>
       <c r="AH4">
         <v>1007532.58808307</v>
@@ -2771,7 +2716,7 @@
         <v>1067919.133282782</v>
       </c>
       <c r="AM4">
-        <v>1092252.2446309051</v>
+        <v>1092252.244630905</v>
       </c>
       <c r="AN4">
         <v>1119117.953675488</v>
@@ -2786,22 +2731,22 @@
         <v>1232041.434208096</v>
       </c>
       <c r="AR4">
-        <v>1275027.8442596979</v>
+        <v>1275027.844259698</v>
       </c>
       <c r="AS4">
-        <v>1318126.7142784181</v>
+        <v>1318126.714278418</v>
       </c>
       <c r="AT4">
-        <v>1361049.3500258729</v>
+        <v>1361049.350025873</v>
       </c>
       <c r="AU4">
-        <v>1406911.2748533259</v>
+        <v>1406911.274853326</v>
       </c>
       <c r="AV4">
-        <v>1451655.6712717081</v>
+        <v>1451655.671271708</v>
       </c>
       <c r="AW4">
-        <v>1494515.0305266799</v>
+        <v>1494515.03052668</v>
       </c>
       <c r="AX4">
         <v>1534999.252713115</v>
@@ -2810,10 +2755,10 @@
         <v>1573721.669360223</v>
       </c>
       <c r="AZ4">
-        <v>1609082.6843973631</v>
+        <v>1609082.684397363</v>
       </c>
       <c r="BA4">
-        <v>1643334.9957460859</v>
+        <v>1643334.995746086</v>
       </c>
       <c r="BB4">
         <v>1676542.80775266</v>
@@ -2822,10 +2767,10 @@
         <v>1708973.534552543</v>
       </c>
       <c r="BD4">
-        <v>1740891.6024609909</v>
+        <v>1740891.602460991</v>
       </c>
       <c r="BE4">
-        <v>1771391.2210458119</v>
+        <v>1771391.221045812</v>
       </c>
       <c r="BF4">
         <v>1801967.191076729</v>
@@ -2840,43 +2785,43 @@
         <v>1898929.682989839</v>
       </c>
       <c r="BJ4">
-        <v>1933550.7501114779</v>
+        <v>1933550.750111478</v>
       </c>
       <c r="BK4">
-        <v>1969511.0722007209</v>
+        <v>1969511.072200721</v>
       </c>
       <c r="BL4">
-        <v>2006653.4427063509</v>
+        <v>2006653.442706351</v>
       </c>
       <c r="BM4">
-        <v>2044734.0499268849</v>
+        <v>2044734.049926885</v>
       </c>
       <c r="BN4">
         <v>2083417.301892628</v>
       </c>
       <c r="BO4">
-        <v>2122447.1866989592</v>
+        <v>2122447.186698959</v>
       </c>
       <c r="BP4">
-        <v>2161660.5082788728</v>
+        <v>2161660.508278873</v>
       </c>
       <c r="BQ4">
-        <v>2200895.4822501792</v>
+        <v>2200895.482250179</v>
       </c>
       <c r="BR4">
-        <v>2239911.9840748911</v>
+        <v>2239911.984074891</v>
       </c>
       <c r="BS4">
         <v>2278360.307492265</v>
       </c>
       <c r="BT4">
-        <v>2315623.5002471791</v>
+        <v>2315623.500247179</v>
       </c>
       <c r="BU4">
-        <v>2351931.0828715758</v>
+        <v>2351931.082871576</v>
       </c>
       <c r="BV4">
-        <v>2387583.1313637849</v>
+        <v>2387583.131363785</v>
       </c>
       <c r="BW4">
         <v>2422906.806098355</v>
@@ -2885,28 +2830,28 @@
         <v>2457842.084327552</v>
       </c>
       <c r="BY4">
-        <v>2491826.5586229051</v>
+        <v>2491826.558622905</v>
       </c>
       <c r="BZ4">
-        <v>2525414.3029245632</v>
+        <v>2525414.302924563</v>
       </c>
       <c r="CA4">
-        <v>2558670.5340590701</v>
+        <v>2558670.53405907</v>
       </c>
       <c r="CB4">
-        <v>2591681.3845215822</v>
+        <v>2591681.384521582</v>
       </c>
       <c r="CC4">
-        <v>2624505.1650100378</v>
+        <v>2624505.165010038</v>
       </c>
       <c r="CD4">
-        <v>2656565.9523047712</v>
+        <v>2656565.952304771</v>
       </c>
       <c r="CE4">
-        <v>2689185.9872528599</v>
+        <v>2689185.98725286</v>
       </c>
       <c r="CF4">
-        <v>2722479.1078343508</v>
+        <v>2722479.107834351</v>
       </c>
       <c r="CG4">
         <v>2756491.463417843</v>
@@ -2918,20 +2863,19 @@
         <v>2825034.098357182</v>
       </c>
       <c r="CJ4">
-        <v>2859354.5380794229</v>
+        <v>2859354.538079423</v>
       </c>
       <c r="CK4">
         <v>2894034.912419775</v>
       </c>
       <c r="CL4">
-        <v>2928961.8616344482</v>
+        <v>2928961.861634448</v>
       </c>
       <c r="CM4">
-        <v>2964056.1034986288</v>
-      </c>
-      <c r="CQ4" s="2"/>
+        <v>2964056.103498629</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,40 +2883,40 @@
         <v>3598.013476784432</v>
       </c>
       <c r="C5">
-        <v>6230.6381407053204</v>
+        <v>6230.63814070532</v>
       </c>
       <c r="D5">
-        <v>8685.8574720073193</v>
+        <v>8685.857472007319</v>
       </c>
       <c r="E5">
-        <v>11041.382215380059</v>
+        <v>11041.38221538006</v>
       </c>
       <c r="F5">
-        <v>13762.621698715089</v>
+        <v>13762.62169871509</v>
       </c>
       <c r="G5">
-        <v>17274.884516009359</v>
+        <v>17274.88451600936</v>
       </c>
       <c r="H5">
-        <v>21123.351311374841</v>
+        <v>21123.35131137484</v>
       </c>
       <c r="I5">
-        <v>24274.773472696179</v>
+        <v>24274.77347269618</v>
       </c>
       <c r="J5">
         <v>27258.01054841905</v>
       </c>
       <c r="K5">
-        <v>30574.668000172602</v>
+        <v>30574.6680001726</v>
       </c>
       <c r="L5">
-        <v>33935.812613441878</v>
+        <v>33935.81261344188</v>
       </c>
       <c r="M5">
-        <v>38921.103525627768</v>
+        <v>38921.10352562777</v>
       </c>
       <c r="N5">
-        <v>75393.999638467532</v>
+        <v>75393.99963846753</v>
       </c>
       <c r="O5">
         <v>111919.7014387869</v>
@@ -2981,19 +2925,19 @@
         <v>148511.0008318839</v>
       </c>
       <c r="Q5">
-        <v>270060.57781008142</v>
+        <v>270060.5778100814</v>
       </c>
       <c r="R5">
-        <v>391706.59542106371</v>
+        <v>391706.5954210637</v>
       </c>
       <c r="S5">
-        <v>513467.51494140708</v>
+        <v>513467.5149414071</v>
       </c>
       <c r="T5">
-        <v>635364.90803303174</v>
+        <v>635364.9080330317</v>
       </c>
       <c r="U5">
-        <v>757425.21291656734</v>
+        <v>757425.2129165673</v>
       </c>
       <c r="V5">
         <v>885542.6968996292</v>
@@ -3002,31 +2946,31 @@
         <v>1013898.462784316</v>
       </c>
       <c r="X5">
-        <v>1142548.9251840981</v>
+        <v>1142548.925184098</v>
       </c>
       <c r="Y5">
-        <v>1271570.3211937239</v>
+        <v>1271570.321193724</v>
       </c>
       <c r="Z5">
-        <v>1401065.7781340829</v>
+        <v>1401065.778134083</v>
       </c>
       <c r="AA5">
         <v>1437352.275986708</v>
       </c>
       <c r="AB5">
-        <v>1474434.3769820179</v>
+        <v>1474434.376982018</v>
       </c>
       <c r="AC5">
         <v>1512549.484932221</v>
       </c>
       <c r="AD5">
-        <v>1551997.6958424009</v>
+        <v>1551997.695842401</v>
       </c>
       <c r="AE5">
-        <v>1593147.1139840209</v>
+        <v>1593147.113984021</v>
       </c>
       <c r="AF5">
-        <v>1605025.7527881539</v>
+        <v>1605025.752788154</v>
       </c>
       <c r="AG5">
         <v>1619120.195149699</v>
@@ -3041,7 +2985,7 @@
         <v>1681071.556423503</v>
       </c>
       <c r="AK5">
-        <v>1723238.8251829201</v>
+        <v>1723238.82518292</v>
       </c>
       <c r="AL5">
         <v>1770488.341226575</v>
@@ -3050,25 +2994,25 @@
         <v>1822977.438645626</v>
       </c>
       <c r="AN5">
-        <v>1880625.4958745469</v>
+        <v>1880625.495874547</v>
       </c>
       <c r="AO5">
         <v>1943074.379523759</v>
       </c>
       <c r="AP5">
-        <v>2027785.2588189391</v>
+        <v>2027785.258818939</v>
       </c>
       <c r="AQ5">
-        <v>2115787.0491175591</v>
+        <v>2115787.049117559</v>
       </c>
       <c r="AR5">
-        <v>2205983.4425538532</v>
+        <v>2205983.442553853</v>
       </c>
       <c r="AS5">
         <v>2297134.382648035</v>
       </c>
       <c r="AT5">
-        <v>2387949.4881002922</v>
+        <v>2387949.488100292</v>
       </c>
       <c r="AU5">
         <v>2482380.914038972</v>
@@ -3077,22 +3021,22 @@
         <v>2574141.870835131</v>
       </c>
       <c r="AW5">
-        <v>2662359.8026580331</v>
+        <v>2662359.802658033</v>
       </c>
       <c r="AX5">
-        <v>2746437.2014744412</v>
+        <v>2746437.201474441</v>
       </c>
       <c r="AY5">
         <v>2826078.256304035</v>
       </c>
       <c r="AZ5">
-        <v>2898194.7289329362</v>
+        <v>2898194.728932936</v>
       </c>
       <c r="BA5">
-        <v>2966175.4741443358</v>
+        <v>2966175.474144336</v>
       </c>
       <c r="BB5">
-        <v>3030559.8539828719</v>
+        <v>3030559.853982872</v>
       </c>
       <c r="BC5">
         <v>3092079.18763809</v>
@@ -3101,10 +3045,10 @@
         <v>3151587.966858</v>
       </c>
       <c r="BE5">
-        <v>3208253.6404401362</v>
+        <v>3208253.640440136</v>
       </c>
       <c r="BF5">
-        <v>3264682.4753169082</v>
+        <v>3264682.475316908</v>
       </c>
       <c r="BG5">
         <v>3321654.161971712</v>
@@ -3113,99 +3057,98 @@
         <v>3379808.901369378</v>
       </c>
       <c r="BI5">
-        <v>3439620.2041891818</v>
+        <v>3439620.204189182</v>
       </c>
       <c r="BJ5">
-        <v>3501088.7882643598</v>
+        <v>3501088.78826436</v>
       </c>
       <c r="BK5">
-        <v>3564631.7451358512</v>
+        <v>3564631.745135851</v>
       </c>
       <c r="BL5">
-        <v>3630205.6598804742</v>
+        <v>3630205.659880474</v>
       </c>
       <c r="BM5">
-        <v>3697619.7843724098</v>
+        <v>3697619.78437241</v>
       </c>
       <c r="BN5">
-        <v>3766559.7430701558</v>
+        <v>3766559.743070156</v>
       </c>
       <c r="BO5">
-        <v>3836634.2795564821</v>
+        <v>3836634.279556482</v>
       </c>
       <c r="BP5">
-        <v>3907355.3799108728</v>
+        <v>3907355.379910873</v>
       </c>
       <c r="BQ5">
-        <v>3978224.4939981601</v>
+        <v>3978224.49399816</v>
       </c>
       <c r="BR5">
         <v>4048747.247662154</v>
       </c>
       <c r="BS5">
-        <v>4118462.3965097792</v>
+        <v>4118462.396509779</v>
       </c>
       <c r="BT5">
-        <v>4186456.8935984932</v>
+        <v>4186456.893598493</v>
       </c>
       <c r="BU5">
         <v>4252913.086242171</v>
       </c>
       <c r="BV5">
-        <v>4317592.6890331488</v>
+        <v>4317592.689033149</v>
       </c>
       <c r="BW5">
-        <v>4380351.2896454697</v>
+        <v>4380351.28964547</v>
       </c>
       <c r="BX5">
-        <v>4441136.0720304698</v>
+        <v>4441136.07203047</v>
       </c>
       <c r="BY5">
-        <v>4499125.2234142721</v>
+        <v>4499125.223414272</v>
       </c>
       <c r="BZ5">
-        <v>4555269.5519059654</v>
+        <v>4555269.551905965</v>
       </c>
       <c r="CA5">
         <v>4609719.087659291</v>
       </c>
       <c r="CB5">
-        <v>4662655.3573365444</v>
+        <v>4662655.357336544</v>
       </c>
       <c r="CC5">
-        <v>4714271.3770249989</v>
+        <v>4714271.377024999</v>
       </c>
       <c r="CD5">
-        <v>4763315.4606325999</v>
+        <v>4763315.4606326</v>
       </c>
       <c r="CE5">
-        <v>4811387.4759600107</v>
+        <v>4811387.475960011</v>
       </c>
       <c r="CF5">
-        <v>4858613.9407278411</v>
+        <v>4858613.940727841</v>
       </c>
       <c r="CG5">
-        <v>4905077.6226366088</v>
+        <v>4905077.622636609</v>
       </c>
       <c r="CH5">
-        <v>4950814.1360269664</v>
+        <v>4950814.136026966</v>
       </c>
       <c r="CI5">
-        <v>4993563.9983177958</v>
+        <v>4993563.998317796</v>
       </c>
       <c r="CJ5">
-        <v>5035523.4998156736</v>
+        <v>5035523.499815674</v>
       </c>
       <c r="CK5">
-        <v>5076605.4436245495</v>
+        <v>5076605.44362455</v>
       </c>
       <c r="CL5">
-        <v>5116697.1664317939</v>
+        <v>5116697.166431794</v>
       </c>
       <c r="CM5">
         <v>5155670.619465922</v>
       </c>
-      <c r="CQ5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,14 +3156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3492,7 +3435,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3500,184 +3443,184 @@
         <v>1.361094752211504E-11</v>
       </c>
       <c r="C2">
-        <v>1.4776713083185401E-10</v>
+        <v>1.47767130831854E-10</v>
       </c>
       <c r="D2">
-        <v>1.2280825534224659E-9</v>
+        <v>1.228082553422466E-09</v>
       </c>
       <c r="E2">
-        <v>8.5583518513923006E-9</v>
+        <v>8.558351851392301E-09</v>
       </c>
       <c r="F2">
-        <v>5.1515702893317137E-8</v>
+        <v>5.151570289331714E-08</v>
       </c>
       <c r="G2">
-        <v>2.7331891240712579E-7</v>
+        <v>2.733189124071258E-07</v>
       </c>
       <c r="H2">
-        <v>1.2989260297272229E-6</v>
+        <v>1.298926029727223E-06</v>
       </c>
       <c r="I2">
-        <v>5.6028911869968724E-6</v>
+        <v>5.602891186996872E-06</v>
       </c>
       <c r="J2">
-        <v>2.2172168921572389E-5</v>
+        <v>2.217216892157239E-05</v>
       </c>
       <c r="K2">
-        <v>8.1156278419714699E-5</v>
+        <v>8.11562784197147E-05</v>
       </c>
       <c r="L2">
-        <v>2.7600886325149102E-4</v>
+        <v>0.000276008863251491</v>
       </c>
       <c r="M2">
-        <v>8.7010382068035538E-4</v>
+        <v>0.0008701038206803554</v>
       </c>
       <c r="N2">
-        <v>2.500737068081293E-3</v>
+        <v>0.002500737068081293</v>
       </c>
       <c r="O2">
-        <v>1.266175904889716E-2</v>
+        <v>0.01266175904889716</v>
       </c>
       <c r="P2">
-        <v>4.8702476503547733E-2</v>
+        <v>0.04870247650354773</v>
       </c>
       <c r="Q2">
         <v>0.1132731781075357</v>
       </c>
       <c r="R2">
-        <v>0.19046375228409829</v>
+        <v>0.1904637522840983</v>
       </c>
       <c r="S2">
-        <v>0.29058837426045159</v>
+        <v>0.2905883742604516</v>
       </c>
       <c r="T2">
-        <v>0.44371010442308312</v>
+        <v>0.4437101044230831</v>
       </c>
       <c r="U2">
-        <v>0.67695096126300058</v>
+        <v>0.6769509612630006</v>
       </c>
       <c r="V2">
-        <v>1.0440312985834621</v>
+        <v>1.044031298583462</v>
       </c>
       <c r="W2">
-        <v>1.6016485280598749</v>
+        <v>1.601648528059875</v>
       </c>
       <c r="X2">
-        <v>2.3721945059893881</v>
+        <v>2.372194505989388</v>
       </c>
       <c r="Y2">
-        <v>3.4028018371805699</v>
+        <v>3.40280183718057</v>
       </c>
       <c r="Z2">
-        <v>4.7569774261621038</v>
+        <v>4.756977426162104</v>
       </c>
       <c r="AA2">
-        <v>6.3720040430630327</v>
+        <v>6.372004043063033</v>
       </c>
       <c r="AB2">
-        <v>8.2978343123052749</v>
+        <v>8.297834312305275</v>
       </c>
       <c r="AC2">
-        <v>10.707699718824969</v>
+        <v>10.70769971882497</v>
       </c>
       <c r="AD2">
         <v>13.567523319373</v>
       </c>
       <c r="AE2">
-        <v>17.000596637869869</v>
+        <v>17.00059663786987</v>
       </c>
       <c r="AF2">
-        <v>20.795807745681731</v>
+        <v>20.79580774568173</v>
       </c>
       <c r="AG2">
-        <v>24.880137447050629</v>
+        <v>24.88013744705063</v>
       </c>
       <c r="AH2">
         <v>29.92818608774343</v>
       </c>
       <c r="AI2">
-        <v>36.596100250182722</v>
+        <v>36.59610025018272</v>
       </c>
       <c r="AJ2">
-        <v>44.846097265279667</v>
+        <v>44.84609726527967</v>
       </c>
       <c r="AK2">
-        <v>55.616254884000092</v>
+        <v>55.61625488400009</v>
       </c>
       <c r="AL2">
-        <v>70.059083914059173</v>
+        <v>70.05908391405917</v>
       </c>
       <c r="AM2">
-        <v>89.789866580533669</v>
+        <v>89.78986658053367</v>
       </c>
       <c r="AN2">
         <v>116.6120333952198</v>
       </c>
       <c r="AO2">
-        <v>148.82193038329731</v>
+        <v>148.8219303832973</v>
       </c>
       <c r="AP2">
-        <v>184.41314052161761</v>
+        <v>184.4131405216176</v>
       </c>
       <c r="AQ2">
         <v>223.1854325603135</v>
       </c>
       <c r="AR2">
-        <v>264.90641467415219</v>
+        <v>264.9064146741522</v>
       </c>
       <c r="AS2">
-        <v>309.35917055364968</v>
+        <v>309.3591705536497</v>
       </c>
       <c r="AT2">
-        <v>356.84232015531899</v>
+        <v>356.842320155319</v>
       </c>
       <c r="AU2">
-        <v>406.99217677928789</v>
+        <v>406.9921767792879</v>
       </c>
       <c r="AV2">
-        <v>457.29457548258819</v>
+        <v>457.2945754825882</v>
       </c>
       <c r="AW2">
-        <v>502.53316367485189</v>
+        <v>502.5331636748519</v>
       </c>
       <c r="AX2">
-        <v>538.39915537186607</v>
+        <v>538.3991553718661</v>
       </c>
       <c r="AY2">
-        <v>569.79396690082137</v>
+        <v>569.7939669008214</v>
       </c>
       <c r="AZ2">
-        <v>602.08808090986395</v>
+        <v>602.0880809098639</v>
       </c>
       <c r="BA2">
-        <v>634.75885013683433</v>
+        <v>634.7588501368343</v>
       </c>
       <c r="BB2">
-        <v>665.64660917463652</v>
+        <v>665.6466091746365</v>
       </c>
       <c r="BC2">
-        <v>693.06397981251052</v>
+        <v>693.0639798125105</v>
       </c>
       <c r="BD2">
-        <v>719.59098277456781</v>
+        <v>719.5909827745678</v>
       </c>
       <c r="BE2">
-        <v>748.71666433084397</v>
+        <v>748.716664330844</v>
       </c>
       <c r="BF2">
-        <v>782.32173310873782</v>
+        <v>782.3217331087378</v>
       </c>
       <c r="BG2">
-        <v>822.79266515439485</v>
+        <v>822.7926651543949</v>
       </c>
       <c r="BH2">
-        <v>872.91166819157843</v>
+        <v>872.9116681915784</v>
       </c>
       <c r="BI2">
-        <v>934.05179098189797</v>
+        <v>934.051790981898</v>
       </c>
       <c r="BJ2">
-        <v>1007.5870556743311</v>
+        <v>1007.587055674331</v>
       </c>
       <c r="BK2">
         <v>1095.517098639574</v>
@@ -3689,22 +3632,22 @@
         <v>1318.319167643519</v>
       </c>
       <c r="BN2">
-        <v>1449.7083287982091</v>
+        <v>1449.708328798209</v>
       </c>
       <c r="BO2">
-        <v>1590.0958976434181</v>
+        <v>1590.095897643418</v>
       </c>
       <c r="BP2">
-        <v>1739.0225099508791</v>
+        <v>1739.022509950879</v>
       </c>
       <c r="BQ2">
-        <v>1895.9600513409589</v>
+        <v>1895.960051340959</v>
       </c>
       <c r="BR2">
-        <v>2058.4813381557669</v>
+        <v>2058.481338155767</v>
       </c>
       <c r="BS2">
-        <v>2220.6853587992282</v>
+        <v>2220.685358799228</v>
       </c>
       <c r="BT2">
         <v>2376.198840932761</v>
@@ -3713,61 +3656,61 @@
         <v>2522.978525812719</v>
       </c>
       <c r="BV2">
-        <v>2664.3129087740972</v>
+        <v>2664.312908774097</v>
       </c>
       <c r="BW2">
-        <v>2804.2970126944301</v>
+        <v>2804.29701269443</v>
       </c>
       <c r="BX2">
         <v>2944.585378103402</v>
       </c>
       <c r="BY2">
-        <v>3084.6941372456122</v>
+        <v>3084.694137245612</v>
       </c>
       <c r="BZ2">
-        <v>3224.7180639893149</v>
+        <v>3224.718063989315</v>
       </c>
       <c r="CA2">
         <v>3367.565692976455</v>
       </c>
       <c r="CB2">
-        <v>3517.8379388568269</v>
+        <v>3517.837938856827</v>
       </c>
       <c r="CC2">
-        <v>3681.0961815383321</v>
+        <v>3681.096181538332</v>
       </c>
       <c r="CD2">
         <v>3862.485939884536</v>
       </c>
       <c r="CE2">
-        <v>4065.7593512674562</v>
+        <v>4065.759351267456</v>
       </c>
       <c r="CF2">
-        <v>4293.4386371058636</v>
+        <v>4293.438637105864</v>
       </c>
       <c r="CG2">
-        <v>4547.5485910398129</v>
+        <v>4547.548591039813</v>
       </c>
       <c r="CH2">
-        <v>4830.5080186454852</v>
+        <v>4830.508018645485</v>
       </c>
       <c r="CI2">
-        <v>5143.1101500784862</v>
+        <v>5143.110150078486</v>
       </c>
       <c r="CJ2">
-        <v>5482.9433635077776</v>
+        <v>5482.943363507778</v>
       </c>
       <c r="CK2">
-        <v>5845.2721015261213</v>
+        <v>5845.272101526121</v>
       </c>
       <c r="CL2">
-        <v>6225.5210782375934</v>
+        <v>6225.521078237593</v>
       </c>
       <c r="CM2">
-        <v>6620.8939121604853</v>
+        <v>6620.893912160485</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3811,49 +3754,49 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.025746228157005E-2</v>
+        <v>0.01025746228157005</v>
       </c>
       <c r="P3">
-        <v>4.6953203797427588E-2</v>
+        <v>0.04695320379742759</v>
       </c>
       <c r="Q3">
         <v>0.1129089680411785</v>
       </c>
       <c r="R3">
-        <v>0.19159153193877099</v>
+        <v>0.191591531938771</v>
       </c>
       <c r="S3">
-        <v>0.29284315462954991</v>
+        <v>0.2928431546295499</v>
       </c>
       <c r="T3">
-        <v>0.44534168465740892</v>
+        <v>0.4453416846574089</v>
       </c>
       <c r="U3">
         <v>0.6717812507200378</v>
       </c>
       <c r="V3">
-        <v>1.0177347507570169</v>
+        <v>1.017734750757017</v>
       </c>
       <c r="W3">
-        <v>1.5301896036304421</v>
+        <v>1.530189603630442</v>
       </c>
       <c r="X3">
         <v>2.223303343462856</v>
       </c>
       <c r="Y3">
-        <v>3.1335027150177019</v>
+        <v>3.133502715017702</v>
       </c>
       <c r="Z3">
-        <v>4.3107716017438076</v>
+        <v>4.310771601743808</v>
       </c>
       <c r="AA3">
-        <v>5.6957983564695089</v>
+        <v>5.695798356469509</v>
       </c>
       <c r="AB3">
-        <v>7.3277915821486106</v>
+        <v>7.327791582148611</v>
       </c>
       <c r="AC3">
-        <v>9.3484840398566966</v>
+        <v>9.348484039856697</v>
       </c>
       <c r="AD3">
         <v>11.7236469914066</v>
@@ -3862,31 +3805,31 @@
         <v>14.54975174976434</v>
       </c>
       <c r="AF3">
-        <v>17.647664450986269</v>
+        <v>17.64766445098627</v>
       </c>
       <c r="AG3">
         <v>20.95393735749116</v>
       </c>
       <c r="AH3">
-        <v>25.005927764040241</v>
+        <v>25.00592776404024</v>
       </c>
       <c r="AI3">
-        <v>30.311055763691051</v>
+        <v>30.31105576369105</v>
       </c>
       <c r="AJ3">
-        <v>36.813142700766939</v>
+        <v>36.81314270076694</v>
       </c>
       <c r="AK3">
-        <v>45.214540673529513</v>
+        <v>45.21454067352951</v>
       </c>
       <c r="AL3">
-        <v>56.353977373502303</v>
+        <v>56.3539773735023</v>
       </c>
       <c r="AM3">
-        <v>71.382309518235942</v>
+        <v>71.38230951823594</v>
       </c>
       <c r="AN3">
-        <v>91.529940245170081</v>
+        <v>91.52994024517008</v>
       </c>
       <c r="AO3">
         <v>115.3552035846418</v>
@@ -3895,79 +3838,79 @@
         <v>141.295585972244</v>
       </c>
       <c r="AQ3">
-        <v>169.21708582603819</v>
+        <v>169.2170858260382</v>
       </c>
       <c r="AR3">
-        <v>198.98326275283779</v>
+        <v>198.9832627528378</v>
       </c>
       <c r="AS3">
         <v>230.4851540190007</v>
       </c>
       <c r="AT3">
-        <v>263.98942840422058</v>
+        <v>263.9894284042206</v>
       </c>
       <c r="AU3">
-        <v>299.30206141056948</v>
+        <v>299.3020614105695</v>
       </c>
       <c r="AV3">
-        <v>334.72147343938377</v>
+        <v>334.7214734393838</v>
       </c>
       <c r="AW3">
-        <v>366.63372879551162</v>
+        <v>366.6337287955116</v>
       </c>
       <c r="AX3">
-        <v>392.02240915358323</v>
+        <v>392.0224091535832</v>
       </c>
       <c r="AY3">
-        <v>414.35543133381162</v>
+        <v>414.3554313338116</v>
       </c>
       <c r="AZ3">
-        <v>437.46981694809801</v>
+        <v>437.469816948098</v>
       </c>
       <c r="BA3">
-        <v>461.02263296148419</v>
+        <v>461.0226329614842</v>
       </c>
       <c r="BB3">
-        <v>483.47040607556528</v>
+        <v>483.4704060755653</v>
       </c>
       <c r="BC3">
-        <v>503.57174468465229</v>
+        <v>503.5717446846523</v>
       </c>
       <c r="BD3">
-        <v>523.20287278702119</v>
+        <v>523.2028727870212</v>
       </c>
       <c r="BE3">
-        <v>544.96893922170136</v>
+        <v>544.9689392217014</v>
       </c>
       <c r="BF3">
-        <v>570.33739947634081</v>
+        <v>570.3373994763408</v>
       </c>
       <c r="BG3">
-        <v>601.20569548590402</v>
+        <v>601.205695485904</v>
       </c>
       <c r="BH3">
-        <v>639.83424727100021</v>
+        <v>639.8342472710002</v>
       </c>
       <c r="BI3">
-        <v>687.45457305595198</v>
+        <v>687.454573055952</v>
       </c>
       <c r="BJ3">
-        <v>745.33306069256071</v>
+        <v>745.3330606925607</v>
       </c>
       <c r="BK3">
-        <v>815.26666472021623</v>
+        <v>815.2666647202162</v>
       </c>
       <c r="BL3">
-        <v>898.48584290544352</v>
+        <v>898.4858429054435</v>
       </c>
       <c r="BM3">
-        <v>995.28414926150458</v>
+        <v>995.2841492615046</v>
       </c>
       <c r="BN3">
         <v>1103.014254223074</v>
       </c>
       <c r="BO3">
-        <v>1219.2535516053069</v>
+        <v>1219.253551605307</v>
       </c>
       <c r="BP3">
         <v>1343.746751341112</v>
@@ -3979,37 +3922,37 @@
         <v>1614.54073612928</v>
       </c>
       <c r="BS3">
-        <v>1753.8679838336791</v>
+        <v>1753.867983833679</v>
       </c>
       <c r="BT3">
-        <v>1888.5930822758221</v>
+        <v>1888.593082275822</v>
       </c>
       <c r="BU3">
         <v>2016.807036052254</v>
       </c>
       <c r="BV3">
-        <v>2141.2551404616602</v>
+        <v>2141.25514046166</v>
       </c>
       <c r="BW3">
-        <v>2265.4697317983582</v>
+        <v>2265.469731798358</v>
       </c>
       <c r="BX3">
-        <v>2390.8854461125138</v>
+        <v>2390.885446112514</v>
       </c>
       <c r="BY3">
         <v>2517.043823573586</v>
       </c>
       <c r="BZ3">
-        <v>2644.0015609911052</v>
+        <v>2644.001560991105</v>
       </c>
       <c r="CA3">
         <v>2774.385317440569</v>
       </c>
       <c r="CB3">
-        <v>2912.4276313943319</v>
+        <v>2912.427631394332</v>
       </c>
       <c r="CC3">
-        <v>3063.3255589772371</v>
+        <v>3063.325558977237</v>
       </c>
       <c r="CD3">
         <v>3231.976861860092</v>
@@ -4021,28 +3964,28 @@
         <v>3636.108291860151</v>
       </c>
       <c r="CG3">
-        <v>3876.2648300343972</v>
+        <v>3876.264830034397</v>
       </c>
       <c r="CH3">
-        <v>4145.0264256850578</v>
+        <v>4145.026425685058</v>
       </c>
       <c r="CI3">
-        <v>4443.3668536636114</v>
+        <v>4443.366853663611</v>
       </c>
       <c r="CJ3">
-        <v>4769.1829349755862</v>
+        <v>4769.182934975586</v>
       </c>
       <c r="CK3">
-        <v>5118.0885159413201</v>
+        <v>5118.08851594132</v>
       </c>
       <c r="CL3">
-        <v>5485.7820899925318</v>
+        <v>5485.782089992532</v>
       </c>
       <c r="CM3">
-        <v>5869.6258734506691</v>
+        <v>5869.625873450669</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4050,10 +3993,10 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.32763760933867159</v>
+        <v>0.3276376093386716</v>
       </c>
       <c r="D4">
-        <v>0.70091266982189038</v>
+        <v>0.7009126698218904</v>
       </c>
       <c r="E4">
         <v>1.344325349791806</v>
@@ -4062,73 +4005,73 @@
         <v>2.432504920339047</v>
       </c>
       <c r="G4">
-        <v>4.2406241314908142</v>
+        <v>4.240624131490814</v>
       </c>
       <c r="H4">
-        <v>7.1986887565100179</v>
+        <v>7.198688756510018</v>
       </c>
       <c r="I4">
-        <v>11.996803173375101</v>
+        <v>11.9968031733751</v>
       </c>
       <c r="J4">
         <v>19.83295250581709</v>
       </c>
       <c r="K4">
-        <v>33.046734713097699</v>
+        <v>33.0467347130977</v>
       </c>
       <c r="L4">
-        <v>56.675134285625937</v>
+        <v>56.67513428562594</v>
       </c>
       <c r="M4">
         <v>101.514750209239</v>
       </c>
       <c r="N4">
-        <v>186.15692810806081</v>
+        <v>186.1569281080608</v>
       </c>
       <c r="O4">
-        <v>328.34255450777817</v>
+        <v>328.3425545077782</v>
       </c>
       <c r="P4">
-        <v>514.11756818645142</v>
+        <v>514.1175681864514</v>
       </c>
       <c r="Q4">
-        <v>731.68249006428903</v>
+        <v>731.682490064289</v>
       </c>
       <c r="R4">
-        <v>994.23640839149641</v>
+        <v>994.2364083914964</v>
       </c>
       <c r="S4">
-        <v>1321.4156711950641</v>
+        <v>1321.415671195064</v>
       </c>
       <c r="T4">
         <v>1731.30241998528</v>
       </c>
       <c r="U4">
-        <v>2239.9465228115241</v>
+        <v>2239.946522811524</v>
       </c>
       <c r="V4">
-        <v>2873.6340621771842</v>
+        <v>2873.634062177184</v>
       </c>
       <c r="W4">
-        <v>3658.4339881412038</v>
+        <v>3658.433988141204</v>
       </c>
       <c r="X4">
-        <v>4603.4640810177052</v>
+        <v>4603.464081017705</v>
       </c>
       <c r="Y4">
-        <v>5743.1203697959581</v>
+        <v>5743.120369795958</v>
       </c>
       <c r="Z4">
-        <v>7125.2044502154658</v>
+        <v>7125.204450215466</v>
       </c>
       <c r="AA4">
-        <v>8798.0989411366063</v>
+        <v>8798.098941136606</v>
       </c>
       <c r="AB4">
-        <v>10881.621381370111</v>
+        <v>10881.62138137011</v>
       </c>
       <c r="AC4">
-        <v>13479.110570328459</v>
+        <v>13479.11057032846</v>
       </c>
       <c r="AD4">
         <v>16641.7835485832</v>
@@ -4137,16 +4080,16 @@
         <v>20535.20801253826</v>
       </c>
       <c r="AF4">
-        <v>25409.627164938029</v>
+        <v>25409.62716493803</v>
       </c>
       <c r="AG4">
         <v>31580.42738614781</v>
       </c>
       <c r="AH4">
-        <v>39402.690787580708</v>
+        <v>39402.69078758071</v>
       </c>
       <c r="AI4">
-        <v>49255.526145540032</v>
+        <v>49255.52614554003</v>
       </c>
       <c r="AJ4">
         <v>61707.73209951329</v>
@@ -4155,103 +4098,103 @@
         <v>77403.92670368425</v>
       </c>
       <c r="AL4">
-        <v>96732.593589468583</v>
+        <v>96732.59358946858</v>
       </c>
       <c r="AM4">
-        <v>120281.97331462101</v>
+        <v>120281.973314621</v>
       </c>
       <c r="AN4">
-        <v>148567.09189661339</v>
+        <v>148567.0918966134</v>
       </c>
       <c r="AO4">
-        <v>180782.35994032159</v>
+        <v>180782.3599403216</v>
       </c>
       <c r="AP4">
-        <v>215972.33669194661</v>
+        <v>215972.3366919466</v>
       </c>
       <c r="AQ4">
-        <v>253708.63240806991</v>
+        <v>253708.6324080699</v>
       </c>
       <c r="AR4">
-        <v>293438.44793154288</v>
+        <v>293438.4479315429</v>
       </c>
       <c r="AS4">
-        <v>334504.41705595521</v>
+        <v>334504.4170559552</v>
       </c>
       <c r="AT4">
         <v>376291.71409922</v>
       </c>
       <c r="AU4">
-        <v>418026.28113911039</v>
+        <v>418026.2811391104</v>
       </c>
       <c r="AV4">
-        <v>458571.46632362448</v>
+        <v>458571.4663236245</v>
       </c>
       <c r="AW4">
-        <v>496450.57386511011</v>
+        <v>496450.5738651101</v>
       </c>
       <c r="AX4">
-        <v>530593.47293573106</v>
+        <v>530593.4729357311</v>
       </c>
       <c r="AY4">
-        <v>561751.76282109926</v>
+        <v>561751.7628210993</v>
       </c>
       <c r="AZ4">
-        <v>590798.40437332855</v>
+        <v>590798.4043733286</v>
       </c>
       <c r="BA4">
-        <v>617732.32186109002</v>
+        <v>617732.32186109</v>
       </c>
       <c r="BB4">
-        <v>642561.78392509813</v>
+        <v>642561.7839250981</v>
       </c>
       <c r="BC4">
-        <v>665562.45958762756</v>
+        <v>665562.4595876276</v>
       </c>
       <c r="BD4">
-        <v>687593.04289465875</v>
+        <v>687593.0428946587</v>
       </c>
       <c r="BE4">
-        <v>709669.73537377582</v>
+        <v>709669.7353737758</v>
       </c>
       <c r="BF4">
-        <v>732712.79703530588</v>
+        <v>732712.7970353059</v>
       </c>
       <c r="BG4">
-        <v>757761.74501235865</v>
+        <v>757761.7450123586</v>
       </c>
       <c r="BH4">
-        <v>785823.87738494936</v>
+        <v>785823.8773849494</v>
       </c>
       <c r="BI4">
-        <v>817519.95367062115</v>
+        <v>817519.9536706212</v>
       </c>
       <c r="BJ4">
-        <v>853286.38351028552</v>
+        <v>853286.3835102855</v>
       </c>
       <c r="BK4">
-        <v>893400.38430100167</v>
+        <v>893400.3843010017</v>
       </c>
       <c r="BL4">
-        <v>937752.66923912067</v>
+        <v>937752.6692391207</v>
       </c>
       <c r="BM4">
-        <v>985982.90897701844</v>
+        <v>985982.9089770184</v>
       </c>
       <c r="BN4">
         <v>1037426.427670502</v>
       </c>
       <c r="BO4">
-        <v>1091469.9323967469</v>
+        <v>1091469.932396747</v>
       </c>
       <c r="BP4">
-        <v>1147692.7389294249</v>
+        <v>1147692.738929425</v>
       </c>
       <c r="BQ4">
         <v>1205598.930205717</v>
       </c>
       <c r="BR4">
-        <v>1264470.2449559991</v>
+        <v>1264470.244955999</v>
       </c>
       <c r="BS4">
         <v>1323289.069094792</v>
@@ -4260,25 +4203,25 @@
         <v>1381088.047491</v>
       </c>
       <c r="BU4">
-        <v>1437426.1415442249</v>
+        <v>1437426.141544225</v>
       </c>
       <c r="BV4">
-        <v>1492453.2149319861</v>
+        <v>1492453.214931986</v>
       </c>
       <c r="BW4">
-        <v>1546430.4533609441</v>
+        <v>1546430.453360944</v>
       </c>
       <c r="BX4">
         <v>1599430.705819343</v>
       </c>
       <c r="BY4">
-        <v>1651441.5337852321</v>
+        <v>1651441.533785232</v>
       </c>
       <c r="BZ4">
         <v>1702577.978452632</v>
       </c>
       <c r="CA4">
-        <v>1753184.4853985971</v>
+        <v>1753184.485398597</v>
       </c>
       <c r="CB4">
         <v>1803785.401376782</v>
@@ -4290,10 +4233,10 @@
         <v>1907799.841925184</v>
       </c>
       <c r="CE4">
-        <v>1962593.8531152289</v>
+        <v>1962593.853115229</v>
       </c>
       <c r="CF4">
-        <v>2019891.1277416239</v>
+        <v>2019891.127741624</v>
       </c>
       <c r="CG4">
         <v>2079953.551488772</v>
@@ -4302,51 +4245,51 @@
         <v>2142902.1707253</v>
       </c>
       <c r="CI4">
-        <v>2208643.3197112861</v>
+        <v>2208643.319711286</v>
       </c>
       <c r="CJ4">
-        <v>2276878.2971707392</v>
+        <v>2276878.297170739</v>
       </c>
       <c r="CK4">
-        <v>2347215.9139260012</v>
+        <v>2347215.913926001</v>
       </c>
       <c r="CL4">
-        <v>2419290.9782911022</v>
+        <v>2419290.978291102</v>
       </c>
       <c r="CM4">
         <v>2492792.651792659</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4481658948904773E-3</v>
+        <v>0.004448165894890477</v>
       </c>
       <c r="C5">
-        <v>1.251016984047165E-2</v>
+        <v>0.01251016984047165</v>
       </c>
       <c r="D5">
-        <v>2.6646536593790651E-2</v>
+        <v>0.02664653659379065</v>
       </c>
       <c r="E5">
-        <v>5.0855418056013561E-2</v>
+        <v>0.05085541805601356</v>
       </c>
       <c r="F5">
-        <v>9.1518144963042281E-2</v>
+        <v>0.09151814496304228</v>
       </c>
       <c r="G5">
         <v>0.158518510702163</v>
       </c>
       <c r="H5">
-        <v>0.26664621825775509</v>
+        <v>0.2666462182577551</v>
       </c>
       <c r="I5">
-        <v>0.43729755041328477</v>
+        <v>0.4372975504132848</v>
       </c>
       <c r="J5">
-        <v>0.70049385169327105</v>
+        <v>0.7004938516932711</v>
       </c>
       <c r="K5">
         <v>1.097206744066711</v>
@@ -4355,22 +4298,22 @@
         <v>1.681901111190317</v>
       </c>
       <c r="M5">
-        <v>2.5251449483088879</v>
+        <v>2.525144948308888</v>
       </c>
       <c r="N5">
         <v>3.716096542169776</v>
       </c>
       <c r="O5">
-        <v>9.1067523315241026</v>
+        <v>9.106752331524103</v>
       </c>
       <c r="P5">
-        <v>21.465048466947369</v>
+        <v>21.46504846694737</v>
       </c>
       <c r="Q5">
-        <v>44.486312833945512</v>
+        <v>44.48631283394551</v>
       </c>
       <c r="R5">
-        <v>82.878562587350075</v>
+        <v>82.87856258735007</v>
       </c>
       <c r="S5">
         <v>142.4206276137744</v>
@@ -4379,13 +4322,13 @@
         <v>230.0324060953435</v>
       </c>
       <c r="U5">
-        <v>353.91335319498751</v>
+        <v>353.9133531949875</v>
       </c>
       <c r="V5">
-        <v>524.82975856842586</v>
+        <v>524.8297585684259</v>
       </c>
       <c r="W5">
-        <v>757.95124245061538</v>
+        <v>757.9512424506154</v>
       </c>
       <c r="X5">
         <v>1073.991270581932</v>
@@ -4394,124 +4337,124 @@
         <v>1501.511670583104</v>
       </c>
       <c r="Z5">
-        <v>2079.9468411385078</v>
+        <v>2079.946841138508</v>
       </c>
       <c r="AA5">
-        <v>2863.4261765103402</v>
+        <v>2863.42617651034</v>
       </c>
       <c r="AB5">
-        <v>3925.4112095700038</v>
+        <v>3925.411209570004</v>
       </c>
       <c r="AC5">
-        <v>5364.0337563098828</v>
+        <v>5364.033756309883</v>
       </c>
       <c r="AD5">
-        <v>7307.7894394828336</v>
+        <v>7307.789439482834</v>
       </c>
       <c r="AE5">
-        <v>9921.0181595637769</v>
+        <v>9921.018159563777</v>
       </c>
       <c r="AF5">
         <v>13408.39400212478</v>
       </c>
       <c r="AG5">
-        <v>18017.432997968412</v>
+        <v>18017.43299796841</v>
       </c>
       <c r="AH5">
-        <v>24037.849592221639</v>
+        <v>24037.84959222164</v>
       </c>
       <c r="AI5">
-        <v>31796.491271780469</v>
+        <v>31796.49127178047</v>
       </c>
       <c r="AJ5">
-        <v>41646.655876407727</v>
+        <v>41646.65587640773</v>
       </c>
       <c r="AK5">
-        <v>53950.916380482493</v>
+        <v>53950.91638048249</v>
       </c>
       <c r="AL5">
-        <v>69057.209686818635</v>
+        <v>69057.20968681863</v>
       </c>
       <c r="AM5">
-        <v>87268.952778543869</v>
+        <v>87268.95277854387</v>
       </c>
       <c r="AN5">
         <v>108811.2969402437</v>
       </c>
       <c r="AO5">
-        <v>133797.10055990209</v>
+        <v>133797.1005599021</v>
       </c>
       <c r="AP5">
         <v>162176.8418045498</v>
       </c>
       <c r="AQ5">
-        <v>193708.42022032061</v>
+        <v>193708.4202203206</v>
       </c>
       <c r="AR5">
-        <v>227969.86300746069</v>
+        <v>227969.8630074607</v>
       </c>
       <c r="AS5">
-        <v>264377.39221116318</v>
+        <v>264377.3922111632</v>
       </c>
       <c r="AT5">
-        <v>302223.55317990709</v>
+        <v>302223.5531799071</v>
       </c>
       <c r="AU5">
-        <v>340731.37055592751</v>
+        <v>340731.3705559275</v>
       </c>
       <c r="AV5">
-        <v>379117.74745273072</v>
+        <v>379117.7474527307</v>
       </c>
       <c r="AW5">
-        <v>416658.34723952162</v>
+        <v>416658.3472395216</v>
       </c>
       <c r="AX5">
-        <v>452747.18070648331</v>
+        <v>452747.1807064833</v>
       </c>
       <c r="AY5">
-        <v>486946.32717086998</v>
+        <v>486946.32717087</v>
       </c>
       <c r="AZ5">
-        <v>519023.30897399399</v>
+        <v>519023.308973994</v>
       </c>
       <c r="BA5">
-        <v>548974.48331480857</v>
+        <v>548974.4833148086</v>
       </c>
       <c r="BB5">
-        <v>577032.36350402411</v>
+        <v>577032.3635040241</v>
       </c>
       <c r="BC5">
-        <v>603654.27922197722</v>
+        <v>603654.2792219772</v>
       </c>
       <c r="BD5">
-        <v>629490.89572379494</v>
+        <v>629490.8957237949</v>
       </c>
       <c r="BE5">
-        <v>655336.44361087005</v>
+        <v>655336.44361087</v>
       </c>
       <c r="BF5">
-        <v>682066.82158550539</v>
+        <v>682066.8215855054</v>
       </c>
       <c r="BG5">
-        <v>710574.61534163728</v>
+        <v>710574.6153416373</v>
       </c>
       <c r="BH5">
-        <v>741709.68805834791</v>
+        <v>741709.6880583479</v>
       </c>
       <c r="BI5">
-        <v>776230.52426754462</v>
+        <v>776230.5242675446</v>
       </c>
       <c r="BJ5">
-        <v>814767.11419646756</v>
+        <v>814767.1141964676</v>
       </c>
       <c r="BK5">
         <v>857793.4540198727</v>
       </c>
       <c r="BL5">
-        <v>905607.85209355387</v>
+        <v>905607.8520935539</v>
       </c>
       <c r="BM5">
-        <v>958321.13660097879</v>
+        <v>958321.1366009788</v>
       </c>
       <c r="BN5">
         <v>1015854.424088666</v>
@@ -4520,7 +4463,7 @@
         <v>1077947.975124487</v>
       </c>
       <c r="BP5">
-        <v>1144181.1853009099</v>
+        <v>1144181.18530091</v>
       </c>
       <c r="BQ5">
         <v>1214002.270795167</v>
@@ -4529,13 +4472,13 @@
         <v>1286765.599791741</v>
       </c>
       <c r="BS5">
-        <v>1361774.6872149869</v>
+        <v>1361774.687214987</v>
       </c>
       <c r="BT5">
         <v>1438328.828232873</v>
       </c>
       <c r="BU5">
-        <v>1515770.7590659771</v>
+        <v>1515770.759065977</v>
       </c>
       <c r="BV5">
         <v>1593531.903181314</v>
@@ -4547,19 +4490,19 @@
         <v>1748405.439208823</v>
       </c>
       <c r="BY5">
-        <v>1825125.2527544459</v>
+        <v>1825125.252754446</v>
       </c>
       <c r="BZ5">
-        <v>1901402.2059506259</v>
+        <v>1901402.205950626</v>
       </c>
       <c r="CA5">
-        <v>1977480.9325906599</v>
+        <v>1977480.93259066</v>
       </c>
       <c r="CB5">
-        <v>2053760.8134641971</v>
+        <v>2053760.813464197</v>
       </c>
       <c r="CC5">
-        <v>2130767.2805237742</v>
+        <v>2130767.280523774</v>
       </c>
       <c r="CD5">
         <v>2209115.027639159</v>
@@ -4568,10 +4511,10 @@
         <v>2289466.0707727</v>
       </c>
       <c r="CF5">
-        <v>2372486.1274918308</v>
+        <v>2372486.127491831</v>
       </c>
       <c r="CG5">
-        <v>2458802.7470575678</v>
+        <v>2458802.747057568</v>
       </c>
       <c r="CH5">
         <v>2548968.088627961</v>
@@ -4583,10 +4526,10 @@
         <v>2742502.277917325</v>
       </c>
       <c r="CK5">
-        <v>2846366.5969175752</v>
+        <v>2846366.596917575</v>
       </c>
       <c r="CL5">
-        <v>2955053.6859233938</v>
+        <v>2955053.685923394</v>
       </c>
       <c r="CM5">
         <v>3068456.296250985</v>
@@ -4598,14 +4541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -4877,39 +4820,39 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842539962</v>
+        <v>46.87313184253996</v>
       </c>
       <c r="C2">
-        <v>113.20511862402751</v>
+        <v>113.2051186240275</v>
       </c>
       <c r="D2">
-        <v>177.31405708245089</v>
+        <v>177.3140570824509</v>
       </c>
       <c r="E2">
-        <v>238.18693482573141</v>
+        <v>238.1869348257314</v>
       </c>
       <c r="F2">
-        <v>336.17171435875429</v>
+        <v>336.1717143587543</v>
       </c>
       <c r="G2">
-        <v>406.86687930081371</v>
+        <v>406.8668793008137</v>
       </c>
       <c r="H2">
-        <v>532.64106822844917</v>
+        <v>532.6410682284492</v>
       </c>
       <c r="I2">
-        <v>652.18334710373654</v>
+        <v>652.1833471037365</v>
       </c>
       <c r="J2">
         <v>764.3133564244107</v>
       </c>
       <c r="K2">
-        <v>865.51664742944149</v>
+        <v>865.5166474294415</v>
       </c>
       <c r="L2">
         <v>1075.33404812003</v>
@@ -4921,55 +4864,55 @@
         <v>1497.535652844593</v>
       </c>
       <c r="O2">
-        <v>1799.0952624075819</v>
+        <v>1799.095262407582</v>
       </c>
       <c r="P2">
-        <v>2123.0646401335539</v>
+        <v>2123.064640133554</v>
       </c>
       <c r="Q2">
         <v>2832.338536722672</v>
       </c>
       <c r="R2">
-        <v>3591.7766839530818</v>
+        <v>3591.776683953082</v>
       </c>
       <c r="S2">
-        <v>4401.8932681440492</v>
+        <v>4401.893268144049</v>
       </c>
       <c r="T2">
-        <v>5263.5493497780308</v>
+        <v>5263.549349778031</v>
       </c>
       <c r="U2">
         <v>6177.419092458088</v>
       </c>
       <c r="V2">
-        <v>7095.2989652791894</v>
+        <v>7095.298965279189</v>
       </c>
       <c r="W2">
-        <v>8063.0398662028774</v>
+        <v>8063.039866202877</v>
       </c>
       <c r="X2">
-        <v>9080.9853764187756</v>
+        <v>9080.985376418776</v>
       </c>
       <c r="Y2">
         <v>10150.04732106228</v>
       </c>
       <c r="Z2">
-        <v>11271.490011299609</v>
+        <v>11271.49001129961</v>
       </c>
       <c r="AA2">
-        <v>11792.091700839041</v>
+        <v>11792.09170083904</v>
       </c>
       <c r="AB2">
         <v>12326.31308088699</v>
       </c>
       <c r="AC2">
-        <v>12877.740890079011</v>
+        <v>12877.74089007901</v>
       </c>
       <c r="AD2">
-        <v>13445.883909757271</v>
+        <v>13445.88390975727</v>
       </c>
       <c r="AE2">
-        <v>14033.425274256389</v>
+        <v>14033.42527425639</v>
       </c>
       <c r="AF2">
         <v>14404.58479389266</v>
@@ -4978,13 +4921,13 @@
         <v>14778.37500162904</v>
       </c>
       <c r="AH2">
-        <v>15167.806497488469</v>
+        <v>15167.80649748847</v>
       </c>
       <c r="AI2">
         <v>15585.5794238985</v>
       </c>
       <c r="AJ2">
-        <v>16030.924842854671</v>
+        <v>16030.92484285467</v>
       </c>
       <c r="AK2">
         <v>16621.82425498026</v>
@@ -4993,16 +4936,16 @@
         <v>17280.01588036383</v>
       </c>
       <c r="AM2">
-        <v>18030.840710039149</v>
+        <v>18030.84071003915</v>
       </c>
       <c r="AN2">
-        <v>18900.304966526699</v>
+        <v>18900.3049665267</v>
       </c>
       <c r="AO2">
         <v>19853.71857106447</v>
       </c>
       <c r="AP2">
-        <v>21040.807521195798</v>
+        <v>21040.8075211958</v>
       </c>
       <c r="AQ2">
         <v>22273.52325735351</v>
@@ -5014,7 +4957,7 @@
         <v>24843.07305224759</v>
       </c>
       <c r="AT2">
-        <v>26171.542481402899</v>
+        <v>26171.5424814029</v>
       </c>
       <c r="AU2">
         <v>27561.50216465646</v>
@@ -5023,136 +4966,136 @@
         <v>28935.08528148376</v>
       </c>
       <c r="AW2">
-        <v>30225.187593504579</v>
+        <v>30225.18759350458</v>
       </c>
       <c r="AX2">
         <v>31383.71871056161</v>
       </c>
       <c r="AY2">
-        <v>32476.329396614099</v>
+        <v>32476.3293966141</v>
       </c>
       <c r="AZ2">
-        <v>33515.698412114652</v>
+        <v>33515.69841211465</v>
       </c>
       <c r="BA2">
-        <v>34545.958175535932</v>
+        <v>34545.95817553593</v>
       </c>
       <c r="BB2">
-        <v>35545.628684746218</v>
+        <v>35545.62868474622</v>
       </c>
       <c r="BC2">
-        <v>36501.103056497333</v>
+        <v>36501.10305649733</v>
       </c>
       <c r="BD2">
-        <v>37441.208374741887</v>
+        <v>37441.20837474189</v>
       </c>
       <c r="BE2">
-        <v>38362.480085347728</v>
+        <v>38362.48008534773</v>
       </c>
       <c r="BF2">
-        <v>39317.014518130309</v>
+        <v>39317.01451813031</v>
       </c>
       <c r="BG2">
-        <v>40322.712679648102</v>
+        <v>40322.7126796481</v>
       </c>
       <c r="BH2">
-        <v>41397.905138853013</v>
+        <v>41397.90513885301</v>
       </c>
       <c r="BI2">
-        <v>42547.436378500337</v>
+        <v>42547.43637850034</v>
       </c>
       <c r="BJ2">
-        <v>43753.994699693612</v>
+        <v>43753.99469969361</v>
       </c>
       <c r="BK2">
-        <v>45044.292598812412</v>
+        <v>45044.29259881241</v>
       </c>
       <c r="BL2">
         <v>46418.08831500807</v>
       </c>
       <c r="BM2">
-        <v>47866.927149297117</v>
+        <v>47866.92714929712</v>
       </c>
       <c r="BN2">
-        <v>49361.698389943907</v>
+        <v>49361.69838994391</v>
       </c>
       <c r="BO2">
         <v>50868.06540046903</v>
       </c>
       <c r="BP2">
-        <v>52389.761250862182</v>
+        <v>52389.76125086218</v>
       </c>
       <c r="BQ2">
-        <v>53920.220798880997</v>
+        <v>53920.220798881</v>
       </c>
       <c r="BR2">
-        <v>55444.400792998887</v>
+        <v>55444.40079299889</v>
       </c>
       <c r="BS2">
-        <v>56933.568727645827</v>
+        <v>56933.56872764583</v>
       </c>
       <c r="BT2">
-        <v>58348.379449682929</v>
+        <v>58348.37944968293</v>
       </c>
       <c r="BU2">
         <v>59696.9208248254</v>
       </c>
       <c r="BV2">
-        <v>60996.290499092509</v>
+        <v>60996.29049909251</v>
       </c>
       <c r="BW2">
-        <v>62264.352712484389</v>
+        <v>62264.35271248439</v>
       </c>
       <c r="BX2">
-        <v>63508.170336962467</v>
+        <v>63508.17033696247</v>
       </c>
       <c r="BY2">
-        <v>64715.342617195973</v>
+        <v>64715.34261719597</v>
       </c>
       <c r="BZ2">
-        <v>65898.981456394031</v>
+        <v>65898.98145639403</v>
       </c>
       <c r="CA2">
-        <v>67068.769763668446</v>
+        <v>67068.76976366845</v>
       </c>
       <c r="CB2">
-        <v>68237.555794363521</v>
+        <v>68237.55579436352</v>
       </c>
       <c r="CC2">
-        <v>69418.468936745339</v>
+        <v>69418.46893674534</v>
       </c>
       <c r="CD2">
-        <v>70606.449938508071</v>
+        <v>70606.44993850807</v>
       </c>
       <c r="CE2">
-        <v>71820.518549666944</v>
+        <v>71820.51854966694</v>
       </c>
       <c r="CF2">
-        <v>73061.194722715212</v>
+        <v>73061.19472271521</v>
       </c>
       <c r="CG2">
-        <v>74327.210662676836</v>
+        <v>74327.21066267684</v>
       </c>
       <c r="CH2">
-        <v>75617.400042666122</v>
+        <v>75617.40004266612</v>
       </c>
       <c r="CI2">
-        <v>76904.328693581745</v>
+        <v>76904.32869358175</v>
       </c>
       <c r="CJ2">
-        <v>78200.895733191486</v>
+        <v>78200.89573319149</v>
       </c>
       <c r="CK2">
-        <v>79495.327769046009</v>
+        <v>79495.32776904601</v>
       </c>
       <c r="CL2">
-        <v>80777.876369553705</v>
+        <v>80777.87636955371</v>
       </c>
       <c r="CM2">
-        <v>82042.525681077619</v>
+        <v>82042.52568107762</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5160,52 +5103,52 @@
         <v>16.48416770966605</v>
       </c>
       <c r="C3">
-        <v>39.872157285623103</v>
+        <v>39.8721572856231</v>
       </c>
       <c r="D3">
-        <v>62.451548955012072</v>
+        <v>62.45154895501207</v>
       </c>
       <c r="E3">
-        <v>83.877529216304922</v>
+        <v>83.87752921630492</v>
       </c>
       <c r="F3">
         <v>118.5008986878357</v>
       </c>
       <c r="G3">
-        <v>143.39517309025939</v>
+        <v>143.3951730902594</v>
       </c>
       <c r="H3">
-        <v>187.89710014353781</v>
+        <v>187.8971001435378</v>
       </c>
       <c r="I3">
         <v>230.1565386341407</v>
       </c>
       <c r="J3">
-        <v>269.76672909050052</v>
+        <v>269.7667290905005</v>
       </c>
       <c r="K3">
-        <v>305.47120586454201</v>
+        <v>305.471205864542</v>
       </c>
       <c r="L3">
-        <v>379.87538661469063</v>
+        <v>379.8753866146906</v>
       </c>
       <c r="M3">
-        <v>430.38663733392337</v>
+        <v>430.3866373339234</v>
       </c>
       <c r="N3">
-        <v>529.55911631678691</v>
+        <v>529.5591163167869</v>
       </c>
       <c r="O3">
-        <v>636.61662293267489</v>
+        <v>636.6166229326749</v>
       </c>
       <c r="P3">
-        <v>751.64970271258528</v>
+        <v>751.6497027125853</v>
       </c>
       <c r="Q3">
         <v>1003.948528663056</v>
       </c>
       <c r="R3">
-        <v>1274.1129045222719</v>
+        <v>1274.112904522272</v>
       </c>
       <c r="S3">
         <v>1562.326248306573</v>
@@ -5214,85 +5157,85 @@
         <v>1868.896034308563</v>
       </c>
       <c r="U3">
-        <v>2194.0670989029918</v>
+        <v>2194.067098902992</v>
       </c>
       <c r="V3">
         <v>2520.668486148179</v>
       </c>
       <c r="W3">
-        <v>2865.0516321267628</v>
+        <v>2865.051632126763</v>
       </c>
       <c r="X3">
         <v>3227.348603069689</v>
       </c>
       <c r="Y3">
-        <v>3607.8961264870081</v>
+        <v>3607.896126487008</v>
       </c>
       <c r="Z3">
-        <v>4007.1595122407148</v>
+        <v>4007.159512240715</v>
       </c>
       <c r="AA3">
         <v>4192.380646997266</v>
       </c>
       <c r="AB3">
-        <v>4382.5131337103376</v>
+        <v>4382.513133710338</v>
       </c>
       <c r="AC3">
-        <v>4578.8685752648962</v>
+        <v>4578.868575264896</v>
       </c>
       <c r="AD3">
-        <v>4781.2734115763087</v>
+        <v>4781.273411576309</v>
       </c>
       <c r="AE3">
-        <v>4990.7131168284277</v>
+        <v>4990.713116828428</v>
       </c>
       <c r="AF3">
-        <v>5123.1388602816314</v>
+        <v>5123.138860281631</v>
       </c>
       <c r="AG3">
-        <v>5256.5809219069042</v>
+        <v>5256.580921906904</v>
       </c>
       <c r="AH3">
-        <v>5395.8244351789745</v>
+        <v>5395.824435178974</v>
       </c>
       <c r="AI3">
-        <v>5545.5591263546994</v>
+        <v>5545.559126354699</v>
       </c>
       <c r="AJ3">
-        <v>5705.5350561539772</v>
+        <v>5705.535056153977</v>
       </c>
       <c r="AK3">
-        <v>5918.0559963605838</v>
+        <v>5918.055996360584</v>
       </c>
       <c r="AL3">
-        <v>6155.5902652043824</v>
+        <v>6155.590265204382</v>
       </c>
       <c r="AM3">
-        <v>6427.6963710033733</v>
+        <v>6427.696371003373</v>
       </c>
       <c r="AN3">
-        <v>6744.3005165991699</v>
+        <v>6744.30051659917</v>
       </c>
       <c r="AO3">
-        <v>7092.7725299690383</v>
+        <v>7092.772529969038</v>
       </c>
       <c r="AP3">
-        <v>7525.9772563270844</v>
+        <v>7525.977256327084</v>
       </c>
       <c r="AQ3">
-        <v>7976.8298466739552</v>
+        <v>7976.829846673955</v>
       </c>
       <c r="AR3">
-        <v>8442.2686523999091</v>
+        <v>8442.268652399909</v>
       </c>
       <c r="AS3">
-        <v>8919.3382453184495</v>
+        <v>8919.338245318449</v>
       </c>
       <c r="AT3">
-        <v>9407.9151343748053</v>
+        <v>9407.915134374805</v>
       </c>
       <c r="AU3">
-        <v>9919.3794532427346</v>
+        <v>9919.379453242735</v>
       </c>
       <c r="AV3">
         <v>10425.04851304228</v>
@@ -5301,10 +5244,10 @@
         <v>10899.17361020436</v>
       </c>
       <c r="AX3">
-        <v>11323.140599329739</v>
+        <v>11323.14059932974</v>
       </c>
       <c r="AY3">
-        <v>11721.978453790271</v>
+        <v>11721.97845379027</v>
       </c>
       <c r="AZ3">
         <v>12101.94739614008</v>
@@ -5319,58 +5262,58 @@
         <v>13191.33217260259</v>
       </c>
       <c r="BD3">
-        <v>13533.196827584999</v>
+        <v>13533.196827585</v>
       </c>
       <c r="BE3">
-        <v>13868.826156497689</v>
+        <v>13868.82615649769</v>
       </c>
       <c r="BF3">
-        <v>14217.238298830889</v>
+        <v>14217.23829883089</v>
       </c>
       <c r="BG3">
         <v>14585.34253507545</v>
       </c>
       <c r="BH3">
-        <v>14980.228195790391</v>
+        <v>14980.22819579039</v>
       </c>
       <c r="BI3">
         <v>15403.74959653437</v>
       </c>
       <c r="BJ3">
-        <v>15849.821685882011</v>
+        <v>15849.82168588201</v>
       </c>
       <c r="BK3">
         <v>16328.14666142307</v>
       </c>
       <c r="BL3">
-        <v>16838.600251706761</v>
+        <v>16838.60025170676</v>
       </c>
       <c r="BM3">
-        <v>17377.859021946941</v>
+        <v>17377.85902194694</v>
       </c>
       <c r="BN3">
-        <v>17934.559640854641</v>
+        <v>17934.55964085464</v>
       </c>
       <c r="BO3">
-        <v>18495.660675388492</v>
+        <v>18495.66067538849</v>
       </c>
       <c r="BP3">
         <v>19062.25153046555</v>
       </c>
       <c r="BQ3">
-        <v>19631.761475050029</v>
+        <v>19631.76147505003</v>
       </c>
       <c r="BR3">
-        <v>20198.334211483289</v>
+        <v>20198.33421148329</v>
       </c>
       <c r="BS3">
-        <v>20750.819650238089</v>
+        <v>20750.81965023809</v>
       </c>
       <c r="BT3">
         <v>21274.39259312857</v>
       </c>
       <c r="BU3">
-        <v>21771.840963797378</v>
+        <v>21771.84096379738</v>
       </c>
       <c r="BV3">
         <v>22249.82366775917</v>
@@ -5379,159 +5322,159 @@
         <v>22715.26762077188</v>
       </c>
       <c r="BX3">
-        <v>23170.907118184801</v>
+        <v>23170.9071181848</v>
       </c>
       <c r="BY3">
-        <v>23612.307646704401</v>
+        <v>23612.3076467044</v>
       </c>
       <c r="BZ3">
-        <v>24044.186339726952</v>
+        <v>24044.18633972695</v>
       </c>
       <c r="CA3">
-        <v>24470.243144905558</v>
+        <v>24470.24314490556</v>
       </c>
       <c r="CB3">
-        <v>24895.352951019358</v>
+        <v>24895.35295101936</v>
       </c>
       <c r="CC3">
-        <v>25324.450133689181</v>
+        <v>25324.45013368918</v>
       </c>
       <c r="CD3">
-        <v>25755.853601184052</v>
+        <v>25755.85360118405</v>
       </c>
       <c r="CE3">
-        <v>26196.306533777271</v>
+        <v>26196.30653377727</v>
       </c>
       <c r="CF3">
-        <v>26645.852147709291</v>
+        <v>26645.85214770929</v>
       </c>
       <c r="CG3">
-        <v>27103.848423945379</v>
+        <v>27103.84842394538</v>
       </c>
       <c r="CH3">
-        <v>27569.680184749359</v>
+        <v>27569.68018474936</v>
       </c>
       <c r="CI3">
-        <v>28033.312490115739</v>
+        <v>28033.31249011574</v>
       </c>
       <c r="CJ3">
-        <v>28499.040597806179</v>
+        <v>28499.04059780618</v>
       </c>
       <c r="CK3">
         <v>28962.40175190919</v>
       </c>
       <c r="CL3">
-        <v>29419.744574960419</v>
+        <v>29419.74457496042</v>
       </c>
       <c r="CM3">
         <v>29868.82793711932</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.6186592892068</v>
+        <v>3257.618659289207</v>
       </c>
       <c r="C4">
-        <v>6255.8922072137802</v>
+        <v>6255.89220721378</v>
       </c>
       <c r="D4">
-        <v>8716.2818609373408</v>
+        <v>8716.281860937341</v>
       </c>
       <c r="E4">
         <v>11520.34777869722</v>
       </c>
       <c r="F4">
-        <v>15060.817065286021</v>
+        <v>15060.81706528602</v>
       </c>
       <c r="G4">
-        <v>18362.470460167111</v>
+        <v>18362.47046016711</v>
       </c>
       <c r="H4">
         <v>21911.46105340352</v>
       </c>
       <c r="I4">
-        <v>25025.681737977091</v>
+        <v>25025.68173797709</v>
       </c>
       <c r="J4">
-        <v>28407.096665901459</v>
+        <v>28407.09666590146</v>
       </c>
       <c r="K4">
-        <v>32401.447121742651</v>
+        <v>32401.44712174265</v>
       </c>
       <c r="L4">
-        <v>36186.125261975452</v>
+        <v>36186.12526197545</v>
       </c>
       <c r="M4">
-        <v>40551.187104929137</v>
+        <v>40551.18710492914</v>
       </c>
       <c r="N4">
-        <v>63615.567958694657</v>
+        <v>63615.56795869466</v>
       </c>
       <c r="O4">
-        <v>86802.446709807904</v>
+        <v>86802.4467098079</v>
       </c>
       <c r="P4">
-        <v>110079.93459917601</v>
+        <v>110079.934599176</v>
       </c>
       <c r="Q4">
-        <v>183600.49672240621</v>
+        <v>183600.4967224062</v>
       </c>
       <c r="R4">
-        <v>257260.43602969451</v>
+        <v>257260.4360296945</v>
       </c>
       <c r="S4">
-        <v>331079.28217810782</v>
+        <v>331079.2821781078</v>
       </c>
       <c r="T4">
-        <v>405070.88468830747</v>
+        <v>405070.8846883075</v>
       </c>
       <c r="U4">
-        <v>479244.35967615119</v>
+        <v>479244.3596761512</v>
       </c>
       <c r="V4">
-        <v>556689.76939624967</v>
+        <v>556689.7693962497</v>
       </c>
       <c r="W4">
         <v>634338.3401471657</v>
       </c>
       <c r="X4">
-        <v>712179.33660515735</v>
+        <v>712179.3366051574</v>
       </c>
       <c r="Y4">
-        <v>790224.46456362307</v>
+        <v>790224.4645636231</v>
       </c>
       <c r="Z4">
-        <v>868491.26614910224</v>
+        <v>868491.2661491022</v>
       </c>
       <c r="AA4">
-        <v>890843.19984833337</v>
+        <v>890843.1998483334</v>
       </c>
       <c r="AB4">
-        <v>913425.86959449702</v>
+        <v>913425.869594497</v>
       </c>
       <c r="AC4">
-        <v>936270.26107582089</v>
+        <v>936270.2610758209</v>
       </c>
       <c r="AD4">
-        <v>959350.43738279503</v>
+        <v>959350.437382795</v>
       </c>
       <c r="AE4">
-        <v>982719.41046790138</v>
+        <v>982719.4104679014</v>
       </c>
       <c r="AF4">
-        <v>988460.41529315896</v>
+        <v>988460.415293159</v>
       </c>
       <c r="AG4">
-        <v>994352.07475739566</v>
+        <v>994352.0747573957</v>
       </c>
       <c r="AH4">
         <v>1000579.172061732</v>
       </c>
       <c r="AI4">
-        <v>1007374.2537611231</v>
+        <v>1007374.253761123</v>
       </c>
       <c r="AJ4">
         <v>1014853.997995137</v>
@@ -5540,22 +5483,22 @@
         <v>1032192.779526683</v>
       </c>
       <c r="AL4">
-        <v>1050848.6755905219</v>
+        <v>1050848.675590522</v>
       </c>
       <c r="AM4">
-        <v>1071026.0140459719</v>
+        <v>1071026.014045972</v>
       </c>
       <c r="AN4">
         <v>1092900.231576086</v>
       </c>
       <c r="AO4">
-        <v>1115912.3464891589</v>
+        <v>1115912.346489159</v>
       </c>
       <c r="AP4">
-        <v>1151413.1159091641</v>
+        <v>1151413.115909164</v>
       </c>
       <c r="AQ4">
-        <v>1187269.3226066721</v>
+        <v>1187269.322606672</v>
       </c>
       <c r="AR4">
         <v>1223244.588742367</v>
@@ -5567,37 +5510,37 @@
         <v>1294644.929890716</v>
       </c>
       <c r="AU4">
-        <v>1333141.9311228939</v>
+        <v>1333141.931122894</v>
       </c>
       <c r="AV4">
-        <v>1370731.2948616559</v>
+        <v>1370731.294861656</v>
       </c>
       <c r="AW4">
-        <v>1406906.1057269541</v>
+        <v>1406906.105726954</v>
       </c>
       <c r="AX4">
-        <v>1441365.1104303389</v>
+        <v>1441365.110430339</v>
       </c>
       <c r="AY4">
-        <v>1474589.0053329689</v>
+        <v>1474589.005332969</v>
       </c>
       <c r="AZ4">
         <v>1504824.142449128</v>
       </c>
       <c r="BA4">
-        <v>1534323.4095353051</v>
+        <v>1534323.409535305</v>
       </c>
       <c r="BB4">
-        <v>1563149.5517658771</v>
+        <v>1563149.551765877</v>
       </c>
       <c r="BC4">
-        <v>1591521.3358017851</v>
+        <v>1591521.335801785</v>
       </c>
       <c r="BD4">
-        <v>1619551.6537148741</v>
+        <v>1619551.653714874</v>
       </c>
       <c r="BE4">
-        <v>1646155.3853916151</v>
+        <v>1646155.385391615</v>
       </c>
       <c r="BF4">
         <v>1672664.932776381</v>
@@ -5615,28 +5558,28 @@
         <v>1782970.80008025</v>
       </c>
       <c r="BK4">
-        <v>1811852.1808534849</v>
+        <v>1811852.180853485</v>
       </c>
       <c r="BL4">
         <v>1841167.677546506</v>
       </c>
       <c r="BM4">
-        <v>1870737.0659897639</v>
+        <v>1870737.065989764</v>
       </c>
       <c r="BN4">
-        <v>1900342.0499507741</v>
+        <v>1900342.049950774</v>
       </c>
       <c r="BO4">
         <v>1929834.845687768</v>
       </c>
       <c r="BP4">
-        <v>1959126.4955266209</v>
+        <v>1959126.495526621</v>
       </c>
       <c r="BQ4">
         <v>1988142.729860934</v>
       </c>
       <c r="BR4">
-        <v>2016770.1761414791</v>
+        <v>2016770.176141479</v>
       </c>
       <c r="BS4">
         <v>2044838.707063772</v>
@@ -5645,87 +5588,87 @@
         <v>2071902.080101707</v>
       </c>
       <c r="BU4">
-        <v>2098267.6461284771</v>
+        <v>2098267.646128477</v>
       </c>
       <c r="BV4">
-        <v>2124209.0346110808</v>
+        <v>2124209.034611081</v>
       </c>
       <c r="BW4">
-        <v>2150007.3143287762</v>
+        <v>2150007.314328776</v>
       </c>
       <c r="BX4">
         <v>2175589.60683002</v>
       </c>
       <c r="BY4">
-        <v>2200395.6997196269</v>
+        <v>2200395.699719627</v>
       </c>
       <c r="BZ4">
-        <v>2224959.3655505669</v>
+        <v>2224959.365550567</v>
       </c>
       <c r="CA4">
-        <v>2249285.0366357858</v>
+        <v>2249285.036635786</v>
       </c>
       <c r="CB4">
         <v>2273366.313690383</v>
       </c>
       <c r="CC4">
-        <v>2297139.1012150068</v>
+        <v>2297139.101215007</v>
       </c>
       <c r="CD4">
-        <v>2319895.3919650312</v>
+        <v>2319895.391965031</v>
       </c>
       <c r="CE4">
         <v>2342845.895526642</v>
       </c>
       <c r="CF4">
-        <v>2366027.7323505329</v>
+        <v>2366027.732350533</v>
       </c>
       <c r="CG4">
-        <v>2389440.8366845278</v>
+        <v>2389440.836684528</v>
       </c>
       <c r="CH4">
         <v>2413057.822279939</v>
       </c>
       <c r="CI4">
-        <v>2435273.5125257759</v>
+        <v>2435273.512525776</v>
       </c>
       <c r="CJ4">
         <v>2457552.485637526</v>
       </c>
       <c r="CK4">
-        <v>2479820.3393740072</v>
+        <v>2479820.339374007</v>
       </c>
       <c r="CL4">
         <v>2502028.159583075</v>
       </c>
       <c r="CM4">
-        <v>2524151.5178881572</v>
+        <v>2524151.517888157</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0123647429591</v>
+        <v>3598.012364742959</v>
       </c>
       <c r="C5">
-        <v>6230.6350131628606</v>
+        <v>6230.635013162861</v>
       </c>
       <c r="D5">
         <v>8685.850810373171</v>
       </c>
       <c r="E5">
-        <v>11041.369501525551</v>
+        <v>11041.36950152555</v>
       </c>
       <c r="F5">
         <v>13762.59881917884</v>
       </c>
       <c r="G5">
-        <v>17274.844886381681</v>
+        <v>17274.84488638168</v>
       </c>
       <c r="H5">
-        <v>21123.284649820271</v>
+        <v>21123.28464982027</v>
       </c>
       <c r="I5">
         <v>24274.66414830858</v>
@@ -5737,28 +5680,28 @@
         <v>30574.39369848658</v>
       </c>
       <c r="L5">
-        <v>33935.392138164083</v>
+        <v>33935.39213816408</v>
       </c>
       <c r="M5">
-        <v>38920.472239390692</v>
+        <v>38920.47223939069</v>
       </c>
       <c r="N5">
-        <v>75393.070614331984</v>
+        <v>75393.07061433198</v>
       </c>
       <c r="O5">
         <v>111917.424750704</v>
       </c>
       <c r="P5">
-        <v>148505.63456976719</v>
+        <v>148505.6345697672</v>
       </c>
       <c r="Q5">
-        <v>270049.45623187302</v>
+        <v>270049.456231873</v>
       </c>
       <c r="R5">
-        <v>391685.87578041683</v>
+        <v>391685.8757804168</v>
       </c>
       <c r="S5">
-        <v>513431.90978450369</v>
+        <v>513431.9097845037</v>
       </c>
       <c r="T5">
         <v>635307.399931508</v>
@@ -5767,7 +5710,7 @@
         <v>757336.7345782686</v>
       </c>
       <c r="V5">
-        <v>885411.48945998703</v>
+        <v>885411.489459987</v>
       </c>
       <c r="W5">
         <v>1013708.974973703</v>
@@ -5779,19 +5722,19 @@
         <v>1271194.943276078</v>
       </c>
       <c r="Z5">
-        <v>1400545.7914237981</v>
+        <v>1400545.791423798</v>
       </c>
       <c r="AA5">
         <v>1436636.419442581</v>
       </c>
       <c r="AB5">
-        <v>1473453.0241796251</v>
+        <v>1473453.024179625</v>
       </c>
       <c r="AC5">
-        <v>1511208.4764931439</v>
+        <v>1511208.476493144</v>
       </c>
       <c r="AD5">
-        <v>1550170.7484825309</v>
+        <v>1550170.748482531</v>
       </c>
       <c r="AE5">
         <v>1590666.85944413</v>
@@ -5806,16 +5749,16 @@
         <v>1629875.640432491</v>
       </c>
       <c r="AI5">
-        <v>1648392.8676237541</v>
+        <v>1648392.867623754</v>
       </c>
       <c r="AJ5">
-        <v>1670659.8924544021</v>
+        <v>1670659.892454402</v>
       </c>
       <c r="AK5">
-        <v>1709751.0960878001</v>
+        <v>1709751.0960878</v>
       </c>
       <c r="AL5">
-        <v>1753224.0388048701</v>
+        <v>1753224.03880487</v>
       </c>
       <c r="AM5">
         <v>1801160.200450991</v>
@@ -5824,16 +5767,16 @@
         <v>1853422.671639486</v>
       </c>
       <c r="AO5">
-        <v>1909625.1043837841</v>
+        <v>1909625.104383784</v>
       </c>
       <c r="AP5">
-        <v>1987241.0483678021</v>
+        <v>1987241.048367802</v>
       </c>
       <c r="AQ5">
-        <v>2067359.9440624791</v>
+        <v>2067359.944062479</v>
       </c>
       <c r="AR5">
-        <v>2148990.9768019882</v>
+        <v>2148990.976801988</v>
       </c>
       <c r="AS5">
         <v>2231040.034595245</v>
@@ -5842,7 +5785,7 @@
         <v>2312393.599805316</v>
       </c>
       <c r="AU5">
-        <v>2397198.0713999909</v>
+        <v>2397198.071399991</v>
       </c>
       <c r="AV5">
         <v>2479362.433971948</v>
@@ -5851,58 +5794,58 @@
         <v>2558195.215848153</v>
       </c>
       <c r="AX5">
-        <v>2633250.4062978211</v>
+        <v>2633250.406297821</v>
       </c>
       <c r="AY5">
-        <v>2704341.6745113181</v>
+        <v>2704341.674511318</v>
       </c>
       <c r="AZ5">
-        <v>2768438.9016894381</v>
+        <v>2768438.901689438</v>
       </c>
       <c r="BA5">
-        <v>2828931.8533156351</v>
+        <v>2828931.853315635</v>
       </c>
       <c r="BB5">
-        <v>2886301.7631068672</v>
+        <v>2886301.763106867</v>
       </c>
       <c r="BC5">
         <v>2941165.617832595</v>
       </c>
       <c r="BD5">
-        <v>2994215.2429270511</v>
+        <v>2994215.242927051</v>
       </c>
       <c r="BE5">
-        <v>3044419.5295374179</v>
+        <v>3044419.529537418</v>
       </c>
       <c r="BF5">
-        <v>3094165.7699205312</v>
+        <v>3094165.769920531</v>
       </c>
       <c r="BG5">
-        <v>3144010.5081363032</v>
+        <v>3144010.508136303</v>
       </c>
       <c r="BH5">
-        <v>3194381.4793547909</v>
+        <v>3194381.479354791</v>
       </c>
       <c r="BI5">
         <v>3245562.573122296</v>
       </c>
       <c r="BJ5">
-        <v>3297397.0097152428</v>
+        <v>3297397.009715243</v>
       </c>
       <c r="BK5">
         <v>3350183.381630884</v>
       </c>
       <c r="BL5">
-        <v>3403803.6968570859</v>
+        <v>3403803.696857086</v>
       </c>
       <c r="BM5">
         <v>3458039.500222167</v>
       </c>
       <c r="BN5">
-        <v>3512596.1370479902</v>
+        <v>3512596.13704799</v>
       </c>
       <c r="BO5">
-        <v>3567147.2857753611</v>
+        <v>3567147.285775361</v>
       </c>
       <c r="BP5">
         <v>3621310.083585646</v>
@@ -5911,70 +5854,70 @@
         <v>3674723.926299369</v>
       </c>
       <c r="BR5">
-        <v>3727055.8477142188</v>
+        <v>3727055.847714219</v>
       </c>
       <c r="BS5">
-        <v>3778018.7247060318</v>
+        <v>3778018.724706032</v>
       </c>
       <c r="BT5">
-        <v>3826874.6865402749</v>
+        <v>3826874.686540275</v>
       </c>
       <c r="BU5">
-        <v>3873970.3964756769</v>
+        <v>3873970.396475677</v>
       </c>
       <c r="BV5">
-        <v>3919209.7132378221</v>
+        <v>3919209.713237822</v>
       </c>
       <c r="BW5">
-        <v>3962558.4451616202</v>
+        <v>3962558.44516162</v>
       </c>
       <c r="BX5">
-        <v>4004034.7122282651</v>
+        <v>4004034.712228265</v>
       </c>
       <c r="BY5">
         <v>4042843.910225661</v>
       </c>
       <c r="BZ5">
-        <v>4079919.0004183091</v>
+        <v>4079919.000418309</v>
       </c>
       <c r="CA5">
         <v>4115348.854511627</v>
       </c>
       <c r="CB5">
-        <v>4149215.1539704949</v>
+        <v>4149215.153970495</v>
       </c>
       <c r="CC5">
         <v>4181579.556894056</v>
       </c>
       <c r="CD5">
-        <v>4211036.7037228113</v>
+        <v>4211036.703722811</v>
       </c>
       <c r="CE5">
-        <v>4239020.9582668385</v>
+        <v>4239020.958266838</v>
       </c>
       <c r="CF5">
         <v>4265492.408854885</v>
       </c>
       <c r="CG5">
-        <v>4290376.9358722176</v>
+        <v>4290376.935872218</v>
       </c>
       <c r="CH5">
-        <v>4313572.1138699772</v>
+        <v>4313572.113869977</v>
       </c>
       <c r="CI5">
-        <v>4332706.8750566868</v>
+        <v>4332706.875056687</v>
       </c>
       <c r="CJ5">
         <v>4349897.930336345</v>
       </c>
       <c r="CK5">
-        <v>4365013.7943951571</v>
+        <v>4365013.794395157</v>
       </c>
       <c r="CL5">
-        <v>4377933.7449509464</v>
+        <v>4377933.744950946</v>
       </c>
       <c r="CM5">
-        <v>4388556.5454031769</v>
+        <v>4388556.545403177</v>
       </c>
     </row>
   </sheetData>
@@ -5983,14 +5926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -6262,156 +6205,156 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.3323354278281651E-11</v>
+        <v>3.332335427828165E-11</v>
       </c>
       <c r="C2">
-        <v>3.6177469962281482E-10</v>
+        <v>3.617746996228148E-10</v>
       </c>
       <c r="D2">
-        <v>3.0066848721722431E-9</v>
+        <v>3.006684872172243E-09</v>
       </c>
       <c r="E2">
-        <v>2.0953206256857009E-8</v>
+        <v>2.095320625685701E-08</v>
       </c>
       <c r="F2">
-        <v>1.2612465191122471E-7</v>
+        <v>1.261246519112247E-07</v>
       </c>
       <c r="G2">
-        <v>6.6916009589330802E-7</v>
+        <v>6.69160095893308E-07</v>
       </c>
       <c r="H2">
-        <v>3.1801292451942352E-6</v>
+        <v>3.180129245194235E-06</v>
       </c>
       <c r="I2">
-        <v>1.371742325092338E-5</v>
+        <v>1.371742325092338E-05</v>
       </c>
       <c r="J2">
-        <v>5.4283585980401363E-5</v>
+        <v>5.428358598040136E-05</v>
       </c>
       <c r="K2">
-        <v>1.9869295751033601E-4</v>
+        <v>0.000198692957510336</v>
       </c>
       <c r="L2">
-        <v>6.7574583761571935E-4</v>
+        <v>0.0006757458376157194</v>
       </c>
       <c r="M2">
-        <v>2.1302541816656979E-3</v>
+        <v>0.002130254181665698</v>
       </c>
       <c r="N2">
-        <v>6.1224942011645469E-3</v>
+        <v>0.006122494201164547</v>
       </c>
       <c r="O2">
-        <v>3.0999479050748211E-2</v>
+        <v>0.03099947905074821</v>
       </c>
       <c r="P2">
         <v>0.1192370976466168</v>
       </c>
       <c r="Q2">
-        <v>0.27732398778051848</v>
+        <v>0.2773239877805185</v>
       </c>
       <c r="R2">
-        <v>0.46630780731624077</v>
+        <v>0.4663078073162408</v>
       </c>
       <c r="S2">
-        <v>0.71144050249972646</v>
+        <v>0.7114405024997265</v>
       </c>
       <c r="T2">
-        <v>1.0863247384151351</v>
+        <v>1.086324738415135</v>
       </c>
       <c r="U2">
-        <v>1.6573626982645879</v>
+        <v>1.657362698264588</v>
       </c>
       <c r="V2">
-        <v>2.5560766275664082</v>
+        <v>2.556076627566408</v>
       </c>
       <c r="W2">
         <v>3.92127743076728</v>
       </c>
       <c r="X2">
-        <v>5.8077865491464324</v>
+        <v>5.807786549146432</v>
       </c>
       <c r="Y2">
-        <v>8.3309976013731202</v>
+        <v>8.33099760137312</v>
       </c>
       <c r="Z2">
-        <v>11.646393008879629</v>
+        <v>11.64639300887963</v>
       </c>
       <c r="AA2">
-        <v>15.600423691637079</v>
+        <v>15.60042369163708</v>
       </c>
       <c r="AB2">
-        <v>20.315387454264631</v>
+        <v>20.31538745426463</v>
       </c>
       <c r="AC2">
         <v>26.21540275988183</v>
       </c>
       <c r="AD2">
-        <v>33.217039850878727</v>
+        <v>33.21703985087873</v>
       </c>
       <c r="AE2">
-        <v>41.622150389267603</v>
+        <v>41.6221503892676</v>
       </c>
       <c r="AF2">
-        <v>50.913874135979412</v>
+        <v>50.91387413597941</v>
       </c>
       <c r="AG2">
-        <v>60.913439956572233</v>
+        <v>60.91343995657223</v>
       </c>
       <c r="AH2">
-        <v>73.272455594130463</v>
+        <v>73.27245559413046</v>
       </c>
       <c r="AI2">
-        <v>89.597348888378392</v>
+        <v>89.59734888837839</v>
       </c>
       <c r="AJ2">
         <v>109.7956174425813</v>
       </c>
       <c r="AK2">
-        <v>136.16393437117259</v>
+        <v>136.1639343711726</v>
       </c>
       <c r="AL2">
         <v>171.5239640654552</v>
       </c>
       <c r="AM2">
-        <v>219.83036300751351</v>
+        <v>219.8303630075135</v>
       </c>
       <c r="AN2">
-        <v>285.49842658829681</v>
+        <v>285.4984265882968</v>
       </c>
       <c r="AO2">
-        <v>364.35713990393492</v>
+        <v>364.3571399039349</v>
       </c>
       <c r="AP2">
-        <v>451.49424058740863</v>
+        <v>451.4942405874086</v>
       </c>
       <c r="AQ2">
-        <v>546.41950730283656</v>
+        <v>546.4195073028366</v>
       </c>
       <c r="AR2">
-        <v>648.56398075395896</v>
+        <v>648.563980753959</v>
       </c>
       <c r="AS2">
-        <v>757.39658997617676</v>
+        <v>757.3965899761768</v>
       </c>
       <c r="AT2">
-        <v>873.64843900095343</v>
+        <v>873.6484390009534</v>
       </c>
       <c r="AU2">
-        <v>996.42912245963589</v>
+        <v>996.4291224596359</v>
       </c>
       <c r="AV2">
-        <v>1119.5832710090949</v>
+        <v>1119.583271009095</v>
       </c>
       <c r="AW2">
-        <v>1230.3398145142919</v>
+        <v>1230.339814514292</v>
       </c>
       <c r="AX2">
-        <v>1318.1496562552579</v>
+        <v>1318.149656255258</v>
       </c>
       <c r="AY2">
         <v>1395.012815515804</v>
@@ -6420,97 +6363,97 @@
         <v>1474.077715331046</v>
       </c>
       <c r="BA2">
-        <v>1554.0647710246631</v>
+        <v>1554.064771024663</v>
       </c>
       <c r="BB2">
         <v>1629.686525910317</v>
       </c>
       <c r="BC2">
-        <v>1696.8118126444219</v>
+        <v>1696.811812644422</v>
       </c>
       <c r="BD2">
-        <v>1761.7572336894591</v>
+        <v>1761.757233689459</v>
       </c>
       <c r="BE2">
-        <v>1833.0649368099971</v>
+        <v>1833.064936809997</v>
       </c>
       <c r="BF2">
         <v>1915.339415542082</v>
       </c>
       <c r="BG2">
-        <v>2014.4234215848969</v>
+        <v>2014.423421584897</v>
       </c>
       <c r="BH2">
-        <v>2137.1285669517952</v>
+        <v>2137.128566951795</v>
       </c>
       <c r="BI2">
-        <v>2286.8164537832672</v>
+        <v>2286.816453783267</v>
       </c>
       <c r="BJ2">
-        <v>2466.8510673406031</v>
+        <v>2466.851067340603</v>
       </c>
       <c r="BK2">
-        <v>2682.1280690830931</v>
+        <v>2682.128069083093</v>
       </c>
       <c r="BL2">
-        <v>2935.6737872443559</v>
+        <v>2935.673787244356</v>
       </c>
       <c r="BM2">
         <v>3227.608996644477</v>
       </c>
       <c r="BN2">
-        <v>3549.2859084369929</v>
+        <v>3549.285908436993</v>
       </c>
       <c r="BO2">
         <v>3892.993404575263</v>
       </c>
       <c r="BP2">
-        <v>4257.6068347073233</v>
+        <v>4257.606834707323</v>
       </c>
       <c r="BQ2">
-        <v>4641.8332291451061</v>
+        <v>4641.833229145106</v>
       </c>
       <c r="BR2">
-        <v>5039.7301727261874</v>
+        <v>5039.730172726187</v>
       </c>
       <c r="BS2">
-        <v>5436.8503611981087</v>
+        <v>5436.850361198109</v>
       </c>
       <c r="BT2">
-        <v>5817.5902657319311</v>
+        <v>5817.590265731931</v>
       </c>
       <c r="BU2">
-        <v>6176.9474252656219</v>
+        <v>6176.947425265622</v>
       </c>
       <c r="BV2">
         <v>6522.972983550374</v>
       </c>
       <c r="BW2">
-        <v>6865.6926862518776</v>
+        <v>6865.692686251878</v>
       </c>
       <c r="BX2">
         <v>7209.157305011775</v>
       </c>
       <c r="BY2">
-        <v>7552.1821980840832</v>
+        <v>7552.182198084083</v>
       </c>
       <c r="BZ2">
-        <v>7894.9993980428062</v>
+        <v>7894.999398042806</v>
       </c>
       <c r="CA2">
-        <v>8244.7298000458031</v>
+        <v>8244.729800045803</v>
       </c>
       <c r="CB2">
-        <v>8612.6377123736111</v>
+        <v>8612.637712373611</v>
       </c>
       <c r="CC2">
-        <v>9012.3389272145359</v>
+        <v>9012.338927214536</v>
       </c>
       <c r="CD2">
         <v>9456.431094200072</v>
       </c>
       <c r="CE2">
-        <v>9954.1004806892888</v>
+        <v>9954.100480689289</v>
       </c>
       <c r="CF2">
         <v>10511.52218050056</v>
@@ -6519,25 +6462,25 @@
         <v>11133.65344702851</v>
       </c>
       <c r="CH2">
-        <v>11826.416183580321</v>
+        <v>11826.41618358032</v>
       </c>
       <c r="CI2">
-        <v>12591.752436399051</v>
+        <v>12591.75243639905</v>
       </c>
       <c r="CJ2">
-        <v>13423.757889967321</v>
+        <v>13423.75788996732</v>
       </c>
       <c r="CK2">
         <v>14310.83859339154</v>
       </c>
       <c r="CL2">
-        <v>15241.792984650659</v>
+        <v>15241.79298465066</v>
       </c>
       <c r="CM2">
         <v>16209.77475046188</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6581,109 +6524,109 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.726667188771785E-3</v>
+        <v>0.002726667188771785</v>
       </c>
       <c r="P3">
-        <v>1.248123138918961E-2</v>
+        <v>0.01248123138918961</v>
       </c>
       <c r="Q3">
-        <v>3.001377631474365E-2</v>
+        <v>0.03001377631474365</v>
       </c>
       <c r="R3">
-        <v>5.0929394566002407E-2</v>
+        <v>0.05092939456600241</v>
       </c>
       <c r="S3">
-        <v>7.7844382876209428E-2</v>
+        <v>0.07784438287620943</v>
       </c>
       <c r="T3">
-        <v>0.11838196680766561</v>
+        <v>0.1183819668076656</v>
       </c>
       <c r="U3">
-        <v>0.17857476284963031</v>
+        <v>0.1785747628496303</v>
       </c>
       <c r="V3">
-        <v>0.27053708564427031</v>
+        <v>0.2705370856442703</v>
       </c>
       <c r="W3">
-        <v>0.40675926172454779</v>
+        <v>0.4067592617245478</v>
       </c>
       <c r="X3">
-        <v>0.59100468623696156</v>
+        <v>0.5910046862369616</v>
       </c>
       <c r="Y3">
-        <v>0.83295641791609776</v>
+        <v>0.8329564179160978</v>
       </c>
       <c r="Z3">
         <v>1.145901311855948</v>
       </c>
       <c r="AA3">
-        <v>1.5140729808336659</v>
+        <v>1.514072980833666</v>
       </c>
       <c r="AB3">
-        <v>1.9478939648749469</v>
+        <v>1.947893964874947</v>
       </c>
       <c r="AC3">
-        <v>2.4850400612277279</v>
+        <v>2.485040061227728</v>
       </c>
       <c r="AD3">
-        <v>3.1164124913865621</v>
+        <v>3.116412491386562</v>
       </c>
       <c r="AE3">
-        <v>3.8676555284183669</v>
+        <v>3.867655528418367</v>
       </c>
       <c r="AF3">
-        <v>4.6911513097558402</v>
+        <v>4.69115130975584</v>
       </c>
       <c r="AG3">
-        <v>5.5700339811052419</v>
+        <v>5.570033981105242</v>
       </c>
       <c r="AH3">
-        <v>6.6471453549980364</v>
+        <v>6.647145354998036</v>
       </c>
       <c r="AI3">
-        <v>8.0573692536393899</v>
+        <v>8.05736925363939</v>
       </c>
       <c r="AJ3">
-        <v>9.7857721103304485</v>
+        <v>9.785772110330448</v>
       </c>
       <c r="AK3">
-        <v>12.019055115748349</v>
+        <v>12.01905511574835</v>
       </c>
       <c r="AL3">
         <v>14.98017120055124</v>
       </c>
       <c r="AM3">
-        <v>18.975044302315879</v>
+        <v>18.97504430231588</v>
       </c>
       <c r="AN3">
-        <v>24.330743609475579</v>
+        <v>24.33074360947558</v>
       </c>
       <c r="AO3">
-        <v>30.664041459208558</v>
+        <v>30.66404145920856</v>
       </c>
       <c r="AP3">
-        <v>37.559586144520537</v>
+        <v>37.55958614452054</v>
       </c>
       <c r="AQ3">
-        <v>44.981756991731672</v>
+        <v>44.98175699173167</v>
       </c>
       <c r="AR3">
-        <v>52.894285035564458</v>
+        <v>52.89428503556446</v>
       </c>
       <c r="AS3">
-        <v>61.268205498721692</v>
+        <v>61.26820549872169</v>
       </c>
       <c r="AT3">
         <v>70.17440501884343</v>
       </c>
       <c r="AU3">
-        <v>79.561307463569094</v>
+        <v>79.56130746356909</v>
       </c>
       <c r="AV3">
-        <v>88.976594205405789</v>
+        <v>88.97659420540579</v>
       </c>
       <c r="AW3">
-        <v>97.459598793743567</v>
+        <v>97.45959879374357</v>
       </c>
       <c r="AX3">
         <v>104.2084885091803</v>
@@ -6698,100 +6641,100 @@
         <v>122.5503201543186</v>
       </c>
       <c r="BB3">
-        <v>128.51744971628949</v>
+        <v>128.5174497162895</v>
       </c>
       <c r="BC3">
         <v>133.8608435237683</v>
       </c>
       <c r="BD3">
-        <v>139.07924466490431</v>
+        <v>139.0792446649043</v>
       </c>
       <c r="BE3">
-        <v>144.86516105893321</v>
+        <v>144.8651610589332</v>
       </c>
       <c r="BF3">
-        <v>151.60867581016649</v>
+        <v>151.6086758101665</v>
       </c>
       <c r="BG3">
         <v>159.8141722177719</v>
       </c>
       <c r="BH3">
-        <v>170.08252142646839</v>
+        <v>170.0825214264684</v>
       </c>
       <c r="BI3">
-        <v>182.74108904018971</v>
+        <v>182.7410890401897</v>
       </c>
       <c r="BJ3">
-        <v>198.12650980435151</v>
+        <v>198.1265098043515</v>
       </c>
       <c r="BK3">
-        <v>216.71645517879159</v>
+        <v>216.7164551787916</v>
       </c>
       <c r="BL3">
         <v>238.8380088735988</v>
       </c>
       <c r="BM3">
-        <v>264.56920423407081</v>
+        <v>264.5692042340708</v>
       </c>
       <c r="BN3">
-        <v>293.20632074284242</v>
+        <v>293.2063207428424</v>
       </c>
       <c r="BO3">
-        <v>324.10537447735987</v>
+        <v>324.1053744773599</v>
       </c>
       <c r="BP3">
-        <v>357.19850352105499</v>
+        <v>357.198503521055</v>
       </c>
       <c r="BQ3">
-        <v>392.39803313168528</v>
+        <v>392.3980331316853</v>
       </c>
       <c r="BR3">
-        <v>429.18171466727688</v>
+        <v>429.1817146672769</v>
       </c>
       <c r="BS3">
-        <v>466.21807165199061</v>
+        <v>466.2180716519906</v>
       </c>
       <c r="BT3">
-        <v>502.03107250369931</v>
+        <v>502.0310725036993</v>
       </c>
       <c r="BU3">
-        <v>536.11326274806731</v>
+        <v>536.1132627480673</v>
       </c>
       <c r="BV3">
-        <v>569.19440442651705</v>
+        <v>569.1944044265171</v>
       </c>
       <c r="BW3">
-        <v>602.21347300969001</v>
+        <v>602.21347300969</v>
       </c>
       <c r="BX3">
-        <v>635.55182744763022</v>
+        <v>635.5518274476302</v>
       </c>
       <c r="BY3">
-        <v>669.08759867145955</v>
+        <v>669.0875986714595</v>
       </c>
       <c r="BZ3">
-        <v>702.83585798497734</v>
+        <v>702.8358579849773</v>
       </c>
       <c r="CA3">
         <v>737.4948312183792</v>
       </c>
       <c r="CB3">
-        <v>774.18962353520214</v>
+        <v>774.1896235352021</v>
       </c>
       <c r="CC3">
         <v>814.3017308673667</v>
       </c>
       <c r="CD3">
-        <v>859.13308986154334</v>
+        <v>859.1330898615433</v>
       </c>
       <c r="CE3">
-        <v>909.65910459924578</v>
+        <v>909.6591045992458</v>
       </c>
       <c r="CF3">
         <v>966.5604320134579</v>
       </c>
       <c r="CG3">
-        <v>1030.3995117812949</v>
+        <v>1030.399511781295</v>
       </c>
       <c r="CH3">
         <v>1101.842467587167</v>
@@ -6800,90 +6743,90 @@
         <v>1181.148150973871</v>
       </c>
       <c r="CJ3">
-        <v>1267.7574890441431</v>
+        <v>1267.757489044143</v>
       </c>
       <c r="CK3">
-        <v>1360.5045422122489</v>
+        <v>1360.504542212249</v>
       </c>
       <c r="CL3">
         <v>1458.245872023331</v>
       </c>
       <c r="CM3">
-        <v>1560.2802954742281</v>
+        <v>1560.280295474228</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048270970275495E-2</v>
+        <v>0.02048270970275495</v>
       </c>
       <c r="C4">
-        <v>5.7818401648000881E-2</v>
+        <v>0.05781840164800088</v>
       </c>
       <c r="D4">
         <v>0.1236904711450395</v>
       </c>
       <c r="E4">
-        <v>0.23723388525737751</v>
+        <v>0.2372338852573775</v>
       </c>
       <c r="F4">
-        <v>0.42926557417747879</v>
+        <v>0.4292655741774788</v>
       </c>
       <c r="G4">
-        <v>0.74834543496896733</v>
+        <v>0.7483454349689673</v>
       </c>
       <c r="H4">
-        <v>1.2703568393841209</v>
+        <v>1.270356839384121</v>
       </c>
       <c r="I4">
-        <v>2.1170829129485478</v>
+        <v>2.117082912948548</v>
       </c>
       <c r="J4">
         <v>3.499932795144193</v>
       </c>
       <c r="K4">
-        <v>5.8317767140760646</v>
+        <v>5.831776714076065</v>
       </c>
       <c r="L4">
-        <v>10.001494285698699</v>
+        <v>10.0014942856987</v>
       </c>
       <c r="M4">
         <v>17.91436768398335</v>
       </c>
       <c r="N4">
-        <v>32.851222607304848</v>
+        <v>32.85122260730485</v>
       </c>
       <c r="O4">
-        <v>57.942803736666747</v>
+        <v>57.94280373666675</v>
       </c>
       <c r="P4">
-        <v>90.726629679962031</v>
+        <v>90.72662967996203</v>
       </c>
       <c r="Q4">
-        <v>129.12043942310979</v>
+        <v>129.1204394231098</v>
       </c>
       <c r="R4">
-        <v>175.45348383379351</v>
+        <v>175.4534838337935</v>
       </c>
       <c r="S4">
-        <v>233.19100079912889</v>
+        <v>233.1910007991289</v>
       </c>
       <c r="T4">
-        <v>305.52395646799062</v>
+        <v>305.5239564679906</v>
       </c>
       <c r="U4">
         <v>395.2846804961514</v>
       </c>
       <c r="V4">
-        <v>507.11189332538561</v>
+        <v>507.1118933253856</v>
       </c>
       <c r="W4">
-        <v>645.60599790727144</v>
+        <v>645.6059979072714</v>
       </c>
       <c r="X4">
-        <v>812.37601429724225</v>
+        <v>812.3760142972422</v>
       </c>
       <c r="Y4">
         <v>1013.491829963993</v>
@@ -6892,79 +6835,79 @@
         <v>1257.389020626259</v>
       </c>
       <c r="AA4">
-        <v>1552.6056954946951</v>
+        <v>1552.605695494695</v>
       </c>
       <c r="AB4">
-        <v>1920.2861261241369</v>
+        <v>1920.286126124137</v>
       </c>
       <c r="AC4">
-        <v>2378.6665712344338</v>
+        <v>2378.666571234434</v>
       </c>
       <c r="AD4">
-        <v>2936.7853321029188</v>
+        <v>2936.785332102919</v>
       </c>
       <c r="AE4">
-        <v>3623.8602375067512</v>
+        <v>3623.860237506751</v>
       </c>
       <c r="AF4">
-        <v>4484.0518526361229</v>
+        <v>4484.051852636123</v>
       </c>
       <c r="AG4">
-        <v>5573.0165975554964</v>
+        <v>5573.016597555496</v>
       </c>
       <c r="AH4">
-        <v>6953.4160213377727</v>
+        <v>6953.416021337773</v>
       </c>
       <c r="AI4">
-        <v>8692.1516727423586</v>
+        <v>8692.151672742359</v>
       </c>
       <c r="AJ4">
-        <v>10889.599782267051</v>
+        <v>10889.59978226705</v>
       </c>
       <c r="AK4">
-        <v>13659.516477120749</v>
+        <v>13659.51647712075</v>
       </c>
       <c r="AL4">
-        <v>17070.457692259159</v>
+        <v>17070.45769225916</v>
       </c>
       <c r="AM4">
-        <v>21226.230584933121</v>
+        <v>21226.23058493312</v>
       </c>
       <c r="AN4">
-        <v>26217.722099402359</v>
+        <v>26217.72209940236</v>
       </c>
       <c r="AO4">
-        <v>31902.769401233221</v>
+        <v>31902.76940123322</v>
       </c>
       <c r="AP4">
-        <v>38112.765298578823</v>
+        <v>38112.76529857882</v>
       </c>
       <c r="AQ4">
-        <v>44772.111601424098</v>
+        <v>44772.1116014241</v>
       </c>
       <c r="AR4">
-        <v>51783.255517331112</v>
+        <v>51783.25551733111</v>
       </c>
       <c r="AS4">
-        <v>59030.191245168557</v>
+        <v>59030.19124516856</v>
       </c>
       <c r="AT4">
-        <v>66404.420135156484</v>
+        <v>66404.42013515648</v>
       </c>
       <c r="AU4">
-        <v>73769.343730431268</v>
+        <v>73769.34373043127</v>
       </c>
       <c r="AV4">
-        <v>80924.376410051394</v>
+        <v>80924.37641005139</v>
       </c>
       <c r="AW4">
-        <v>87608.924799725326</v>
+        <v>87608.92479972533</v>
       </c>
       <c r="AX4">
-        <v>93634.142282776098</v>
+        <v>93634.1422827761</v>
       </c>
       <c r="AY4">
-        <v>99132.664027252846</v>
+        <v>99132.66402725285</v>
       </c>
       <c r="AZ4">
         <v>104258.5419482345</v>
@@ -6979,37 +6922,37 @@
         <v>117452.1987507578</v>
       </c>
       <c r="BD4">
-        <v>121339.94874611629</v>
+        <v>121339.9487461163</v>
       </c>
       <c r="BE4">
-        <v>125235.83565419581</v>
+        <v>125235.8356541958</v>
       </c>
       <c r="BF4">
         <v>129302.2583003481</v>
       </c>
       <c r="BG4">
-        <v>133722.66088453389</v>
+        <v>133722.6608845339</v>
       </c>
       <c r="BH4">
-        <v>138674.80189146171</v>
+        <v>138674.8018914617</v>
       </c>
       <c r="BI4">
-        <v>144268.22711834489</v>
+        <v>144268.2271183449</v>
       </c>
       <c r="BJ4">
-        <v>150579.95003122691</v>
+        <v>150579.9500312269</v>
       </c>
       <c r="BK4">
-        <v>157658.89134723571</v>
+        <v>157658.8913472357</v>
       </c>
       <c r="BL4">
-        <v>165485.76515984489</v>
+        <v>165485.7651598449</v>
       </c>
       <c r="BM4">
         <v>173996.983937121</v>
       </c>
       <c r="BN4">
-        <v>183075.25194185329</v>
+        <v>183075.2519418533</v>
       </c>
       <c r="BO4">
         <v>192612.3410111907</v>
@@ -7018,180 +6961,180 @@
         <v>202534.0127522515</v>
       </c>
       <c r="BQ4">
-        <v>212752.75238924421</v>
+        <v>212752.7523892442</v>
       </c>
       <c r="BR4">
-        <v>223141.80793341171</v>
+        <v>223141.8079334117</v>
       </c>
       <c r="BS4">
-        <v>233521.60042849279</v>
+        <v>233521.6004284928</v>
       </c>
       <c r="BT4">
-        <v>243721.42014547059</v>
+        <v>243721.4201454706</v>
       </c>
       <c r="BU4">
         <v>253663.4367430986</v>
       </c>
       <c r="BV4">
-        <v>263374.09675270348</v>
+        <v>263374.0967527035</v>
       </c>
       <c r="BW4">
-        <v>272899.49176957848</v>
+        <v>272899.4917695785</v>
       </c>
       <c r="BX4">
-        <v>282252.47749753128</v>
+        <v>282252.4774975313</v>
       </c>
       <c r="BY4">
-        <v>291430.85890327638</v>
+        <v>291430.8589032764</v>
       </c>
       <c r="BZ4">
-        <v>300454.93737399392</v>
+        <v>300454.9373739939</v>
       </c>
       <c r="CA4">
-        <v>309385.49742328201</v>
+        <v>309385.497423282</v>
       </c>
       <c r="CB4">
-        <v>318315.07083119702</v>
+        <v>318315.070831197</v>
       </c>
       <c r="CC4">
-        <v>327366.06379502983</v>
+        <v>327366.0637950298</v>
       </c>
       <c r="CD4">
         <v>336670.5603397385</v>
       </c>
       <c r="CE4">
-        <v>346340.09172621701</v>
+        <v>346340.091726217</v>
       </c>
       <c r="CF4">
-        <v>356451.37548381608</v>
+        <v>356451.3754838161</v>
       </c>
       <c r="CG4">
-        <v>367050.62673331279</v>
+        <v>367050.6267333128</v>
       </c>
       <c r="CH4">
-        <v>378159.20659858262</v>
+        <v>378159.2065985826</v>
       </c>
       <c r="CI4">
         <v>389760.5858314035</v>
       </c>
       <c r="CJ4">
-        <v>401802.05244189518</v>
+        <v>401802.0524418952</v>
       </c>
       <c r="CK4">
-        <v>414214.57304576499</v>
+        <v>414214.573045765</v>
       </c>
       <c r="CL4">
-        <v>426933.70205137099</v>
+        <v>426933.702051371</v>
       </c>
       <c r="CM4">
-        <v>439904.58561046951</v>
+        <v>439904.5856104695</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1120414737226191E-3</v>
+        <v>0.001112041473722619</v>
       </c>
       <c r="C5">
-        <v>3.1275424601179122E-3</v>
+        <v>0.003127542460117912</v>
       </c>
       <c r="D5">
-        <v>6.6616341484476626E-3</v>
+        <v>0.006661634148447663</v>
       </c>
       <c r="E5">
-        <v>1.271385451400339E-2</v>
+        <v>0.01271385451400339</v>
       </c>
       <c r="F5">
-        <v>2.287953624076057E-2</v>
+        <v>0.02287953624076057</v>
       </c>
       <c r="G5">
-        <v>3.9629627675540742E-2</v>
+        <v>0.03962962767554074</v>
       </c>
       <c r="H5">
-        <v>6.6661554564438757E-2</v>
+        <v>0.06666155456443876</v>
       </c>
       <c r="I5">
         <v>0.1093243876033211</v>
       </c>
       <c r="J5">
-        <v>0.17512346292331771</v>
+        <v>0.1751234629233177</v>
       </c>
       <c r="K5">
         <v>0.2743016860166777</v>
       </c>
       <c r="L5">
-        <v>0.42047527779757909</v>
+        <v>0.4204752777975791</v>
       </c>
       <c r="M5">
-        <v>0.63128623707722187</v>
+        <v>0.6312862370772219</v>
       </c>
       <c r="N5">
-        <v>0.92902413554244379</v>
+        <v>0.9290241355424438</v>
       </c>
       <c r="O5">
-        <v>2.2766880828810252</v>
+        <v>2.276688082881025</v>
       </c>
       <c r="P5">
-        <v>5.3662621167368423</v>
+        <v>5.366262116736842</v>
       </c>
       <c r="Q5">
         <v>11.12157820848638</v>
       </c>
       <c r="R5">
-        <v>20.719640646837512</v>
+        <v>20.71964064683751</v>
       </c>
       <c r="S5">
-        <v>35.605156903443593</v>
+        <v>35.60515690344359</v>
       </c>
       <c r="T5">
-        <v>57.508101523835862</v>
+        <v>57.50810152383586</v>
       </c>
       <c r="U5">
-        <v>88.478338298746849</v>
+        <v>88.47833829874685</v>
       </c>
       <c r="V5">
-        <v>131.20743964210641</v>
+        <v>131.2074396421064</v>
       </c>
       <c r="W5">
-        <v>189.48781061265379</v>
+        <v>189.4878106126538</v>
       </c>
       <c r="X5">
         <v>268.497817645483</v>
       </c>
       <c r="Y5">
-        <v>375.37791764577611</v>
+        <v>375.3779176457761</v>
       </c>
       <c r="Z5">
-        <v>519.98671028462695</v>
+        <v>519.986710284627</v>
       </c>
       <c r="AA5">
-        <v>715.85654412758481</v>
+        <v>715.8565441275848</v>
       </c>
       <c r="AB5">
-        <v>981.35280239250073</v>
+        <v>981.3528023925007</v>
       </c>
       <c r="AC5">
         <v>1341.00843907747</v>
       </c>
       <c r="AD5">
-        <v>1826.9473598707079</v>
+        <v>1826.947359870708</v>
       </c>
       <c r="AE5">
-        <v>2480.2545398909429</v>
+        <v>2480.254539890943</v>
       </c>
       <c r="AF5">
-        <v>3352.0985005311932</v>
+        <v>3352.098500531193</v>
       </c>
       <c r="AG5">
         <v>4504.358249492102</v>
       </c>
       <c r="AH5">
-        <v>6009.4623980554088</v>
+        <v>6009.462398055409</v>
       </c>
       <c r="AI5">
-        <v>7949.1228179451145</v>
+        <v>7949.122817945115</v>
       </c>
       <c r="AJ5">
         <v>10411.66396910193</v>
@@ -7200,166 +7143,166 @@
         <v>13487.72909512062</v>
       </c>
       <c r="AL5">
-        <v>17264.302421704651</v>
+        <v>17264.30242170465</v>
       </c>
       <c r="AM5">
         <v>21817.23819463596</v>
       </c>
       <c r="AN5">
-        <v>27202.824235060922</v>
+        <v>27202.82423506092</v>
       </c>
       <c r="AO5">
-        <v>33449.275139975522</v>
+        <v>33449.27513997552</v>
       </c>
       <c r="AP5">
-        <v>40544.210451137442</v>
+        <v>40544.21045113744</v>
       </c>
       <c r="AQ5">
-        <v>48427.105055080152</v>
+        <v>48427.10505508015</v>
       </c>
       <c r="AR5">
-        <v>56992.465751865151</v>
+        <v>56992.46575186515</v>
       </c>
       <c r="AS5">
-        <v>66094.348052790781</v>
+        <v>66094.34805279078</v>
       </c>
       <c r="AT5">
-        <v>75555.888294976758</v>
+        <v>75555.88829497676</v>
       </c>
       <c r="AU5">
-        <v>85182.842638981863</v>
+        <v>85182.84263898186</v>
       </c>
       <c r="AV5">
-        <v>94779.436863182666</v>
+        <v>94779.43686318267</v>
       </c>
       <c r="AW5">
-        <v>104164.58680988041</v>
+        <v>104164.5868098804</v>
       </c>
       <c r="AX5">
         <v>113186.7951766208</v>
       </c>
       <c r="AY5">
-        <v>121736.58179271749</v>
+        <v>121736.5817927175</v>
       </c>
       <c r="AZ5">
         <v>129755.8272434985</v>
       </c>
       <c r="BA5">
-        <v>137243.62082870211</v>
+        <v>137243.6208287021</v>
       </c>
       <c r="BB5">
         <v>144258.090876006</v>
       </c>
       <c r="BC5">
-        <v>150913.56980549431</v>
+        <v>150913.5698054943</v>
       </c>
       <c r="BD5">
         <v>157372.7239309487</v>
       </c>
       <c r="BE5">
-        <v>163834.11090271751</v>
+        <v>163834.1109027175</v>
       </c>
       <c r="BF5">
-        <v>170516.70539637629</v>
+        <v>170516.7053963763</v>
       </c>
       <c r="BG5">
-        <v>177643.65383540929</v>
+        <v>177643.6538354093</v>
       </c>
       <c r="BH5">
-        <v>185427.42201458689</v>
+        <v>185427.4220145869</v>
       </c>
       <c r="BI5">
         <v>194057.6310668861</v>
       </c>
       <c r="BJ5">
-        <v>203691.77854911689</v>
+        <v>203691.7785491169</v>
       </c>
       <c r="BK5">
-        <v>214448.36350496809</v>
+        <v>214448.3635049681</v>
       </c>
       <c r="BL5">
-        <v>226401.96302338841</v>
+        <v>226401.9630233884</v>
       </c>
       <c r="BM5">
         <v>239580.2841502447</v>
       </c>
       <c r="BN5">
-        <v>253963.60602216641</v>
+        <v>253963.6060221664</v>
       </c>
       <c r="BO5">
-        <v>269486.99378112191</v>
+        <v>269486.9937811219</v>
       </c>
       <c r="BP5">
-        <v>286045.29632522759</v>
+        <v>286045.2963252276</v>
       </c>
       <c r="BQ5">
-        <v>303500.56769879191</v>
+        <v>303500.5676987919</v>
       </c>
       <c r="BR5">
-        <v>321691.39994793519</v>
+        <v>321691.3999479352</v>
       </c>
       <c r="BS5">
-        <v>340443.67180374678</v>
+        <v>340443.6718037468</v>
       </c>
       <c r="BT5">
-        <v>359582.20705821819</v>
+        <v>359582.2070582182</v>
       </c>
       <c r="BU5">
-        <v>378942.68976649432</v>
+        <v>378942.6897664943</v>
       </c>
       <c r="BV5">
-        <v>398382.97579532838</v>
+        <v>398382.9757953284</v>
       </c>
       <c r="BW5">
-        <v>417792.84448385087</v>
+        <v>417792.8444838509</v>
       </c>
       <c r="BX5">
         <v>437101.3598022057</v>
       </c>
       <c r="BY5">
-        <v>456281.31318861147</v>
+        <v>456281.3131886115</v>
       </c>
       <c r="BZ5">
-        <v>475350.55148765648</v>
+        <v>475350.5514876565</v>
       </c>
       <c r="CA5">
-        <v>494370.23314766493</v>
+        <v>494370.2331476649</v>
       </c>
       <c r="CB5">
-        <v>513440.20336604922</v>
+        <v>513440.2033660492</v>
       </c>
       <c r="CC5">
-        <v>532691.82013094344</v>
+        <v>532691.8201309434</v>
       </c>
       <c r="CD5">
-        <v>552278.75690978963</v>
+        <v>552278.7569097896</v>
       </c>
       <c r="CE5">
-        <v>572366.51769317477</v>
+        <v>572366.5176931748</v>
       </c>
       <c r="CF5">
-        <v>593121.53187295771</v>
+        <v>593121.5318729577</v>
       </c>
       <c r="CG5">
-        <v>614700.68676439184</v>
+        <v>614700.6867643918</v>
       </c>
       <c r="CH5">
-        <v>637242.02215699025</v>
+        <v>637242.0221569902</v>
       </c>
       <c r="CI5">
-        <v>660857.12326111051</v>
+        <v>660857.1232611105</v>
       </c>
       <c r="CJ5">
-        <v>685625.56947933102</v>
+        <v>685625.569479331</v>
       </c>
       <c r="CK5">
-        <v>711591.64922939369</v>
+        <v>711591.6492293937</v>
       </c>
       <c r="CL5">
-        <v>738763.42148084845</v>
+        <v>738763.4214808485</v>
       </c>
       <c r="CM5">
-        <v>767114.07406274613</v>
+        <v>767114.0740627461</v>
       </c>
     </row>
   </sheetData>
